--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA0C93-6C65-4040-ABA6-C0241CB81692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238A57F3-8A5C-4FE5-9DEB-CFE44CD8A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,12 +353,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -853,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165FA77-31DD-4330-BECC-4D64D4EAFB80}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -874,8 +868,8 @@
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>142</v>
+      <c r="D2" s="4">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -895,7 +889,7 @@
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>3464800</v>
+        <v>3367200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -926,7 +920,7 @@
       </c>
       <c r="D7" s="1">
         <f>D4+D6-D5</f>
-        <v>3425978</v>
+        <v>3328378</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1027,17 +1021,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140BE28-398D-4CC8-A7C9-E94B6BC720A8}">
   <dimension ref="A1:EM63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q27" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z63" sqref="Z63"/>
+      <selection pane="bottomRight" activeCell="Y59" sqref="Y59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="1"/>
     <col min="6" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
@@ -1345,47 +1339,47 @@
         <v>40191.867187199998</v>
       </c>
       <c r="L8" s="1">
-        <f>L6-L7</f>
+        <f t="shared" ref="L8:V8" si="5">L6-L7</f>
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <f>M6-M7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <f>N6-N7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f>O6-O7</f>
+        <f t="shared" si="5"/>
         <v>15356</v>
       </c>
       <c r="P8" s="1">
-        <f>P6-P7</f>
+        <f t="shared" si="5"/>
         <v>44301</v>
       </c>
       <c r="Q8" s="1">
-        <f>Q6-Q7</f>
+        <f t="shared" si="5"/>
         <v>97858</v>
       </c>
       <c r="R8" s="1">
-        <f>R6-R7</f>
+        <f t="shared" si="5"/>
         <v>136378.8591872</v>
       </c>
       <c r="S8" s="1">
-        <f>S6-S7</f>
+        <f t="shared" si="5"/>
         <v>191686.59263999999</v>
       </c>
       <c r="T8" s="1">
-        <f>T6-T7</f>
+        <f t="shared" si="5"/>
         <v>256860.03413760004</v>
       </c>
       <c r="U8" s="1">
-        <f>U6-U7</f>
+        <f t="shared" si="5"/>
         <v>344192.44574438408</v>
       </c>
       <c r="V8" s="1">
-        <f>V6-V7</f>
+        <f t="shared" si="5"/>
         <v>461217.87729747471</v>
       </c>
       <c r="Z8" s="3"/>
@@ -1441,19 +1435,19 @@
         <v>3497</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:G11" si="5">SUM(D9:D10)</f>
+        <f t="shared" ref="D11:G11" si="6">SUM(D9:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5030</v>
       </c>
       <c r="H11" s="1">
@@ -1461,11 +1455,11 @@
         <v>7820.0000000000009</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" ref="I11:J11" si="6">I6*I27</f>
+        <f t="shared" ref="I11:J11" si="7">I6*I27</f>
         <v>8445.6</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9121.2480000000014</v>
       </c>
       <c r="L11" s="1">
@@ -1477,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:Q11" si="7">SUM(N9:N10)</f>
+        <f t="shared" ref="N11:Q11" si="8">SUM(N9:N10)</f>
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9779</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11329</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16405</v>
       </c>
       <c r="R11" s="11">
@@ -1497,19 +1491,19 @@
         <v>30416.847999999998</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" ref="S11:V11" si="8">S6*S27</f>
+        <f t="shared" ref="S11:V11" si="9">S6*S27</f>
         <v>41445.749760000006</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55537.304678400011</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74419.988269056019</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>99722.784280535081</v>
       </c>
       <c r="Z11" s="3"/>
@@ -1523,31 +1517,31 @@
         <v>16909</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:J12" si="9">D8-D11</f>
+        <f t="shared" ref="D12:J12" si="10">D8-D11</f>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>39300</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21552</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25300</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28039.392</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31070.619187199998</v>
       </c>
       <c r="L12" s="1">
@@ -1559,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12:Q12" si="10">N8-N11</f>
+        <f t="shared" ref="N12:Q12" si="11">N8-N11</f>
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5577</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32972</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>81453</v>
       </c>
       <c r="R12" s="1">
@@ -1579,19 +1573,19 @@
         <v>105962.0111872</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" ref="S12:V12" si="11">S8-S11</f>
+        <f t="shared" ref="S12:V12" si="12">S8-S11</f>
         <v>150240.84287999998</v>
       </c>
       <c r="T12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>201322.72945920003</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>269772.45747532806</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>361495.09301693965</v>
       </c>
       <c r="Z12" s="3"/>
@@ -1693,15 +1687,15 @@
         <v>0</v>
       </c>
       <c r="T14" s="1">
-        <f t="shared" ref="S14:V14" si="12">S14*1.02</f>
+        <f t="shared" ref="T14:V14" si="13">S14*1.02</f>
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z14" s="3"/>
@@ -1715,31 +1709,31 @@
         <v>17279</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:J15" si="13">D12+SUM(D13:D14)</f>
+        <f t="shared" ref="D15:J15" si="14">D12+SUM(D13:D14)</f>
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>39300</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>21824</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25882.33</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28945.898183249999</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32339.672745195203</v>
       </c>
       <c r="L15" s="1">
@@ -1751,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" ref="N15:Q15" si="14">N12+SUM(N13:N14)</f>
+        <f t="shared" ref="N15:Q15" si="15">N12+SUM(N13:N14)</f>
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5534</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>33818</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>84026</v>
       </c>
       <c r="R15" s="1">
@@ -1771,19 +1765,19 @@
         <v>108991.9009284452</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" ref="S15:V15" si="15">S12+SUM(S13:S14)</f>
+        <f t="shared" ref="S15:V15" si="16">S12+SUM(S13:S14)</f>
         <v>152263.5562644747</v>
       </c>
       <c r="T15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>203466.80564674322</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>272045.17823412386</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>363904.17702126317</v>
       </c>
     </row>
@@ -1802,11 +1796,11 @@
         <v>4270.5844500000003</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:J16" si="16">I15*I23</f>
+        <f t="shared" ref="I16:J16" si="17">I15*I23</f>
         <v>4776.0732002362502</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5336.0460029572087</v>
       </c>
       <c r="O16" s="1">
@@ -1823,19 +1817,19 @@
         <v>17517.703653193461</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" ref="S16:V16" si="17">S15*S23</f>
+        <f t="shared" ref="S16:V16" si="18">S15*S23</f>
         <v>25884.804564960701</v>
       </c>
       <c r="T16" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>34589.356959946352</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>46247.680299801061</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>61863.71009361474</v>
       </c>
     </row>
@@ -1848,31 +1842,31 @@
         <v>14881</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" ref="D17:J17" si="18">D15-D16</f>
+        <f t="shared" ref="D17:J17" si="19">D15-D16</f>
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>39300</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>18689</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>21611.74555</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>24169.82498301375</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>27003.626742237993</v>
       </c>
       <c r="L17" s="3">
@@ -1884,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" ref="N17:Q17" si="19">N15-N16</f>
+        <f t="shared" ref="N17:Q17" si="20">N15-N16</f>
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5721</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>29760</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>72880</v>
       </c>
       <c r="R17" s="3">
@@ -1904,503 +1898,503 @@
         <v>91474.197275251747</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" ref="S17:V17" si="20">S15-S16</f>
+        <f t="shared" ref="S17:V17" si="21">S15-S16</f>
         <v>126378.75169951399</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>168877.44868679688</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>225797.4979343228</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>302040.46692764841</v>
       </c>
       <c r="W17" s="3">
-        <f>V17*(1+$Y$56)</f>
+        <f t="shared" ref="W17:BB17" si="22">V17*(1+$Y$56)</f>
         <v>311101.68093547784</v>
       </c>
       <c r="X17" s="3">
-        <f>W17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>320434.7313635422</v>
       </c>
       <c r="Y17" s="3">
-        <f>X17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>330047.77330444846</v>
       </c>
       <c r="Z17" s="3">
-        <f>Y17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>339949.20650358195</v>
       </c>
       <c r="AA17" s="3">
-        <f>Z17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>350147.6826986894</v>
       </c>
       <c r="AB17" s="3">
-        <f>AA17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>360652.1131796501</v>
       </c>
       <c r="AC17" s="3">
-        <f>AB17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>371471.67657503963</v>
       </c>
       <c r="AD17" s="3">
-        <f>AC17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>382615.82687229081</v>
       </c>
       <c r="AE17" s="3">
-        <f>AD17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>394094.30167845957</v>
       </c>
       <c r="AF17" s="3">
-        <f>AE17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>405917.13072881335</v>
       </c>
       <c r="AG17" s="3">
-        <f>AF17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>418094.64465067774</v>
       </c>
       <c r="AH17" s="3">
-        <f>AG17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>430637.48399019806</v>
       </c>
       <c r="AI17" s="3">
-        <f>AH17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>443556.60850990401</v>
       </c>
       <c r="AJ17" s="3">
-        <f>AI17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>456863.30676520115</v>
       </c>
       <c r="AK17" s="3">
-        <f>AJ17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>470569.20596815721</v>
       </c>
       <c r="AL17" s="3">
-        <f>AK17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>484686.28214720194</v>
       </c>
       <c r="AM17" s="3">
-        <f>AL17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>499226.87061161804</v>
       </c>
       <c r="AN17" s="3">
-        <f>AM17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>514203.6767299666</v>
       </c>
       <c r="AO17" s="3">
-        <f>AN17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>529629.78703186556</v>
       </c>
       <c r="AP17" s="3">
-        <f>AO17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>545518.68064282159</v>
       </c>
       <c r="AQ17" s="3">
-        <f>AP17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>561884.24106210622</v>
       </c>
       <c r="AR17" s="3">
-        <f>AQ17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>578740.76829396945</v>
       </c>
       <c r="AS17" s="3">
-        <f>AR17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>596102.99134278856</v>
       </c>
       <c r="AT17" s="3">
-        <f>AS17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>613986.08108307223</v>
       </c>
       <c r="AU17" s="3">
-        <f>AT17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>632405.6635155644</v>
       </c>
       <c r="AV17" s="3">
-        <f>AU17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>651377.83342103136</v>
       </c>
       <c r="AW17" s="3">
-        <f>AV17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>670919.16842366231</v>
       </c>
       <c r="AX17" s="3">
-        <f>AW17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>691046.74347637221</v>
       </c>
       <c r="AY17" s="3">
-        <f>AX17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>711778.14578066336</v>
       </c>
       <c r="AZ17" s="3">
-        <f>AY17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>733131.49015408324</v>
       </c>
       <c r="BA17" s="3">
-        <f>AZ17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>755125.43485870573</v>
       </c>
       <c r="BB17" s="3">
-        <f>BA17*(1+$Y$56)</f>
+        <f t="shared" si="22"/>
         <v>777779.19790446688</v>
       </c>
       <c r="BC17" s="3">
-        <f>BB17*(1+$Y$56)</f>
+        <f t="shared" ref="BC17:CH17" si="23">BB17*(1+$Y$56)</f>
         <v>801112.57384160091</v>
       </c>
       <c r="BD17" s="3">
-        <f>BC17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>825145.95105684898</v>
       </c>
       <c r="BE17" s="3">
-        <f>BD17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>849900.32958855445</v>
       </c>
       <c r="BF17" s="3">
-        <f>BE17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>875397.33947621111</v>
       </c>
       <c r="BG17" s="3">
-        <f>BF17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>901659.25966049742</v>
       </c>
       <c r="BH17" s="3">
-        <f>BG17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>928709.0374503124</v>
       </c>
       <c r="BI17" s="3">
-        <f>BH17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>956570.30857382179</v>
       </c>
       <c r="BJ17" s="3">
-        <f>BI17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>985267.4178310365</v>
       </c>
       <c r="BK17" s="3">
-        <f>BJ17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1014825.4403659676</v>
       </c>
       <c r="BL17" s="3">
-        <f>BK17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1045270.2035769466</v>
       </c>
       <c r="BM17" s="3">
-        <f>BL17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1076628.3096842552</v>
       </c>
       <c r="BN17" s="3">
-        <f>BM17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1108927.1589747828</v>
       </c>
       <c r="BO17" s="3">
-        <f>BN17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1142194.9737440264</v>
       </c>
       <c r="BP17" s="3">
-        <f>BO17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1176460.8229563471</v>
       </c>
       <c r="BQ17" s="3">
-        <f>BP17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1211754.6476450376</v>
       </c>
       <c r="BR17" s="3">
-        <f>BQ17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1248107.2870743887</v>
       </c>
       <c r="BS17" s="3">
-        <f>BR17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1285550.5056866205</v>
       </c>
       <c r="BT17" s="3">
-        <f>BS17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1324117.0208572191</v>
       </c>
       <c r="BU17" s="3">
-        <f>BT17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1363840.5314829357</v>
       </c>
       <c r="BV17" s="3">
-        <f>BU17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1404755.7474274237</v>
       </c>
       <c r="BW17" s="3">
-        <f>BV17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1446898.4198502465</v>
       </c>
       <c r="BX17" s="3">
-        <f>BW17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1490305.372445754</v>
       </c>
       <c r="BY17" s="3">
-        <f>BX17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1535014.5336191268</v>
       </c>
       <c r="BZ17" s="3">
-        <f>BY17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1581064.9696277005</v>
       </c>
       <c r="CA17" s="3">
-        <f>BZ17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1628496.9187165315</v>
       </c>
       <c r="CB17" s="3">
-        <f>CA17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1677351.8262780274</v>
       </c>
       <c r="CC17" s="3">
-        <f>CB17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1727672.3810663682</v>
       </c>
       <c r="CD17" s="3">
-        <f>CC17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1779502.5524983592</v>
       </c>
       <c r="CE17" s="3">
-        <f>CD17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1832887.6290733099</v>
       </c>
       <c r="CF17" s="3">
-        <f>CE17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1887874.2579455094</v>
       </c>
       <c r="CG17" s="3">
-        <f>CF17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>1944510.4856838747</v>
       </c>
       <c r="CH17" s="3">
-        <f>CG17*(1+$Y$56)</f>
+        <f t="shared" si="23"/>
         <v>2002845.800254391</v>
       </c>
       <c r="CI17" s="3">
-        <f>CH17*(1+$Y$56)</f>
+        <f t="shared" ref="CI17:DN17" si="24">CH17*(1+$Y$56)</f>
         <v>2062931.1742620228</v>
       </c>
       <c r="CJ17" s="3">
-        <f>CI17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2124819.1094898838</v>
       </c>
       <c r="CK17" s="3">
-        <f>CJ17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2188563.6827745805</v>
       </c>
       <c r="CL17" s="3">
-        <f>CK17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2254220.5932578179</v>
       </c>
       <c r="CM17" s="3">
-        <f>CL17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2321847.2110555526</v>
       </c>
       <c r="CN17" s="3">
-        <f>CM17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2391502.6273872191</v>
       </c>
       <c r="CO17" s="3">
-        <f>CN17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2463247.7062088358</v>
       </c>
       <c r="CP17" s="3">
-        <f>CO17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2537145.1373951011</v>
       </c>
       <c r="CQ17" s="3">
-        <f>CP17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2613259.4915169543</v>
       </c>
       <c r="CR17" s="3">
-        <f>CQ17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2691657.2762624631</v>
       </c>
       <c r="CS17" s="3">
-        <f>CR17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2772406.9945503371</v>
       </c>
       <c r="CT17" s="3">
-        <f>CS17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2855579.2043868471</v>
       </c>
       <c r="CU17" s="3">
-        <f>CT17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>2941246.5805184525</v>
       </c>
       <c r="CV17" s="3">
-        <f>CU17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>3029483.9779340061</v>
       </c>
       <c r="CW17" s="3">
-        <f>CV17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>3120368.4972720263</v>
       </c>
       <c r="CX17" s="3">
-        <f>CW17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>3213979.5521901869</v>
       </c>
       <c r="CY17" s="3">
-        <f>CX17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>3310398.9387558927</v>
       </c>
       <c r="CZ17" s="3">
-        <f>CY17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>3409710.9069185695</v>
       </c>
       <c r="DA17" s="3">
-        <f>CZ17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>3512002.2341261269</v>
       </c>
       <c r="DB17" s="3">
-        <f>DA17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>3617362.3011499108</v>
       </c>
       <c r="DC17" s="3">
-        <f>DB17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>3725883.1701844083</v>
       </c>
       <c r="DD17" s="3">
-        <f>DC17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>3837659.6652899408</v>
       </c>
       <c r="DE17" s="3">
-        <f>DD17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>3952789.455248639</v>
       </c>
       <c r="DF17" s="3">
-        <f>DE17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>4071373.1389060984</v>
       </c>
       <c r="DG17" s="3">
-        <f>DF17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>4193514.3330732817</v>
       </c>
       <c r="DH17" s="3">
-        <f>DG17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>4319319.7630654806</v>
       </c>
       <c r="DI17" s="3">
-        <f>DH17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>4448899.3559574448</v>
       </c>
       <c r="DJ17" s="3">
-        <f>DI17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>4582366.336636168</v>
       </c>
       <c r="DK17" s="3">
-        <f>DJ17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>4719837.3267352534</v>
       </c>
       <c r="DL17" s="3">
-        <f>DK17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>4861432.4465373112</v>
       </c>
       <c r="DM17" s="3">
-        <f>DL17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>5007275.4199334309</v>
       </c>
       <c r="DN17" s="3">
-        <f>DM17*(1+$Y$56)</f>
+        <f t="shared" si="24"/>
         <v>5157493.6825314341</v>
       </c>
       <c r="DO17" s="3">
-        <f>DN17*(1+$Y$56)</f>
+        <f t="shared" ref="DO17:EM17" si="25">DN17*(1+$Y$56)</f>
         <v>5312218.4930073777</v>
       </c>
       <c r="DP17" s="3">
-        <f>DO17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>5471585.0477975989</v>
       </c>
       <c r="DQ17" s="3">
-        <f>DP17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>5635732.5992315272</v>
       </c>
       <c r="DR17" s="3">
-        <f>DQ17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>5804804.5772084733</v>
       </c>
       <c r="DS17" s="3">
-        <f>DR17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>5978948.7145247273</v>
       </c>
       <c r="DT17" s="3">
-        <f>DS17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>6158317.1759604691</v>
       </c>
       <c r="DU17" s="3">
-        <f>DT17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>6343066.6912392834</v>
       </c>
       <c r="DV17" s="3">
-        <f>DU17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>6533358.6919764625</v>
       </c>
       <c r="DW17" s="3">
-        <f>DV17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>6729359.4527357565</v>
       </c>
       <c r="DX17" s="3">
-        <f>DW17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>6931240.2363178292</v>
       </c>
       <c r="DY17" s="3">
-        <f>DX17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>7139177.4434073642</v>
       </c>
       <c r="DZ17" s="3">
-        <f>DY17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>7353352.7667095857</v>
       </c>
       <c r="EA17" s="3">
-        <f>DZ17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>7573953.3497108733</v>
       </c>
       <c r="EB17" s="3">
-        <f>EA17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>7801171.9502021996</v>
       </c>
       <c r="EC17" s="3">
-        <f>EB17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>8035207.1087082662</v>
       </c>
       <c r="ED17" s="3">
-        <f>EC17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>8276263.3219695147</v>
       </c>
       <c r="EE17" s="3">
-        <f>ED17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>8524551.2216286007</v>
       </c>
       <c r="EF17" s="3">
-        <f>EE17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>8780287.7582774591</v>
       </c>
       <c r="EG17" s="3">
-        <f>EF17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>9043696.3910257835</v>
       </c>
       <c r="EH17" s="3">
-        <f>EG17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>9315007.2827565577</v>
       </c>
       <c r="EI17" s="3">
-        <f>EH17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>9594457.5012392551</v>
       </c>
       <c r="EJ17" s="3">
-        <f>EI17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>9882291.2262764331</v>
       </c>
       <c r="EK17" s="3">
-        <f>EJ17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>10178759.963064726</v>
       </c>
       <c r="EL17" s="3">
-        <f>EK17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>10484122.761956669</v>
       </c>
       <c r="EM17" s="3">
-        <f>EL17*(1+$Y$56)</f>
+        <f t="shared" si="25"/>
         <v>10798646.444815369</v>
       </c>
     </row>
@@ -2419,11 +2413,11 @@
         <v>24487.945</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" ref="I18:J18" si="21">H18*0.995</f>
+        <f t="shared" ref="I18:J18" si="26">H18*0.995</f>
         <v>24365.505275</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>24243.677748624999</v>
       </c>
       <c r="O18" s="1">
@@ -2440,19 +2434,19 @@
         <v>24243.677748624999</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" ref="S18:V18" si="22">R18*0.99</f>
+        <f t="shared" ref="S18:V18" si="27">R18*0.99</f>
         <v>24001.240971138748</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>23761.228561427361</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>23523.616275813085</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>23288.380113054955</v>
       </c>
     </row>
@@ -2465,31 +2459,31 @@
         <v>0.5978706307754118</v>
       </c>
       <c r="D19" s="4" t="e">
-        <f t="shared" ref="D19:J19" si="23">D17/D18</f>
+        <f t="shared" ref="D19:J19" si="28">D17/D18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="4" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.75937588883019791</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.8825463120731446</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0.99196896227770714</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>1.1138420095428603</v>
       </c>
       <c r="O19" s="4">
@@ -2505,23 +2499,23 @@
         <v>2.9868852459016395</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" ref="R19:V19" si="24">R17/R18</f>
+        <f t="shared" ref="R19:V19" si="29">R17/R18</f>
         <v>3.7731155406254229</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>5.2655090564476721</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>7.1072692327425786</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>9.598757915741345</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>12.969578195708475</v>
       </c>
     </row>
@@ -2545,55 +2539,55 @@
         <v>0.68852710797112571</v>
       </c>
       <c r="H21" s="7" t="e">
-        <f t="shared" ref="H21:J21" si="25">H6/D6-1</f>
+        <f t="shared" ref="H21:J21" si="30">H6/D6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="7" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.36525190839694655</v>
       </c>
       <c r="M21" s="7" t="e">
-        <f>M6/L6-1</f>
+        <f t="shared" ref="M21:V21" si="31">M6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="7" t="e">
-        <f>N6/M6-1</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="7" t="e">
-        <f>O6/N6-1</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="7">
-        <f>P6/O6-1</f>
+        <f t="shared" si="31"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="Q21" s="7">
-        <f>Q6/P6-1</f>
+        <f t="shared" si="31"/>
         <v>1.1420340763599355</v>
       </c>
       <c r="R21" s="7">
-        <f>R6/Q6-1</f>
+        <f t="shared" si="31"/>
         <v>0.48133980091496342</v>
       </c>
       <c r="S21" s="7">
-        <f>S6/R6-1</f>
+        <f t="shared" si="31"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="T21" s="7">
-        <f>T6/S6-1</f>
+        <f t="shared" si="31"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="U21" s="7">
-        <f>U6/T6-1</f>
+        <f t="shared" si="31"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="V21" s="7">
-        <f>V6/U6-1</f>
+        <f t="shared" si="31"/>
         <v>0.34000000000000008</v>
       </c>
     </row>
@@ -2606,15 +2600,15 @@
         <v>0.11898218829516538</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" ref="H22:J22" si="26">H6/G6-1</f>
+        <f t="shared" ref="H22:J22" si="32">H6/G6-1</f>
         <v>4.6025104602510414E-2</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
@@ -2627,19 +2621,19 @@
         <v>0.13878117946640431</v>
       </c>
       <c r="D23" s="5" t="e">
-        <f t="shared" ref="D23:G23" si="27">D16/D15</f>
+        <f t="shared" ref="D23:G23" si="33">D16/D15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E23" s="5" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.14364919354838709</v>
       </c>
       <c r="H23" s="13">
@@ -2656,23 +2650,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="5" t="e">
-        <f t="shared" ref="N23:R23" si="28">N16/N15</f>
+        <f t="shared" ref="N23:R23" si="34">N16/N15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-3.379110950487893E-2</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.1199952687917677</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.13264941803727417</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.16072481995422847</v>
       </c>
       <c r="S23" s="5">
@@ -2697,19 +2691,19 @@
         <v>0.78352019659038552</v>
       </c>
       <c r="D25" s="7" t="e">
-        <f t="shared" ref="D25:G25" si="29">D8/D6</f>
+        <f t="shared" ref="D25:G25" si="35">D8/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="7" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.604466072403129</v>
       </c>
       <c r="H25" s="7">
@@ -2724,27 +2718,27 @@
         <v>0.74908799999999998</v>
       </c>
       <c r="M25" s="7" t="e">
-        <f>M8/M6</f>
+        <f t="shared" ref="M25:R25" si="36">M8/M6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="7" t="e">
-        <f>N8/N6</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="7">
-        <f>O8/O6</f>
+        <f t="shared" si="36"/>
         <v>0.56928894490991322</v>
       </c>
       <c r="P25" s="7">
-        <f>P8/P6</f>
+        <f t="shared" si="36"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="Q25" s="7">
-        <f>Q8/Q6</f>
+        <f t="shared" si="36"/>
         <v>0.74988697058169917</v>
       </c>
       <c r="R25" s="7">
-        <f>R8/R6</f>
+        <f t="shared" si="36"/>
         <v>0.70549157824514352</v>
       </c>
       <c r="S25" s="7">
@@ -2770,65 +2764,65 @@
         <v>0.64924742743050223</v>
       </c>
       <c r="D26" s="5" t="e">
-        <f t="shared" ref="D26:J26" si="30">D12/D6</f>
+        <f t="shared" ref="D26:J26" si="37">D12/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="5" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.49008550118246313</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.56440000000000001</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.57908799999999994</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5">
-        <f>O12/O6</f>
+        <f t="shared" ref="O26:V26" si="38">O12/O6</f>
         <v>0.20675465262845702</v>
       </c>
       <c r="P26" s="5">
-        <f>P12/P6</f>
+        <f t="shared" si="38"/>
         <v>0.54121663766783756</v>
       </c>
       <c r="Q26" s="5">
-        <f>Q12/Q6</f>
+        <f t="shared" si="38"/>
         <v>0.62417526839697468</v>
       </c>
       <c r="R26" s="5">
-        <f>R12/R6</f>
+        <f t="shared" si="38"/>
         <v>0.54814438947516531</v>
       </c>
       <c r="S26" s="5">
-        <f>S12/S6</f>
+        <f t="shared" si="38"/>
         <v>0.57999999999999985</v>
       </c>
       <c r="T26" s="5">
-        <f>T12/T6</f>
+        <f t="shared" si="38"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="U26" s="5">
-        <f>U12/U6</f>
+        <f t="shared" si="38"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="V26" s="5">
-        <f>V12/V6</f>
+        <f t="shared" si="38"/>
         <v>0.57999999999999996</v>
       </c>
     </row>
@@ -2841,19 +2835,19 @@
         <v>0.13427276915988329</v>
       </c>
       <c r="D27" s="5" t="e">
-        <f t="shared" ref="D27:G27" si="31">D11/D6</f>
+        <f t="shared" ref="D27:G27" si="39">D11/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="5" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0.11438057122066582</v>
       </c>
       <c r="H27" s="5">
@@ -2929,11 +2923,11 @@
         <v>60433.74555</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" ref="I30:J30" si="32">H30+I17</f>
+        <f t="shared" ref="I30:J30" si="40">H30+I17</f>
         <v>84603.570533013757</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>111607.19727525175</v>
       </c>
       <c r="Q30" s="1">
@@ -3075,43 +3069,43 @@
         <v>37</v>
       </c>
       <c r="M45" s="1">
-        <f>M17</f>
+        <f t="shared" ref="M45:V45" si="41">M17</f>
         <v>0</v>
       </c>
       <c r="N45" s="1">
-        <f>N17</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O45" s="1">
-        <f>O17</f>
+        <f t="shared" si="41"/>
         <v>5721</v>
       </c>
       <c r="P45" s="1">
-        <f>P17</f>
+        <f t="shared" si="41"/>
         <v>29760</v>
       </c>
       <c r="Q45" s="1">
-        <f>Q17</f>
+        <f t="shared" si="41"/>
         <v>72880</v>
       </c>
       <c r="R45" s="1">
-        <f>R17</f>
+        <f t="shared" si="41"/>
         <v>91474.197275251747</v>
       </c>
       <c r="S45" s="1">
-        <f>S17</f>
+        <f t="shared" si="41"/>
         <v>126378.75169951399</v>
       </c>
       <c r="T45" s="1">
-        <f>T17</f>
+        <f t="shared" si="41"/>
         <v>168877.44868679688</v>
       </c>
       <c r="U45" s="1">
-        <f>U17</f>
+        <f t="shared" si="41"/>
         <v>225797.4979343228</v>
       </c>
       <c r="V45" s="1">
-        <f>V17</f>
+        <f t="shared" si="41"/>
         <v>302040.46692764841</v>
       </c>
     </row>
@@ -3144,19 +3138,19 @@
         <v>5684.4</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" ref="S47:V47" si="33">R47*1.2</f>
+        <f t="shared" ref="S47:V47" si="42">R47*1.2</f>
         <v>6821.28</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>8185.5359999999991</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>9822.6431999999986</v>
       </c>
       <c r="V47" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="42"/>
         <v>11787.171839999997</v>
       </c>
     </row>
@@ -3176,19 +3170,19 @@
         <v>2761.217388905492</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" ref="S48:V48" si="34">R48*(1+S21)</f>
+        <f t="shared" ref="S48:V48" si="43">R48*(1+S21)</f>
         <v>3700.0313011333596</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>4958.0419435187023</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>6643.7762043150615</v>
       </c>
       <c r="V48" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>8902.6601137821835</v>
       </c>
     </row>
@@ -3395,19 +3389,19 @@
         <v>6337.1716683142131</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" ref="S56:V56" si="35">R56*(1+S21)</f>
+        <f t="shared" ref="S56:V56" si="44">R56*(1+S21)</f>
         <v>8491.8100355410461</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>11379.025447625003</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>15247.894099817504</v>
       </c>
       <c r="V56" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>20432.178093755458</v>
       </c>
       <c r="X56" s="1" t="s">
@@ -3432,19 +3426,19 @@
         <v>1808.7158969171703</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" ref="S57:V57" si="36">R57*(1+S21)</f>
+        <f t="shared" ref="S57:V57" si="45">R57*(1+S21)</f>
         <v>2423.6793018690082</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>3247.7302645044711</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>4351.9585544359916</v>
       </c>
       <c r="V57" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="45"/>
         <v>5831.624462944229</v>
       </c>
       <c r="X57" s="1" t="s">
@@ -3471,19 +3465,19 @@
         <v>108245.70222938863</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" ref="S58:V58" si="37">SUM(S47:S57,S45)</f>
+        <f t="shared" ref="S58:V58" si="46">SUM(S47:S57,S45)</f>
         <v>147815.5523380574</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>196647.78234244505</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>261863.76999289135</v>
       </c>
       <c r="V58" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>348994.10143813025</v>
       </c>
       <c r="X58" s="1" t="s">
@@ -3498,7 +3492,7 @@
       <c r="X59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="Y59" s="4">
         <f>Y58/main!D3</f>
         <v>169.33052160398159</v>
       </c>
@@ -3518,7 +3512,7 @@
       </c>
       <c r="Y60" s="5">
         <f>Y59/main!D2-1</f>
-        <v>0.19246846199987044</v>
+        <v>0.22703276524624338</v>
       </c>
     </row>
     <row r="61" spans="1:125" x14ac:dyDescent="0.2">
@@ -3538,19 +3532,19 @@
         <v>-4793.6155957608216</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" ref="S61:V61" si="38">R61*(1+S21)</f>
+        <f t="shared" ref="S61:V61" si="47">R61*(1+S21)</f>
         <v>-6423.4448983195016</v>
       </c>
       <c r="T61" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>-8607.416163748132</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>-11533.937659422498</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>-15455.476463626148</v>
       </c>
     </row>
@@ -3568,435 +3562,435 @@
         <v>60853</v>
       </c>
       <c r="R63" s="3">
-        <f t="shared" ref="R63:V63" si="39">R58+R61</f>
+        <f t="shared" ref="R63:V63" si="48">R58+R61</f>
         <v>103452.0866336278</v>
       </c>
       <c r="S63" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>141392.10743973791</v>
       </c>
       <c r="T63" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>188040.36617869692</v>
       </c>
       <c r="U63" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>250329.83233346886</v>
       </c>
       <c r="V63" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>333538.62497450411</v>
       </c>
       <c r="W63" s="3">
-        <f>V63*(1+$Y$56)</f>
+        <f t="shared" ref="W63:BB63" si="49">V63*(1+$Y$56)</f>
         <v>343544.78372373927</v>
       </c>
       <c r="X63" s="3">
-        <f>W63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>353851.12723545148</v>
       </c>
       <c r="Y63" s="3">
-        <f>X63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>364466.66105251503</v>
       </c>
       <c r="Z63" s="3">
-        <f>Y63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>375400.66088409047</v>
       </c>
       <c r="AA63" s="3">
-        <f>Z63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>386662.6807106132</v>
       </c>
       <c r="AB63" s="3">
-        <f>AA63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>398262.56113193161</v>
       </c>
       <c r="AC63" s="3">
-        <f>AB63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>410210.43796588958</v>
       </c>
       <c r="AD63" s="3">
-        <f>AC63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>422516.75110486627</v>
       </c>
       <c r="AE63" s="3">
-        <f>AD63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>435192.25363801228</v>
       </c>
       <c r="AF63" s="3">
-        <f>AE63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>448248.02124715265</v>
       </c>
       <c r="AG63" s="3">
-        <f>AF63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>461695.46188456722</v>
       </c>
       <c r="AH63" s="3">
-        <f>AG63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>475546.32574110426</v>
       </c>
       <c r="AI63" s="3">
-        <f>AH63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>489812.7155133374</v>
       </c>
       <c r="AJ63" s="3">
-        <f>AI63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>504507.09697873757</v>
       </c>
       <c r="AK63" s="3">
-        <f>AJ63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>519642.30988809973</v>
       </c>
       <c r="AL63" s="3">
-        <f>AK63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>535231.57918474276</v>
       </c>
       <c r="AM63" s="3">
-        <f>AL63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>551288.52656028501</v>
       </c>
       <c r="AN63" s="3">
-        <f>AM63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>567827.18235709355</v>
       </c>
       <c r="AO63" s="3">
-        <f>AN63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>584861.99782780639</v>
       </c>
       <c r="AP63" s="3">
-        <f>AO63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>602407.85776264057</v>
       </c>
       <c r="AQ63" s="3">
-        <f>AP63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>620480.09349551983</v>
       </c>
       <c r="AR63" s="3">
-        <f>AQ63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>639094.49630038545</v>
       </c>
       <c r="AS63" s="3">
-        <f>AR63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>658267.33118939702</v>
       </c>
       <c r="AT63" s="3">
-        <f>AS63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>678015.35112507897</v>
       </c>
       <c r="AU63" s="3">
-        <f>AT63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>698355.81165883131</v>
       </c>
       <c r="AV63" s="3">
-        <f>AU63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>719306.48600859626</v>
       </c>
       <c r="AW63" s="3">
-        <f>AV63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>740885.68058885413</v>
       </c>
       <c r="AX63" s="3">
-        <f>AW63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>763112.25100651977</v>
       </c>
       <c r="AY63" s="3">
-        <f>AX63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>786005.6185367154</v>
       </c>
       <c r="AZ63" s="3">
-        <f>AY63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>809585.7870928169</v>
       </c>
       <c r="BA63" s="3">
-        <f>AZ63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>833873.3607056014</v>
       </c>
       <c r="BB63" s="3">
-        <f>BA63*(1+$Y$56)</f>
+        <f t="shared" si="49"/>
         <v>858889.56152676942</v>
       </c>
       <c r="BC63" s="3">
-        <f>BB63*(1+$Y$56)</f>
+        <f t="shared" ref="BC63:CH63" si="50">BB63*(1+$Y$56)</f>
         <v>884656.24837257247</v>
       </c>
       <c r="BD63" s="3">
-        <f>BC63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>911195.93582374963</v>
       </c>
       <c r="BE63" s="3">
-        <f>BD63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>938531.8138984621</v>
       </c>
       <c r="BF63" s="3">
-        <f>BE63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>966687.76831541595</v>
       </c>
       <c r="BG63" s="3">
-        <f>BF63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>995688.4013648784</v>
       </c>
       <c r="BH63" s="3">
-        <f>BG63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1025559.0534058248</v>
       </c>
       <c r="BI63" s="3">
-        <f>BH63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1056325.8250079995</v>
       </c>
       <c r="BJ63" s="3">
-        <f>BI63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1088015.5997582395</v>
       </c>
       <c r="BK63" s="3">
-        <f>BJ63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1120656.0677509867</v>
       </c>
       <c r="BL63" s="3">
-        <f>BK63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1154275.7497835164</v>
       </c>
       <c r="BM63" s="3">
-        <f>BL63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1188904.022277022</v>
       </c>
       <c r="BN63" s="3">
-        <f>BM63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1224571.1429453327</v>
       </c>
       <c r="BO63" s="3">
-        <f>BN63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1261308.2772336926</v>
       </c>
       <c r="BP63" s="3">
-        <f>BO63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1299147.5255507033</v>
       </c>
       <c r="BQ63" s="3">
-        <f>BP63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1338121.9513172244</v>
       </c>
       <c r="BR63" s="3">
-        <f>BQ63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1378265.6098567413</v>
       </c>
       <c r="BS63" s="3">
-        <f>BR63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1419613.5781524435</v>
       </c>
       <c r="BT63" s="3">
-        <f>BS63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1462201.9854970169</v>
       </c>
       <c r="BU63" s="3">
-        <f>BT63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1506068.0450619275</v>
       </c>
       <c r="BV63" s="3">
-        <f>BU63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1551250.0864137853</v>
       </c>
       <c r="BW63" s="3">
-        <f>BV63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1597787.589006199</v>
       </c>
       <c r="BX63" s="3">
-        <f>BW63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1645721.2166763851</v>
       </c>
       <c r="BY63" s="3">
-        <f>BX63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1695092.8531766767</v>
       </c>
       <c r="BZ63" s="3">
-        <f>BY63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1745945.638771977</v>
       </c>
       <c r="CA63" s="3">
-        <f>BZ63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1798324.0079351363</v>
       </c>
       <c r="CB63" s="3">
-        <f>CA63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1852273.7281731905</v>
       </c>
       <c r="CC63" s="3">
-        <f>CB63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1907841.9400183863</v>
       </c>
       <c r="CD63" s="3">
-        <f>CC63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>1965077.198218938</v>
       </c>
       <c r="CE63" s="3">
-        <f>CD63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>2024029.5141655062</v>
       </c>
       <c r="CF63" s="3">
-        <f>CE63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>2084750.3995904715</v>
       </c>
       <c r="CG63" s="3">
-        <f>CF63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>2147292.9115781859</v>
       </c>
       <c r="CH63" s="3">
-        <f>CG63*(1+$Y$56)</f>
+        <f t="shared" si="50"/>
         <v>2211711.6989255315</v>
       </c>
       <c r="CI63" s="3">
-        <f>CH63*(1+$Y$56)</f>
+        <f t="shared" ref="CI63:DN63" si="51">CH63*(1+$Y$56)</f>
         <v>2278063.0498932973</v>
       </c>
       <c r="CJ63" s="3">
-        <f>CI63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>2346404.9413900962</v>
       </c>
       <c r="CK63" s="3">
-        <f>CJ63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>2416797.0896317991</v>
       </c>
       <c r="CL63" s="3">
-        <f>CK63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>2489301.0023207534</v>
       </c>
       <c r="CM63" s="3">
-        <f>CL63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>2563980.0323903761</v>
       </c>
       <c r="CN63" s="3">
-        <f>CM63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>2640899.4333620872</v>
       </c>
       <c r="CO63" s="3">
-        <f>CN63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>2720126.4163629501</v>
       </c>
       <c r="CP63" s="3">
-        <f>CO63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>2801730.2088538385</v>
       </c>
       <c r="CQ63" s="3">
-        <f>CP63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>2885782.1151194535</v>
       </c>
       <c r="CR63" s="3">
-        <f>CQ63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>2972355.5785730374</v>
       </c>
       <c r="CS63" s="3">
-        <f>CR63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>3061526.2459302284</v>
       </c>
       <c r="CT63" s="3">
-        <f>CS63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>3153372.0333081353</v>
       </c>
       <c r="CU63" s="3">
-        <f>CT63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>3247973.1943073794</v>
       </c>
       <c r="CV63" s="3">
-        <f>CU63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>3345412.3901366009</v>
       </c>
       <c r="CW63" s="3">
-        <f>CV63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>3445774.7618406992</v>
       </c>
       <c r="CX63" s="3">
-        <f>CW63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>3549148.0046959203</v>
       </c>
       <c r="CY63" s="3">
-        <f>CX63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>3655622.4448367981</v>
       </c>
       <c r="CZ63" s="3">
-        <f>CY63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>3765291.118181902</v>
       </c>
       <c r="DA63" s="3">
-        <f>CZ63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>3878249.851727359</v>
       </c>
       <c r="DB63" s="3">
-        <f>DA63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>3994597.3472791798</v>
       </c>
       <c r="DC63" s="3">
-        <f>DB63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>4114435.2676975555</v>
       </c>
       <c r="DD63" s="3">
-        <f>DC63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>4237868.3257284826</v>
       </c>
       <c r="DE63" s="3">
-        <f>DD63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>4365004.3755003372</v>
       </c>
       <c r="DF63" s="3">
-        <f>DE63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>4495954.5067653479</v>
       </c>
       <c r="DG63" s="3">
-        <f>DF63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>4630833.141968308</v>
       </c>
       <c r="DH63" s="3">
-        <f>DG63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>4769758.1362273572</v>
       </c>
       <c r="DI63" s="3">
-        <f>DH63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>4912850.8803141778</v>
       </c>
       <c r="DJ63" s="3">
-        <f>DI63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>5060236.4067236036</v>
       </c>
       <c r="DK63" s="3">
-        <f>DJ63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>5212043.4989253115</v>
       </c>
       <c r="DL63" s="3">
-        <f>DK63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>5368404.8038930707</v>
       </c>
       <c r="DM63" s="3">
-        <f>DL63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>5529456.9480098626</v>
       </c>
       <c r="DN63" s="3">
-        <f>DM63*(1+$Y$56)</f>
+        <f t="shared" si="51"/>
         <v>5695340.6564501589</v>
       </c>
       <c r="DO63" s="3">
-        <f>DN63*(1+$Y$56)</f>
+        <f t="shared" ref="DO63:DU63" si="52">DN63*(1+$Y$56)</f>
         <v>5866200.8761436641</v>
       </c>
       <c r="DP63" s="3">
-        <f>DO63*(1+$Y$56)</f>
+        <f t="shared" si="52"/>
         <v>6042186.9024279742</v>
       </c>
       <c r="DQ63" s="3">
-        <f>DP63*(1+$Y$56)</f>
+        <f t="shared" si="52"/>
         <v>6223452.5095008137</v>
       </c>
       <c r="DR63" s="3">
-        <f>DQ63*(1+$Y$56)</f>
+        <f t="shared" si="52"/>
         <v>6410156.0847858386</v>
       </c>
       <c r="DS63" s="3">
-        <f>DR63*(1+$Y$56)</f>
+        <f t="shared" si="52"/>
         <v>6602460.7673294144</v>
       </c>
       <c r="DT63" s="3">
-        <f>DS63*(1+$Y$56)</f>
+        <f t="shared" si="52"/>
         <v>6800534.590349297</v>
       </c>
       <c r="DU63" s="3">
-        <f>DT63*(1+$Y$56)</f>
+        <f t="shared" si="52"/>
         <v>7004550.6280597765</v>
       </c>
     </row>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238A57F3-8A5C-4FE5-9DEB-CFE44CD8A80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65FCF64-D508-48E2-856F-7AAE21F2BE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="2970" yWindow="645" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
-  <si>
-    <t>NVDA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>Price</t>
   </si>
@@ -328,20 +325,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -349,6 +333,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -374,23 +373,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,171 +842,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165FA77-31DD-4330-BECC-4D64D4EAFB80}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="10.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="9" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="3" width="9.140625" style="11"/>
+    <col min="4" max="4" width="10.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="11" customWidth="1"/>
+    <col min="6" max="14" width="9.140625" style="11"/>
+    <col min="15" max="15" width="10.42578125" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="9" t="s">
+      <c r="O3" s="2">
+        <v>24400</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>24400</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="9" t="s">
+      <c r="O4" s="2">
+        <f>O3*O2</f>
+        <v>3538000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2022</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <f>D3*D2</f>
-        <v>3367200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="9" t="s">
+      <c r="O5" s="2">
+        <v>53691</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>53691</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="9" t="s">
+      <c r="O6" s="2">
+        <v>14869</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>14869</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <f>D4+D6-D5</f>
-        <v>3328378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="O7" s="2">
+        <f>O4+O6-O5</f>
+        <v>3499178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D9" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D13" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D14" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" s="12" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D15" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" s="12" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D16" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="12" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="12" t="s">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="12" t="s">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="12" t="s">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="12" t="s">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="12" t="s">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="12" t="s">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="12" t="s">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="11" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="12" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1021,1518 +1014,1518 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140BE28-398D-4CC8-A7C9-E94B6BC720A8}">
   <dimension ref="A1:EM63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y59" sqref="Y59"/>
+      <selection pane="bottomRight" activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
-    <col min="6" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="24" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="119" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="120" max="143" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="2"/>
+    <col min="6" max="10" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="24" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="119" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="120" max="143" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="144" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="2">
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="3">
         <v>2020</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="3">
         <v>2021</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="3">
         <f>M1+1</f>
         <v>2022</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="3">
         <f t="shared" ref="O1:V1" si="0">N1+1</f>
         <v>2023</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="3">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="3">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="3">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="3">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="3">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="3">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="3">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1">
+    <row r="2" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="2">
         <v>567</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2">
         <v>509</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2">
         <v>3800</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="2">
         <f>39100</f>
         <v>39100</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
         <v>26044</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>39300</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <f>SUM(G2:G5)</f>
         <v>43976</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4">
         <v>46000</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <f t="shared" ref="I6:J6" si="1">H6*1.08</f>
         <v>49680</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>53654.400000000001</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="4">
         <v>26974</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4">
         <v>60922</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>130497</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="4">
         <f>SUM(G6:J6)</f>
         <v>193310.4</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="4">
         <f>R6*1.34</f>
         <v>259035.93600000002</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="4">
         <f t="shared" ref="T6:V6" si="2">S6*1.34</f>
         <v>347108.15424000006</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="4">
         <f t="shared" si="2"/>
         <v>465124.9266816001</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="4">
         <f t="shared" si="2"/>
         <v>623267.40175334422</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
         <v>5638</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>17394</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f>H6*(1-H25)</f>
         <v>12880.000000000002</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <f t="shared" ref="I7:J7" si="3">I6*(1-I25)</f>
         <v>13195.008000000003</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <f t="shared" si="3"/>
         <v>13462.532812800002</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
         <v>11618</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="2">
         <v>16621</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2">
         <v>32639</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="2">
         <f>SUM(G7:J7)</f>
         <v>56931.540812800005</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="2">
         <f>S6*(1-S25)</f>
         <v>67349.343360000013</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="2">
         <f>T6*(1-T25)</f>
         <v>90248.120102400018</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="2">
         <f>U6*(1-U25)</f>
         <v>120932.48093721604</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="2">
         <f>V6*(1-V25)</f>
         <v>162049.52445586951</v>
       </c>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
         <f>C6-C7</f>
         <v>20406</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f t="shared" ref="D8:J8" si="4">D6-D7</f>
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <f t="shared" si="4"/>
         <v>39300</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <f t="shared" si="4"/>
         <v>26582</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f t="shared" si="4"/>
         <v>33120</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <f t="shared" si="4"/>
         <v>36484.991999999998</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <f t="shared" si="4"/>
         <v>40191.867187199998</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <f t="shared" ref="L8:V8" si="5">L6-L7</f>
         <v>0</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <f t="shared" si="5"/>
         <v>15356</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="2">
         <f t="shared" si="5"/>
         <v>44301</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <f t="shared" si="5"/>
         <v>97858</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="2">
         <f t="shared" si="5"/>
         <v>136378.8591872</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="2">
         <f t="shared" si="5"/>
         <v>191686.59263999999</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T8" s="2">
         <f t="shared" si="5"/>
         <v>256860.03413760004</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="2">
         <f t="shared" si="5"/>
         <v>344192.44574438408</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="2">
         <f t="shared" si="5"/>
         <v>461217.87729747471</v>
       </c>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2720</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3989</v>
+      </c>
+      <c r="O9" s="2">
+        <v>7339</v>
+      </c>
+      <c r="P9" s="2">
+        <v>8675</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>12914</v>
+      </c>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>2720</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3989</v>
-      </c>
-      <c r="O9" s="1">
-        <v>7339</v>
-      </c>
-      <c r="P9" s="1">
-        <v>8675</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>12914</v>
-      </c>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2">
+        <v>777</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1041</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2440</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2654</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3491</v>
+      </c>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
-        <v>777</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1041</v>
-      </c>
-      <c r="O10" s="1">
-        <v>2440</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2654</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>3491</v>
-      </c>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f>SUM(C9:C10)</f>
         <v>3497</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f t="shared" ref="D11:G11" si="6">SUM(D9:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <f t="shared" si="6"/>
         <v>5030</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <f>H6*H27</f>
         <v>7820.0000000000009</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <f t="shared" ref="I11:J11" si="7">I6*I27</f>
         <v>8445.6</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <f t="shared" si="7"/>
         <v>9121.2480000000014</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <f>SUM(L9:L10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <f>SUM(M9:M10)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <f t="shared" ref="N11:Q11" si="8">SUM(N9:N10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
         <f t="shared" si="8"/>
         <v>9779</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="2">
         <f t="shared" si="8"/>
         <v>11329</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="2">
         <f t="shared" si="8"/>
         <v>16405</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="2">
         <f>SUM(G11:J11)</f>
         <v>30416.847999999998</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="2">
         <f t="shared" ref="S11:V11" si="9">S6*S27</f>
         <v>41445.749760000006</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="2">
         <f t="shared" si="9"/>
         <v>55537.304678400011</v>
       </c>
-      <c r="U11" s="1">
+      <c r="U11" s="2">
         <f t="shared" si="9"/>
         <v>74419.988269056019</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="2">
         <f t="shared" si="9"/>
         <v>99722.784280535081</v>
       </c>
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
         <f>C8-C11</f>
         <v>16909</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f t="shared" ref="D12:J12" si="10">D8-D11</f>
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <f t="shared" si="10"/>
         <v>39300</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <f t="shared" si="10"/>
         <v>21552</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="10"/>
         <v>25300</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <f t="shared" si="10"/>
         <v>28039.392</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <f t="shared" si="10"/>
         <v>31070.619187199998</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <f>L8-L11</f>
         <v>0</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <f>M8-M11</f>
         <v>0</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <f t="shared" ref="N12:Q12" si="11">N8-N11</f>
         <v>0</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
         <f t="shared" si="11"/>
         <v>5577</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="2">
         <f t="shared" si="11"/>
         <v>32972</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="2">
         <f t="shared" si="11"/>
         <v>81453</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="2">
         <f>R8-R11</f>
         <v>105962.0111872</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="2">
         <f t="shared" ref="S12:V12" si="12">S8-S11</f>
         <v>150240.84287999998</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T12" s="2">
         <f t="shared" si="12"/>
         <v>201322.72945920003</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="2">
         <f t="shared" si="12"/>
         <v>269772.45747532806</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="2">
         <f t="shared" si="12"/>
         <v>361495.09301693965</v>
       </c>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
         <f>359-64</f>
         <v>295</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <f>515-63</f>
         <v>452</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <f>G30*$Y$55/4</f>
         <v>582.32999999999993</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <f>H30*$Y$55/4</f>
         <v>906.50618324999994</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <f>I30*$Y$55/4</f>
         <v>1269.0535579952063</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="2">
         <f>K30*$Y$55</f>
         <v>0</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="2">
         <f>L30*$Y$55</f>
         <v>0</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="2">
         <f>M30*$Y$55</f>
         <v>0</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="2">
         <f>267-262</f>
         <v>5</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="2">
         <f>866-257</f>
         <v>609</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="2">
         <f>1786-247</f>
         <v>1539</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="2">
         <f>SUM(G13:J13)</f>
         <v>3209.8897412452061</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="2">
         <f>R30*$Y$55</f>
         <v>2022.7133844747123</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="2">
         <f>S30*$Y$55</f>
         <v>2144.0761875431954</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="2">
         <f>T30*$Y$55</f>
         <v>2272.7207587957869</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="2">
         <f>U30*$Y$55</f>
         <v>2409.0840043235339</v>
       </c>
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
         <v>75</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>-180</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="2">
         <v>-48</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="2">
         <v>237</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="2">
         <v>1034</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="2">
         <f>SUM(G14:J14)</f>
         <v>-180</v>
       </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
         <f t="shared" ref="T14:V14" si="13">S14*1.02</f>
         <v>0</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="3"/>
+      <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
         <f>C12+SUM(C13:C14)</f>
         <v>17279</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <f t="shared" ref="D15:J15" si="14">D12+SUM(D13:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <f t="shared" si="14"/>
         <v>39300</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <f t="shared" si="14"/>
         <v>21824</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <f t="shared" si="14"/>
         <v>25882.33</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <f t="shared" si="14"/>
         <v>28945.898183249999</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <f t="shared" si="14"/>
         <v>32339.672745195203</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <f>L12+SUM(L13:L14)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="2">
         <f>M12+SUM(M13:M14)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <f t="shared" ref="N15:Q15" si="15">N12+SUM(N13:N14)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="2">
         <f t="shared" si="15"/>
         <v>5534</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="2">
         <f t="shared" si="15"/>
         <v>33818</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="2">
         <f t="shared" si="15"/>
         <v>84026</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="2">
         <f>R12+SUM(R13:R14)</f>
         <v>108991.9009284452</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="2">
         <f t="shared" ref="S15:V15" si="16">S12+SUM(S13:S14)</f>
         <v>152263.5562644747</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T15" s="2">
         <f t="shared" si="16"/>
         <v>203466.80564674322</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="2">
         <f t="shared" si="16"/>
         <v>272045.17823412386</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="2">
         <f t="shared" si="16"/>
         <v>363904.17702126317</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
         <v>2398</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>3135</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <f>H15*H23</f>
         <v>4270.5844500000003</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <f t="shared" ref="I16:J16" si="17">I15*I23</f>
         <v>4776.0732002362502</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <f t="shared" si="17"/>
         <v>5336.0460029572087</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="2">
         <v>-187</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="2">
         <v>4058</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="2">
         <v>11146</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="2">
         <f>SUM(G16:J16)</f>
         <v>17517.703653193461</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="2">
         <f t="shared" ref="S16:V16" si="18">S15*S23</f>
         <v>25884.804564960701</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="2">
         <f t="shared" si="18"/>
         <v>34589.356959946352</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="2">
         <f t="shared" si="18"/>
         <v>46247.680299801061</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="2">
         <f t="shared" si="18"/>
         <v>61863.71009361474</v>
       </c>
     </row>
-    <row r="17" spans="1:143" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3">
+    <row r="17" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4">
         <f>C15-C16</f>
         <v>14881</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <f t="shared" ref="D17:J17" si="19">D15-D16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <f t="shared" si="19"/>
         <v>39300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <f t="shared" si="19"/>
         <v>18689</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <f t="shared" si="19"/>
         <v>21611.74555</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <f t="shared" si="19"/>
         <v>24169.82498301375</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <f t="shared" si="19"/>
         <v>27003.626742237993</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="4">
         <f>L15-L16</f>
         <v>0</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="4">
         <f>M15-M16</f>
         <v>0</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="4">
         <f t="shared" ref="N17:Q17" si="20">N15-N16</f>
         <v>0</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="4">
         <f t="shared" si="20"/>
         <v>5721</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="4">
         <f t="shared" si="20"/>
         <v>29760</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="4">
         <f t="shared" si="20"/>
         <v>72880</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="4">
         <f>R15-R16</f>
         <v>91474.197275251747</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="4">
         <f t="shared" ref="S17:V17" si="21">S15-S16</f>
         <v>126378.75169951399</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="4">
         <f t="shared" si="21"/>
         <v>168877.44868679688</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="4">
         <f t="shared" si="21"/>
         <v>225797.4979343228</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="4">
         <f t="shared" si="21"/>
         <v>302040.46692764841</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="4">
         <f t="shared" ref="W17:BB17" si="22">V17*(1+$Y$56)</f>
         <v>311101.68093547784</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="4">
         <f t="shared" si="22"/>
         <v>320434.7313635422</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="4">
         <f t="shared" si="22"/>
         <v>330047.77330444846</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="4">
         <f t="shared" si="22"/>
         <v>339949.20650358195</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="4">
         <f t="shared" si="22"/>
         <v>350147.6826986894</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="4">
         <f t="shared" si="22"/>
         <v>360652.1131796501</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="4">
         <f t="shared" si="22"/>
         <v>371471.67657503963</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="4">
         <f t="shared" si="22"/>
         <v>382615.82687229081</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AE17" s="4">
         <f t="shared" si="22"/>
         <v>394094.30167845957</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AF17" s="4">
         <f t="shared" si="22"/>
         <v>405917.13072881335</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AG17" s="4">
         <f t="shared" si="22"/>
         <v>418094.64465067774</v>
       </c>
-      <c r="AH17" s="3">
+      <c r="AH17" s="4">
         <f t="shared" si="22"/>
         <v>430637.48399019806</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AI17" s="4">
         <f t="shared" si="22"/>
         <v>443556.60850990401</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AJ17" s="4">
         <f t="shared" si="22"/>
         <v>456863.30676520115</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AK17" s="4">
         <f t="shared" si="22"/>
         <v>470569.20596815721</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AL17" s="4">
         <f t="shared" si="22"/>
         <v>484686.28214720194</v>
       </c>
-      <c r="AM17" s="3">
+      <c r="AM17" s="4">
         <f t="shared" si="22"/>
         <v>499226.87061161804</v>
       </c>
-      <c r="AN17" s="3">
+      <c r="AN17" s="4">
         <f t="shared" si="22"/>
         <v>514203.6767299666</v>
       </c>
-      <c r="AO17" s="3">
+      <c r="AO17" s="4">
         <f t="shared" si="22"/>
         <v>529629.78703186556</v>
       </c>
-      <c r="AP17" s="3">
+      <c r="AP17" s="4">
         <f t="shared" si="22"/>
         <v>545518.68064282159</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AQ17" s="4">
         <f t="shared" si="22"/>
         <v>561884.24106210622</v>
       </c>
-      <c r="AR17" s="3">
+      <c r="AR17" s="4">
         <f t="shared" si="22"/>
         <v>578740.76829396945</v>
       </c>
-      <c r="AS17" s="3">
+      <c r="AS17" s="4">
         <f t="shared" si="22"/>
         <v>596102.99134278856</v>
       </c>
-      <c r="AT17" s="3">
+      <c r="AT17" s="4">
         <f t="shared" si="22"/>
         <v>613986.08108307223</v>
       </c>
-      <c r="AU17" s="3">
+      <c r="AU17" s="4">
         <f t="shared" si="22"/>
         <v>632405.6635155644</v>
       </c>
-      <c r="AV17" s="3">
+      <c r="AV17" s="4">
         <f t="shared" si="22"/>
         <v>651377.83342103136</v>
       </c>
-      <c r="AW17" s="3">
+      <c r="AW17" s="4">
         <f t="shared" si="22"/>
         <v>670919.16842366231</v>
       </c>
-      <c r="AX17" s="3">
+      <c r="AX17" s="4">
         <f t="shared" si="22"/>
         <v>691046.74347637221</v>
       </c>
-      <c r="AY17" s="3">
+      <c r="AY17" s="4">
         <f t="shared" si="22"/>
         <v>711778.14578066336</v>
       </c>
-      <c r="AZ17" s="3">
+      <c r="AZ17" s="4">
         <f t="shared" si="22"/>
         <v>733131.49015408324</v>
       </c>
-      <c r="BA17" s="3">
+      <c r="BA17" s="4">
         <f t="shared" si="22"/>
         <v>755125.43485870573</v>
       </c>
-      <c r="BB17" s="3">
+      <c r="BB17" s="4">
         <f t="shared" si="22"/>
         <v>777779.19790446688</v>
       </c>
-      <c r="BC17" s="3">
+      <c r="BC17" s="4">
         <f t="shared" ref="BC17:CH17" si="23">BB17*(1+$Y$56)</f>
         <v>801112.57384160091</v>
       </c>
-      <c r="BD17" s="3">
+      <c r="BD17" s="4">
         <f t="shared" si="23"/>
         <v>825145.95105684898</v>
       </c>
-      <c r="BE17" s="3">
+      <c r="BE17" s="4">
         <f t="shared" si="23"/>
         <v>849900.32958855445</v>
       </c>
-      <c r="BF17" s="3">
+      <c r="BF17" s="4">
         <f t="shared" si="23"/>
         <v>875397.33947621111</v>
       </c>
-      <c r="BG17" s="3">
+      <c r="BG17" s="4">
         <f t="shared" si="23"/>
         <v>901659.25966049742</v>
       </c>
-      <c r="BH17" s="3">
+      <c r="BH17" s="4">
         <f t="shared" si="23"/>
         <v>928709.0374503124</v>
       </c>
-      <c r="BI17" s="3">
+      <c r="BI17" s="4">
         <f t="shared" si="23"/>
         <v>956570.30857382179</v>
       </c>
-      <c r="BJ17" s="3">
+      <c r="BJ17" s="4">
         <f t="shared" si="23"/>
         <v>985267.4178310365</v>
       </c>
-      <c r="BK17" s="3">
+      <c r="BK17" s="4">
         <f t="shared" si="23"/>
         <v>1014825.4403659676</v>
       </c>
-      <c r="BL17" s="3">
+      <c r="BL17" s="4">
         <f t="shared" si="23"/>
         <v>1045270.2035769466</v>
       </c>
-      <c r="BM17" s="3">
+      <c r="BM17" s="4">
         <f t="shared" si="23"/>
         <v>1076628.3096842552</v>
       </c>
-      <c r="BN17" s="3">
+      <c r="BN17" s="4">
         <f t="shared" si="23"/>
         <v>1108927.1589747828</v>
       </c>
-      <c r="BO17" s="3">
+      <c r="BO17" s="4">
         <f t="shared" si="23"/>
         <v>1142194.9737440264</v>
       </c>
-      <c r="BP17" s="3">
+      <c r="BP17" s="4">
         <f t="shared" si="23"/>
         <v>1176460.8229563471</v>
       </c>
-      <c r="BQ17" s="3">
+      <c r="BQ17" s="4">
         <f t="shared" si="23"/>
         <v>1211754.6476450376</v>
       </c>
-      <c r="BR17" s="3">
+      <c r="BR17" s="4">
         <f t="shared" si="23"/>
         <v>1248107.2870743887</v>
       </c>
-      <c r="BS17" s="3">
+      <c r="BS17" s="4">
         <f t="shared" si="23"/>
         <v>1285550.5056866205</v>
       </c>
-      <c r="BT17" s="3">
+      <c r="BT17" s="4">
         <f t="shared" si="23"/>
         <v>1324117.0208572191</v>
       </c>
-      <c r="BU17" s="3">
+      <c r="BU17" s="4">
         <f t="shared" si="23"/>
         <v>1363840.5314829357</v>
       </c>
-      <c r="BV17" s="3">
+      <c r="BV17" s="4">
         <f t="shared" si="23"/>
         <v>1404755.7474274237</v>
       </c>
-      <c r="BW17" s="3">
+      <c r="BW17" s="4">
         <f t="shared" si="23"/>
         <v>1446898.4198502465</v>
       </c>
-      <c r="BX17" s="3">
+      <c r="BX17" s="4">
         <f t="shared" si="23"/>
         <v>1490305.372445754</v>
       </c>
-      <c r="BY17" s="3">
+      <c r="BY17" s="4">
         <f t="shared" si="23"/>
         <v>1535014.5336191268</v>
       </c>
-      <c r="BZ17" s="3">
+      <c r="BZ17" s="4">
         <f t="shared" si="23"/>
         <v>1581064.9696277005</v>
       </c>
-      <c r="CA17" s="3">
+      <c r="CA17" s="4">
         <f t="shared" si="23"/>
         <v>1628496.9187165315</v>
       </c>
-      <c r="CB17" s="3">
+      <c r="CB17" s="4">
         <f t="shared" si="23"/>
         <v>1677351.8262780274</v>
       </c>
-      <c r="CC17" s="3">
+      <c r="CC17" s="4">
         <f t="shared" si="23"/>
         <v>1727672.3810663682</v>
       </c>
-      <c r="CD17" s="3">
+      <c r="CD17" s="4">
         <f t="shared" si="23"/>
         <v>1779502.5524983592</v>
       </c>
-      <c r="CE17" s="3">
+      <c r="CE17" s="4">
         <f t="shared" si="23"/>
         <v>1832887.6290733099</v>
       </c>
-      <c r="CF17" s="3">
+      <c r="CF17" s="4">
         <f t="shared" si="23"/>
         <v>1887874.2579455094</v>
       </c>
-      <c r="CG17" s="3">
+      <c r="CG17" s="4">
         <f t="shared" si="23"/>
         <v>1944510.4856838747</v>
       </c>
-      <c r="CH17" s="3">
+      <c r="CH17" s="4">
         <f t="shared" si="23"/>
         <v>2002845.800254391</v>
       </c>
-      <c r="CI17" s="3">
+      <c r="CI17" s="4">
         <f t="shared" ref="CI17:DN17" si="24">CH17*(1+$Y$56)</f>
         <v>2062931.1742620228</v>
       </c>
-      <c r="CJ17" s="3">
+      <c r="CJ17" s="4">
         <f t="shared" si="24"/>
         <v>2124819.1094898838</v>
       </c>
-      <c r="CK17" s="3">
+      <c r="CK17" s="4">
         <f t="shared" si="24"/>
         <v>2188563.6827745805</v>
       </c>
-      <c r="CL17" s="3">
+      <c r="CL17" s="4">
         <f t="shared" si="24"/>
         <v>2254220.5932578179</v>
       </c>
-      <c r="CM17" s="3">
+      <c r="CM17" s="4">
         <f t="shared" si="24"/>
         <v>2321847.2110555526</v>
       </c>
-      <c r="CN17" s="3">
+      <c r="CN17" s="4">
         <f t="shared" si="24"/>
         <v>2391502.6273872191</v>
       </c>
-      <c r="CO17" s="3">
+      <c r="CO17" s="4">
         <f t="shared" si="24"/>
         <v>2463247.7062088358</v>
       </c>
-      <c r="CP17" s="3">
+      <c r="CP17" s="4">
         <f t="shared" si="24"/>
         <v>2537145.1373951011</v>
       </c>
-      <c r="CQ17" s="3">
+      <c r="CQ17" s="4">
         <f t="shared" si="24"/>
         <v>2613259.4915169543</v>
       </c>
-      <c r="CR17" s="3">
+      <c r="CR17" s="4">
         <f t="shared" si="24"/>
         <v>2691657.2762624631</v>
       </c>
-      <c r="CS17" s="3">
+      <c r="CS17" s="4">
         <f t="shared" si="24"/>
         <v>2772406.9945503371</v>
       </c>
-      <c r="CT17" s="3">
+      <c r="CT17" s="4">
         <f t="shared" si="24"/>
         <v>2855579.2043868471</v>
       </c>
-      <c r="CU17" s="3">
+      <c r="CU17" s="4">
         <f t="shared" si="24"/>
         <v>2941246.5805184525</v>
       </c>
-      <c r="CV17" s="3">
+      <c r="CV17" s="4">
         <f t="shared" si="24"/>
         <v>3029483.9779340061</v>
       </c>
-      <c r="CW17" s="3">
+      <c r="CW17" s="4">
         <f t="shared" si="24"/>
         <v>3120368.4972720263</v>
       </c>
-      <c r="CX17" s="3">
+      <c r="CX17" s="4">
         <f t="shared" si="24"/>
         <v>3213979.5521901869</v>
       </c>
-      <c r="CY17" s="3">
+      <c r="CY17" s="4">
         <f t="shared" si="24"/>
         <v>3310398.9387558927</v>
       </c>
-      <c r="CZ17" s="3">
+      <c r="CZ17" s="4">
         <f t="shared" si="24"/>
         <v>3409710.9069185695</v>
       </c>
-      <c r="DA17" s="3">
+      <c r="DA17" s="4">
         <f t="shared" si="24"/>
         <v>3512002.2341261269</v>
       </c>
-      <c r="DB17" s="3">
+      <c r="DB17" s="4">
         <f t="shared" si="24"/>
         <v>3617362.3011499108</v>
       </c>
-      <c r="DC17" s="3">
+      <c r="DC17" s="4">
         <f t="shared" si="24"/>
         <v>3725883.1701844083</v>
       </c>
-      <c r="DD17" s="3">
+      <c r="DD17" s="4">
         <f t="shared" si="24"/>
         <v>3837659.6652899408</v>
       </c>
-      <c r="DE17" s="3">
+      <c r="DE17" s="4">
         <f t="shared" si="24"/>
         <v>3952789.455248639</v>
       </c>
-      <c r="DF17" s="3">
+      <c r="DF17" s="4">
         <f t="shared" si="24"/>
         <v>4071373.1389060984</v>
       </c>
-      <c r="DG17" s="3">
+      <c r="DG17" s="4">
         <f t="shared" si="24"/>
         <v>4193514.3330732817</v>
       </c>
-      <c r="DH17" s="3">
+      <c r="DH17" s="4">
         <f t="shared" si="24"/>
         <v>4319319.7630654806</v>
       </c>
-      <c r="DI17" s="3">
+      <c r="DI17" s="4">
         <f t="shared" si="24"/>
         <v>4448899.3559574448</v>
       </c>
-      <c r="DJ17" s="3">
+      <c r="DJ17" s="4">
         <f t="shared" si="24"/>
         <v>4582366.336636168</v>
       </c>
-      <c r="DK17" s="3">
+      <c r="DK17" s="4">
         <f t="shared" si="24"/>
         <v>4719837.3267352534</v>
       </c>
-      <c r="DL17" s="3">
+      <c r="DL17" s="4">
         <f t="shared" si="24"/>
         <v>4861432.4465373112</v>
       </c>
-      <c r="DM17" s="3">
+      <c r="DM17" s="4">
         <f t="shared" si="24"/>
         <v>5007275.4199334309</v>
       </c>
-      <c r="DN17" s="3">
+      <c r="DN17" s="4">
         <f t="shared" si="24"/>
         <v>5157493.6825314341</v>
       </c>
-      <c r="DO17" s="3">
+      <c r="DO17" s="4">
         <f t="shared" ref="DO17:EM17" si="25">DN17*(1+$Y$56)</f>
         <v>5312218.4930073777</v>
       </c>
-      <c r="DP17" s="3">
+      <c r="DP17" s="4">
         <f t="shared" si="25"/>
         <v>5471585.0477975989</v>
       </c>
-      <c r="DQ17" s="3">
+      <c r="DQ17" s="4">
         <f t="shared" si="25"/>
         <v>5635732.5992315272</v>
       </c>
-      <c r="DR17" s="3">
+      <c r="DR17" s="4">
         <f t="shared" si="25"/>
         <v>5804804.5772084733</v>
       </c>
-      <c r="DS17" s="3">
+      <c r="DS17" s="4">
         <f t="shared" si="25"/>
         <v>5978948.7145247273</v>
       </c>
-      <c r="DT17" s="3">
+      <c r="DT17" s="4">
         <f t="shared" si="25"/>
         <v>6158317.1759604691</v>
       </c>
-      <c r="DU17" s="3">
+      <c r="DU17" s="4">
         <f t="shared" si="25"/>
         <v>6343066.6912392834</v>
       </c>
-      <c r="DV17" s="3">
+      <c r="DV17" s="4">
         <f t="shared" si="25"/>
         <v>6533358.6919764625</v>
       </c>
-      <c r="DW17" s="3">
+      <c r="DW17" s="4">
         <f t="shared" si="25"/>
         <v>6729359.4527357565</v>
       </c>
-      <c r="DX17" s="3">
+      <c r="DX17" s="4">
         <f t="shared" si="25"/>
         <v>6931240.2363178292</v>
       </c>
-      <c r="DY17" s="3">
+      <c r="DY17" s="4">
         <f t="shared" si="25"/>
         <v>7139177.4434073642</v>
       </c>
-      <c r="DZ17" s="3">
+      <c r="DZ17" s="4">
         <f t="shared" si="25"/>
         <v>7353352.7667095857</v>
       </c>
-      <c r="EA17" s="3">
+      <c r="EA17" s="4">
         <f t="shared" si="25"/>
         <v>7573953.3497108733</v>
       </c>
-      <c r="EB17" s="3">
+      <c r="EB17" s="4">
         <f t="shared" si="25"/>
         <v>7801171.9502021996</v>
       </c>
-      <c r="EC17" s="3">
+      <c r="EC17" s="4">
         <f t="shared" si="25"/>
         <v>8035207.1087082662</v>
       </c>
-      <c r="ED17" s="3">
+      <c r="ED17" s="4">
         <f t="shared" si="25"/>
         <v>8276263.3219695147</v>
       </c>
-      <c r="EE17" s="3">
+      <c r="EE17" s="4">
         <f t="shared" si="25"/>
         <v>8524551.2216286007</v>
       </c>
-      <c r="EF17" s="3">
+      <c r="EF17" s="4">
         <f t="shared" si="25"/>
         <v>8780287.7582774591</v>
       </c>
-      <c r="EG17" s="3">
+      <c r="EG17" s="4">
         <f t="shared" si="25"/>
         <v>9043696.3910257835</v>
       </c>
-      <c r="EH17" s="3">
+      <c r="EH17" s="4">
         <f t="shared" si="25"/>
         <v>9315007.2827565577</v>
       </c>
-      <c r="EI17" s="3">
+      <c r="EI17" s="4">
         <f t="shared" si="25"/>
         <v>9594457.5012392551</v>
       </c>
-      <c r="EJ17" s="3">
+      <c r="EJ17" s="4">
         <f t="shared" si="25"/>
         <v>9882291.2262764331</v>
       </c>
-      <c r="EK17" s="3">
+      <c r="EK17" s="4">
         <f t="shared" si="25"/>
         <v>10178759.963064726</v>
       </c>
-      <c r="EL17" s="3">
+      <c r="EL17" s="4">
         <f t="shared" si="25"/>
         <v>10484122.761956669</v>
       </c>
-      <c r="EM17" s="3">
+      <c r="EM17" s="4">
         <f t="shared" si="25"/>
         <v>10798646.444815369</v>
       </c>
     </row>
     <row r="18" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
         <v>24890</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>24611</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <f>G18*0.995</f>
         <v>24487.945</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <f t="shared" ref="I18:J18" si="26">H18*0.995</f>
         <v>24365.505275</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="2">
         <f t="shared" si="26"/>
         <v>24243.677748624999</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="2">
         <v>25070</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="2">
         <v>24940</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="2">
         <v>24400</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="2">
         <f>J18</f>
         <v>24243.677748624999</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="2">
         <f t="shared" ref="S18:V18" si="27">R18*0.99</f>
         <v>24001.240971138748</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T18" s="2">
         <f t="shared" si="27"/>
         <v>23761.228561427361</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="2">
         <f t="shared" si="27"/>
         <v>23523.616275813085</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="2">
         <f t="shared" si="27"/>
         <v>23288.380113054955</v>
       </c>
     </row>
     <row r="19" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5">
         <f>C17/C18</f>
         <v>0.5978706307754118</v>
       </c>
-      <c r="D19" s="4" t="e">
+      <c r="D19" s="5" t="e">
         <f t="shared" ref="D19:J19" si="28">D17/D18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="4" t="e">
+      <c r="E19" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="4" t="e">
+      <c r="F19" s="5" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <f t="shared" si="28"/>
         <v>0.75937588883019791</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <f t="shared" si="28"/>
         <v>0.8825463120731446</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <f t="shared" si="28"/>
         <v>0.99196896227770714</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <f t="shared" si="28"/>
         <v>1.1138420095428603</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="5">
         <f>O17/O18</f>
         <v>0.22820103709613082</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="5">
         <f>P17/P18</f>
         <v>1.1932638331996792</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="5">
         <f>Q17/Q18</f>
         <v>2.9868852459016395</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="5">
         <f t="shared" ref="R19:V19" si="29">R17/R18</f>
         <v>3.7731155406254229</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="5">
         <f t="shared" si="29"/>
         <v>5.2655090564476721</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <f t="shared" si="29"/>
         <v>7.1072692327425786</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="5">
         <f t="shared" si="29"/>
         <v>9.598757915741345</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="5">
         <f t="shared" si="29"/>
         <v>12.969578195708475</v>
       </c>
     </row>
     <row r="20" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="K20" s="4"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:143" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>21</v>
+      <c r="K20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="7">
         <f>G6/C6-1</f>
@@ -2592,99 +2585,99 @@
       </c>
     </row>
     <row r="22" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="6">
         <f>G6/F6-1</f>
         <v>0.11898218829516538</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <f t="shared" ref="H22:J22" si="32">H6/G6-1</f>
         <v>4.6025104602510414E-2</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="6">
         <f t="shared" si="32"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="6">
         <f t="shared" si="32"/>
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
     <row r="23" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6">
         <f>C16/C15</f>
         <v>0.13878117946640431</v>
       </c>
-      <c r="D23" s="5" t="e">
+      <c r="D23" s="6" t="e">
         <f t="shared" ref="D23:G23" si="33">D16/D15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="5" t="e">
+      <c r="E23" s="6" t="e">
         <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="6">
         <f t="shared" si="33"/>
         <v>0.14364919354838709</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="8">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="8">
         <v>0.16500000000000001</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="8">
         <v>0.16500000000000001</v>
       </c>
-      <c r="M23" s="5" t="e">
+      <c r="M23" s="6" t="e">
         <f>M16/M15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="5" t="e">
+      <c r="N23" s="6" t="e">
         <f t="shared" ref="N23:R23" si="34">N16/N15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="6">
         <f t="shared" si="34"/>
         <v>-3.379110950487893E-2</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="6">
         <f t="shared" si="34"/>
         <v>0.1199952687917677</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="6">
         <f t="shared" si="34"/>
         <v>0.13264941803727417</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="6">
         <f t="shared" si="34"/>
         <v>0.16072481995422847</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="6">
         <v>0.17</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="6">
         <v>0.17</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="6">
         <v>0.17</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="6">
         <v>0.17</v>
       </c>
     </row>
-    <row r="25" spans="1:143" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>23</v>
+    <row r="25" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C25" s="7">
         <f>C8/C6</f>
@@ -2754,145 +2747,145 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:143" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="5">
+    <row r="26" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="6">
         <f>C12/C6</f>
         <v>0.64924742743050223</v>
       </c>
-      <c r="D26" s="5" t="e">
+      <c r="D26" s="6" t="e">
         <f t="shared" ref="D26:J26" si="37">D12/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="5" t="e">
+      <c r="E26" s="6" t="e">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6">
         <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="6">
         <f t="shared" si="37"/>
         <v>0.49008550118246313</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="6">
         <f t="shared" si="37"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="6">
         <f t="shared" si="37"/>
         <v>0.56440000000000001</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="6">
         <f t="shared" si="37"/>
         <v>0.57908799999999994</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6">
         <f t="shared" ref="O26:V26" si="38">O12/O6</f>
         <v>0.20675465262845702</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="6">
         <f t="shared" si="38"/>
         <v>0.54121663766783756</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="6">
         <f t="shared" si="38"/>
         <v>0.62417526839697468</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="6">
         <f t="shared" si="38"/>
         <v>0.54814438947516531</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="6">
         <f t="shared" si="38"/>
         <v>0.57999999999999985</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="6">
         <f t="shared" si="38"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="6">
         <f t="shared" si="38"/>
         <v>0.57999999999999996</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="6">
         <f t="shared" si="38"/>
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:143" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="5">
+    <row r="27" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="6">
         <f>C11/C6</f>
         <v>0.13427276915988329</v>
       </c>
-      <c r="D27" s="5" t="e">
+      <c r="D27" s="6" t="e">
         <f t="shared" ref="D27:G27" si="39">D11/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="5" t="e">
+      <c r="E27" s="6" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="6">
         <f t="shared" si="39"/>
         <v>0.11438057122066582</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="6">
         <v>0.17</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="6">
         <v>0.17</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="6">
         <v>0.17</v>
       </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="5">
+      <c r="O27" s="6">
         <f>O11/O6</f>
         <v>0.36253429228145623</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="6">
         <f>P11/P6</f>
         <v>0.18595909523653195</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="6">
         <f>Q11/Q6</f>
         <v>0.12571170218472455</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="6">
         <f>R11/R6</f>
         <v>0.15734718876997822</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="6">
         <v>0.16</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="6">
         <v>0.16</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="6">
         <v>0.16</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V27" s="6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:143" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>50</v>
+    <row r="28" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H28" s="7"/>
       <c r="M28" s="7"/>
@@ -2907,1089 +2900,1086 @@
       <c r="V28" s="7"/>
     </row>
     <row r="30" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1">
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
         <f>C32-C38</f>
         <v>44747</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <f>G32-SUM(G38:G40)</f>
         <v>38822</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <f>G30+H17</f>
         <v>60433.74555</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="2">
         <f t="shared" ref="I30:J30" si="40">H30+I17</f>
         <v>84603.570533013757</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="2">
         <f t="shared" si="40"/>
         <v>111607.19727525175</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="2">
         <f>Q32-Q38</f>
         <v>30502</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="2">
         <f>Q30+R13</f>
         <v>33711.889741245206</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="2">
         <f>R30+S13</f>
         <v>35734.603125719921</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30" s="2">
         <f>S30+T13</f>
         <v>37878.679313263114</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30" s="2">
         <f>T30+U13</f>
         <v>40151.400072058903</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V30" s="2">
         <f>U30+V13</f>
         <v>42560.48407638244</v>
       </c>
     </row>
     <row r="31" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
     </row>
     <row r="32" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1">
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
         <v>53210</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>53691</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="2">
         <f>8589+34621</f>
         <v>43210</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2">
+        <v>23065</v>
+      </c>
+      <c r="G33" s="2">
+        <v>22132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2">
+        <v>10080</v>
+      </c>
+      <c r="G34" s="2">
+        <v>11333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="1">
-        <v>23065</v>
-      </c>
-      <c r="G33" s="1">
-        <v>22132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="1">
-        <v>10080</v>
-      </c>
-      <c r="G34" s="1">
-        <v>11333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
         <v>8463</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="2">
         <v>8464</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="2">
         <f>8463+4245</f>
         <v>12708</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1519</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="1">
-        <v>1519</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="2">
+        <v>4245</v>
+      </c>
+      <c r="G40" s="2">
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="1">
-        <v>4245</v>
-      </c>
-      <c r="G40" s="1">
-        <v>4884</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B41" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B42" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B43" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M45" s="1">
+      <c r="B45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="2">
         <f t="shared" ref="M45:V45" si="41">M17</f>
         <v>0</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N45" s="2">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="2">
         <f t="shared" si="41"/>
         <v>5721</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="2">
         <f t="shared" si="41"/>
         <v>29760</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="2">
         <f t="shared" si="41"/>
         <v>72880</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R45" s="2">
         <f t="shared" si="41"/>
         <v>91474.197275251747</v>
       </c>
-      <c r="S45" s="1">
+      <c r="S45" s="2">
         <f t="shared" si="41"/>
         <v>126378.75169951399</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T45" s="2">
         <f t="shared" si="41"/>
         <v>168877.44868679688</v>
       </c>
-      <c r="U45" s="1">
+      <c r="U45" s="2">
         <f t="shared" si="41"/>
         <v>225797.4979343228</v>
       </c>
-      <c r="V45" s="1">
+      <c r="V45" s="2">
         <f t="shared" si="41"/>
         <v>302040.46692764841</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O46" s="1">
+      <c r="B46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O46" s="2">
         <v>4368</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="2">
         <v>29760</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="2">
         <v>72880</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B47" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P47" s="1">
+      <c r="B47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" s="2">
         <v>3549</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="2">
         <v>4737</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R47" s="2">
         <f>Q47*1.2</f>
         <v>5684.4</v>
       </c>
-      <c r="S47" s="1">
+      <c r="S47" s="2">
         <f t="shared" ref="S47:V47" si="42">R47*1.2</f>
         <v>6821.28</v>
       </c>
-      <c r="T47" s="1">
+      <c r="T47" s="2">
         <f t="shared" si="42"/>
         <v>8185.5359999999991</v>
       </c>
-      <c r="U47" s="1">
+      <c r="U47" s="2">
         <f t="shared" si="42"/>
         <v>9822.6431999999986</v>
       </c>
-      <c r="V47" s="1">
+      <c r="V47" s="2">
         <f t="shared" si="42"/>
         <v>11787.171839999997</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="P48" s="11">
+    <row r="48" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" s="2">
         <v>1508</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q48" s="2">
         <v>1864</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R48" s="2">
         <f>Q48*(1+R21)</f>
         <v>2761.217388905492</v>
       </c>
-      <c r="S48" s="1">
+      <c r="S48" s="2">
         <f t="shared" ref="S48:V48" si="43">R48*(1+S21)</f>
         <v>3700.0313011333596</v>
       </c>
-      <c r="T48" s="1">
+      <c r="T48" s="2">
         <f t="shared" si="43"/>
         <v>4958.0419435187023</v>
       </c>
-      <c r="U48" s="1">
+      <c r="U48" s="2">
         <f t="shared" si="43"/>
         <v>6643.7762043150615</v>
       </c>
-      <c r="V48" s="1">
+      <c r="V48" s="2">
         <f t="shared" si="43"/>
         <v>8902.6601137821835</v>
       </c>
     </row>
     <row r="49" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" s="2">
+        <v>-2489</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>-4477</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P49" s="1">
-        <v>-2489</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>-4477</v>
-      </c>
-      <c r="R49" s="1">
-        <v>0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>0</v>
-      </c>
-      <c r="T49" s="1">
-        <v>0</v>
-      </c>
-      <c r="U49" s="1">
-        <v>0</v>
-      </c>
-      <c r="V49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B50" s="11" t="s">
+      <c r="P50" s="2">
+        <v>-238</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>-1030</v>
+      </c>
+      <c r="R50" s="2">
+        <v>180</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P51" s="2">
+        <v>-278</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>-502</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="2">
+        <v>-6172</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>-13063</v>
+      </c>
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P53" s="2">
+        <v>-98</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>-4781</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P50" s="1">
-        <v>-238</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>-1030</v>
-      </c>
-      <c r="R50" s="1">
-        <v>180</v>
-      </c>
-      <c r="S50" s="1">
-        <v>0</v>
-      </c>
-      <c r="T50" s="1">
-        <v>0</v>
-      </c>
-      <c r="U50" s="1">
-        <v>0</v>
-      </c>
-      <c r="V50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P51" s="1">
-        <v>-278</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>-502</v>
-      </c>
-      <c r="R51" s="1">
-        <v>0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0</v>
-      </c>
-      <c r="T51" s="1">
-        <v>0</v>
-      </c>
-      <c r="U51" s="1">
-        <v>0</v>
-      </c>
-      <c r="V51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B52" s="11" t="s">
+      <c r="P54" s="2">
+        <v>-1522</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>-395</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P52" s="1">
-        <v>-6172</v>
-      </c>
-      <c r="Q52" s="1">
-        <v>-13063</v>
-      </c>
-      <c r="R52" s="1">
-        <v>0</v>
-      </c>
-      <c r="S52" s="1">
-        <v>0</v>
-      </c>
-      <c r="T52" s="1">
-        <v>0</v>
-      </c>
-      <c r="U52" s="1">
-        <v>0</v>
-      </c>
-      <c r="V52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B53" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="P53" s="1">
-        <v>-98</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>-4781</v>
-      </c>
-      <c r="R53" s="1">
-        <v>0</v>
-      </c>
-      <c r="S53" s="1">
-        <v>0</v>
-      </c>
-      <c r="T53" s="1">
-        <v>0</v>
-      </c>
-      <c r="U53" s="1">
-        <v>0</v>
-      </c>
-      <c r="V53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B54" s="11" t="s">
+      <c r="P55" s="2">
+        <v>1531</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>3357</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y55" s="9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P54" s="1">
-        <v>-1522</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>-395</v>
-      </c>
-      <c r="R54" s="1">
-        <v>0</v>
-      </c>
-      <c r="S54" s="1">
-        <v>0</v>
-      </c>
-      <c r="T54" s="1">
-        <v>0</v>
-      </c>
-      <c r="U54" s="1">
-        <v>0</v>
-      </c>
-      <c r="V54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B55" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P55" s="1">
-        <v>1531</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>3357</v>
-      </c>
-      <c r="R55" s="1">
-        <v>0</v>
-      </c>
-      <c r="S55" s="1">
-        <v>0</v>
-      </c>
-      <c r="T55" s="1">
-        <v>0</v>
-      </c>
-      <c r="U55" s="1">
-        <v>0</v>
-      </c>
-      <c r="V55" s="1">
-        <v>0</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y55" s="6">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B56" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="P56" s="1">
+      <c r="P56" s="2">
         <v>2025</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56" s="2">
         <v>4278</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R56" s="2">
         <f>Q56*(1+R21)</f>
         <v>6337.1716683142131</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S56" s="2">
         <f t="shared" ref="S56:V56" si="44">R56*(1+S21)</f>
         <v>8491.8100355410461</v>
       </c>
-      <c r="T56" s="1">
+      <c r="T56" s="2">
         <f t="shared" si="44"/>
         <v>11379.025447625003</v>
       </c>
-      <c r="U56" s="1">
+      <c r="U56" s="2">
         <f t="shared" si="44"/>
         <v>15247.894099817504</v>
       </c>
-      <c r="V56" s="1">
+      <c r="V56" s="2">
         <f t="shared" si="44"/>
         <v>20432.178093755458</v>
       </c>
-      <c r="X56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y56" s="6">
+      <c r="X56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y56" s="9">
         <v>0.03</v>
       </c>
     </row>
     <row r="57" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B57" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="P57" s="1">
+      <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P57" s="2">
         <v>514</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57" s="2">
         <v>1221</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57" s="2">
         <f>Q57*(1+R21)</f>
         <v>1808.7158969171703</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S57" s="2">
         <f t="shared" ref="S57:V57" si="45">R57*(1+S21)</f>
         <v>2423.6793018690082</v>
       </c>
-      <c r="T57" s="1">
+      <c r="T57" s="2">
         <f t="shared" si="45"/>
         <v>3247.7302645044711</v>
       </c>
-      <c r="U57" s="1">
+      <c r="U57" s="2">
         <f t="shared" si="45"/>
         <v>4351.9585544359916</v>
       </c>
-      <c r="V57" s="1">
+      <c r="V57" s="2">
         <f t="shared" si="45"/>
         <v>5831.624462944229</v>
       </c>
-      <c r="X57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y57" s="6">
+      <c r="X57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y57" s="9">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B58" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P58" s="1">
+      <c r="B58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P58" s="2">
         <f>SUM(P46:P57)</f>
         <v>28090</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="2">
         <f>SUM(Q46:Q57)</f>
         <v>64089</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R58" s="2">
         <f>SUM(R47:R57,R45)</f>
         <v>108245.70222938863</v>
       </c>
-      <c r="S58" s="1">
+      <c r="S58" s="2">
         <f t="shared" ref="S58:V58" si="46">SUM(S47:S57,S45)</f>
         <v>147815.5523380574</v>
       </c>
-      <c r="T58" s="1">
+      <c r="T58" s="2">
         <f t="shared" si="46"/>
         <v>196647.78234244505</v>
       </c>
-      <c r="U58" s="1">
+      <c r="U58" s="2">
         <f t="shared" si="46"/>
         <v>261863.76999289135</v>
       </c>
-      <c r="V58" s="1">
+      <c r="V58" s="2">
         <f t="shared" si="46"/>
         <v>348994.10143813025</v>
       </c>
-      <c r="X58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y58" s="1">
-        <f>NPV(Y57,R63:DU63)+main!D5-main!D6</f>
+      <c r="X58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y58" s="2">
+        <f>NPV(Y57,R63:DU63)+main!O5-main!O6</f>
         <v>4131664.7271371512</v>
       </c>
     </row>
     <row r="59" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="X59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="4">
-        <f>Y58/main!D3</f>
+      <c r="X59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="5">
+        <f>Y58/main!O3</f>
         <v>169.33052160398159</v>
       </c>
     </row>
     <row r="60" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P60" s="2">
+        <v>-1069</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>-3236</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y60" s="6">
+        <f>Y59/main!O2-1</f>
+        <v>0.16779670071711439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P60" s="1">
-        <v>-1069</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>-3236</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y60" s="5">
-        <f>Y59/main!D2-1</f>
-        <v>0.22703276524624338</v>
-      </c>
-    </row>
-    <row r="61" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B61" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P61" s="1">
+      <c r="P61" s="2">
         <f>P60</f>
         <v>-1069</v>
       </c>
-      <c r="Q61" s="1">
+      <c r="Q61" s="2">
         <f>Q60</f>
         <v>-3236</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R61" s="2">
         <f>Q61*(1+R21)</f>
         <v>-4793.6155957608216</v>
       </c>
-      <c r="S61" s="1">
+      <c r="S61" s="2">
         <f t="shared" ref="S61:V61" si="47">R61*(1+S21)</f>
         <v>-6423.4448983195016</v>
       </c>
-      <c r="T61" s="1">
+      <c r="T61" s="2">
         <f t="shared" si="47"/>
         <v>-8607.416163748132</v>
       </c>
-      <c r="U61" s="1">
+      <c r="U61" s="2">
         <f t="shared" si="47"/>
         <v>-11533.937659422498</v>
       </c>
-      <c r="V61" s="1">
+      <c r="V61" s="2">
         <f t="shared" si="47"/>
         <v>-15455.476463626148</v>
       </c>
     </row>
-    <row r="63" spans="1:125" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P63" s="3">
+    <row r="63" spans="1:125" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" s="4">
         <f>P58+P61</f>
         <v>27021</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="Q63" s="4">
         <f>Q58+Q61</f>
         <v>60853</v>
       </c>
-      <c r="R63" s="3">
+      <c r="R63" s="4">
         <f t="shared" ref="R63:V63" si="48">R58+R61</f>
         <v>103452.0866336278</v>
       </c>
-      <c r="S63" s="3">
+      <c r="S63" s="4">
         <f t="shared" si="48"/>
         <v>141392.10743973791</v>
       </c>
-      <c r="T63" s="3">
+      <c r="T63" s="4">
         <f t="shared" si="48"/>
         <v>188040.36617869692</v>
       </c>
-      <c r="U63" s="3">
+      <c r="U63" s="4">
         <f t="shared" si="48"/>
         <v>250329.83233346886</v>
       </c>
-      <c r="V63" s="3">
+      <c r="V63" s="4">
         <f t="shared" si="48"/>
         <v>333538.62497450411</v>
       </c>
-      <c r="W63" s="3">
+      <c r="W63" s="4">
         <f t="shared" ref="W63:BB63" si="49">V63*(1+$Y$56)</f>
         <v>343544.78372373927</v>
       </c>
-      <c r="X63" s="3">
+      <c r="X63" s="4">
         <f t="shared" si="49"/>
         <v>353851.12723545148</v>
       </c>
-      <c r="Y63" s="3">
+      <c r="Y63" s="4">
         <f t="shared" si="49"/>
         <v>364466.66105251503</v>
       </c>
-      <c r="Z63" s="3">
+      <c r="Z63" s="4">
         <f t="shared" si="49"/>
         <v>375400.66088409047</v>
       </c>
-      <c r="AA63" s="3">
+      <c r="AA63" s="4">
         <f t="shared" si="49"/>
         <v>386662.6807106132</v>
       </c>
-      <c r="AB63" s="3">
+      <c r="AB63" s="4">
         <f t="shared" si="49"/>
         <v>398262.56113193161</v>
       </c>
-      <c r="AC63" s="3">
+      <c r="AC63" s="4">
         <f t="shared" si="49"/>
         <v>410210.43796588958</v>
       </c>
-      <c r="AD63" s="3">
+      <c r="AD63" s="4">
         <f t="shared" si="49"/>
         <v>422516.75110486627</v>
       </c>
-      <c r="AE63" s="3">
+      <c r="AE63" s="4">
         <f t="shared" si="49"/>
         <v>435192.25363801228</v>
       </c>
-      <c r="AF63" s="3">
+      <c r="AF63" s="4">
         <f t="shared" si="49"/>
         <v>448248.02124715265</v>
       </c>
-      <c r="AG63" s="3">
+      <c r="AG63" s="4">
         <f t="shared" si="49"/>
         <v>461695.46188456722</v>
       </c>
-      <c r="AH63" s="3">
+      <c r="AH63" s="4">
         <f t="shared" si="49"/>
         <v>475546.32574110426</v>
       </c>
-      <c r="AI63" s="3">
+      <c r="AI63" s="4">
         <f t="shared" si="49"/>
         <v>489812.7155133374</v>
       </c>
-      <c r="AJ63" s="3">
+      <c r="AJ63" s="4">
         <f t="shared" si="49"/>
         <v>504507.09697873757</v>
       </c>
-      <c r="AK63" s="3">
+      <c r="AK63" s="4">
         <f t="shared" si="49"/>
         <v>519642.30988809973</v>
       </c>
-      <c r="AL63" s="3">
+      <c r="AL63" s="4">
         <f t="shared" si="49"/>
         <v>535231.57918474276</v>
       </c>
-      <c r="AM63" s="3">
+      <c r="AM63" s="4">
         <f t="shared" si="49"/>
         <v>551288.52656028501</v>
       </c>
-      <c r="AN63" s="3">
+      <c r="AN63" s="4">
         <f t="shared" si="49"/>
         <v>567827.18235709355</v>
       </c>
-      <c r="AO63" s="3">
+      <c r="AO63" s="4">
         <f t="shared" si="49"/>
         <v>584861.99782780639</v>
       </c>
-      <c r="AP63" s="3">
+      <c r="AP63" s="4">
         <f t="shared" si="49"/>
         <v>602407.85776264057</v>
       </c>
-      <c r="AQ63" s="3">
+      <c r="AQ63" s="4">
         <f t="shared" si="49"/>
         <v>620480.09349551983</v>
       </c>
-      <c r="AR63" s="3">
+      <c r="AR63" s="4">
         <f t="shared" si="49"/>
         <v>639094.49630038545</v>
       </c>
-      <c r="AS63" s="3">
+      <c r="AS63" s="4">
         <f t="shared" si="49"/>
         <v>658267.33118939702</v>
       </c>
-      <c r="AT63" s="3">
+      <c r="AT63" s="4">
         <f t="shared" si="49"/>
         <v>678015.35112507897</v>
       </c>
-      <c r="AU63" s="3">
+      <c r="AU63" s="4">
         <f t="shared" si="49"/>
         <v>698355.81165883131</v>
       </c>
-      <c r="AV63" s="3">
+      <c r="AV63" s="4">
         <f t="shared" si="49"/>
         <v>719306.48600859626</v>
       </c>
-      <c r="AW63" s="3">
+      <c r="AW63" s="4">
         <f t="shared" si="49"/>
         <v>740885.68058885413</v>
       </c>
-      <c r="AX63" s="3">
+      <c r="AX63" s="4">
         <f t="shared" si="49"/>
         <v>763112.25100651977</v>
       </c>
-      <c r="AY63" s="3">
+      <c r="AY63" s="4">
         <f t="shared" si="49"/>
         <v>786005.6185367154</v>
       </c>
-      <c r="AZ63" s="3">
+      <c r="AZ63" s="4">
         <f t="shared" si="49"/>
         <v>809585.7870928169</v>
       </c>
-      <c r="BA63" s="3">
+      <c r="BA63" s="4">
         <f t="shared" si="49"/>
         <v>833873.3607056014</v>
       </c>
-      <c r="BB63" s="3">
+      <c r="BB63" s="4">
         <f t="shared" si="49"/>
         <v>858889.56152676942</v>
       </c>
-      <c r="BC63" s="3">
+      <c r="BC63" s="4">
         <f t="shared" ref="BC63:CH63" si="50">BB63*(1+$Y$56)</f>
         <v>884656.24837257247</v>
       </c>
-      <c r="BD63" s="3">
+      <c r="BD63" s="4">
         <f t="shared" si="50"/>
         <v>911195.93582374963</v>
       </c>
-      <c r="BE63" s="3">
+      <c r="BE63" s="4">
         <f t="shared" si="50"/>
         <v>938531.8138984621</v>
       </c>
-      <c r="BF63" s="3">
+      <c r="BF63" s="4">
         <f t="shared" si="50"/>
         <v>966687.76831541595</v>
       </c>
-      <c r="BG63" s="3">
+      <c r="BG63" s="4">
         <f t="shared" si="50"/>
         <v>995688.4013648784</v>
       </c>
-      <c r="BH63" s="3">
+      <c r="BH63" s="4">
         <f t="shared" si="50"/>
         <v>1025559.0534058248</v>
       </c>
-      <c r="BI63" s="3">
+      <c r="BI63" s="4">
         <f t="shared" si="50"/>
         <v>1056325.8250079995</v>
       </c>
-      <c r="BJ63" s="3">
+      <c r="BJ63" s="4">
         <f t="shared" si="50"/>
         <v>1088015.5997582395</v>
       </c>
-      <c r="BK63" s="3">
+      <c r="BK63" s="4">
         <f t="shared" si="50"/>
         <v>1120656.0677509867</v>
       </c>
-      <c r="BL63" s="3">
+      <c r="BL63" s="4">
         <f t="shared" si="50"/>
         <v>1154275.7497835164</v>
       </c>
-      <c r="BM63" s="3">
+      <c r="BM63" s="4">
         <f t="shared" si="50"/>
         <v>1188904.022277022</v>
       </c>
-      <c r="BN63" s="3">
+      <c r="BN63" s="4">
         <f t="shared" si="50"/>
         <v>1224571.1429453327</v>
       </c>
-      <c r="BO63" s="3">
+      <c r="BO63" s="4">
         <f t="shared" si="50"/>
         <v>1261308.2772336926</v>
       </c>
-      <c r="BP63" s="3">
+      <c r="BP63" s="4">
         <f t="shared" si="50"/>
         <v>1299147.5255507033</v>
       </c>
-      <c r="BQ63" s="3">
+      <c r="BQ63" s="4">
         <f t="shared" si="50"/>
         <v>1338121.9513172244</v>
       </c>
-      <c r="BR63" s="3">
+      <c r="BR63" s="4">
         <f t="shared" si="50"/>
         <v>1378265.6098567413</v>
       </c>
-      <c r="BS63" s="3">
+      <c r="BS63" s="4">
         <f t="shared" si="50"/>
         <v>1419613.5781524435</v>
       </c>
-      <c r="BT63" s="3">
+      <c r="BT63" s="4">
         <f t="shared" si="50"/>
         <v>1462201.9854970169</v>
       </c>
-      <c r="BU63" s="3">
+      <c r="BU63" s="4">
         <f t="shared" si="50"/>
         <v>1506068.0450619275</v>
       </c>
-      <c r="BV63" s="3">
+      <c r="BV63" s="4">
         <f t="shared" si="50"/>
         <v>1551250.0864137853</v>
       </c>
-      <c r="BW63" s="3">
+      <c r="BW63" s="4">
         <f t="shared" si="50"/>
         <v>1597787.589006199</v>
       </c>
-      <c r="BX63" s="3">
+      <c r="BX63" s="4">
         <f t="shared" si="50"/>
         <v>1645721.2166763851</v>
       </c>
-      <c r="BY63" s="3">
+      <c r="BY63" s="4">
         <f t="shared" si="50"/>
         <v>1695092.8531766767</v>
       </c>
-      <c r="BZ63" s="3">
+      <c r="BZ63" s="4">
         <f t="shared" si="50"/>
         <v>1745945.638771977</v>
       </c>
-      <c r="CA63" s="3">
+      <c r="CA63" s="4">
         <f t="shared" si="50"/>
         <v>1798324.0079351363</v>
       </c>
-      <c r="CB63" s="3">
+      <c r="CB63" s="4">
         <f t="shared" si="50"/>
         <v>1852273.7281731905</v>
       </c>
-      <c r="CC63" s="3">
+      <c r="CC63" s="4">
         <f t="shared" si="50"/>
         <v>1907841.9400183863</v>
       </c>
-      <c r="CD63" s="3">
+      <c r="CD63" s="4">
         <f t="shared" si="50"/>
         <v>1965077.198218938</v>
       </c>
-      <c r="CE63" s="3">
+      <c r="CE63" s="4">
         <f t="shared" si="50"/>
         <v>2024029.5141655062</v>
       </c>
-      <c r="CF63" s="3">
+      <c r="CF63" s="4">
         <f t="shared" si="50"/>
         <v>2084750.3995904715</v>
       </c>
-      <c r="CG63" s="3">
+      <c r="CG63" s="4">
         <f t="shared" si="50"/>
         <v>2147292.9115781859</v>
       </c>
-      <c r="CH63" s="3">
+      <c r="CH63" s="4">
         <f t="shared" si="50"/>
         <v>2211711.6989255315</v>
       </c>
-      <c r="CI63" s="3">
+      <c r="CI63" s="4">
         <f t="shared" ref="CI63:DN63" si="51">CH63*(1+$Y$56)</f>
         <v>2278063.0498932973</v>
       </c>
-      <c r="CJ63" s="3">
+      <c r="CJ63" s="4">
         <f t="shared" si="51"/>
         <v>2346404.9413900962</v>
       </c>
-      <c r="CK63" s="3">
+      <c r="CK63" s="4">
         <f t="shared" si="51"/>
         <v>2416797.0896317991</v>
       </c>
-      <c r="CL63" s="3">
+      <c r="CL63" s="4">
         <f t="shared" si="51"/>
         <v>2489301.0023207534</v>
       </c>
-      <c r="CM63" s="3">
+      <c r="CM63" s="4">
         <f t="shared" si="51"/>
         <v>2563980.0323903761</v>
       </c>
-      <c r="CN63" s="3">
+      <c r="CN63" s="4">
         <f t="shared" si="51"/>
         <v>2640899.4333620872</v>
       </c>
-      <c r="CO63" s="3">
+      <c r="CO63" s="4">
         <f t="shared" si="51"/>
         <v>2720126.4163629501</v>
       </c>
-      <c r="CP63" s="3">
+      <c r="CP63" s="4">
         <f t="shared" si="51"/>
         <v>2801730.2088538385</v>
       </c>
-      <c r="CQ63" s="3">
+      <c r="CQ63" s="4">
         <f t="shared" si="51"/>
         <v>2885782.1151194535</v>
       </c>
-      <c r="CR63" s="3">
+      <c r="CR63" s="4">
         <f t="shared" si="51"/>
         <v>2972355.5785730374</v>
       </c>
-      <c r="CS63" s="3">
+      <c r="CS63" s="4">
         <f t="shared" si="51"/>
         <v>3061526.2459302284</v>
       </c>
-      <c r="CT63" s="3">
+      <c r="CT63" s="4">
         <f t="shared" si="51"/>
         <v>3153372.0333081353</v>
       </c>
-      <c r="CU63" s="3">
+      <c r="CU63" s="4">
         <f t="shared" si="51"/>
         <v>3247973.1943073794</v>
       </c>
-      <c r="CV63" s="3">
+      <c r="CV63" s="4">
         <f t="shared" si="51"/>
         <v>3345412.3901366009</v>
       </c>
-      <c r="CW63" s="3">
+      <c r="CW63" s="4">
         <f t="shared" si="51"/>
         <v>3445774.7618406992</v>
       </c>
-      <c r="CX63" s="3">
+      <c r="CX63" s="4">
         <f t="shared" si="51"/>
         <v>3549148.0046959203</v>
       </c>
-      <c r="CY63" s="3">
+      <c r="CY63" s="4">
         <f t="shared" si="51"/>
         <v>3655622.4448367981</v>
       </c>
-      <c r="CZ63" s="3">
+      <c r="CZ63" s="4">
         <f t="shared" si="51"/>
         <v>3765291.118181902</v>
       </c>
-      <c r="DA63" s="3">
+      <c r="DA63" s="4">
         <f t="shared" si="51"/>
         <v>3878249.851727359</v>
       </c>
-      <c r="DB63" s="3">
+      <c r="DB63" s="4">
         <f t="shared" si="51"/>
         <v>3994597.3472791798</v>
       </c>
-      <c r="DC63" s="3">
+      <c r="DC63" s="4">
         <f t="shared" si="51"/>
         <v>4114435.2676975555</v>
       </c>
-      <c r="DD63" s="3">
+      <c r="DD63" s="4">
         <f t="shared" si="51"/>
         <v>4237868.3257284826</v>
       </c>
-      <c r="DE63" s="3">
+      <c r="DE63" s="4">
         <f t="shared" si="51"/>
         <v>4365004.3755003372</v>
       </c>
-      <c r="DF63" s="3">
+      <c r="DF63" s="4">
         <f t="shared" si="51"/>
         <v>4495954.5067653479</v>
       </c>
-      <c r="DG63" s="3">
+      <c r="DG63" s="4">
         <f t="shared" si="51"/>
         <v>4630833.141968308</v>
       </c>
-      <c r="DH63" s="3">
+      <c r="DH63" s="4">
         <f t="shared" si="51"/>
         <v>4769758.1362273572</v>
       </c>
-      <c r="DI63" s="3">
+      <c r="DI63" s="4">
         <f t="shared" si="51"/>
         <v>4912850.8803141778</v>
       </c>
-      <c r="DJ63" s="3">
+      <c r="DJ63" s="4">
         <f t="shared" si="51"/>
         <v>5060236.4067236036</v>
       </c>
-      <c r="DK63" s="3">
+      <c r="DK63" s="4">
         <f t="shared" si="51"/>
         <v>5212043.4989253115</v>
       </c>
-      <c r="DL63" s="3">
+      <c r="DL63" s="4">
         <f t="shared" si="51"/>
         <v>5368404.8038930707</v>
       </c>
-      <c r="DM63" s="3">
+      <c r="DM63" s="4">
         <f t="shared" si="51"/>
         <v>5529456.9480098626</v>
       </c>
-      <c r="DN63" s="3">
+      <c r="DN63" s="4">
         <f t="shared" si="51"/>
         <v>5695340.6564501589</v>
       </c>
-      <c r="DO63" s="3">
+      <c r="DO63" s="4">
         <f t="shared" ref="DO63:DU63" si="52">DN63*(1+$Y$56)</f>
         <v>5866200.8761436641</v>
       </c>
-      <c r="DP63" s="3">
+      <c r="DP63" s="4">
         <f t="shared" si="52"/>
         <v>6042186.9024279742</v>
       </c>
-      <c r="DQ63" s="3">
+      <c r="DQ63" s="4">
         <f t="shared" si="52"/>
         <v>6223452.5095008137</v>
       </c>
-      <c r="DR63" s="3">
+      <c r="DR63" s="4">
         <f t="shared" si="52"/>
         <v>6410156.0847858386</v>
       </c>
-      <c r="DS63" s="3">
+      <c r="DS63" s="4">
         <f t="shared" si="52"/>
         <v>6602460.7673294144</v>
       </c>
-      <c r="DT63" s="3">
+      <c r="DT63" s="4">
         <f t="shared" si="52"/>
         <v>6800534.590349297</v>
       </c>
-      <c r="DU63" s="3">
+      <c r="DU63" s="4">
         <f t="shared" si="52"/>
         <v>7004550.6280597765</v>
       </c>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65FCF64-D508-48E2-856F-7AAE21F2BE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B87E7-E2DE-4ED2-B25C-E5ADDF44A780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="645" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="1965" yWindow="915" windowWidth="21945" windowHeight="14445" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>Price</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Diff</t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
   </si>
   <si>
     <t>Model NI</t>
@@ -313,9 +310,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -384,7 +378,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -418,7 +411,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -468,7 +461,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -850,19 +843,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="11"/>
-    <col min="4" max="4" width="10.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="11" customWidth="1"/>
-    <col min="6" max="14" width="9.140625" style="11"/>
-    <col min="15" max="15" width="10.42578125" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="10.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="10" customWidth="1"/>
+    <col min="6" max="14" width="9.140625" style="10"/>
+    <col min="15" max="15" width="10.42578125" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="10"/>
+      <c r="A1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="O2" s="5">
@@ -870,18 +863,18 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>24400</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="2">
@@ -890,44 +883,44 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="10">
         <v>2022</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O5" s="2">
         <v>53691</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="2">
         <v>14869</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="2">
@@ -936,73 +929,73 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D9" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D13" s="11" t="s">
-        <v>75</v>
+      <c r="D13" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D15" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D15" s="11" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D16" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D16" s="11" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="11" t="s">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="11" t="s">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="11" t="s">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="11" t="s">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="11" t="s">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="11" t="s">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="11" t="s">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="10" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1012,13 +1005,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140BE28-398D-4CC8-A7C9-E94B6BC720A8}">
-  <dimension ref="A1:EM63"/>
+  <dimension ref="A1:EM62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y56" sqref="Y56"/>
+      <selection pane="bottomRight" activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1030,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
@@ -1055,13 +1048,13 @@
         <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" s="3">
         <v>2020</v>
@@ -1109,7 +1102,7 @@
     <row r="2" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>567</v>
@@ -1129,7 +1122,7 @@
     <row r="3" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2">
         <v>509</v>
@@ -1149,7 +1142,7 @@
     <row r="4" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>3800</v>
@@ -1169,7 +1162,7 @@
     <row r="5" spans="1:26" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2">
         <f>39100</f>
@@ -1253,15 +1246,15 @@
         <v>17394</v>
       </c>
       <c r="H7" s="2">
-        <f>H6*(1-H25)</f>
+        <f>H6*(1-H24)</f>
         <v>12880.000000000002</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" ref="I7:J7" si="3">I6*(1-I25)</f>
+        <f>I6*(1-I24)</f>
         <v>13195.008000000003</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="3"/>
+        <f>J6*(1-J24)</f>
         <v>13462.532812800002</v>
       </c>
       <c r="O7" s="2">
@@ -1278,19 +1271,19 @@
         <v>56931.540812800005</v>
       </c>
       <c r="S7" s="2">
-        <f>S6*(1-S25)</f>
+        <f>S6*(1-S24)</f>
         <v>67349.343360000013</v>
       </c>
       <c r="T7" s="2">
-        <f>T6*(1-T25)</f>
+        <f>T6*(1-T24)</f>
         <v>90248.120102400018</v>
       </c>
       <c r="U7" s="2">
-        <f>U6*(1-U25)</f>
+        <f>U6*(1-U24)</f>
         <v>120932.48093721604</v>
       </c>
       <c r="V7" s="2">
-        <f>V6*(1-V25)</f>
+        <f>V6*(1-V24)</f>
         <v>162049.52445586951</v>
       </c>
       <c r="Z7" s="4"/>
@@ -1304,75 +1297,75 @@
         <v>20406</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:J8" si="4">D6-D7</f>
+        <f t="shared" ref="D8:J8" si="3">D6-D7</f>
         <v>0</v>
       </c>
       <c r="E8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>39300</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>26582</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>33120</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>36484.991999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>40191.867187199998</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8:V8" si="4">L6-L7</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="N8" s="2">
         <f t="shared" si="4"/>
-        <v>39300</v>
-      </c>
-      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
         <f t="shared" si="4"/>
-        <v>26582</v>
-      </c>
-      <c r="H8" s="2">
+        <v>15356</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="4"/>
-        <v>33120</v>
-      </c>
-      <c r="I8" s="2">
+        <v>44301</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="4"/>
-        <v>36484.991999999998</v>
-      </c>
-      <c r="J8" s="2">
+        <v>97858</v>
+      </c>
+      <c r="R8" s="2">
         <f t="shared" si="4"/>
-        <v>40191.867187199998</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" ref="L8:V8" si="5">L6-L7</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="5"/>
-        <v>15356</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="5"/>
-        <v>44301</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="5"/>
-        <v>97858</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" si="5"/>
         <v>136378.8591872</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>191686.59263999999</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>256860.03413760004</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>344192.44574438408</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>461217.87729747471</v>
       </c>
       <c r="Z8" s="4"/>
@@ -1428,31 +1421,31 @@
         <v>3497</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:G11" si="6">SUM(D9:D10)</f>
+        <f t="shared" ref="D11:G11" si="5">SUM(D9:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>5030</v>
       </c>
       <c r="H11" s="2">
-        <f>H6*H27</f>
+        <f>H6*H26</f>
         <v>7820.0000000000009</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11:J11" si="7">I6*I27</f>
+        <f>I6*I26</f>
         <v>8445.6</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="7"/>
+        <f>J6*J26</f>
         <v>9121.2480000000014</v>
       </c>
       <c r="L11" s="2">
@@ -1464,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:Q11" si="8">SUM(N9:N10)</f>
+        <f t="shared" ref="N11:Q11" si="6">SUM(N9:N10)</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9779</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>11329</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>16405</v>
       </c>
       <c r="R11" s="2">
@@ -1484,19 +1477,19 @@
         <v>30416.847999999998</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" ref="S11:V11" si="9">S6*S27</f>
+        <f>S6*S26</f>
         <v>41445.749760000006</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="9"/>
+        <f>T6*T26</f>
         <v>55537.304678400011</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="9"/>
+        <f>U6*U26</f>
         <v>74419.988269056019</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" si="9"/>
+        <f>V6*V26</f>
         <v>99722.784280535081</v>
       </c>
       <c r="Z11" s="4"/>
@@ -1510,31 +1503,31 @@
         <v>16909</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:J12" si="10">D8-D11</f>
+        <f t="shared" ref="D12:J12" si="7">D8-D11</f>
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>39300</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>21552</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>25300</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>28039.392</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>31070.619187199998</v>
       </c>
       <c r="L12" s="2">
@@ -1546,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" ref="N12:Q12" si="11">N8-N11</f>
+        <f t="shared" ref="N12:Q12" si="8">N8-N11</f>
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>5577</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>32972</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>81453</v>
       </c>
       <c r="R12" s="2">
@@ -1566,19 +1559,19 @@
         <v>105962.0111872</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" ref="S12:V12" si="12">S8-S11</f>
+        <f t="shared" ref="S12:V12" si="9">S8-S11</f>
         <v>150240.84287999998</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>201322.72945920003</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>269772.45747532806</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>361495.09301693965</v>
       </c>
       <c r="Z12" s="4"/>
@@ -1596,27 +1589,27 @@
         <v>452</v>
       </c>
       <c r="H13" s="2">
-        <f>G30*$Y$55/4</f>
-        <v>582.32999999999993</v>
+        <f>G29*$Y$54/4</f>
+        <v>194.11</v>
       </c>
       <c r="I13" s="2">
-        <f>H30*$Y$55/4</f>
-        <v>906.50618324999994</v>
+        <f>H29*$Y$54/4</f>
+        <v>296.08643999999998</v>
       </c>
       <c r="J13" s="2">
-        <f>I30*$Y$55/4</f>
-        <v>1269.0535579952063</v>
+        <f>I29*$Y$54/4</f>
+        <v>409.42835376000005</v>
       </c>
       <c r="L13" s="2">
-        <f>K30*$Y$55</f>
+        <f>K29*$Y$54</f>
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <f>L30*$Y$55</f>
+        <f>L29*$Y$54</f>
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <f>M30*$Y$55</f>
+        <f>M29*$Y$54</f>
         <v>0</v>
       </c>
       <c r="O13" s="2">
@@ -1633,23 +1626,23 @@
       </c>
       <c r="R13" s="2">
         <f>SUM(G13:J13)</f>
-        <v>3209.8897412452061</v>
+        <v>1351.6247937600001</v>
       </c>
       <c r="S13" s="2">
-        <f>R30*$Y$55</f>
-        <v>2022.7133844747123</v>
+        <f>R29*$Y$54</f>
+        <v>637.07249587519993</v>
       </c>
       <c r="T13" s="2">
-        <f>S30*$Y$55</f>
-        <v>2144.0761875431954</v>
+        <f>S29*$Y$54</f>
+        <v>649.81394579270398</v>
       </c>
       <c r="U13" s="2">
-        <f>T30*$Y$55</f>
-        <v>2272.7207587957869</v>
+        <f>T29*$Y$54</f>
+        <v>662.81022470855805</v>
       </c>
       <c r="V13" s="2">
-        <f>U30*$Y$55</f>
-        <v>2409.0840043235339</v>
+        <f>U29*$Y$54</f>
+        <v>676.06642920272918</v>
       </c>
       <c r="Z13" s="4"/>
     </row>
@@ -1680,15 +1673,15 @@
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" ref="T14:V14" si="13">S14*1.02</f>
+        <f t="shared" ref="T14:V14" si="10">S14*1.02</f>
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z14" s="4"/>
@@ -1702,32 +1695,32 @@
         <v>17279</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:J15" si="14">D12+SUM(D13:D14)</f>
+        <f t="shared" ref="D15:J15" si="11">D12+SUM(D13:D14)</f>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>39300</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>21824</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="14"/>
-        <v>25882.33</v>
+        <f t="shared" si="11"/>
+        <v>25494.11</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="14"/>
-        <v>28945.898183249999</v>
+        <f t="shared" si="11"/>
+        <v>28335.478439999999</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="14"/>
-        <v>32339.672745195203</v>
+        <f t="shared" si="11"/>
+        <v>31480.047540959997</v>
       </c>
       <c r="L15" s="2">
         <f>L12+SUM(L13:L14)</f>
@@ -1738,40 +1731,40 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" ref="N15:Q15" si="15">N12+SUM(N13:N14)</f>
+        <f t="shared" ref="N15:Q15" si="12">N12+SUM(N13:N14)</f>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>5534</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>33818</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>84026</v>
       </c>
       <c r="R15" s="2">
         <f>R12+SUM(R13:R14)</f>
-        <v>108991.9009284452</v>
+        <v>107133.63598096</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" ref="S15:V15" si="16">S12+SUM(S13:S14)</f>
-        <v>152263.5562644747</v>
+        <f t="shared" ref="S15:V15" si="13">S12+SUM(S13:S14)</f>
+        <v>150877.91537587519</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="16"/>
-        <v>203466.80564674322</v>
+        <f t="shared" si="13"/>
+        <v>201972.54340499273</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="16"/>
-        <v>272045.17823412386</v>
+        <f t="shared" si="13"/>
+        <v>270435.26770003664</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="16"/>
-        <v>363904.17702126317</v>
+        <f t="shared" si="13"/>
+        <v>362171.15944614238</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1785,16 +1778,16 @@
         <v>3135</v>
       </c>
       <c r="H16" s="2">
-        <f>H15*H23</f>
-        <v>4270.5844500000003</v>
+        <f>H15*0.2</f>
+        <v>5098.8220000000001</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16:J16" si="17">I15*I23</f>
-        <v>4776.0732002362502</v>
+        <f t="shared" ref="I16:J16" si="14">I15*0.2</f>
+        <v>5667.0956880000003</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="17"/>
-        <v>5336.0460029572087</v>
+        <f t="shared" si="14"/>
+        <v>6296.0095081919999</v>
       </c>
       <c r="O16" s="2">
         <v>-187</v>
@@ -1807,23 +1800,23 @@
       </c>
       <c r="R16" s="2">
         <f>SUM(G16:J16)</f>
-        <v>17517.703653193461</v>
+        <v>20196.927196192002</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" ref="S16:V16" si="18">S15*S23</f>
-        <v>25884.804564960701</v>
+        <f>S15*0.2</f>
+        <v>30175.58307517504</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="18"/>
-        <v>34589.356959946352</v>
+        <f t="shared" ref="T16:V16" si="15">T15*0.2</f>
+        <v>40394.508680998551</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="18"/>
-        <v>46247.680299801061</v>
+        <f t="shared" si="15"/>
+        <v>54087.053540007328</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="18"/>
-        <v>61863.71009361474</v>
+        <f t="shared" si="15"/>
+        <v>72434.231889228482</v>
       </c>
     </row>
     <row r="17" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1835,32 +1828,32 @@
         <v>14881</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:J17" si="19">D15-D16</f>
+        <f t="shared" ref="D17:J17" si="16">D15-D16</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>39300</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>18689</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="19"/>
-        <v>21611.74555</v>
+        <f t="shared" si="16"/>
+        <v>20395.288</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="19"/>
-        <v>24169.82498301375</v>
+        <f t="shared" si="16"/>
+        <v>22668.382751999998</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="19"/>
-        <v>27003.626742237993</v>
+        <f t="shared" si="16"/>
+        <v>25184.038032767996</v>
       </c>
       <c r="L17" s="4">
         <f>L15-L16</f>
@@ -1871,524 +1864,524 @@
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" ref="N17:Q17" si="20">N15-N16</f>
+        <f t="shared" ref="N17:Q17" si="17">N15-N16</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>5721</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>29760</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>72880</v>
       </c>
       <c r="R17" s="4">
         <f>R15-R16</f>
-        <v>91474.197275251747</v>
+        <v>86936.708784767994</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" ref="S17:V17" si="21">S15-S16</f>
-        <v>126378.75169951399</v>
+        <f t="shared" ref="S17:V17" si="18">S15-S16</f>
+        <v>120702.33230070016</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="21"/>
-        <v>168877.44868679688</v>
+        <f t="shared" si="18"/>
+        <v>161578.03472399418</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="21"/>
-        <v>225797.4979343228</v>
+        <f t="shared" si="18"/>
+        <v>216348.21416002931</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="21"/>
-        <v>302040.46692764841</v>
+        <f t="shared" si="18"/>
+        <v>289736.92755691393</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" ref="W17:BB17" si="22">V17*(1+$Y$56)</f>
-        <v>311101.68093547784</v>
+        <f>V17*(1+$Y$55)</f>
+        <v>292634.29683248309</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="22"/>
-        <v>320434.7313635422</v>
+        <f>W17*(1+$Y$55)</f>
+        <v>295560.63980080793</v>
       </c>
       <c r="Y17" s="4">
-        <f t="shared" si="22"/>
-        <v>330047.77330444846</v>
+        <f>X17*(1+$Y$55)</f>
+        <v>298516.24619881599</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="22"/>
-        <v>339949.20650358195</v>
+        <f>Y17*(1+$Y$55)</f>
+        <v>301501.40866080415</v>
       </c>
       <c r="AA17" s="4">
-        <f t="shared" si="22"/>
-        <v>350147.6826986894</v>
+        <f>Z17*(1+$Y$55)</f>
+        <v>304516.42274741217</v>
       </c>
       <c r="AB17" s="4">
-        <f t="shared" si="22"/>
-        <v>360652.1131796501</v>
+        <f>AA17*(1+$Y$55)</f>
+        <v>307561.5869748863</v>
       </c>
       <c r="AC17" s="4">
-        <f t="shared" si="22"/>
-        <v>371471.67657503963</v>
+        <f>AB17*(1+$Y$55)</f>
+        <v>310637.20284463518</v>
       </c>
       <c r="AD17" s="4">
-        <f t="shared" si="22"/>
-        <v>382615.82687229081</v>
+        <f>AC17*(1+$Y$55)</f>
+        <v>313743.57487308152</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="22"/>
-        <v>394094.30167845957</v>
+        <f>AD17*(1+$Y$55)</f>
+        <v>316881.01062181237</v>
       </c>
       <c r="AF17" s="4">
-        <f t="shared" si="22"/>
-        <v>405917.13072881335</v>
+        <f>AE17*(1+$Y$55)</f>
+        <v>320049.82072803052</v>
       </c>
       <c r="AG17" s="4">
-        <f t="shared" si="22"/>
-        <v>418094.64465067774</v>
+        <f>AF17*(1+$Y$55)</f>
+        <v>323250.31893531082</v>
       </c>
       <c r="AH17" s="4">
-        <f t="shared" si="22"/>
-        <v>430637.48399019806</v>
+        <f>AG17*(1+$Y$55)</f>
+        <v>326482.82212466392</v>
       </c>
       <c r="AI17" s="4">
-        <f t="shared" si="22"/>
-        <v>443556.60850990401</v>
+        <f>AH17*(1+$Y$55)</f>
+        <v>329747.65034591057</v>
       </c>
       <c r="AJ17" s="4">
-        <f t="shared" si="22"/>
-        <v>456863.30676520115</v>
+        <f>AI17*(1+$Y$55)</f>
+        <v>333045.12684936967</v>
       </c>
       <c r="AK17" s="4">
-        <f t="shared" si="22"/>
-        <v>470569.20596815721</v>
+        <f>AJ17*(1+$Y$55)</f>
+        <v>336375.57811786339</v>
       </c>
       <c r="AL17" s="4">
-        <f t="shared" si="22"/>
-        <v>484686.28214720194</v>
+        <f>AK17*(1+$Y$55)</f>
+        <v>339739.33389904205</v>
       </c>
       <c r="AM17" s="4">
-        <f t="shared" si="22"/>
-        <v>499226.87061161804</v>
+        <f>AL17*(1+$Y$55)</f>
+        <v>343136.72723803244</v>
       </c>
       <c r="AN17" s="4">
-        <f t="shared" si="22"/>
-        <v>514203.6767299666</v>
+        <f>AM17*(1+$Y$55)</f>
+        <v>346568.09451041277</v>
       </c>
       <c r="AO17" s="4">
-        <f t="shared" si="22"/>
-        <v>529629.78703186556</v>
+        <f>AN17*(1+$Y$55)</f>
+        <v>350033.77545551688</v>
       </c>
       <c r="AP17" s="4">
-        <f t="shared" si="22"/>
-        <v>545518.68064282159</v>
+        <f>AO17*(1+$Y$55)</f>
+        <v>353534.11321007204</v>
       </c>
       <c r="AQ17" s="4">
-        <f t="shared" si="22"/>
-        <v>561884.24106210622</v>
+        <f>AP17*(1+$Y$55)</f>
+        <v>357069.45434217277</v>
       </c>
       <c r="AR17" s="4">
-        <f t="shared" si="22"/>
-        <v>578740.76829396945</v>
+        <f>AQ17*(1+$Y$55)</f>
+        <v>360640.14888559451</v>
       </c>
       <c r="AS17" s="4">
-        <f t="shared" si="22"/>
-        <v>596102.99134278856</v>
+        <f>AR17*(1+$Y$55)</f>
+        <v>364246.55037445045</v>
       </c>
       <c r="AT17" s="4">
-        <f t="shared" si="22"/>
-        <v>613986.08108307223</v>
+        <f>AS17*(1+$Y$55)</f>
+        <v>367889.01587819494</v>
       </c>
       <c r="AU17" s="4">
-        <f t="shared" si="22"/>
-        <v>632405.6635155644</v>
+        <f>AT17*(1+$Y$55)</f>
+        <v>371567.9060369769</v>
       </c>
       <c r="AV17" s="4">
-        <f t="shared" si="22"/>
-        <v>651377.83342103136</v>
+        <f>AU17*(1+$Y$55)</f>
+        <v>375283.58509734669</v>
       </c>
       <c r="AW17" s="4">
-        <f t="shared" si="22"/>
-        <v>670919.16842366231</v>
+        <f>AV17*(1+$Y$55)</f>
+        <v>379036.42094832018</v>
       </c>
       <c r="AX17" s="4">
-        <f t="shared" si="22"/>
-        <v>691046.74347637221</v>
+        <f>AW17*(1+$Y$55)</f>
+        <v>382826.78515780339</v>
       </c>
       <c r="AY17" s="4">
-        <f t="shared" si="22"/>
-        <v>711778.14578066336</v>
+        <f>AX17*(1+$Y$55)</f>
+        <v>386655.0530093814</v>
       </c>
       <c r="AZ17" s="4">
-        <f t="shared" si="22"/>
-        <v>733131.49015408324</v>
+        <f>AY17*(1+$Y$55)</f>
+        <v>390521.60353947524</v>
       </c>
       <c r="BA17" s="4">
-        <f t="shared" si="22"/>
-        <v>755125.43485870573</v>
+        <f>AZ17*(1+$Y$55)</f>
+        <v>394426.81957486999</v>
       </c>
       <c r="BB17" s="4">
-        <f t="shared" si="22"/>
-        <v>777779.19790446688</v>
+        <f>BA17*(1+$Y$55)</f>
+        <v>398371.08777061867</v>
       </c>
       <c r="BC17" s="4">
-        <f t="shared" ref="BC17:CH17" si="23">BB17*(1+$Y$56)</f>
-        <v>801112.57384160091</v>
+        <f>BB17*(1+$Y$55)</f>
+        <v>402354.79864832485</v>
       </c>
       <c r="BD17" s="4">
-        <f t="shared" si="23"/>
-        <v>825145.95105684898</v>
+        <f>BC17*(1+$Y$55)</f>
+        <v>406378.34663480811</v>
       </c>
       <c r="BE17" s="4">
-        <f t="shared" si="23"/>
-        <v>849900.32958855445</v>
+        <f>BD17*(1+$Y$55)</f>
+        <v>410442.13010115619</v>
       </c>
       <c r="BF17" s="4">
-        <f t="shared" si="23"/>
-        <v>875397.33947621111</v>
+        <f>BE17*(1+$Y$55)</f>
+        <v>414546.55140216777</v>
       </c>
       <c r="BG17" s="4">
-        <f t="shared" si="23"/>
-        <v>901659.25966049742</v>
+        <f>BF17*(1+$Y$55)</f>
+        <v>418692.01691618946</v>
       </c>
       <c r="BH17" s="4">
-        <f t="shared" si="23"/>
-        <v>928709.0374503124</v>
+        <f>BG17*(1+$Y$55)</f>
+        <v>422878.93708535138</v>
       </c>
       <c r="BI17" s="4">
-        <f t="shared" si="23"/>
-        <v>956570.30857382179</v>
+        <f>BH17*(1+$Y$55)</f>
+        <v>427107.72645620489</v>
       </c>
       <c r="BJ17" s="4">
-        <f t="shared" si="23"/>
-        <v>985267.4178310365</v>
+        <f>BI17*(1+$Y$55)</f>
+        <v>431378.80372076697</v>
       </c>
       <c r="BK17" s="4">
-        <f t="shared" si="23"/>
-        <v>1014825.4403659676</v>
+        <f>BJ17*(1+$Y$55)</f>
+        <v>435692.59175797465</v>
       </c>
       <c r="BL17" s="4">
-        <f t="shared" si="23"/>
-        <v>1045270.2035769466</v>
+        <f>BK17*(1+$Y$55)</f>
+        <v>440049.51767555438</v>
       </c>
       <c r="BM17" s="4">
-        <f t="shared" si="23"/>
-        <v>1076628.3096842552</v>
+        <f>BL17*(1+$Y$55)</f>
+        <v>444450.01285230991</v>
       </c>
       <c r="BN17" s="4">
-        <f t="shared" si="23"/>
-        <v>1108927.1589747828</v>
+        <f>BM17*(1+$Y$55)</f>
+        <v>448894.51298083301</v>
       </c>
       <c r="BO17" s="4">
-        <f t="shared" si="23"/>
-        <v>1142194.9737440264</v>
+        <f>BN17*(1+$Y$55)</f>
+        <v>453383.45811064134</v>
       </c>
       <c r="BP17" s="4">
-        <f t="shared" si="23"/>
-        <v>1176460.8229563471</v>
+        <f>BO17*(1+$Y$55)</f>
+        <v>457917.29269174777</v>
       </c>
       <c r="BQ17" s="4">
-        <f t="shared" si="23"/>
-        <v>1211754.6476450376</v>
+        <f>BP17*(1+$Y$55)</f>
+        <v>462496.46561866527</v>
       </c>
       <c r="BR17" s="4">
-        <f t="shared" si="23"/>
-        <v>1248107.2870743887</v>
+        <f>BQ17*(1+$Y$55)</f>
+        <v>467121.43027485191</v>
       </c>
       <c r="BS17" s="4">
-        <f t="shared" si="23"/>
-        <v>1285550.5056866205</v>
+        <f>BR17*(1+$Y$55)</f>
+        <v>471792.64457760041</v>
       </c>
       <c r="BT17" s="4">
-        <f t="shared" si="23"/>
-        <v>1324117.0208572191</v>
+        <f>BS17*(1+$Y$55)</f>
+        <v>476510.57102337643</v>
       </c>
       <c r="BU17" s="4">
-        <f t="shared" si="23"/>
-        <v>1363840.5314829357</v>
+        <f>BT17*(1+$Y$55)</f>
+        <v>481275.67673361022</v>
       </c>
       <c r="BV17" s="4">
-        <f t="shared" si="23"/>
-        <v>1404755.7474274237</v>
+        <f>BU17*(1+$Y$55)</f>
+        <v>486088.43350094632</v>
       </c>
       <c r="BW17" s="4">
-        <f t="shared" si="23"/>
-        <v>1446898.4198502465</v>
+        <f>BV17*(1+$Y$55)</f>
+        <v>490949.31783595576</v>
       </c>
       <c r="BX17" s="4">
-        <f t="shared" si="23"/>
-        <v>1490305.372445754</v>
+        <f>BW17*(1+$Y$55)</f>
+        <v>495858.81101431535</v>
       </c>
       <c r="BY17" s="4">
-        <f t="shared" si="23"/>
-        <v>1535014.5336191268</v>
+        <f>BX17*(1+$Y$55)</f>
+        <v>500817.39912445849</v>
       </c>
       <c r="BZ17" s="4">
-        <f t="shared" si="23"/>
-        <v>1581064.9696277005</v>
+        <f>BY17*(1+$Y$55)</f>
+        <v>505825.57311570307</v>
       </c>
       <c r="CA17" s="4">
-        <f t="shared" si="23"/>
-        <v>1628496.9187165315</v>
+        <f>BZ17*(1+$Y$55)</f>
+        <v>510883.82884686009</v>
       </c>
       <c r="CB17" s="4">
-        <f t="shared" si="23"/>
-        <v>1677351.8262780274</v>
+        <f>CA17*(1+$Y$55)</f>
+        <v>515992.66713532869</v>
       </c>
       <c r="CC17" s="4">
-        <f t="shared" si="23"/>
-        <v>1727672.3810663682</v>
+        <f>CB17*(1+$Y$55)</f>
+        <v>521152.59380668198</v>
       </c>
       <c r="CD17" s="4">
-        <f t="shared" si="23"/>
-        <v>1779502.5524983592</v>
+        <f>CC17*(1+$Y$55)</f>
+        <v>526364.11974474881</v>
       </c>
       <c r="CE17" s="4">
-        <f t="shared" si="23"/>
-        <v>1832887.6290733099</v>
+        <f>CD17*(1+$Y$55)</f>
+        <v>531627.76094219636</v>
       </c>
       <c r="CF17" s="4">
-        <f t="shared" si="23"/>
-        <v>1887874.2579455094</v>
+        <f>CE17*(1+$Y$55)</f>
+        <v>536944.03855161835</v>
       </c>
       <c r="CG17" s="4">
-        <f t="shared" si="23"/>
-        <v>1944510.4856838747</v>
+        <f>CF17*(1+$Y$55)</f>
+        <v>542313.4789371345</v>
       </c>
       <c r="CH17" s="4">
-        <f t="shared" si="23"/>
-        <v>2002845.800254391</v>
+        <f>CG17*(1+$Y$55)</f>
+        <v>547736.61372650589</v>
       </c>
       <c r="CI17" s="4">
-        <f t="shared" ref="CI17:DN17" si="24">CH17*(1+$Y$56)</f>
-        <v>2062931.1742620228</v>
+        <f>CH17*(1+$Y$55)</f>
+        <v>553213.979863771</v>
       </c>
       <c r="CJ17" s="4">
-        <f t="shared" si="24"/>
-        <v>2124819.1094898838</v>
+        <f>CI17*(1+$Y$55)</f>
+        <v>558746.11966240872</v>
       </c>
       <c r="CK17" s="4">
-        <f t="shared" si="24"/>
-        <v>2188563.6827745805</v>
+        <f>CJ17*(1+$Y$55)</f>
+        <v>564333.58085903281</v>
       </c>
       <c r="CL17" s="4">
-        <f t="shared" si="24"/>
-        <v>2254220.5932578179</v>
+        <f>CK17*(1+$Y$55)</f>
+        <v>569976.9166676231</v>
       </c>
       <c r="CM17" s="4">
-        <f t="shared" si="24"/>
-        <v>2321847.2110555526</v>
+        <f>CL17*(1+$Y$55)</f>
+        <v>575676.68583429931</v>
       </c>
       <c r="CN17" s="4">
-        <f t="shared" si="24"/>
-        <v>2391502.6273872191</v>
+        <f>CM17*(1+$Y$55)</f>
+        <v>581433.45269264234</v>
       </c>
       <c r="CO17" s="4">
-        <f t="shared" si="24"/>
-        <v>2463247.7062088358</v>
+        <f>CN17*(1+$Y$55)</f>
+        <v>587247.78721956874</v>
       </c>
       <c r="CP17" s="4">
-        <f t="shared" si="24"/>
-        <v>2537145.1373951011</v>
+        <f>CO17*(1+$Y$55)</f>
+        <v>593120.26509176439</v>
       </c>
       <c r="CQ17" s="4">
-        <f t="shared" si="24"/>
-        <v>2613259.4915169543</v>
+        <f>CP17*(1+$Y$55)</f>
+        <v>599051.46774268209</v>
       </c>
       <c r="CR17" s="4">
-        <f t="shared" si="24"/>
-        <v>2691657.2762624631</v>
+        <f>CQ17*(1+$Y$55)</f>
+        <v>605041.98242010886</v>
       </c>
       <c r="CS17" s="4">
-        <f t="shared" si="24"/>
-        <v>2772406.9945503371</v>
+        <f>CR17*(1+$Y$55)</f>
+        <v>611092.40224431001</v>
       </c>
       <c r="CT17" s="4">
-        <f t="shared" si="24"/>
-        <v>2855579.2043868471</v>
+        <f>CS17*(1+$Y$55)</f>
+        <v>617203.32626675314</v>
       </c>
       <c r="CU17" s="4">
-        <f t="shared" si="24"/>
-        <v>2941246.5805184525</v>
+        <f>CT17*(1+$Y$55)</f>
+        <v>623375.35952942062</v>
       </c>
       <c r="CV17" s="4">
-        <f t="shared" si="24"/>
-        <v>3029483.9779340061</v>
+        <f>CU17*(1+$Y$55)</f>
+        <v>629609.11312471482</v>
       </c>
       <c r="CW17" s="4">
-        <f t="shared" si="24"/>
-        <v>3120368.4972720263</v>
+        <f>CV17*(1+$Y$55)</f>
+        <v>635905.20425596193</v>
       </c>
       <c r="CX17" s="4">
-        <f t="shared" si="24"/>
-        <v>3213979.5521901869</v>
+        <f>CW17*(1+$Y$55)</f>
+        <v>642264.25629852153</v>
       </c>
       <c r="CY17" s="4">
-        <f t="shared" si="24"/>
-        <v>3310398.9387558927</v>
+        <f>CX17*(1+$Y$55)</f>
+        <v>648686.89886150672</v>
       </c>
       <c r="CZ17" s="4">
-        <f t="shared" si="24"/>
-        <v>3409710.9069185695</v>
+        <f>CY17*(1+$Y$55)</f>
+        <v>655173.76785012183</v>
       </c>
       <c r="DA17" s="4">
-        <f t="shared" si="24"/>
-        <v>3512002.2341261269</v>
+        <f>CZ17*(1+$Y$55)</f>
+        <v>661725.50552862301</v>
       </c>
       <c r="DB17" s="4">
-        <f t="shared" si="24"/>
-        <v>3617362.3011499108</v>
+        <f>DA17*(1+$Y$55)</f>
+        <v>668342.76058390923</v>
       </c>
       <c r="DC17" s="4">
-        <f t="shared" si="24"/>
-        <v>3725883.1701844083</v>
+        <f>DB17*(1+$Y$55)</f>
+        <v>675026.18818974833</v>
       </c>
       <c r="DD17" s="4">
-        <f t="shared" si="24"/>
-        <v>3837659.6652899408</v>
+        <f>DC17*(1+$Y$55)</f>
+        <v>681776.45007164578</v>
       </c>
       <c r="DE17" s="4">
-        <f t="shared" si="24"/>
-        <v>3952789.455248639</v>
+        <f>DD17*(1+$Y$55)</f>
+        <v>688594.21457236225</v>
       </c>
       <c r="DF17" s="4">
-        <f t="shared" si="24"/>
-        <v>4071373.1389060984</v>
+        <f>DE17*(1+$Y$55)</f>
+        <v>695480.15671808587</v>
       </c>
       <c r="DG17" s="4">
-        <f t="shared" si="24"/>
-        <v>4193514.3330732817</v>
+        <f>DF17*(1+$Y$55)</f>
+        <v>702434.95828526677</v>
       </c>
       <c r="DH17" s="4">
-        <f t="shared" si="24"/>
-        <v>4319319.7630654806</v>
+        <f>DG17*(1+$Y$55)</f>
+        <v>709459.30786811945</v>
       </c>
       <c r="DI17" s="4">
-        <f t="shared" si="24"/>
-        <v>4448899.3559574448</v>
+        <f>DH17*(1+$Y$55)</f>
+        <v>716553.9009468006</v>
       </c>
       <c r="DJ17" s="4">
-        <f t="shared" si="24"/>
-        <v>4582366.336636168</v>
+        <f>DI17*(1+$Y$55)</f>
+        <v>723719.43995626864</v>
       </c>
       <c r="DK17" s="4">
-        <f t="shared" si="24"/>
-        <v>4719837.3267352534</v>
+        <f>DJ17*(1+$Y$55)</f>
+        <v>730956.63435583131</v>
       </c>
       <c r="DL17" s="4">
-        <f t="shared" si="24"/>
-        <v>4861432.4465373112</v>
+        <f>DK17*(1+$Y$55)</f>
+        <v>738266.20069938968</v>
       </c>
       <c r="DM17" s="4">
-        <f t="shared" si="24"/>
-        <v>5007275.4199334309</v>
+        <f>DL17*(1+$Y$55)</f>
+        <v>745648.86270638357</v>
       </c>
       <c r="DN17" s="4">
-        <f t="shared" si="24"/>
-        <v>5157493.6825314341</v>
+        <f>DM17*(1+$Y$55)</f>
+        <v>753105.35133344738</v>
       </c>
       <c r="DO17" s="4">
-        <f t="shared" ref="DO17:EM17" si="25">DN17*(1+$Y$56)</f>
-        <v>5312218.4930073777</v>
+        <f>DN17*(1+$Y$55)</f>
+        <v>760636.40484678186</v>
       </c>
       <c r="DP17" s="4">
-        <f t="shared" si="25"/>
-        <v>5471585.0477975989</v>
+        <f>DO17*(1+$Y$55)</f>
+        <v>768242.7688952497</v>
       </c>
       <c r="DQ17" s="4">
-        <f t="shared" si="25"/>
-        <v>5635732.5992315272</v>
+        <f>DP17*(1+$Y$55)</f>
+        <v>775925.19658420223</v>
       </c>
       <c r="DR17" s="4">
-        <f t="shared" si="25"/>
-        <v>5804804.5772084733</v>
+        <f>DQ17*(1+$Y$55)</f>
+        <v>783684.44855004421</v>
       </c>
       <c r="DS17" s="4">
-        <f t="shared" si="25"/>
-        <v>5978948.7145247273</v>
+        <f>DR17*(1+$Y$55)</f>
+        <v>791521.29303554469</v>
       </c>
       <c r="DT17" s="4">
-        <f t="shared" si="25"/>
-        <v>6158317.1759604691</v>
+        <f>DS17*(1+$Y$55)</f>
+        <v>799436.50596590014</v>
       </c>
       <c r="DU17" s="4">
-        <f t="shared" si="25"/>
-        <v>6343066.6912392834</v>
+        <f>DT17*(1+$Y$55)</f>
+        <v>807430.87102555914</v>
       </c>
       <c r="DV17" s="4">
-        <f t="shared" si="25"/>
-        <v>6533358.6919764625</v>
+        <f>DU17*(1+$Y$55)</f>
+        <v>815505.17973581469</v>
       </c>
       <c r="DW17" s="4">
-        <f t="shared" si="25"/>
-        <v>6729359.4527357565</v>
+        <f>DV17*(1+$Y$55)</f>
+        <v>823660.23153317289</v>
       </c>
       <c r="DX17" s="4">
-        <f t="shared" si="25"/>
-        <v>6931240.2363178292</v>
+        <f>DW17*(1+$Y$55)</f>
+        <v>831896.83384850458</v>
       </c>
       <c r="DY17" s="4">
-        <f t="shared" si="25"/>
-        <v>7139177.4434073642</v>
+        <f>DX17*(1+$Y$55)</f>
+        <v>840215.80218698969</v>
       </c>
       <c r="DZ17" s="4">
-        <f t="shared" si="25"/>
-        <v>7353352.7667095857</v>
+        <f>DY17*(1+$Y$55)</f>
+        <v>848617.96020885964</v>
       </c>
       <c r="EA17" s="4">
-        <f t="shared" si="25"/>
-        <v>7573953.3497108733</v>
+        <f>DZ17*(1+$Y$55)</f>
+        <v>857104.13981094828</v>
       </c>
       <c r="EB17" s="4">
-        <f t="shared" si="25"/>
-        <v>7801171.9502021996</v>
+        <f>EA17*(1+$Y$55)</f>
+        <v>865675.1812090578</v>
       </c>
       <c r="EC17" s="4">
-        <f t="shared" si="25"/>
-        <v>8035207.1087082662</v>
+        <f>EB17*(1+$Y$55)</f>
+        <v>874331.93302114843</v>
       </c>
       <c r="ED17" s="4">
-        <f t="shared" si="25"/>
-        <v>8276263.3219695147</v>
+        <f>EC17*(1+$Y$55)</f>
+        <v>883075.25235135993</v>
       </c>
       <c r="EE17" s="4">
-        <f t="shared" si="25"/>
-        <v>8524551.2216286007</v>
+        <f>ED17*(1+$Y$55)</f>
+        <v>891906.00487487356</v>
       </c>
       <c r="EF17" s="4">
-        <f t="shared" si="25"/>
-        <v>8780287.7582774591</v>
+        <f>EE17*(1+$Y$55)</f>
+        <v>900825.0649236223</v>
       </c>
       <c r="EG17" s="4">
-        <f t="shared" si="25"/>
-        <v>9043696.3910257835</v>
+        <f>EF17*(1+$Y$55)</f>
+        <v>909833.31557285856</v>
       </c>
       <c r="EH17" s="4">
-        <f t="shared" si="25"/>
-        <v>9315007.2827565577</v>
+        <f>EG17*(1+$Y$55)</f>
+        <v>918931.6487285872</v>
       </c>
       <c r="EI17" s="4">
-        <f t="shared" si="25"/>
-        <v>9594457.5012392551</v>
+        <f>EH17*(1+$Y$55)</f>
+        <v>928120.96521587309</v>
       </c>
       <c r="EJ17" s="4">
-        <f t="shared" si="25"/>
-        <v>9882291.2262764331</v>
+        <f>EI17*(1+$Y$55)</f>
+        <v>937402.17486803187</v>
       </c>
       <c r="EK17" s="4">
-        <f t="shared" si="25"/>
-        <v>10178759.963064726</v>
+        <f>EJ17*(1+$Y$55)</f>
+        <v>946776.19661671214</v>
       </c>
       <c r="EL17" s="4">
-        <f t="shared" si="25"/>
-        <v>10484122.761956669</v>
+        <f>EK17*(1+$Y$55)</f>
+        <v>956243.95858287928</v>
       </c>
       <c r="EM17" s="4">
-        <f t="shared" si="25"/>
-        <v>10798646.444815369</v>
+        <f>EL17*(1+$Y$55)</f>
+        <v>965806.39816870808</v>
       </c>
     </row>
     <row r="18" spans="1:143" x14ac:dyDescent="0.2">
@@ -2406,11 +2399,11 @@
         <v>24487.945</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" ref="I18:J18" si="26">H18*0.995</f>
+        <f t="shared" ref="I18:J18" si="19">H18*0.995</f>
         <v>24365.505275</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>24243.677748624999</v>
       </c>
       <c r="O18" s="2">
@@ -2427,19 +2420,19 @@
         <v>24243.677748624999</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" ref="S18:V18" si="27">R18*0.99</f>
+        <f t="shared" ref="S18:V18" si="20">R18*0.99</f>
         <v>24001.240971138748</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>23761.228561427361</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>23523.616275813085</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="20"/>
         <v>23288.380113054955</v>
       </c>
     </row>
@@ -2452,32 +2445,32 @@
         <v>0.5978706307754118</v>
       </c>
       <c r="D19" s="5" t="e">
-        <f t="shared" ref="D19:J19" si="28">D17/D18</f>
+        <f t="shared" ref="D19:J19" si="21">D17/D18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="5" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="5" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="21"/>
         <v>0.75937588883019791</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="28"/>
-        <v>0.8825463120731446</v>
+        <f t="shared" si="21"/>
+        <v>0.83287054099476299</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="28"/>
-        <v>0.99196896227770714</v>
+        <f t="shared" si="21"/>
+        <v>0.93034732898638806</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="28"/>
-        <v>1.1138420095428603</v>
+        <f t="shared" si="21"/>
+        <v>1.03878785611215</v>
       </c>
       <c r="O19" s="5">
         <f>O17/O18</f>
@@ -2492,24 +2485,24 @@
         <v>2.9868852459016395</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" ref="R19:V19" si="29">R17/R18</f>
-        <v>3.7731155406254229</v>
+        <f t="shared" ref="R19:V19" si="22">R17/R18</f>
+        <v>3.5859538179886377</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="29"/>
-        <v>5.2655090564476721</v>
+        <f t="shared" si="22"/>
+        <v>5.0290038105047783</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="29"/>
-        <v>7.1072692327425786</v>
+        <f t="shared" si="22"/>
+        <v>6.8000707247221577</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="29"/>
-        <v>9.598757915741345</v>
+        <f t="shared" si="22"/>
+        <v>9.1970644148994189</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="29"/>
-        <v>12.969578195708475</v>
+        <f t="shared" si="22"/>
+        <v>12.441265822284212</v>
       </c>
     </row>
     <row r="20" spans="1:143" x14ac:dyDescent="0.2">
@@ -2532,55 +2525,55 @@
         <v>0.68852710797112571</v>
       </c>
       <c r="H21" s="7" t="e">
-        <f t="shared" ref="H21:J21" si="30">H6/D6-1</f>
+        <f t="shared" ref="H21:J21" si="23">H6/D6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="7" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="23"/>
         <v>0.36525190839694655</v>
       </c>
       <c r="M21" s="7" t="e">
-        <f t="shared" ref="M21:V21" si="31">M6/L6-1</f>
+        <f t="shared" ref="M21:V21" si="24">M6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="7" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="7" t="e">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>1.1420340763599355</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0.48133980091496342</v>
       </c>
       <c r="S21" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="V21" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0.34000000000000008</v>
       </c>
     </row>
@@ -2593,428 +2586,369 @@
         <v>0.11898218829516538</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:J22" si="32">H6/G6-1</f>
+        <f t="shared" ref="H22:J22" si="25">H6/G6-1</f>
         <v>4.6025104602510414E-2</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>8.0000000000000071E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="6">
-        <f>C16/C15</f>
-        <v>0.13878117946640431</v>
-      </c>
-      <c r="D23" s="6" t="e">
-        <f t="shared" ref="D23:G23" si="33">D16/D15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="6" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <f t="shared" si="33"/>
-        <v>0.14364919354838709</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="M23" s="6" t="e">
-        <f>M16/M15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="6" t="e">
-        <f t="shared" ref="N23:R23" si="34">N16/N15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="6">
-        <f t="shared" si="34"/>
-        <v>-3.379110950487893E-2</v>
-      </c>
-      <c r="P23" s="6">
-        <f t="shared" si="34"/>
-        <v>0.1199952687917677</v>
-      </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="34"/>
-        <v>0.13264941803727417</v>
-      </c>
-      <c r="R23" s="6">
-        <f t="shared" si="34"/>
-        <v>0.16072481995422847</v>
-      </c>
-      <c r="S23" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="T23" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="U23" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="V23" s="6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+    <row r="24" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C24" s="7">
         <f>C8/C6</f>
         <v>0.78352019659038552</v>
       </c>
-      <c r="D25" s="7" t="e">
-        <f t="shared" ref="D25:G25" si="35">D8/D6</f>
+      <c r="D24" s="7" t="e">
+        <f>D8/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="7" t="e">
-        <f t="shared" si="35"/>
+      <c r="E24" s="7" t="e">
+        <f>E8/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="7">
-        <f t="shared" si="35"/>
+      <c r="F24" s="7">
+        <f>F8/F6</f>
         <v>1</v>
       </c>
-      <c r="G25" s="7">
-        <f t="shared" si="35"/>
+      <c r="G24" s="7">
+        <f>G8/G6</f>
         <v>0.604466072403129</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H24" s="7">
         <v>0.72</v>
       </c>
-      <c r="I25" s="7">
-        <f>H25*1.02</f>
+      <c r="I24" s="7">
+        <f>H24*1.02</f>
         <v>0.73439999999999994</v>
       </c>
-      <c r="J25" s="7">
-        <f>I25*1.02</f>
+      <c r="J24" s="7">
+        <f>I24*1.02</f>
         <v>0.74908799999999998</v>
       </c>
-      <c r="M25" s="7" t="e">
-        <f t="shared" ref="M25:R25" si="36">M8/M6</f>
+      <c r="M24" s="7" t="e">
+        <f>M8/M6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N25" s="7" t="e">
-        <f t="shared" si="36"/>
+      <c r="N24" s="7" t="e">
+        <f>N8/N6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O25" s="7">
-        <f t="shared" si="36"/>
+      <c r="O24" s="7">
+        <f>O8/O6</f>
         <v>0.56928894490991322</v>
       </c>
-      <c r="P25" s="7">
-        <f t="shared" si="36"/>
+      <c r="P24" s="7">
+        <f>P8/P6</f>
         <v>0.72717573290436954</v>
       </c>
-      <c r="Q25" s="7">
-        <f t="shared" si="36"/>
+      <c r="Q24" s="7">
+        <f>Q8/Q6</f>
         <v>0.74988697058169917</v>
       </c>
-      <c r="R25" s="7">
-        <f t="shared" si="36"/>
+      <c r="R24" s="7">
+        <f>R8/R6</f>
         <v>0.70549157824514352</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S24" s="7">
         <v>0.74</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T24" s="7">
         <v>0.74</v>
       </c>
-      <c r="U25" s="7">
+      <c r="U24" s="7">
         <v>0.74</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V24" s="7">
         <v>0.74</v>
       </c>
     </row>
-    <row r="26" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="6">
+    <row r="25" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="6">
         <f>C12/C6</f>
         <v>0.64924742743050223</v>
       </c>
+      <c r="D25" s="6" t="e">
+        <f>D12/D6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="6" t="e">
+        <f>E12/E6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="6">
+        <f>F12/F6</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <f>G12/G6</f>
+        <v>0.49008550118246313</v>
+      </c>
+      <c r="H25" s="6">
+        <f>H12/H6</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I25" s="6">
+        <f>I12/I6</f>
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="J25" s="6">
+        <f>J12/J6</f>
+        <v>0.57908799999999994</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6">
+        <f>O12/O6</f>
+        <v>0.20675465262845702</v>
+      </c>
+      <c r="P25" s="6">
+        <f>P12/P6</f>
+        <v>0.54121663766783756</v>
+      </c>
+      <c r="Q25" s="6">
+        <f>Q12/Q6</f>
+        <v>0.62417526839697468</v>
+      </c>
+      <c r="R25" s="6">
+        <f>R12/R6</f>
+        <v>0.54814438947516531</v>
+      </c>
+      <c r="S25" s="6">
+        <f>S12/S6</f>
+        <v>0.57999999999999985</v>
+      </c>
+      <c r="T25" s="6">
+        <f>T12/T6</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U25" s="6">
+        <f>U12/U6</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="V25" s="6">
+        <f>V12/V6</f>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6">
+        <f>C11/C6</f>
+        <v>0.13427276915988329</v>
+      </c>
       <c r="D26" s="6" t="e">
-        <f t="shared" ref="D26:J26" si="37">D12/D6</f>
+        <f>D11/D6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E26" s="6" t="e">
-        <f t="shared" si="37"/>
+        <f>E11/E6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="37"/>
-        <v>1</v>
+        <f>F11/F6</f>
+        <v>0</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="37"/>
-        <v>0.49008550118246313</v>
+        <f>G11/G6</f>
+        <v>0.11438057122066582</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="37"/>
-        <v>0.55000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="37"/>
-        <v>0.56440000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="37"/>
-        <v>0.57908799999999994</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+        <v>0.17</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
       <c r="O26" s="6">
-        <f t="shared" ref="O26:V26" si="38">O12/O6</f>
-        <v>0.20675465262845702</v>
+        <f>O11/O6</f>
+        <v>0.36253429228145623</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.54121663766783756</v>
+        <f>P11/P6</f>
+        <v>0.18595909523653195</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.62417526839697468</v>
+        <f>Q11/Q6</f>
+        <v>0.12571170218472455</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.54814438947516531</v>
+        <f>R11/R6</f>
+        <v>0.15734718876997822</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.57999999999999985</v>
+        <v>0.16</v>
       </c>
       <c r="T26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.57999999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.57999999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" si="38"/>
-        <v>0.57999999999999996</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="27" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="6">
-        <f>C11/C6</f>
-        <v>0.13427276915988329</v>
-      </c>
-      <c r="D27" s="6" t="e">
-        <f t="shared" ref="D27:G27" si="39">D11/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="6" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="6">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="39"/>
-        <v>0.11438057122066582</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0.17</v>
-      </c>
+      <c r="H27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-      <c r="O27" s="6">
-        <f>O11/O6</f>
-        <v>0.36253429228145623</v>
-      </c>
-      <c r="P27" s="6">
-        <f>P11/P6</f>
-        <v>0.18595909523653195</v>
-      </c>
-      <c r="Q27" s="6">
-        <f>Q11/Q6</f>
-        <v>0.12571170218472455</v>
-      </c>
-      <c r="R27" s="6">
-        <f>R11/R6</f>
-        <v>0.15734718876997822</v>
-      </c>
-      <c r="S27" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="T27" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="U27" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="V27" s="6">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="29" spans="1:143" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2">
+        <f>C31-C37</f>
+        <v>44747</v>
+      </c>
+      <c r="G29" s="2">
+        <f>G31-SUM(G37:G39)</f>
+        <v>38822</v>
+      </c>
+      <c r="H29" s="2">
+        <f>G29+H17</f>
+        <v>59217.288</v>
+      </c>
+      <c r="I29" s="2">
+        <f>H29+I17</f>
+        <v>81885.670752000005</v>
+      </c>
+      <c r="J29" s="2">
+        <f>I29+J17</f>
+        <v>107069.70878476801</v>
+      </c>
+      <c r="Q29" s="2">
+        <f>Q31-Q37</f>
+        <v>30502</v>
+      </c>
+      <c r="R29" s="2">
+        <f>Q29+R13</f>
+        <v>31853.624793759998</v>
+      </c>
+      <c r="S29" s="2">
+        <f>R29+S13</f>
+        <v>32490.697289635198</v>
+      </c>
+      <c r="T29" s="2">
+        <f>S29+T13</f>
+        <v>33140.511235427904</v>
+      </c>
+      <c r="U29" s="2">
+        <f>T29+U13</f>
+        <v>33803.32146013646</v>
+      </c>
+      <c r="V29" s="2">
+        <f>U29+V13</f>
+        <v>34479.387889339188</v>
+      </c>
     </row>
     <row r="30" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2">
-        <f>C32-C38</f>
-        <v>44747</v>
-      </c>
-      <c r="G30" s="2">
-        <f>G32-SUM(G38:G40)</f>
-        <v>38822</v>
-      </c>
-      <c r="H30" s="2">
-        <f>G30+H17</f>
-        <v>60433.74555</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" ref="I30:J30" si="40">H30+I17</f>
-        <v>84603.570533013757</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="40"/>
-        <v>111607.19727525175</v>
-      </c>
-      <c r="Q30" s="2">
-        <f>Q32-Q38</f>
-        <v>30502</v>
-      </c>
-      <c r="R30" s="2">
-        <f>Q30+R13</f>
-        <v>33711.889741245206</v>
-      </c>
-      <c r="S30" s="2">
-        <f>R30+S13</f>
-        <v>35734.603125719921</v>
-      </c>
-      <c r="T30" s="2">
-        <f>S30+T13</f>
-        <v>37878.679313263114</v>
-      </c>
-      <c r="U30" s="2">
-        <f>T30+U13</f>
-        <v>40151.400072058903</v>
-      </c>
-      <c r="V30" s="2">
-        <f>U30+V13</f>
-        <v>42560.48407638244</v>
-      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
     </row>
     <row r="31" spans="1:143" x14ac:dyDescent="0.2">
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>53210</v>
+      </c>
+      <c r="G31" s="2">
+        <v>53691</v>
+      </c>
+      <c r="Q31" s="2">
+        <f>8589+34621</f>
+        <v>43210</v>
+      </c>
     </row>
     <row r="32" spans="1:143" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>53210</v>
+        <v>23065</v>
       </c>
       <c r="G32" s="2">
-        <v>53691</v>
-      </c>
-      <c r="Q32" s="2">
-        <f>8589+34621</f>
-        <v>43210</v>
+        <v>22132</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2">
-        <v>23065</v>
+        <v>10080</v>
       </c>
       <c r="G33" s="2">
-        <v>22132</v>
+        <v>11333</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="2">
-        <v>10080</v>
-      </c>
-      <c r="G34" s="2">
-        <v>11333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8463</v>
+      </c>
+      <c r="G37" s="2">
+        <v>8464</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>8463+4245</f>
+        <v>12708</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2">
-        <v>8463</v>
+        <v>1519</v>
       </c>
       <c r="G38" s="2">
-        <v>8464</v>
-      </c>
-      <c r="Q38" s="2">
-        <f>8463+4245</f>
-        <v>12708</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
@@ -3022,158 +2956,173 @@
         <v>69</v>
       </c>
       <c r="C39" s="2">
-        <v>1519</v>
+        <v>4245</v>
       </c>
       <c r="G39" s="2">
-        <v>1521</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="2">
-        <v>4245</v>
-      </c>
-      <c r="G40" s="2">
-        <v>4884</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="2">
+        <f>M17</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <f>N17</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <f>O17</f>
+        <v>5721</v>
+      </c>
+      <c r="P44" s="2">
+        <f>P17</f>
+        <v>29760</v>
+      </c>
+      <c r="Q44" s="2">
+        <f>Q17</f>
+        <v>72880</v>
+      </c>
+      <c r="R44" s="2">
+        <f>R17</f>
+        <v>86936.708784767994</v>
+      </c>
+      <c r="S44" s="2">
+        <f>S17</f>
+        <v>120702.33230070016</v>
+      </c>
+      <c r="T44" s="2">
+        <f>T17</f>
+        <v>161578.03472399418</v>
+      </c>
+      <c r="U44" s="2">
+        <f>U17</f>
+        <v>216348.21416002931</v>
+      </c>
+      <c r="V44" s="2">
+        <f>V17</f>
+        <v>289736.92755691393</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M45" s="2">
-        <f t="shared" ref="M45:V45" si="41">M17</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
       <c r="O45" s="2">
-        <f t="shared" si="41"/>
-        <v>5721</v>
+        <v>4368</v>
       </c>
       <c r="P45" s="2">
-        <f t="shared" si="41"/>
         <v>29760</v>
       </c>
       <c r="Q45" s="2">
-        <f t="shared" si="41"/>
         <v>72880</v>
-      </c>
-      <c r="R45" s="2">
-        <f t="shared" si="41"/>
-        <v>91474.197275251747</v>
-      </c>
-      <c r="S45" s="2">
-        <f t="shared" si="41"/>
-        <v>126378.75169951399</v>
-      </c>
-      <c r="T45" s="2">
-        <f t="shared" si="41"/>
-        <v>168877.44868679688</v>
-      </c>
-      <c r="U45" s="2">
-        <f t="shared" si="41"/>
-        <v>225797.4979343228</v>
-      </c>
-      <c r="V45" s="2">
-        <f t="shared" si="41"/>
-        <v>302040.46692764841</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O46" s="2">
-        <v>4368</v>
+        <v>75</v>
       </c>
       <c r="P46" s="2">
-        <v>29760</v>
+        <v>3549</v>
       </c>
       <c r="Q46" s="2">
-        <v>72880</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+        <v>4737</v>
+      </c>
+      <c r="R46" s="2">
+        <f>Q46*1.2</f>
+        <v>5684.4</v>
+      </c>
+      <c r="S46" s="2">
+        <f t="shared" ref="S46:V46" si="26">R46*1.2</f>
+        <v>6821.28</v>
+      </c>
+      <c r="T46" s="2">
+        <f t="shared" si="26"/>
+        <v>8185.5359999999991</v>
+      </c>
+      <c r="U46" s="2">
+        <f t="shared" si="26"/>
+        <v>9822.6431999999986</v>
+      </c>
+      <c r="V46" s="2">
+        <f t="shared" si="26"/>
+        <v>11787.171839999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P47" s="2">
-        <v>3549</v>
+        <v>1508</v>
       </c>
       <c r="Q47" s="2">
-        <v>4737</v>
+        <v>1864</v>
       </c>
       <c r="R47" s="2">
-        <f>Q47*1.2</f>
-        <v>5684.4</v>
+        <f>Q47*(1+R21)</f>
+        <v>2761.217388905492</v>
       </c>
       <c r="S47" s="2">
-        <f t="shared" ref="S47:V47" si="42">R47*1.2</f>
-        <v>6821.28</v>
+        <f>R47*(1+S21)</f>
+        <v>3700.0313011333596</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" si="42"/>
-        <v>8185.5359999999991</v>
+        <f>S47*(1+T21)</f>
+        <v>4958.0419435187023</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="42"/>
-        <v>9822.6431999999986</v>
+        <f>T47*(1+U21)</f>
+        <v>6643.7762043150615</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="42"/>
-        <v>11787.171839999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
+        <f>U47*(1+V21)</f>
+        <v>8902.6601137821835</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>77</v>
       </c>
       <c r="P48" s="2">
-        <v>1508</v>
+        <v>-2489</v>
       </c>
       <c r="Q48" s="2">
-        <v>1864</v>
+        <v>-4477</v>
       </c>
       <c r="R48" s="2">
-        <f>Q48*(1+R21)</f>
-        <v>2761.217388905492</v>
+        <v>0</v>
       </c>
       <c r="S48" s="2">
-        <f t="shared" ref="S48:V48" si="43">R48*(1+S21)</f>
-        <v>3700.0313011333596</v>
+        <v>0</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" si="43"/>
-        <v>4958.0419435187023</v>
+        <v>0</v>
       </c>
       <c r="U48" s="2">
-        <f t="shared" si="43"/>
-        <v>6643.7762043150615</v>
+        <v>0</v>
       </c>
       <c r="V48" s="2">
-        <f t="shared" si="43"/>
-        <v>8902.6601137821835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:125" x14ac:dyDescent="0.2">
@@ -3181,13 +3130,13 @@
         <v>78</v>
       </c>
       <c r="P49" s="2">
-        <v>-2489</v>
+        <v>-238</v>
       </c>
       <c r="Q49" s="2">
-        <v>-4477</v>
+        <v>-1030</v>
       </c>
       <c r="R49" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="S49" s="2">
         <v>0</v>
@@ -3204,16 +3153,16 @@
     </row>
     <row r="50" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="P50" s="2">
-        <v>-238</v>
+        <v>-278</v>
       </c>
       <c r="Q50" s="2">
-        <v>-1030</v>
+        <v>-502</v>
       </c>
       <c r="R50" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2">
         <v>0</v>
@@ -3230,13 +3179,13 @@
     </row>
     <row r="51" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="P51" s="2">
-        <v>-278</v>
+        <v>-6172</v>
       </c>
       <c r="Q51" s="2">
-        <v>-502</v>
+        <v>-13063</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
@@ -3256,13 +3205,13 @@
     </row>
     <row r="52" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="P52" s="2">
-        <v>-6172</v>
+        <v>-98</v>
       </c>
       <c r="Q52" s="2">
-        <v>-13063</v>
+        <v>-4781</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
@@ -3282,13 +3231,13 @@
     </row>
     <row r="53" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="P53" s="2">
-        <v>-98</v>
+        <v>-1522</v>
       </c>
       <c r="Q53" s="2">
-        <v>-4781</v>
+        <v>-395</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
@@ -3308,13 +3257,13 @@
     </row>
     <row r="54" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="P54" s="2">
-        <v>-1522</v>
+        <v>1531</v>
       </c>
       <c r="Q54" s="2">
-        <v>-395</v>
+        <v>3357</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
@@ -3330,161 +3279,153 @@
       </c>
       <c r="V54" s="2">
         <v>0</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y54" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="55" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="P55" s="2">
-        <v>1531</v>
+        <v>2025</v>
       </c>
       <c r="Q55" s="2">
-        <v>3357</v>
+        <v>4278</v>
       </c>
       <c r="R55" s="2">
-        <v>0</v>
+        <f>Q55*(1+R21)</f>
+        <v>6337.1716683142131</v>
       </c>
       <c r="S55" s="2">
-        <v>0</v>
+        <f>R55*(1+S21)</f>
+        <v>8491.8100355410461</v>
       </c>
       <c r="T55" s="2">
-        <v>0</v>
+        <f>S55*(1+T21)</f>
+        <v>11379.025447625003</v>
       </c>
       <c r="U55" s="2">
-        <v>0</v>
+        <f>T55*(1+U21)</f>
+        <v>15247.894099817504</v>
       </c>
       <c r="V55" s="2">
-        <v>0</v>
+        <f>U55*(1+V21)</f>
+        <v>20432.178093755458</v>
       </c>
       <c r="X55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y55" s="9">
-        <v>0.06</v>
+        <v>31</v>
+      </c>
+      <c r="Y55" s="8">
+        <v>0.01</v>
       </c>
     </row>
     <row r="56" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="P56" s="2">
-        <v>2025</v>
+        <v>514</v>
       </c>
       <c r="Q56" s="2">
-        <v>4278</v>
+        <v>1221</v>
       </c>
       <c r="R56" s="2">
         <f>Q56*(1+R21)</f>
-        <v>6337.1716683142131</v>
+        <v>1808.7158969171703</v>
       </c>
       <c r="S56" s="2">
-        <f t="shared" ref="S56:V56" si="44">R56*(1+S21)</f>
-        <v>8491.8100355410461</v>
+        <f>R56*(1+S21)</f>
+        <v>2423.6793018690082</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" si="44"/>
-        <v>11379.025447625003</v>
+        <f>S56*(1+T21)</f>
+        <v>3247.7302645044711</v>
       </c>
       <c r="U56" s="2">
-        <f t="shared" si="44"/>
-        <v>15247.894099817504</v>
+        <f>T56*(1+U21)</f>
+        <v>4351.9585544359916</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" si="44"/>
-        <v>20432.178093755458</v>
+        <f>U56*(1+V21)</f>
+        <v>5831.624462944229</v>
       </c>
       <c r="X56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y56" s="9">
-        <v>0.03</v>
+        <v>33</v>
+      </c>
+      <c r="Y56" s="8">
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="P57" s="2">
-        <v>514</v>
+        <f>SUM(P45:P56)</f>
+        <v>28090</v>
       </c>
       <c r="Q57" s="2">
-        <v>1221</v>
+        <f>SUM(Q45:Q56)</f>
+        <v>64089</v>
       </c>
       <c r="R57" s="2">
-        <f>Q57*(1+R21)</f>
-        <v>1808.7158969171703</v>
+        <f>SUM(R46:R56,R44)</f>
+        <v>103708.21373890487</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" ref="S57:V57" si="45">R57*(1+S21)</f>
-        <v>2423.6793018690082</v>
+        <f t="shared" ref="S57:V57" si="27">SUM(S46:S56,S44)</f>
+        <v>142139.13293924357</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="45"/>
-        <v>3247.7302645044711</v>
+        <f t="shared" si="27"/>
+        <v>189348.36837964234</v>
       </c>
       <c r="U57" s="2">
-        <f t="shared" si="45"/>
-        <v>4351.9585544359916</v>
+        <f t="shared" si="27"/>
+        <v>252414.48621859786</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" si="45"/>
-        <v>5831.624462944229</v>
+        <f t="shared" si="27"/>
+        <v>336690.56206739577</v>
       </c>
       <c r="X57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y57" s="9">
-        <v>9.5000000000000001E-2</v>
+        <v>30</v>
+      </c>
+      <c r="Y57" s="2">
+        <f>NPV(Y56,R62:DU62)+main!O5-main!O6</f>
+        <v>3175706.3364186483</v>
       </c>
     </row>
     <row r="58" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P58" s="2">
-        <f>SUM(P46:P57)</f>
-        <v>28090</v>
-      </c>
-      <c r="Q58" s="2">
-        <f>SUM(Q46:Q57)</f>
-        <v>64089</v>
-      </c>
-      <c r="R58" s="2">
-        <f>SUM(R47:R57,R45)</f>
-        <v>108245.70222938863</v>
-      </c>
-      <c r="S58" s="2">
-        <f t="shared" ref="S58:V58" si="46">SUM(S47:S57,S45)</f>
-        <v>147815.5523380574</v>
-      </c>
-      <c r="T58" s="2">
-        <f t="shared" si="46"/>
-        <v>196647.78234244505</v>
-      </c>
-      <c r="U58" s="2">
-        <f t="shared" si="46"/>
-        <v>261863.76999289135</v>
-      </c>
-      <c r="V58" s="2">
-        <f t="shared" si="46"/>
-        <v>348994.10143813025</v>
-      </c>
       <c r="X58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y58" s="2">
-        <f>NPV(Y57,R63:DU63)+main!O5-main!O6</f>
-        <v>4131664.7271371512</v>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="5">
+        <f>Y57/main!O3</f>
+        <v>130.15189903355116</v>
       </c>
     </row>
     <row r="59" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P59" s="2">
+        <v>-1069</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>-3236</v>
+      </c>
       <c r="X59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="5">
-        <f>Y58/main!O3</f>
-        <v>169.33052160398159</v>
+        <v>34</v>
+      </c>
+      <c r="Y59" s="6">
+        <f>Y58/main!O2-1</f>
+        <v>-0.10240069632033677</v>
       </c>
     </row>
     <row r="60" spans="1:125" x14ac:dyDescent="0.2">
@@ -3492,496 +3433,478 @@
         <v>82</v>
       </c>
       <c r="P60" s="2">
+        <f>P59</f>
         <v>-1069</v>
       </c>
       <c r="Q60" s="2">
+        <f>Q59</f>
         <v>-3236</v>
       </c>
-      <c r="X60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y60" s="6">
-        <f>Y59/main!O2-1</f>
-        <v>0.16779670071711439</v>
-      </c>
-    </row>
-    <row r="61" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P61" s="2">
-        <f>P60</f>
-        <v>-1069</v>
-      </c>
-      <c r="Q61" s="2">
-        <f>Q60</f>
-        <v>-3236</v>
-      </c>
-      <c r="R61" s="2">
-        <f>Q61*(1+R21)</f>
+      <c r="R60" s="2">
+        <f>Q60*(1+R21)</f>
         <v>-4793.6155957608216</v>
       </c>
-      <c r="S61" s="2">
-        <f t="shared" ref="S61:V61" si="47">R61*(1+S21)</f>
+      <c r="S60" s="2">
+        <f>R60*(1+S21)</f>
         <v>-6423.4448983195016</v>
       </c>
-      <c r="T61" s="2">
-        <f t="shared" si="47"/>
+      <c r="T60" s="2">
+        <f>S60*(1+T21)</f>
         <v>-8607.416163748132</v>
       </c>
-      <c r="U61" s="2">
-        <f t="shared" si="47"/>
+      <c r="U60" s="2">
+        <f>T60*(1+U21)</f>
         <v>-11533.937659422498</v>
       </c>
-      <c r="V61" s="2">
-        <f t="shared" si="47"/>
+      <c r="V60" s="2">
+        <f>U60*(1+V21)</f>
         <v>-15455.476463626148</v>
       </c>
     </row>
-    <row r="63" spans="1:125" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P63" s="4">
-        <f>P58+P61</f>
+    <row r="62" spans="1:125" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" s="4">
+        <f>P57+P60</f>
         <v>27021</v>
       </c>
-      <c r="Q63" s="4">
-        <f>Q58+Q61</f>
+      <c r="Q62" s="4">
+        <f>Q57+Q60</f>
         <v>60853</v>
       </c>
-      <c r="R63" s="4">
-        <f t="shared" ref="R63:V63" si="48">R58+R61</f>
-        <v>103452.0866336278</v>
-      </c>
-      <c r="S63" s="4">
-        <f t="shared" si="48"/>
-        <v>141392.10743973791</v>
-      </c>
-      <c r="T63" s="4">
-        <f t="shared" si="48"/>
-        <v>188040.36617869692</v>
-      </c>
-      <c r="U63" s="4">
-        <f t="shared" si="48"/>
-        <v>250329.83233346886</v>
-      </c>
-      <c r="V63" s="4">
-        <f t="shared" si="48"/>
-        <v>333538.62497450411</v>
-      </c>
-      <c r="W63" s="4">
-        <f t="shared" ref="W63:BB63" si="49">V63*(1+$Y$56)</f>
-        <v>343544.78372373927</v>
-      </c>
-      <c r="X63" s="4">
-        <f t="shared" si="49"/>
-        <v>353851.12723545148</v>
-      </c>
-      <c r="Y63" s="4">
-        <f t="shared" si="49"/>
-        <v>364466.66105251503</v>
-      </c>
-      <c r="Z63" s="4">
-        <f t="shared" si="49"/>
-        <v>375400.66088409047</v>
-      </c>
-      <c r="AA63" s="4">
-        <f t="shared" si="49"/>
-        <v>386662.6807106132</v>
-      </c>
-      <c r="AB63" s="4">
-        <f t="shared" si="49"/>
-        <v>398262.56113193161</v>
-      </c>
-      <c r="AC63" s="4">
-        <f t="shared" si="49"/>
-        <v>410210.43796588958</v>
-      </c>
-      <c r="AD63" s="4">
-        <f t="shared" si="49"/>
-        <v>422516.75110486627</v>
-      </c>
-      <c r="AE63" s="4">
-        <f t="shared" si="49"/>
-        <v>435192.25363801228</v>
-      </c>
-      <c r="AF63" s="4">
-        <f t="shared" si="49"/>
-        <v>448248.02124715265</v>
-      </c>
-      <c r="AG63" s="4">
-        <f t="shared" si="49"/>
-        <v>461695.46188456722</v>
-      </c>
-      <c r="AH63" s="4">
-        <f t="shared" si="49"/>
-        <v>475546.32574110426</v>
-      </c>
-      <c r="AI63" s="4">
-        <f t="shared" si="49"/>
-        <v>489812.7155133374</v>
-      </c>
-      <c r="AJ63" s="4">
-        <f t="shared" si="49"/>
-        <v>504507.09697873757</v>
-      </c>
-      <c r="AK63" s="4">
-        <f t="shared" si="49"/>
-        <v>519642.30988809973</v>
-      </c>
-      <c r="AL63" s="4">
-        <f t="shared" si="49"/>
-        <v>535231.57918474276</v>
-      </c>
-      <c r="AM63" s="4">
-        <f t="shared" si="49"/>
-        <v>551288.52656028501</v>
-      </c>
-      <c r="AN63" s="4">
-        <f t="shared" si="49"/>
-        <v>567827.18235709355</v>
-      </c>
-      <c r="AO63" s="4">
-        <f t="shared" si="49"/>
-        <v>584861.99782780639</v>
-      </c>
-      <c r="AP63" s="4">
-        <f t="shared" si="49"/>
-        <v>602407.85776264057</v>
-      </c>
-      <c r="AQ63" s="4">
-        <f t="shared" si="49"/>
-        <v>620480.09349551983</v>
-      </c>
-      <c r="AR63" s="4">
-        <f t="shared" si="49"/>
-        <v>639094.49630038545</v>
-      </c>
-      <c r="AS63" s="4">
-        <f t="shared" si="49"/>
-        <v>658267.33118939702</v>
-      </c>
-      <c r="AT63" s="4">
-        <f t="shared" si="49"/>
-        <v>678015.35112507897</v>
-      </c>
-      <c r="AU63" s="4">
-        <f t="shared" si="49"/>
-        <v>698355.81165883131</v>
-      </c>
-      <c r="AV63" s="4">
-        <f t="shared" si="49"/>
-        <v>719306.48600859626</v>
-      </c>
-      <c r="AW63" s="4">
-        <f t="shared" si="49"/>
-        <v>740885.68058885413</v>
-      </c>
-      <c r="AX63" s="4">
-        <f t="shared" si="49"/>
-        <v>763112.25100651977</v>
-      </c>
-      <c r="AY63" s="4">
-        <f t="shared" si="49"/>
-        <v>786005.6185367154</v>
-      </c>
-      <c r="AZ63" s="4">
-        <f t="shared" si="49"/>
-        <v>809585.7870928169</v>
-      </c>
-      <c r="BA63" s="4">
-        <f t="shared" si="49"/>
-        <v>833873.3607056014</v>
-      </c>
-      <c r="BB63" s="4">
-        <f t="shared" si="49"/>
-        <v>858889.56152676942</v>
-      </c>
-      <c r="BC63" s="4">
-        <f t="shared" ref="BC63:CH63" si="50">BB63*(1+$Y$56)</f>
-        <v>884656.24837257247</v>
-      </c>
-      <c r="BD63" s="4">
-        <f t="shared" si="50"/>
-        <v>911195.93582374963</v>
-      </c>
-      <c r="BE63" s="4">
-        <f t="shared" si="50"/>
-        <v>938531.8138984621</v>
-      </c>
-      <c r="BF63" s="4">
-        <f t="shared" si="50"/>
-        <v>966687.76831541595</v>
-      </c>
-      <c r="BG63" s="4">
-        <f t="shared" si="50"/>
-        <v>995688.4013648784</v>
-      </c>
-      <c r="BH63" s="4">
-        <f t="shared" si="50"/>
-        <v>1025559.0534058248</v>
-      </c>
-      <c r="BI63" s="4">
-        <f t="shared" si="50"/>
-        <v>1056325.8250079995</v>
-      </c>
-      <c r="BJ63" s="4">
-        <f t="shared" si="50"/>
-        <v>1088015.5997582395</v>
-      </c>
-      <c r="BK63" s="4">
-        <f t="shared" si="50"/>
-        <v>1120656.0677509867</v>
-      </c>
-      <c r="BL63" s="4">
-        <f t="shared" si="50"/>
-        <v>1154275.7497835164</v>
-      </c>
-      <c r="BM63" s="4">
-        <f t="shared" si="50"/>
-        <v>1188904.022277022</v>
-      </c>
-      <c r="BN63" s="4">
-        <f t="shared" si="50"/>
-        <v>1224571.1429453327</v>
-      </c>
-      <c r="BO63" s="4">
-        <f t="shared" si="50"/>
-        <v>1261308.2772336926</v>
-      </c>
-      <c r="BP63" s="4">
-        <f t="shared" si="50"/>
-        <v>1299147.5255507033</v>
-      </c>
-      <c r="BQ63" s="4">
-        <f t="shared" si="50"/>
-        <v>1338121.9513172244</v>
-      </c>
-      <c r="BR63" s="4">
-        <f t="shared" si="50"/>
-        <v>1378265.6098567413</v>
-      </c>
-      <c r="BS63" s="4">
-        <f t="shared" si="50"/>
-        <v>1419613.5781524435</v>
-      </c>
-      <c r="BT63" s="4">
-        <f t="shared" si="50"/>
-        <v>1462201.9854970169</v>
-      </c>
-      <c r="BU63" s="4">
-        <f t="shared" si="50"/>
-        <v>1506068.0450619275</v>
-      </c>
-      <c r="BV63" s="4">
-        <f t="shared" si="50"/>
-        <v>1551250.0864137853</v>
-      </c>
-      <c r="BW63" s="4">
-        <f t="shared" si="50"/>
-        <v>1597787.589006199</v>
-      </c>
-      <c r="BX63" s="4">
-        <f t="shared" si="50"/>
-        <v>1645721.2166763851</v>
-      </c>
-      <c r="BY63" s="4">
-        <f t="shared" si="50"/>
-        <v>1695092.8531766767</v>
-      </c>
-      <c r="BZ63" s="4">
-        <f t="shared" si="50"/>
-        <v>1745945.638771977</v>
-      </c>
-      <c r="CA63" s="4">
-        <f t="shared" si="50"/>
-        <v>1798324.0079351363</v>
-      </c>
-      <c r="CB63" s="4">
-        <f t="shared" si="50"/>
-        <v>1852273.7281731905</v>
-      </c>
-      <c r="CC63" s="4">
-        <f t="shared" si="50"/>
-        <v>1907841.9400183863</v>
-      </c>
-      <c r="CD63" s="4">
-        <f t="shared" si="50"/>
-        <v>1965077.198218938</v>
-      </c>
-      <c r="CE63" s="4">
-        <f t="shared" si="50"/>
-        <v>2024029.5141655062</v>
-      </c>
-      <c r="CF63" s="4">
-        <f t="shared" si="50"/>
-        <v>2084750.3995904715</v>
-      </c>
-      <c r="CG63" s="4">
-        <f t="shared" si="50"/>
-        <v>2147292.9115781859</v>
-      </c>
-      <c r="CH63" s="4">
-        <f t="shared" si="50"/>
-        <v>2211711.6989255315</v>
-      </c>
-      <c r="CI63" s="4">
-        <f t="shared" ref="CI63:DN63" si="51">CH63*(1+$Y$56)</f>
-        <v>2278063.0498932973</v>
-      </c>
-      <c r="CJ63" s="4">
-        <f t="shared" si="51"/>
-        <v>2346404.9413900962</v>
-      </c>
-      <c r="CK63" s="4">
-        <f t="shared" si="51"/>
-        <v>2416797.0896317991</v>
-      </c>
-      <c r="CL63" s="4">
-        <f t="shared" si="51"/>
-        <v>2489301.0023207534</v>
-      </c>
-      <c r="CM63" s="4">
-        <f t="shared" si="51"/>
-        <v>2563980.0323903761</v>
-      </c>
-      <c r="CN63" s="4">
-        <f t="shared" si="51"/>
-        <v>2640899.4333620872</v>
-      </c>
-      <c r="CO63" s="4">
-        <f t="shared" si="51"/>
-        <v>2720126.4163629501</v>
-      </c>
-      <c r="CP63" s="4">
-        <f t="shared" si="51"/>
-        <v>2801730.2088538385</v>
-      </c>
-      <c r="CQ63" s="4">
-        <f t="shared" si="51"/>
-        <v>2885782.1151194535</v>
-      </c>
-      <c r="CR63" s="4">
-        <f t="shared" si="51"/>
-        <v>2972355.5785730374</v>
-      </c>
-      <c r="CS63" s="4">
-        <f t="shared" si="51"/>
-        <v>3061526.2459302284</v>
-      </c>
-      <c r="CT63" s="4">
-        <f t="shared" si="51"/>
-        <v>3153372.0333081353</v>
-      </c>
-      <c r="CU63" s="4">
-        <f t="shared" si="51"/>
-        <v>3247973.1943073794</v>
-      </c>
-      <c r="CV63" s="4">
-        <f t="shared" si="51"/>
-        <v>3345412.3901366009</v>
-      </c>
-      <c r="CW63" s="4">
-        <f t="shared" si="51"/>
-        <v>3445774.7618406992</v>
-      </c>
-      <c r="CX63" s="4">
-        <f t="shared" si="51"/>
-        <v>3549148.0046959203</v>
-      </c>
-      <c r="CY63" s="4">
-        <f t="shared" si="51"/>
-        <v>3655622.4448367981</v>
-      </c>
-      <c r="CZ63" s="4">
-        <f t="shared" si="51"/>
-        <v>3765291.118181902</v>
-      </c>
-      <c r="DA63" s="4">
-        <f t="shared" si="51"/>
-        <v>3878249.851727359</v>
-      </c>
-      <c r="DB63" s="4">
-        <f t="shared" si="51"/>
-        <v>3994597.3472791798</v>
-      </c>
-      <c r="DC63" s="4">
-        <f t="shared" si="51"/>
-        <v>4114435.2676975555</v>
-      </c>
-      <c r="DD63" s="4">
-        <f t="shared" si="51"/>
-        <v>4237868.3257284826</v>
-      </c>
-      <c r="DE63" s="4">
-        <f t="shared" si="51"/>
-        <v>4365004.3755003372</v>
-      </c>
-      <c r="DF63" s="4">
-        <f t="shared" si="51"/>
-        <v>4495954.5067653479</v>
-      </c>
-      <c r="DG63" s="4">
-        <f t="shared" si="51"/>
-        <v>4630833.141968308</v>
-      </c>
-      <c r="DH63" s="4">
-        <f t="shared" si="51"/>
-        <v>4769758.1362273572</v>
-      </c>
-      <c r="DI63" s="4">
-        <f t="shared" si="51"/>
-        <v>4912850.8803141778</v>
-      </c>
-      <c r="DJ63" s="4">
-        <f t="shared" si="51"/>
-        <v>5060236.4067236036</v>
-      </c>
-      <c r="DK63" s="4">
-        <f t="shared" si="51"/>
-        <v>5212043.4989253115</v>
-      </c>
-      <c r="DL63" s="4">
-        <f t="shared" si="51"/>
-        <v>5368404.8038930707</v>
-      </c>
-      <c r="DM63" s="4">
-        <f t="shared" si="51"/>
-        <v>5529456.9480098626</v>
-      </c>
-      <c r="DN63" s="4">
-        <f t="shared" si="51"/>
-        <v>5695340.6564501589</v>
-      </c>
-      <c r="DO63" s="4">
-        <f t="shared" ref="DO63:DU63" si="52">DN63*(1+$Y$56)</f>
-        <v>5866200.8761436641</v>
-      </c>
-      <c r="DP63" s="4">
-        <f t="shared" si="52"/>
-        <v>6042186.9024279742</v>
-      </c>
-      <c r="DQ63" s="4">
-        <f t="shared" si="52"/>
-        <v>6223452.5095008137</v>
-      </c>
-      <c r="DR63" s="4">
-        <f t="shared" si="52"/>
-        <v>6410156.0847858386</v>
-      </c>
-      <c r="DS63" s="4">
-        <f t="shared" si="52"/>
-        <v>6602460.7673294144</v>
-      </c>
-      <c r="DT63" s="4">
-        <f t="shared" si="52"/>
-        <v>6800534.590349297</v>
-      </c>
-      <c r="DU63" s="4">
-        <f t="shared" si="52"/>
-        <v>7004550.6280597765</v>
+      <c r="R62" s="4">
+        <f t="shared" ref="R62:V62" si="28">R57+R60</f>
+        <v>98914.598143144045</v>
+      </c>
+      <c r="S62" s="4">
+        <f t="shared" si="28"/>
+        <v>135715.68804092408</v>
+      </c>
+      <c r="T62" s="4">
+        <f t="shared" si="28"/>
+        <v>180740.95221589421</v>
+      </c>
+      <c r="U62" s="4">
+        <f t="shared" si="28"/>
+        <v>240880.54855917537</v>
+      </c>
+      <c r="V62" s="4">
+        <f t="shared" si="28"/>
+        <v>321235.08560376964</v>
+      </c>
+      <c r="W62" s="4">
+        <f t="shared" ref="W62:BB62" si="29">V62*(1+$Y$55)</f>
+        <v>324447.43645980733</v>
+      </c>
+      <c r="X62" s="4">
+        <f t="shared" si="29"/>
+        <v>327691.91082440538</v>
+      </c>
+      <c r="Y62" s="4">
+        <f t="shared" si="29"/>
+        <v>330968.82993264945</v>
+      </c>
+      <c r="Z62" s="4">
+        <f t="shared" si="29"/>
+        <v>334278.51823197596</v>
+      </c>
+      <c r="AA62" s="4">
+        <f t="shared" si="29"/>
+        <v>337621.30341429572</v>
+      </c>
+      <c r="AB62" s="4">
+        <f t="shared" si="29"/>
+        <v>340997.51644843869</v>
+      </c>
+      <c r="AC62" s="4">
+        <f t="shared" si="29"/>
+        <v>344407.4916129231</v>
+      </c>
+      <c r="AD62" s="4">
+        <f t="shared" si="29"/>
+        <v>347851.56652905233</v>
+      </c>
+      <c r="AE62" s="4">
+        <f t="shared" si="29"/>
+        <v>351330.08219434286</v>
+      </c>
+      <c r="AF62" s="4">
+        <f t="shared" si="29"/>
+        <v>354843.3830162863</v>
+      </c>
+      <c r="AG62" s="4">
+        <f t="shared" si="29"/>
+        <v>358391.81684644916</v>
+      </c>
+      <c r="AH62" s="4">
+        <f t="shared" si="29"/>
+        <v>361975.73501491366</v>
+      </c>
+      <c r="AI62" s="4">
+        <f t="shared" si="29"/>
+        <v>365595.49236506282</v>
+      </c>
+      <c r="AJ62" s="4">
+        <f t="shared" si="29"/>
+        <v>369251.44728871348</v>
+      </c>
+      <c r="AK62" s="4">
+        <f t="shared" si="29"/>
+        <v>372943.96176160063</v>
+      </c>
+      <c r="AL62" s="4">
+        <f t="shared" si="29"/>
+        <v>376673.40137921664</v>
+      </c>
+      <c r="AM62" s="4">
+        <f t="shared" si="29"/>
+        <v>380440.13539300882</v>
+      </c>
+      <c r="AN62" s="4">
+        <f t="shared" si="29"/>
+        <v>384244.53674693889</v>
+      </c>
+      <c r="AO62" s="4">
+        <f t="shared" si="29"/>
+        <v>388086.98211440828</v>
+      </c>
+      <c r="AP62" s="4">
+        <f t="shared" si="29"/>
+        <v>391967.85193555237</v>
+      </c>
+      <c r="AQ62" s="4">
+        <f t="shared" si="29"/>
+        <v>395887.53045490792</v>
+      </c>
+      <c r="AR62" s="4">
+        <f t="shared" si="29"/>
+        <v>399846.40575945697</v>
+      </c>
+      <c r="AS62" s="4">
+        <f t="shared" si="29"/>
+        <v>403844.86981705157</v>
+      </c>
+      <c r="AT62" s="4">
+        <f t="shared" si="29"/>
+        <v>407883.31851522211</v>
+      </c>
+      <c r="AU62" s="4">
+        <f t="shared" si="29"/>
+        <v>411962.15170037432</v>
+      </c>
+      <c r="AV62" s="4">
+        <f t="shared" si="29"/>
+        <v>416081.77321737807</v>
+      </c>
+      <c r="AW62" s="4">
+        <f t="shared" si="29"/>
+        <v>420242.59094955184</v>
+      </c>
+      <c r="AX62" s="4">
+        <f t="shared" si="29"/>
+        <v>424445.01685904735</v>
+      </c>
+      <c r="AY62" s="4">
+        <f t="shared" si="29"/>
+        <v>428689.46702763782</v>
+      </c>
+      <c r="AZ62" s="4">
+        <f t="shared" si="29"/>
+        <v>432976.3616979142</v>
+      </c>
+      <c r="BA62" s="4">
+        <f t="shared" si="29"/>
+        <v>437306.12531489332</v>
+      </c>
+      <c r="BB62" s="4">
+        <f t="shared" si="29"/>
+        <v>441679.18656804226</v>
+      </c>
+      <c r="BC62" s="4">
+        <f t="shared" ref="BC62:CH62" si="30">BB62*(1+$Y$55)</f>
+        <v>446095.97843372269</v>
+      </c>
+      <c r="BD62" s="4">
+        <f t="shared" si="30"/>
+        <v>450556.93821805989</v>
+      </c>
+      <c r="BE62" s="4">
+        <f t="shared" si="30"/>
+        <v>455062.50760024047</v>
+      </c>
+      <c r="BF62" s="4">
+        <f t="shared" si="30"/>
+        <v>459613.13267624285</v>
+      </c>
+      <c r="BG62" s="4">
+        <f t="shared" si="30"/>
+        <v>464209.26400300529</v>
+      </c>
+      <c r="BH62" s="4">
+        <f t="shared" si="30"/>
+        <v>468851.35664303537</v>
+      </c>
+      <c r="BI62" s="4">
+        <f t="shared" si="30"/>
+        <v>473539.87020946573</v>
+      </c>
+      <c r="BJ62" s="4">
+        <f t="shared" si="30"/>
+        <v>478275.26891156042</v>
+      </c>
+      <c r="BK62" s="4">
+        <f t="shared" si="30"/>
+        <v>483058.021600676</v>
+      </c>
+      <c r="BL62" s="4">
+        <f t="shared" si="30"/>
+        <v>487888.60181668279</v>
+      </c>
+      <c r="BM62" s="4">
+        <f t="shared" si="30"/>
+        <v>492767.48783484963</v>
+      </c>
+      <c r="BN62" s="4">
+        <f t="shared" si="30"/>
+        <v>497695.16271319811</v>
+      </c>
+      <c r="BO62" s="4">
+        <f t="shared" si="30"/>
+        <v>502672.11434033007</v>
+      </c>
+      <c r="BP62" s="4">
+        <f t="shared" si="30"/>
+        <v>507698.83548373339</v>
+      </c>
+      <c r="BQ62" s="4">
+        <f t="shared" si="30"/>
+        <v>512775.82383857074</v>
+      </c>
+      <c r="BR62" s="4">
+        <f t="shared" si="30"/>
+        <v>517903.58207695646</v>
+      </c>
+      <c r="BS62" s="4">
+        <f t="shared" si="30"/>
+        <v>523082.61789772601</v>
+      </c>
+      <c r="BT62" s="4">
+        <f t="shared" si="30"/>
+        <v>528313.44407670328</v>
+      </c>
+      <c r="BU62" s="4">
+        <f t="shared" si="30"/>
+        <v>533596.57851747028</v>
+      </c>
+      <c r="BV62" s="4">
+        <f t="shared" si="30"/>
+        <v>538932.54430264502</v>
+      </c>
+      <c r="BW62" s="4">
+        <f t="shared" si="30"/>
+        <v>544321.86974567152</v>
+      </c>
+      <c r="BX62" s="4">
+        <f t="shared" si="30"/>
+        <v>549765.08844312828</v>
+      </c>
+      <c r="BY62" s="4">
+        <f t="shared" si="30"/>
+        <v>555262.7393275596</v>
+      </c>
+      <c r="BZ62" s="4">
+        <f t="shared" si="30"/>
+        <v>560815.36672083521</v>
+      </c>
+      <c r="CA62" s="4">
+        <f t="shared" si="30"/>
+        <v>566423.5203880436</v>
+      </c>
+      <c r="CB62" s="4">
+        <f t="shared" si="30"/>
+        <v>572087.75559192407</v>
+      </c>
+      <c r="CC62" s="4">
+        <f t="shared" si="30"/>
+        <v>577808.6331478433</v>
+      </c>
+      <c r="CD62" s="4">
+        <f t="shared" si="30"/>
+        <v>583586.71947932173</v>
+      </c>
+      <c r="CE62" s="4">
+        <f t="shared" si="30"/>
+        <v>589422.58667411492</v>
+      </c>
+      <c r="CF62" s="4">
+        <f t="shared" si="30"/>
+        <v>595316.81254085607</v>
+      </c>
+      <c r="CG62" s="4">
+        <f t="shared" si="30"/>
+        <v>601269.98066626466</v>
+      </c>
+      <c r="CH62" s="4">
+        <f t="shared" si="30"/>
+        <v>607282.68047292728</v>
+      </c>
+      <c r="CI62" s="4">
+        <f t="shared" ref="CI62:DN62" si="31">CH62*(1+$Y$55)</f>
+        <v>613355.50727765658</v>
+      </c>
+      <c r="CJ62" s="4">
+        <f t="shared" si="31"/>
+        <v>619489.0623504332</v>
+      </c>
+      <c r="CK62" s="4">
+        <f t="shared" si="31"/>
+        <v>625683.9529739375</v>
+      </c>
+      <c r="CL62" s="4">
+        <f t="shared" si="31"/>
+        <v>631940.79250367684</v>
+      </c>
+      <c r="CM62" s="4">
+        <f t="shared" si="31"/>
+        <v>638260.20042871358</v>
+      </c>
+      <c r="CN62" s="4">
+        <f t="shared" si="31"/>
+        <v>644642.80243300076</v>
+      </c>
+      <c r="CO62" s="4">
+        <f t="shared" si="31"/>
+        <v>651089.23045733082</v>
+      </c>
+      <c r="CP62" s="4">
+        <f t="shared" si="31"/>
+        <v>657600.12276190415</v>
+      </c>
+      <c r="CQ62" s="4">
+        <f t="shared" si="31"/>
+        <v>664176.12398952316</v>
+      </c>
+      <c r="CR62" s="4">
+        <f t="shared" si="31"/>
+        <v>670817.8852294184</v>
+      </c>
+      <c r="CS62" s="4">
+        <f t="shared" si="31"/>
+        <v>677526.06408171263</v>
+      </c>
+      <c r="CT62" s="4">
+        <f t="shared" si="31"/>
+        <v>684301.32472252974</v>
+      </c>
+      <c r="CU62" s="4">
+        <f t="shared" si="31"/>
+        <v>691144.33796975506</v>
+      </c>
+      <c r="CV62" s="4">
+        <f t="shared" si="31"/>
+        <v>698055.78134945256</v>
+      </c>
+      <c r="CW62" s="4">
+        <f t="shared" si="31"/>
+        <v>705036.33916294714</v>
+      </c>
+      <c r="CX62" s="4">
+        <f t="shared" si="31"/>
+        <v>712086.70255457656</v>
+      </c>
+      <c r="CY62" s="4">
+        <f t="shared" si="31"/>
+        <v>719207.56958012236</v>
+      </c>
+      <c r="CZ62" s="4">
+        <f t="shared" si="31"/>
+        <v>726399.64527592354</v>
+      </c>
+      <c r="DA62" s="4">
+        <f t="shared" si="31"/>
+        <v>733663.64172868279</v>
+      </c>
+      <c r="DB62" s="4">
+        <f t="shared" si="31"/>
+        <v>741000.27814596961</v>
+      </c>
+      <c r="DC62" s="4">
+        <f t="shared" si="31"/>
+        <v>748410.28092742932</v>
+      </c>
+      <c r="DD62" s="4">
+        <f t="shared" si="31"/>
+        <v>755894.38373670366</v>
+      </c>
+      <c r="DE62" s="4">
+        <f t="shared" si="31"/>
+        <v>763453.32757407066</v>
+      </c>
+      <c r="DF62" s="4">
+        <f t="shared" si="31"/>
+        <v>771087.86084981135</v>
+      </c>
+      <c r="DG62" s="4">
+        <f t="shared" si="31"/>
+        <v>778798.73945830949</v>
+      </c>
+      <c r="DH62" s="4">
+        <f t="shared" si="31"/>
+        <v>786586.72685289255</v>
+      </c>
+      <c r="DI62" s="4">
+        <f t="shared" si="31"/>
+        <v>794452.59412142145</v>
+      </c>
+      <c r="DJ62" s="4">
+        <f t="shared" si="31"/>
+        <v>802397.12006263563</v>
+      </c>
+      <c r="DK62" s="4">
+        <f t="shared" si="31"/>
+        <v>810421.09126326197</v>
+      </c>
+      <c r="DL62" s="4">
+        <f t="shared" si="31"/>
+        <v>818525.30217589461</v>
+      </c>
+      <c r="DM62" s="4">
+        <f t="shared" si="31"/>
+        <v>826710.55519765359</v>
+      </c>
+      <c r="DN62" s="4">
+        <f t="shared" si="31"/>
+        <v>834977.66074963019</v>
+      </c>
+      <c r="DO62" s="4">
+        <f t="shared" ref="DO62:DU62" si="32">DN62*(1+$Y$55)</f>
+        <v>843327.4373571265</v>
+      </c>
+      <c r="DP62" s="4">
+        <f t="shared" si="32"/>
+        <v>851760.71173069777</v>
+      </c>
+      <c r="DQ62" s="4">
+        <f t="shared" si="32"/>
+        <v>860278.3188480048</v>
+      </c>
+      <c r="DR62" s="4">
+        <f t="shared" si="32"/>
+        <v>868881.10203648487</v>
+      </c>
+      <c r="DS62" s="4">
+        <f t="shared" si="32"/>
+        <v>877569.91305684973</v>
+      </c>
+      <c r="DT62" s="4">
+        <f t="shared" si="32"/>
+        <v>886345.61218741827</v>
+      </c>
+      <c r="DU62" s="4">
+        <f t="shared" si="32"/>
+        <v>895209.06830929243</v>
       </c>
     </row>
   </sheetData>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B87E7-E2DE-4ED2-B25C-E5ADDF44A780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50263960-F9FC-4771-9D93-20E368F75595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="915" windowWidth="21945" windowHeight="14445" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="2925" yWindow="750" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="5">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -879,7 +879,7 @@
       </c>
       <c r="O4" s="2">
         <f>O3*O2</f>
-        <v>3538000</v>
+        <v>3782000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
       </c>
       <c r="O7" s="2">
         <f>O4+O6-O5</f>
-        <v>3499178</v>
+        <v>3743178</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1008,10 +1008,10 @@
   <dimension ref="A1:EM62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y54" sqref="Y54"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1067,7 @@
         <v>2022</v>
       </c>
       <c r="O1" s="3">
-        <f t="shared" ref="O1:V1" si="0">N1+1</f>
+        <f t="shared" ref="O1:W1" si="0">N1+1</f>
         <v>2023</v>
       </c>
       <c r="P1" s="3">
@@ -1198,12 +1198,12 @@
         <v>46000</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" ref="I6:J6" si="1">H6*1.08</f>
-        <v>49680</v>
+        <f>H6*1.13</f>
+        <v>51979.999999999993</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="1"/>
-        <v>53654.400000000001</v>
+        <f>I6*1.12</f>
+        <v>58217.599999999999</v>
       </c>
       <c r="O6" s="4">
         <v>26974</v>
@@ -1216,23 +1216,23 @@
       </c>
       <c r="R6" s="4">
         <f>SUM(G6:J6)</f>
-        <v>193310.4</v>
+        <v>200173.6</v>
       </c>
       <c r="S6" s="4">
         <f>R6*1.34</f>
-        <v>259035.93600000002</v>
+        <v>268232.62400000001</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" ref="T6:V6" si="2">S6*1.34</f>
-        <v>347108.15424000006</v>
+        <f t="shared" ref="T6:V6" si="1">S6*1.34</f>
+        <v>359431.71616000001</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="2"/>
-        <v>465124.9266816001</v>
+        <f t="shared" si="1"/>
+        <v>481638.49965440005</v>
       </c>
       <c r="V6" s="4">
-        <f t="shared" si="2"/>
-        <v>623267.40175334422</v>
+        <f t="shared" si="1"/>
+        <v>645395.58953689609</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -1251,11 +1251,11 @@
       </c>
       <c r="I7" s="2">
         <f>I6*(1-I24)</f>
-        <v>13195.008000000003</v>
+        <v>13805.888000000001</v>
       </c>
       <c r="J7" s="2">
         <f>J6*(1-J24)</f>
-        <v>13462.532812800002</v>
+        <v>14607.4944512</v>
       </c>
       <c r="O7" s="2">
         <v>11618</v>
@@ -1268,23 +1268,23 @@
       </c>
       <c r="R7" s="2">
         <f>SUM(G7:J7)</f>
-        <v>56931.540812800005</v>
+        <v>58687.382451199999</v>
       </c>
       <c r="S7" s="2">
         <f>S6*(1-S24)</f>
-        <v>67349.343360000013</v>
+        <v>69740.482240000012</v>
       </c>
       <c r="T7" s="2">
         <f>T6*(1-T24)</f>
-        <v>90248.120102400018</v>
+        <v>93452.246201600006</v>
       </c>
       <c r="U7" s="2">
         <f>U6*(1-U24)</f>
-        <v>120932.48093721604</v>
+        <v>125226.00991014401</v>
       </c>
       <c r="V7" s="2">
         <f>V6*(1-V24)</f>
-        <v>162049.52445586951</v>
+        <v>167802.85327959299</v>
       </c>
       <c r="Z7" s="4"/>
     </row>
@@ -1297,76 +1297,76 @@
         <v>20406</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:J8" si="3">D6-D7</f>
+        <f t="shared" ref="D8:J8" si="2">D6-D7</f>
         <v>0</v>
       </c>
       <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>39300</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>26582</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>33120</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>38174.111999999994</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>43610.105548799998</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8:V8" si="3">L6-L7</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="N8" s="2">
         <f t="shared" si="3"/>
-        <v>39300</v>
-      </c>
-      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
         <f t="shared" si="3"/>
-        <v>26582</v>
-      </c>
-      <c r="H8" s="2">
+        <v>15356</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="3"/>
-        <v>33120</v>
-      </c>
-      <c r="I8" s="2">
+        <v>44301</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="3"/>
-        <v>36484.991999999998</v>
-      </c>
-      <c r="J8" s="2">
+        <v>97858</v>
+      </c>
+      <c r="R8" s="2">
         <f t="shared" si="3"/>
-        <v>40191.867187199998</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" ref="L8:V8" si="4">L6-L7</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="4"/>
-        <v>15356</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" si="4"/>
-        <v>44301</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="4"/>
-        <v>97858</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" si="4"/>
-        <v>136378.8591872</v>
+        <v>141486.21754879999</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="4"/>
-        <v>191686.59263999999</v>
+        <f t="shared" si="3"/>
+        <v>198492.14176</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="4"/>
-        <v>256860.03413760004</v>
+        <f t="shared" si="3"/>
+        <v>265979.4699584</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="4"/>
-        <v>344192.44574438408</v>
+        <f t="shared" si="3"/>
+        <v>356412.48974425602</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="4"/>
-        <v>461217.87729747471</v>
+        <f t="shared" si="3"/>
+        <v>477592.7362573031</v>
       </c>
       <c r="Z8" s="4"/>
     </row>
@@ -1421,19 +1421,19 @@
         <v>3497</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:G11" si="5">SUM(D9:D10)</f>
+        <f t="shared" ref="D11:G11" si="4">SUM(D9:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5030</v>
       </c>
       <c r="H11" s="2">
@@ -1442,11 +1442,11 @@
       </c>
       <c r="I11" s="2">
         <f>I6*I26</f>
-        <v>8445.6</v>
+        <v>8836.5999999999985</v>
       </c>
       <c r="J11" s="2">
         <f>J6*J26</f>
-        <v>9121.2480000000014</v>
+        <v>9896.9920000000002</v>
       </c>
       <c r="L11" s="2">
         <f>SUM(L9:L10)</f>
@@ -1457,40 +1457,40 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:Q11" si="6">SUM(N9:N10)</f>
+        <f t="shared" ref="N11:Q11" si="5">SUM(N9:N10)</f>
         <v>0</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9779</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>11329</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16405</v>
       </c>
       <c r="R11" s="2">
         <f>SUM(G11:J11)</f>
-        <v>30416.847999999998</v>
+        <v>31583.591999999997</v>
       </c>
       <c r="S11" s="2">
         <f>S6*S26</f>
-        <v>41445.749760000006</v>
+        <v>42917.219840000005</v>
       </c>
       <c r="T11" s="2">
         <f>T6*T26</f>
-        <v>55537.304678400011</v>
+        <v>57509.074585599999</v>
       </c>
       <c r="U11" s="2">
         <f>U6*U26</f>
-        <v>74419.988269056019</v>
+        <v>77062.159944704006</v>
       </c>
       <c r="V11" s="2">
         <f>V6*V26</f>
-        <v>99722.784280535081</v>
+        <v>103263.29432590338</v>
       </c>
       <c r="Z11" s="4"/>
     </row>
@@ -1503,32 +1503,32 @@
         <v>16909</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:J12" si="7">D8-D11</f>
+        <f t="shared" ref="D12:J12" si="6">D8-D11</f>
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>39300</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21552</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>25300</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="7"/>
-        <v>28039.392</v>
+        <f t="shared" si="6"/>
+        <v>29337.511999999995</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="7"/>
-        <v>31070.619187199998</v>
+        <f t="shared" si="6"/>
+        <v>33713.1135488</v>
       </c>
       <c r="L12" s="2">
         <f>L8-L11</f>
@@ -1539,40 +1539,40 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" ref="N12:Q12" si="8">N8-N11</f>
+        <f t="shared" ref="N12:Q12" si="7">N8-N11</f>
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>5577</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>32972</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>81453</v>
       </c>
       <c r="R12" s="2">
         <f>R8-R11</f>
-        <v>105962.0111872</v>
+        <v>109902.62554879999</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" ref="S12:V12" si="9">S8-S11</f>
-        <v>150240.84287999998</v>
+        <f t="shared" ref="S12:V12" si="8">S8-S11</f>
+        <v>155574.92191999999</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="9"/>
-        <v>201322.72945920003</v>
+        <f t="shared" si="8"/>
+        <v>208470.39537280001</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="9"/>
-        <v>269772.45747532806</v>
+        <f t="shared" si="8"/>
+        <v>279350.32979955198</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="9"/>
-        <v>361495.09301693965</v>
+        <f t="shared" si="8"/>
+        <v>374329.44193139975</v>
       </c>
       <c r="Z12" s="4"/>
     </row>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="J13" s="2">
         <f>I29*$Y$54/4</f>
-        <v>409.42835376000005</v>
+        <v>414.62083375999998</v>
       </c>
       <c r="L13" s="2">
         <f>K29*$Y$54</f>
@@ -1626,23 +1626,23 @@
       </c>
       <c r="R13" s="2">
         <f>SUM(G13:J13)</f>
-        <v>1351.6247937600001</v>
+        <v>1356.8172737599998</v>
       </c>
       <c r="S13" s="2">
         <f>R29*$Y$54</f>
-        <v>637.07249587519993</v>
+        <v>637.17634547520004</v>
       </c>
       <c r="T13" s="2">
         <f>S29*$Y$54</f>
-        <v>649.81394579270398</v>
+        <v>649.91987238470404</v>
       </c>
       <c r="U13" s="2">
         <f>T29*$Y$54</f>
-        <v>662.81022470855805</v>
+        <v>662.9182698323981</v>
       </c>
       <c r="V13" s="2">
         <f>U29*$Y$54</f>
-        <v>676.06642920272918</v>
+        <v>676.17663522904604</v>
       </c>
       <c r="Z13" s="4"/>
     </row>
@@ -1673,15 +1673,15 @@
         <v>0</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" ref="T14:V14" si="10">S14*1.02</f>
+        <f t="shared" ref="T14:V14" si="9">S14*1.02</f>
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z14" s="4"/>
@@ -1695,32 +1695,32 @@
         <v>17279</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ref="D15:J15" si="11">D12+SUM(D13:D14)</f>
+        <f t="shared" ref="D15:J15" si="10">D12+SUM(D13:D14)</f>
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39300</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>21824</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>25494.11</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="11"/>
-        <v>28335.478439999999</v>
+        <f t="shared" si="10"/>
+        <v>29633.598439999994</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="11"/>
-        <v>31480.047540959997</v>
+        <f t="shared" si="10"/>
+        <v>34127.734382559996</v>
       </c>
       <c r="L15" s="2">
         <f>L12+SUM(L13:L14)</f>
@@ -1731,40 +1731,40 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" ref="N15:Q15" si="12">N12+SUM(N13:N14)</f>
+        <f t="shared" ref="N15:Q15" si="11">N12+SUM(N13:N14)</f>
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>5534</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>33818</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>84026</v>
       </c>
       <c r="R15" s="2">
         <f>R12+SUM(R13:R14)</f>
-        <v>107133.63598096</v>
+        <v>111079.44282255998</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" ref="S15:V15" si="13">S12+SUM(S13:S14)</f>
-        <v>150877.91537587519</v>
+        <f t="shared" ref="S15:V15" si="12">S12+SUM(S13:S14)</f>
+        <v>156212.09826547519</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="13"/>
-        <v>201972.54340499273</v>
+        <f t="shared" si="12"/>
+        <v>209120.3152451847</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="13"/>
-        <v>270435.26770003664</v>
+        <f t="shared" si="12"/>
+        <v>280013.24806938437</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="13"/>
-        <v>362171.15944614238</v>
+        <f t="shared" si="12"/>
+        <v>375005.61856662878</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1782,12 +1782,12 @@
         <v>5098.8220000000001</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16:J16" si="14">I15*0.2</f>
-        <v>5667.0956880000003</v>
+        <f t="shared" ref="I16:J16" si="13">I15*0.2</f>
+        <v>5926.7196879999992</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="14"/>
-        <v>6296.0095081919999</v>
+        <f t="shared" si="13"/>
+        <v>6825.5468765119995</v>
       </c>
       <c r="O16" s="2">
         <v>-187</v>
@@ -1800,23 +1800,23 @@
       </c>
       <c r="R16" s="2">
         <f>SUM(G16:J16)</f>
-        <v>20196.927196192002</v>
+        <v>20986.088564512</v>
       </c>
       <c r="S16" s="2">
         <f>S15*0.2</f>
-        <v>30175.58307517504</v>
+        <v>31242.419653095039</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" ref="T16:V16" si="15">T15*0.2</f>
-        <v>40394.508680998551</v>
+        <f t="shared" ref="T16:V16" si="14">T15*0.2</f>
+        <v>41824.063049036944</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="15"/>
-        <v>54087.053540007328</v>
+        <f t="shared" si="14"/>
+        <v>56002.649613876878</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="15"/>
-        <v>72434.231889228482</v>
+        <f t="shared" si="14"/>
+        <v>75001.123713325753</v>
       </c>
     </row>
     <row r="17" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1828,32 +1828,32 @@
         <v>14881</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:J17" si="16">D15-D16</f>
+        <f t="shared" ref="D17:J17" si="15">D15-D16</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>39300</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>18689</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>20395.288</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="16"/>
-        <v>22668.382751999998</v>
+        <f t="shared" si="15"/>
+        <v>23706.878751999997</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="16"/>
-        <v>25184.038032767996</v>
+        <f t="shared" si="15"/>
+        <v>27302.187506047998</v>
       </c>
       <c r="L17" s="4">
         <f>L15-L16</f>
@@ -1864,524 +1864,524 @@
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" ref="N17:Q17" si="17">N15-N16</f>
+        <f t="shared" ref="N17:Q17" si="16">N15-N16</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>5721</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>29760</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>72880</v>
       </c>
       <c r="R17" s="4">
         <f>R15-R16</f>
-        <v>86936.708784767994</v>
+        <v>90093.354258047984</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" ref="S17:V17" si="18">S15-S16</f>
-        <v>120702.33230070016</v>
+        <f t="shared" ref="S17:V17" si="17">S15-S16</f>
+        <v>124969.67861238014</v>
       </c>
       <c r="T17" s="4">
+        <f t="shared" si="17"/>
+        <v>167296.25219614775</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="17"/>
+        <v>224010.59845550748</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="17"/>
+        <v>300004.49485330301</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" ref="W17:BB17" si="18">V17*(1+$Y$55)</f>
+        <v>303004.53980183607</v>
+      </c>
+      <c r="X17" s="4">
         <f t="shared" si="18"/>
-        <v>161578.03472399418</v>
-      </c>
-      <c r="U17" s="4">
+        <v>306034.58519985445</v>
+      </c>
+      <c r="Y17" s="4">
         <f t="shared" si="18"/>
-        <v>216348.21416002931</v>
-      </c>
-      <c r="V17" s="4">
+        <v>309094.931051853</v>
+      </c>
+      <c r="Z17" s="4">
         <f t="shared" si="18"/>
-        <v>289736.92755691393</v>
-      </c>
-      <c r="W17" s="4">
-        <f>V17*(1+$Y$55)</f>
-        <v>292634.29683248309</v>
-      </c>
-      <c r="X17" s="4">
-        <f>W17*(1+$Y$55)</f>
-        <v>295560.63980080793</v>
-      </c>
-      <c r="Y17" s="4">
-        <f>X17*(1+$Y$55)</f>
-        <v>298516.24619881599</v>
-      </c>
-      <c r="Z17" s="4">
-        <f>Y17*(1+$Y$55)</f>
-        <v>301501.40866080415</v>
+        <v>312185.88036237151</v>
       </c>
       <c r="AA17" s="4">
-        <f>Z17*(1+$Y$55)</f>
-        <v>304516.42274741217</v>
+        <f t="shared" si="18"/>
+        <v>315307.73916599521</v>
       </c>
       <c r="AB17" s="4">
-        <f>AA17*(1+$Y$55)</f>
-        <v>307561.5869748863</v>
+        <f t="shared" si="18"/>
+        <v>318460.81655765517</v>
       </c>
       <c r="AC17" s="4">
-        <f>AB17*(1+$Y$55)</f>
-        <v>310637.20284463518</v>
+        <f t="shared" si="18"/>
+        <v>321645.4247232317</v>
       </c>
       <c r="AD17" s="4">
-        <f>AC17*(1+$Y$55)</f>
-        <v>313743.57487308152</v>
+        <f t="shared" si="18"/>
+        <v>324861.87897046399</v>
       </c>
       <c r="AE17" s="4">
-        <f>AD17*(1+$Y$55)</f>
-        <v>316881.01062181237</v>
+        <f t="shared" si="18"/>
+        <v>328110.49776016863</v>
       </c>
       <c r="AF17" s="4">
-        <f>AE17*(1+$Y$55)</f>
-        <v>320049.82072803052</v>
+        <f t="shared" si="18"/>
+        <v>331391.6027377703</v>
       </c>
       <c r="AG17" s="4">
-        <f>AF17*(1+$Y$55)</f>
-        <v>323250.31893531082</v>
+        <f t="shared" si="18"/>
+        <v>334705.51876514801</v>
       </c>
       <c r="AH17" s="4">
-        <f>AG17*(1+$Y$55)</f>
-        <v>326482.82212466392</v>
+        <f t="shared" si="18"/>
+        <v>338052.57395279949</v>
       </c>
       <c r="AI17" s="4">
-        <f>AH17*(1+$Y$55)</f>
-        <v>329747.65034591057</v>
+        <f t="shared" si="18"/>
+        <v>341433.09969232749</v>
       </c>
       <c r="AJ17" s="4">
-        <f>AI17*(1+$Y$55)</f>
-        <v>333045.12684936967</v>
+        <f t="shared" si="18"/>
+        <v>344847.43068925076</v>
       </c>
       <c r="AK17" s="4">
-        <f>AJ17*(1+$Y$55)</f>
-        <v>336375.57811786339</v>
+        <f t="shared" si="18"/>
+        <v>348295.90499614325</v>
       </c>
       <c r="AL17" s="4">
-        <f>AK17*(1+$Y$55)</f>
-        <v>339739.33389904205</v>
+        <f t="shared" si="18"/>
+        <v>351778.86404610466</v>
       </c>
       <c r="AM17" s="4">
-        <f>AL17*(1+$Y$55)</f>
-        <v>343136.72723803244</v>
+        <f t="shared" si="18"/>
+        <v>355296.65268656571</v>
       </c>
       <c r="AN17" s="4">
-        <f>AM17*(1+$Y$55)</f>
-        <v>346568.09451041277</v>
+        <f t="shared" si="18"/>
+        <v>358849.61921343138</v>
       </c>
       <c r="AO17" s="4">
-        <f>AN17*(1+$Y$55)</f>
-        <v>350033.77545551688</v>
+        <f t="shared" si="18"/>
+        <v>362438.11540556571</v>
       </c>
       <c r="AP17" s="4">
-        <f>AO17*(1+$Y$55)</f>
-        <v>353534.11321007204</v>
+        <f t="shared" si="18"/>
+        <v>366062.49655962136</v>
       </c>
       <c r="AQ17" s="4">
-        <f>AP17*(1+$Y$55)</f>
-        <v>357069.45434217277</v>
+        <f t="shared" si="18"/>
+        <v>369723.1215252176</v>
       </c>
       <c r="AR17" s="4">
-        <f>AQ17*(1+$Y$55)</f>
-        <v>360640.14888559451</v>
+        <f t="shared" si="18"/>
+        <v>373420.3527404698</v>
       </c>
       <c r="AS17" s="4">
-        <f>AR17*(1+$Y$55)</f>
-        <v>364246.55037445045</v>
+        <f t="shared" si="18"/>
+        <v>377154.55626787449</v>
       </c>
       <c r="AT17" s="4">
-        <f>AS17*(1+$Y$55)</f>
-        <v>367889.01587819494</v>
+        <f t="shared" si="18"/>
+        <v>380926.10183055326</v>
       </c>
       <c r="AU17" s="4">
-        <f>AT17*(1+$Y$55)</f>
-        <v>371567.9060369769</v>
+        <f t="shared" si="18"/>
+        <v>384735.36284885881</v>
       </c>
       <c r="AV17" s="4">
-        <f>AU17*(1+$Y$55)</f>
-        <v>375283.58509734669</v>
+        <f t="shared" si="18"/>
+        <v>388582.71647734742</v>
       </c>
       <c r="AW17" s="4">
-        <f>AV17*(1+$Y$55)</f>
-        <v>379036.42094832018</v>
+        <f t="shared" si="18"/>
+        <v>392468.5436421209</v>
       </c>
       <c r="AX17" s="4">
-        <f>AW17*(1+$Y$55)</f>
-        <v>382826.78515780339</v>
+        <f t="shared" si="18"/>
+        <v>396393.22907854209</v>
       </c>
       <c r="AY17" s="4">
-        <f>AX17*(1+$Y$55)</f>
-        <v>386655.0530093814</v>
+        <f t="shared" si="18"/>
+        <v>400357.16136932751</v>
       </c>
       <c r="AZ17" s="4">
-        <f>AY17*(1+$Y$55)</f>
-        <v>390521.60353947524</v>
+        <f t="shared" si="18"/>
+        <v>404360.73298302077</v>
       </c>
       <c r="BA17" s="4">
-        <f>AZ17*(1+$Y$55)</f>
-        <v>394426.81957486999</v>
+        <f t="shared" si="18"/>
+        <v>408404.34031285101</v>
       </c>
       <c r="BB17" s="4">
-        <f>BA17*(1+$Y$55)</f>
-        <v>398371.08777061867</v>
+        <f t="shared" si="18"/>
+        <v>412488.38371597952</v>
       </c>
       <c r="BC17" s="4">
-        <f>BB17*(1+$Y$55)</f>
-        <v>402354.79864832485</v>
+        <f t="shared" ref="BC17:CH17" si="19">BB17*(1+$Y$55)</f>
+        <v>416613.2675531393</v>
       </c>
       <c r="BD17" s="4">
-        <f>BC17*(1+$Y$55)</f>
-        <v>406378.34663480811</v>
+        <f t="shared" si="19"/>
+        <v>420779.40022867068</v>
       </c>
       <c r="BE17" s="4">
-        <f>BD17*(1+$Y$55)</f>
-        <v>410442.13010115619</v>
+        <f t="shared" si="19"/>
+        <v>424987.19423095736</v>
       </c>
       <c r="BF17" s="4">
-        <f>BE17*(1+$Y$55)</f>
-        <v>414546.55140216777</v>
+        <f t="shared" si="19"/>
+        <v>429237.06617326697</v>
       </c>
       <c r="BG17" s="4">
-        <f>BF17*(1+$Y$55)</f>
-        <v>418692.01691618946</v>
+        <f t="shared" si="19"/>
+        <v>433529.43683499965</v>
       </c>
       <c r="BH17" s="4">
-        <f>BG17*(1+$Y$55)</f>
-        <v>422878.93708535138</v>
+        <f t="shared" si="19"/>
+        <v>437864.73120334966</v>
       </c>
       <c r="BI17" s="4">
-        <f>BH17*(1+$Y$55)</f>
-        <v>427107.72645620489</v>
+        <f t="shared" si="19"/>
+        <v>442243.37851538317</v>
       </c>
       <c r="BJ17" s="4">
-        <f>BI17*(1+$Y$55)</f>
-        <v>431378.80372076697</v>
+        <f t="shared" si="19"/>
+        <v>446665.81230053701</v>
       </c>
       <c r="BK17" s="4">
-        <f>BJ17*(1+$Y$55)</f>
-        <v>435692.59175797465</v>
+        <f t="shared" si="19"/>
+        <v>451132.47042354237</v>
       </c>
       <c r="BL17" s="4">
-        <f>BK17*(1+$Y$55)</f>
-        <v>440049.51767555438</v>
+        <f t="shared" si="19"/>
+        <v>455643.79512777779</v>
       </c>
       <c r="BM17" s="4">
-        <f>BL17*(1+$Y$55)</f>
-        <v>444450.01285230991</v>
+        <f t="shared" si="19"/>
+        <v>460200.23307905556</v>
       </c>
       <c r="BN17" s="4">
-        <f>BM17*(1+$Y$55)</f>
-        <v>448894.51298083301</v>
+        <f t="shared" si="19"/>
+        <v>464802.23540984612</v>
       </c>
       <c r="BO17" s="4">
-        <f>BN17*(1+$Y$55)</f>
-        <v>453383.45811064134</v>
+        <f t="shared" si="19"/>
+        <v>469450.25776394457</v>
       </c>
       <c r="BP17" s="4">
-        <f>BO17*(1+$Y$55)</f>
-        <v>457917.29269174777</v>
+        <f t="shared" si="19"/>
+        <v>474144.76034158404</v>
       </c>
       <c r="BQ17" s="4">
-        <f>BP17*(1+$Y$55)</f>
-        <v>462496.46561866527</v>
+        <f t="shared" si="19"/>
+        <v>478886.20794499991</v>
       </c>
       <c r="BR17" s="4">
-        <f>BQ17*(1+$Y$55)</f>
-        <v>467121.43027485191</v>
+        <f t="shared" si="19"/>
+        <v>483675.0700244499</v>
       </c>
       <c r="BS17" s="4">
-        <f>BR17*(1+$Y$55)</f>
-        <v>471792.64457760041</v>
+        <f t="shared" si="19"/>
+        <v>488511.82072469441</v>
       </c>
       <c r="BT17" s="4">
-        <f>BS17*(1+$Y$55)</f>
-        <v>476510.57102337643</v>
+        <f t="shared" si="19"/>
+        <v>493396.93893194135</v>
       </c>
       <c r="BU17" s="4">
-        <f>BT17*(1+$Y$55)</f>
-        <v>481275.67673361022</v>
+        <f t="shared" si="19"/>
+        <v>498330.90832126077</v>
       </c>
       <c r="BV17" s="4">
-        <f>BU17*(1+$Y$55)</f>
-        <v>486088.43350094632</v>
+        <f t="shared" si="19"/>
+        <v>503314.2174044734</v>
       </c>
       <c r="BW17" s="4">
-        <f>BV17*(1+$Y$55)</f>
-        <v>490949.31783595576</v>
+        <f t="shared" si="19"/>
+        <v>508347.35957851814</v>
       </c>
       <c r="BX17" s="4">
-        <f>BW17*(1+$Y$55)</f>
-        <v>495858.81101431535</v>
+        <f t="shared" si="19"/>
+        <v>513430.83317430335</v>
       </c>
       <c r="BY17" s="4">
-        <f>BX17*(1+$Y$55)</f>
-        <v>500817.39912445849</v>
+        <f t="shared" si="19"/>
+        <v>518565.14150604641</v>
       </c>
       <c r="BZ17" s="4">
-        <f>BY17*(1+$Y$55)</f>
-        <v>505825.57311570307</v>
+        <f t="shared" si="19"/>
+        <v>523750.79292110685</v>
       </c>
       <c r="CA17" s="4">
-        <f>BZ17*(1+$Y$55)</f>
-        <v>510883.82884686009</v>
+        <f t="shared" si="19"/>
+        <v>528988.30085031793</v>
       </c>
       <c r="CB17" s="4">
-        <f>CA17*(1+$Y$55)</f>
-        <v>515992.66713532869</v>
+        <f t="shared" si="19"/>
+        <v>534278.18385882117</v>
       </c>
       <c r="CC17" s="4">
-        <f>CB17*(1+$Y$55)</f>
-        <v>521152.59380668198</v>
+        <f t="shared" si="19"/>
+        <v>539620.96569740935</v>
       </c>
       <c r="CD17" s="4">
-        <f>CC17*(1+$Y$55)</f>
-        <v>526364.11974474881</v>
+        <f t="shared" si="19"/>
+        <v>545017.17535438342</v>
       </c>
       <c r="CE17" s="4">
-        <f>CD17*(1+$Y$55)</f>
-        <v>531627.76094219636</v>
+        <f t="shared" si="19"/>
+        <v>550467.34710792731</v>
       </c>
       <c r="CF17" s="4">
-        <f>CE17*(1+$Y$55)</f>
-        <v>536944.03855161835</v>
+        <f t="shared" si="19"/>
+        <v>555972.02057900664</v>
       </c>
       <c r="CG17" s="4">
-        <f>CF17*(1+$Y$55)</f>
-        <v>542313.4789371345</v>
+        <f t="shared" si="19"/>
+        <v>561531.74078479665</v>
       </c>
       <c r="CH17" s="4">
-        <f>CG17*(1+$Y$55)</f>
-        <v>547736.61372650589</v>
+        <f t="shared" si="19"/>
+        <v>567147.05819264462</v>
       </c>
       <c r="CI17" s="4">
-        <f>CH17*(1+$Y$55)</f>
-        <v>553213.979863771</v>
+        <f t="shared" ref="CI17:DN17" si="20">CH17*(1+$Y$55)</f>
+        <v>572818.52877457102</v>
       </c>
       <c r="CJ17" s="4">
-        <f>CI17*(1+$Y$55)</f>
-        <v>558746.11966240872</v>
+        <f t="shared" si="20"/>
+        <v>578546.71406231669</v>
       </c>
       <c r="CK17" s="4">
-        <f>CJ17*(1+$Y$55)</f>
-        <v>564333.58085903281</v>
+        <f t="shared" si="20"/>
+        <v>584332.18120293983</v>
       </c>
       <c r="CL17" s="4">
-        <f>CK17*(1+$Y$55)</f>
-        <v>569976.9166676231</v>
+        <f t="shared" si="20"/>
+        <v>590175.50301496917</v>
       </c>
       <c r="CM17" s="4">
-        <f>CL17*(1+$Y$55)</f>
-        <v>575676.68583429931</v>
+        <f t="shared" si="20"/>
+        <v>596077.25804511888</v>
       </c>
       <c r="CN17" s="4">
-        <f>CM17*(1+$Y$55)</f>
-        <v>581433.45269264234</v>
+        <f t="shared" si="20"/>
+        <v>602038.0306255701</v>
       </c>
       <c r="CO17" s="4">
-        <f>CN17*(1+$Y$55)</f>
-        <v>587247.78721956874</v>
+        <f t="shared" si="20"/>
+        <v>608058.41093182575</v>
       </c>
       <c r="CP17" s="4">
-        <f>CO17*(1+$Y$55)</f>
-        <v>593120.26509176439</v>
+        <f t="shared" si="20"/>
+        <v>614138.99504114396</v>
       </c>
       <c r="CQ17" s="4">
-        <f>CP17*(1+$Y$55)</f>
-        <v>599051.46774268209</v>
+        <f t="shared" si="20"/>
+        <v>620280.38499155536</v>
       </c>
       <c r="CR17" s="4">
-        <f>CQ17*(1+$Y$55)</f>
-        <v>605041.98242010886</v>
+        <f t="shared" si="20"/>
+        <v>626483.18884147087</v>
       </c>
       <c r="CS17" s="4">
-        <f>CR17*(1+$Y$55)</f>
-        <v>611092.40224431001</v>
+        <f t="shared" si="20"/>
+        <v>632748.02072988555</v>
       </c>
       <c r="CT17" s="4">
-        <f>CS17*(1+$Y$55)</f>
-        <v>617203.32626675314</v>
+        <f t="shared" si="20"/>
+        <v>639075.50093718444</v>
       </c>
       <c r="CU17" s="4">
-        <f>CT17*(1+$Y$55)</f>
-        <v>623375.35952942062</v>
+        <f t="shared" si="20"/>
+        <v>645466.25594655634</v>
       </c>
       <c r="CV17" s="4">
-        <f>CU17*(1+$Y$55)</f>
-        <v>629609.11312471482</v>
+        <f t="shared" si="20"/>
+        <v>651920.91850602196</v>
       </c>
       <c r="CW17" s="4">
-        <f>CV17*(1+$Y$55)</f>
-        <v>635905.20425596193</v>
+        <f t="shared" si="20"/>
+        <v>658440.12769108219</v>
       </c>
       <c r="CX17" s="4">
-        <f>CW17*(1+$Y$55)</f>
-        <v>642264.25629852153</v>
+        <f t="shared" si="20"/>
+        <v>665024.52896799298</v>
       </c>
       <c r="CY17" s="4">
-        <f>CX17*(1+$Y$55)</f>
-        <v>648686.89886150672</v>
+        <f t="shared" si="20"/>
+        <v>671674.77425767295</v>
       </c>
       <c r="CZ17" s="4">
-        <f>CY17*(1+$Y$55)</f>
-        <v>655173.76785012183</v>
+        <f t="shared" si="20"/>
+        <v>678391.52200024971</v>
       </c>
       <c r="DA17" s="4">
-        <f>CZ17*(1+$Y$55)</f>
-        <v>661725.50552862301</v>
+        <f t="shared" si="20"/>
+        <v>685175.43722025224</v>
       </c>
       <c r="DB17" s="4">
-        <f>DA17*(1+$Y$55)</f>
-        <v>668342.76058390923</v>
+        <f t="shared" si="20"/>
+        <v>692027.19159245479</v>
       </c>
       <c r="DC17" s="4">
-        <f>DB17*(1+$Y$55)</f>
-        <v>675026.18818974833</v>
+        <f t="shared" si="20"/>
+        <v>698947.4635083793</v>
       </c>
       <c r="DD17" s="4">
-        <f>DC17*(1+$Y$55)</f>
-        <v>681776.45007164578</v>
+        <f t="shared" si="20"/>
+        <v>705936.93814346311</v>
       </c>
       <c r="DE17" s="4">
-        <f>DD17*(1+$Y$55)</f>
-        <v>688594.21457236225</v>
+        <f t="shared" si="20"/>
+        <v>712996.30752489774</v>
       </c>
       <c r="DF17" s="4">
-        <f>DE17*(1+$Y$55)</f>
-        <v>695480.15671808587</v>
+        <f t="shared" si="20"/>
+        <v>720126.27060014673</v>
       </c>
       <c r="DG17" s="4">
-        <f>DF17*(1+$Y$55)</f>
-        <v>702434.95828526677</v>
+        <f t="shared" si="20"/>
+        <v>727327.53330614825</v>
       </c>
       <c r="DH17" s="4">
-        <f>DG17*(1+$Y$55)</f>
-        <v>709459.30786811945</v>
+        <f t="shared" si="20"/>
+        <v>734600.80863920972</v>
       </c>
       <c r="DI17" s="4">
-        <f>DH17*(1+$Y$55)</f>
-        <v>716553.9009468006</v>
+        <f t="shared" si="20"/>
+        <v>741946.81672560179</v>
       </c>
       <c r="DJ17" s="4">
-        <f>DI17*(1+$Y$55)</f>
-        <v>723719.43995626864</v>
+        <f t="shared" si="20"/>
+        <v>749366.28489285777</v>
       </c>
       <c r="DK17" s="4">
-        <f>DJ17*(1+$Y$55)</f>
-        <v>730956.63435583131</v>
+        <f t="shared" si="20"/>
+        <v>756859.94774178637</v>
       </c>
       <c r="DL17" s="4">
-        <f>DK17*(1+$Y$55)</f>
-        <v>738266.20069938968</v>
+        <f t="shared" si="20"/>
+        <v>764428.54721920425</v>
       </c>
       <c r="DM17" s="4">
-        <f>DL17*(1+$Y$55)</f>
-        <v>745648.86270638357</v>
+        <f t="shared" si="20"/>
+        <v>772072.83269139635</v>
       </c>
       <c r="DN17" s="4">
-        <f>DM17*(1+$Y$55)</f>
-        <v>753105.35133344738</v>
+        <f t="shared" si="20"/>
+        <v>779793.56101831037</v>
       </c>
       <c r="DO17" s="4">
-        <f>DN17*(1+$Y$55)</f>
-        <v>760636.40484678186</v>
+        <f t="shared" ref="DO17:EM17" si="21">DN17*(1+$Y$55)</f>
+        <v>787591.49662849354</v>
       </c>
       <c r="DP17" s="4">
-        <f>DO17*(1+$Y$55)</f>
-        <v>768242.7688952497</v>
+        <f t="shared" si="21"/>
+        <v>795467.41159477853</v>
       </c>
       <c r="DQ17" s="4">
-        <f>DP17*(1+$Y$55)</f>
-        <v>775925.19658420223</v>
+        <f t="shared" si="21"/>
+        <v>803422.08571072633</v>
       </c>
       <c r="DR17" s="4">
-        <f>DQ17*(1+$Y$55)</f>
-        <v>783684.44855004421</v>
+        <f t="shared" si="21"/>
+        <v>811456.30656783364</v>
       </c>
       <c r="DS17" s="4">
-        <f>DR17*(1+$Y$55)</f>
-        <v>791521.29303554469</v>
+        <f t="shared" si="21"/>
+        <v>819570.86963351199</v>
       </c>
       <c r="DT17" s="4">
-        <f>DS17*(1+$Y$55)</f>
-        <v>799436.50596590014</v>
+        <f t="shared" si="21"/>
+        <v>827766.57832984708</v>
       </c>
       <c r="DU17" s="4">
-        <f>DT17*(1+$Y$55)</f>
-        <v>807430.87102555914</v>
+        <f t="shared" si="21"/>
+        <v>836044.24411314551</v>
       </c>
       <c r="DV17" s="4">
-        <f>DU17*(1+$Y$55)</f>
-        <v>815505.17973581469</v>
+        <f t="shared" si="21"/>
+        <v>844404.68655427697</v>
       </c>
       <c r="DW17" s="4">
-        <f>DV17*(1+$Y$55)</f>
-        <v>823660.23153317289</v>
+        <f t="shared" si="21"/>
+        <v>852848.73341981973</v>
       </c>
       <c r="DX17" s="4">
-        <f>DW17*(1+$Y$55)</f>
-        <v>831896.83384850458</v>
+        <f t="shared" si="21"/>
+        <v>861377.22075401794</v>
       </c>
       <c r="DY17" s="4">
-        <f>DX17*(1+$Y$55)</f>
-        <v>840215.80218698969</v>
+        <f t="shared" si="21"/>
+        <v>869990.99296155816</v>
       </c>
       <c r="DZ17" s="4">
-        <f>DY17*(1+$Y$55)</f>
-        <v>848617.96020885964</v>
+        <f t="shared" si="21"/>
+        <v>878690.90289117373</v>
       </c>
       <c r="EA17" s="4">
-        <f>DZ17*(1+$Y$55)</f>
-        <v>857104.13981094828</v>
+        <f t="shared" si="21"/>
+        <v>887477.81192008546</v>
       </c>
       <c r="EB17" s="4">
-        <f>EA17*(1+$Y$55)</f>
-        <v>865675.1812090578</v>
+        <f t="shared" si="21"/>
+        <v>896352.5900392863</v>
       </c>
       <c r="EC17" s="4">
-        <f>EB17*(1+$Y$55)</f>
-        <v>874331.93302114843</v>
+        <f t="shared" si="21"/>
+        <v>905316.11593967921</v>
       </c>
       <c r="ED17" s="4">
-        <f>EC17*(1+$Y$55)</f>
-        <v>883075.25235135993</v>
+        <f t="shared" si="21"/>
+        <v>914369.27709907596</v>
       </c>
       <c r="EE17" s="4">
-        <f>ED17*(1+$Y$55)</f>
-        <v>891906.00487487356</v>
+        <f t="shared" si="21"/>
+        <v>923512.96987006674</v>
       </c>
       <c r="EF17" s="4">
-        <f>EE17*(1+$Y$55)</f>
-        <v>900825.0649236223</v>
+        <f t="shared" si="21"/>
+        <v>932748.09956876736</v>
       </c>
       <c r="EG17" s="4">
-        <f>EF17*(1+$Y$55)</f>
-        <v>909833.31557285856</v>
+        <f t="shared" si="21"/>
+        <v>942075.58056445501</v>
       </c>
       <c r="EH17" s="4">
-        <f>EG17*(1+$Y$55)</f>
-        <v>918931.6487285872</v>
+        <f t="shared" si="21"/>
+        <v>951496.33637009957</v>
       </c>
       <c r="EI17" s="4">
-        <f>EH17*(1+$Y$55)</f>
-        <v>928120.96521587309</v>
+        <f t="shared" si="21"/>
+        <v>961011.29973380058</v>
       </c>
       <c r="EJ17" s="4">
-        <f>EI17*(1+$Y$55)</f>
-        <v>937402.17486803187</v>
+        <f t="shared" si="21"/>
+        <v>970621.41273113864</v>
       </c>
       <c r="EK17" s="4">
-        <f>EJ17*(1+$Y$55)</f>
-        <v>946776.19661671214</v>
+        <f t="shared" si="21"/>
+        <v>980327.62685845001</v>
       </c>
       <c r="EL17" s="4">
-        <f>EK17*(1+$Y$55)</f>
-        <v>956243.95858287928</v>
+        <f t="shared" si="21"/>
+        <v>990130.90312703454</v>
       </c>
       <c r="EM17" s="4">
-        <f>EL17*(1+$Y$55)</f>
-        <v>965806.39816870808</v>
+        <f t="shared" si="21"/>
+        <v>1000032.2121583049</v>
       </c>
     </row>
     <row r="18" spans="1:143" x14ac:dyDescent="0.2">
@@ -2399,11 +2399,11 @@
         <v>24487.945</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" ref="I18:J18" si="19">H18*0.995</f>
+        <f t="shared" ref="I18:J18" si="22">H18*0.995</f>
         <v>24365.505275</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>24243.677748624999</v>
       </c>
       <c r="O18" s="2">
@@ -2420,19 +2420,19 @@
         <v>24243.677748624999</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" ref="S18:V18" si="20">R18*0.99</f>
+        <f t="shared" ref="S18:V18" si="23">R18*0.99</f>
         <v>24001.240971138748</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>23761.228561427361</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>23523.616275813085</v>
       </c>
       <c r="V18" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>23288.380113054955</v>
       </c>
     </row>
@@ -2445,32 +2445,32 @@
         <v>0.5978706307754118</v>
       </c>
       <c r="D19" s="5" t="e">
-        <f t="shared" ref="D19:J19" si="21">D17/D18</f>
+        <f t="shared" ref="D19:J19" si="24">D17/D18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E19" s="5" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="5" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.75937588883019791</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.83287054099476299</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="21"/>
-        <v>0.93034732898638806</v>
+        <f t="shared" si="24"/>
+        <v>0.9729688953474821</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="21"/>
-        <v>1.03878785611215</v>
+        <f t="shared" si="24"/>
+        <v>1.1261570042769795</v>
       </c>
       <c r="O19" s="5">
         <f>O17/O18</f>
@@ -2485,24 +2485,24 @@
         <v>2.9868852459016395</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" ref="R19:V19" si="22">R17/R18</f>
-        <v>3.5859538179886377</v>
+        <f t="shared" ref="R19:V19" si="25">R17/R18</f>
+        <v>3.7161587112399936</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="22"/>
-        <v>5.0290038105047783</v>
+        <f t="shared" si="25"/>
+        <v>5.2068007134570635</v>
       </c>
       <c r="T19" s="5">
-        <f t="shared" si="22"/>
-        <v>6.8000707247221577</v>
+        <f t="shared" si="25"/>
+        <v>7.0407239997567741</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="22"/>
-        <v>9.1970644148994189</v>
+        <f t="shared" si="25"/>
+        <v>9.5227959778375801</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="22"/>
-        <v>12.441265822284212</v>
+        <f t="shared" si="25"/>
+        <v>12.882153820785804</v>
       </c>
     </row>
     <row r="20" spans="1:143" x14ac:dyDescent="0.2">
@@ -2525,55 +2525,55 @@
         <v>0.68852710797112571</v>
       </c>
       <c r="H21" s="7" t="e">
-        <f t="shared" ref="H21:J21" si="23">H6/D6-1</f>
+        <f t="shared" ref="H21:J21" si="26">H6/D6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="7" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="23"/>
-        <v>0.36525190839694655</v>
+        <f t="shared" si="26"/>
+        <v>0.48136386768447825</v>
       </c>
       <c r="M21" s="7" t="e">
-        <f t="shared" ref="M21:V21" si="24">M6/L6-1</f>
+        <f t="shared" ref="M21:V21" si="27">M6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N21" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="7" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="Q21" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1.1420340763599355</v>
       </c>
       <c r="R21" s="7">
-        <f t="shared" si="24"/>
-        <v>0.48133980091496342</v>
+        <f t="shared" si="27"/>
+        <v>0.53393258082561279</v>
       </c>
       <c r="S21" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="U21" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.34000000000000008</v>
       </c>
       <c r="V21" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.34000000000000008</v>
       </c>
     </row>
@@ -2586,16 +2586,16 @@
         <v>0.11898218829516538</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:J22" si="25">H6/G6-1</f>
+        <f t="shared" ref="H22:J22" si="28">H6/G6-1</f>
         <v>4.6025104602510414E-2</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="25"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="28"/>
+        <v>0.12999999999999989</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="25"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="28"/>
+        <v>0.12000000000000011</v>
       </c>
     </row>
     <row r="24" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2634,28 +2634,28 @@
         <v>0.74908799999999998</v>
       </c>
       <c r="M24" s="7" t="e">
-        <f>M8/M6</f>
+        <f t="shared" ref="M24:R24" si="29">M8/M6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="7" t="e">
-        <f>N8/N6</f>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O24" s="7">
-        <f>O8/O6</f>
+        <f t="shared" si="29"/>
         <v>0.56928894490991322</v>
       </c>
       <c r="P24" s="7">
-        <f>P8/P6</f>
+        <f t="shared" si="29"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="Q24" s="7">
-        <f>Q8/Q6</f>
+        <f t="shared" si="29"/>
         <v>0.74988697058169917</v>
       </c>
       <c r="R24" s="7">
-        <f>R8/R6</f>
-        <v>0.70549157824514352</v>
+        <f t="shared" si="29"/>
+        <v>0.70681757009315904</v>
       </c>
       <c r="S24" s="7">
         <v>0.74</v>
@@ -2676,70 +2676,70 @@
         <v>40</v>
       </c>
       <c r="C25" s="6">
-        <f>C12/C6</f>
+        <f t="shared" ref="C25:J25" si="30">C12/C6</f>
         <v>0.64924742743050223</v>
       </c>
       <c r="D25" s="6" t="e">
-        <f>D12/D6</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="6" t="e">
-        <f>E12/E6</f>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="6">
-        <f>F12/F6</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G25" s="6">
-        <f>G12/G6</f>
+        <f t="shared" si="30"/>
         <v>0.49008550118246313</v>
       </c>
       <c r="H25" s="6">
-        <f>H12/H6</f>
+        <f t="shared" si="30"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I25" s="6">
-        <f>I12/I6</f>
+        <f t="shared" si="30"/>
         <v>0.56440000000000001</v>
       </c>
       <c r="J25" s="6">
-        <f>J12/J6</f>
-        <v>0.57908799999999994</v>
+        <f t="shared" si="30"/>
+        <v>0.57908800000000005</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6">
-        <f>O12/O6</f>
+        <f t="shared" ref="O25:V25" si="31">O12/O6</f>
         <v>0.20675465262845702</v>
       </c>
       <c r="P25" s="6">
-        <f>P12/P6</f>
+        <f t="shared" si="31"/>
         <v>0.54121663766783756</v>
       </c>
       <c r="Q25" s="6">
-        <f>Q12/Q6</f>
+        <f t="shared" si="31"/>
         <v>0.62417526839697468</v>
       </c>
       <c r="R25" s="6">
-        <f>R12/R6</f>
-        <v>0.54814438947516531</v>
+        <f t="shared" si="31"/>
+        <v>0.5490365640064423</v>
       </c>
       <c r="S25" s="6">
-        <f>S12/S6</f>
-        <v>0.57999999999999985</v>
+        <f t="shared" si="31"/>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T25" s="6">
-        <f>T12/T6</f>
+        <f t="shared" si="31"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="U25" s="6">
-        <f>U12/U6</f>
+        <f t="shared" si="31"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="V25" s="6">
-        <f>V12/V6</f>
-        <v>0.57999999999999996</v>
+        <f t="shared" si="31"/>
+        <v>0.58000000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="R26" s="6">
         <f>R11/R6</f>
-        <v>0.15734718876997822</v>
+        <v>0.15778100608671672</v>
       </c>
       <c r="S26" s="6">
         <v>0.16</v>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="I29" s="2">
         <f>H29+I17</f>
-        <v>81885.670752000005</v>
+        <v>82924.16675199999</v>
       </c>
       <c r="J29" s="2">
         <f>I29+J17</f>
-        <v>107069.70878476801</v>
+        <v>110226.35425804798</v>
       </c>
       <c r="Q29" s="2">
         <f>Q31-Q37</f>
@@ -2852,23 +2852,23 @@
       </c>
       <c r="R29" s="2">
         <f>Q29+R13</f>
-        <v>31853.624793759998</v>
+        <v>31858.81727376</v>
       </c>
       <c r="S29" s="2">
         <f>R29+S13</f>
-        <v>32490.697289635198</v>
+        <v>32495.9936192352</v>
       </c>
       <c r="T29" s="2">
         <f>S29+T13</f>
-        <v>33140.511235427904</v>
+        <v>33145.913491619904</v>
       </c>
       <c r="U29" s="2">
         <f>T29+U13</f>
-        <v>33803.32146013646</v>
+        <v>33808.831761452304</v>
       </c>
       <c r="V29" s="2">
         <f>U29+V13</f>
-        <v>34479.387889339188</v>
+        <v>34485.008396681347</v>
       </c>
     </row>
     <row r="30" spans="1:143" x14ac:dyDescent="0.2">
@@ -2982,44 +2982,44 @@
         <v>35</v>
       </c>
       <c r="M44" s="2">
-        <f>M17</f>
+        <f t="shared" ref="M44:V44" si="32">M17</f>
         <v>0</v>
       </c>
       <c r="N44" s="2">
-        <f>N17</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f>O17</f>
+        <f t="shared" si="32"/>
         <v>5721</v>
       </c>
       <c r="P44" s="2">
-        <f>P17</f>
+        <f t="shared" si="32"/>
         <v>29760</v>
       </c>
       <c r="Q44" s="2">
-        <f>Q17</f>
+        <f t="shared" si="32"/>
         <v>72880</v>
       </c>
       <c r="R44" s="2">
-        <f>R17</f>
-        <v>86936.708784767994</v>
+        <f t="shared" si="32"/>
+        <v>90093.354258047984</v>
       </c>
       <c r="S44" s="2">
-        <f>S17</f>
-        <v>120702.33230070016</v>
+        <f t="shared" si="32"/>
+        <v>124969.67861238014</v>
       </c>
       <c r="T44" s="2">
-        <f>T17</f>
-        <v>161578.03472399418</v>
+        <f t="shared" si="32"/>
+        <v>167296.25219614775</v>
       </c>
       <c r="U44" s="2">
-        <f>U17</f>
-        <v>216348.21416002931</v>
+        <f t="shared" si="32"/>
+        <v>224010.59845550748</v>
       </c>
       <c r="V44" s="2">
-        <f>V17</f>
-        <v>289736.92755691393</v>
+        <f t="shared" si="32"/>
+        <v>300004.49485330301</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
@@ -3051,19 +3051,19 @@
         <v>5684.4</v>
       </c>
       <c r="S46" s="2">
-        <f t="shared" ref="S46:V46" si="26">R46*1.2</f>
+        <f t="shared" ref="S46:V46" si="33">R46*1.2</f>
         <v>6821.28</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>8185.5359999999991</v>
       </c>
       <c r="U46" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>9822.6431999999986</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>11787.171839999997</v>
       </c>
     </row>
@@ -3080,23 +3080,23 @@
       </c>
       <c r="R47" s="2">
         <f>Q47*(1+R21)</f>
-        <v>2761.217388905492</v>
+        <v>2859.2503306589424</v>
       </c>
       <c r="S47" s="2">
         <f>R47*(1+S21)</f>
-        <v>3700.0313011333596</v>
+        <v>3831.3954430829831</v>
       </c>
       <c r="T47" s="2">
         <f>S47*(1+T21)</f>
-        <v>4958.0419435187023</v>
+        <v>5134.0698937311972</v>
       </c>
       <c r="U47" s="2">
         <f>T47*(1+U21)</f>
-        <v>6643.7762043150615</v>
+        <v>6879.6536575998043</v>
       </c>
       <c r="V47" s="2">
         <f>U47*(1+V21)</f>
-        <v>8902.6601137821835</v>
+        <v>9218.735901183738</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
@@ -3299,23 +3299,23 @@
       </c>
       <c r="R55" s="2">
         <f>Q55*(1+R21)</f>
-        <v>6337.1716683142131</v>
+        <v>6562.1635807719713</v>
       </c>
       <c r="S55" s="2">
         <f>R55*(1+S21)</f>
-        <v>8491.8100355410461</v>
+        <v>8793.2991982344429</v>
       </c>
       <c r="T55" s="2">
         <f>S55*(1+T21)</f>
-        <v>11379.025447625003</v>
+        <v>11783.020925634155</v>
       </c>
       <c r="U55" s="2">
         <f>T55*(1+U21)</f>
-        <v>15247.894099817504</v>
+        <v>15789.248040349768</v>
       </c>
       <c r="V55" s="2">
         <f>U55*(1+V21)</f>
-        <v>20432.178093755458</v>
+        <v>21157.592374068692</v>
       </c>
       <c r="X55" s="2" t="s">
         <v>31</v>
@@ -3336,23 +3336,23 @@
       </c>
       <c r="R56" s="2">
         <f>Q56*(1+R21)</f>
-        <v>1808.7158969171703</v>
+        <v>1872.9316811880733</v>
       </c>
       <c r="S56" s="2">
         <f>R56*(1+S21)</f>
-        <v>2423.6793018690082</v>
+        <v>2509.7284527920183</v>
       </c>
       <c r="T56" s="2">
         <f>S56*(1+T21)</f>
-        <v>3247.7302645044711</v>
+        <v>3363.0361267413045</v>
       </c>
       <c r="U56" s="2">
         <f>T56*(1+U21)</f>
-        <v>4351.9585544359916</v>
+        <v>4506.4684098333482</v>
       </c>
       <c r="V56" s="2">
         <f>U56*(1+V21)</f>
-        <v>5831.624462944229</v>
+        <v>6038.667669176687</v>
       </c>
       <c r="X56" s="2" t="s">
         <v>33</v>
@@ -3375,30 +3375,30 @@
       </c>
       <c r="R57" s="2">
         <f>SUM(R46:R56,R44)</f>
-        <v>103708.21373890487</v>
+        <v>107252.09985066697</v>
       </c>
       <c r="S57" s="2">
-        <f t="shared" ref="S57:V57" si="27">SUM(S46:S56,S44)</f>
-        <v>142139.13293924357</v>
+        <f t="shared" ref="S57:V57" si="34">SUM(S46:S56,S44)</f>
+        <v>146925.3817064896</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" si="27"/>
-        <v>189348.36837964234</v>
+        <f t="shared" si="34"/>
+        <v>195761.91514225441</v>
       </c>
       <c r="U57" s="2">
-        <f t="shared" si="27"/>
-        <v>252414.48621859786</v>
+        <f t="shared" si="34"/>
+        <v>261008.61176329039</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" si="27"/>
-        <v>336690.56206739577</v>
+        <f t="shared" si="34"/>
+        <v>348206.66263773211</v>
       </c>
       <c r="X57" s="2" t="s">
         <v>30</v>
       </c>
       <c r="Y57" s="2">
         <f>NPV(Y56,R62:DU62)+main!O5-main!O6</f>
-        <v>3175706.3364186483</v>
+        <v>3282662.5098046414</v>
       </c>
     </row>
     <row r="58" spans="1:125" x14ac:dyDescent="0.2">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="Y58" s="5">
         <f>Y57/main!O3</f>
-        <v>130.15189903355116</v>
+        <v>134.53534876248531</v>
       </c>
     </row>
     <row r="59" spans="1:125" x14ac:dyDescent="0.2">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="Y59" s="6">
         <f>Y58/main!O2-1</f>
-        <v>-0.10240069632033677</v>
+        <v>-0.13203000798396569</v>
       </c>
     </row>
     <row r="60" spans="1:125" x14ac:dyDescent="0.2">
@@ -3442,23 +3442,23 @@
       </c>
       <c r="R60" s="2">
         <f>Q60*(1+R21)</f>
-        <v>-4793.6155957608216</v>
+        <v>-4963.8058315516828</v>
       </c>
       <c r="S60" s="2">
         <f>R60*(1+S21)</f>
-        <v>-6423.4448983195016</v>
+        <v>-6651.4998142792556</v>
       </c>
       <c r="T60" s="2">
         <f>S60*(1+T21)</f>
-        <v>-8607.416163748132</v>
+        <v>-8913.0097511342028</v>
       </c>
       <c r="U60" s="2">
         <f>T60*(1+U21)</f>
-        <v>-11533.937659422498</v>
+        <v>-11943.433066519832</v>
       </c>
       <c r="V60" s="2">
         <f>U60*(1+V21)</f>
-        <v>-15455.476463626148</v>
+        <v>-16004.200309136577</v>
       </c>
     </row>
     <row r="62" spans="1:125" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3475,436 +3475,436 @@
         <v>60853</v>
       </c>
       <c r="R62" s="4">
-        <f t="shared" ref="R62:V62" si="28">R57+R60</f>
-        <v>98914.598143144045</v>
+        <f t="shared" ref="R62:V62" si="35">R57+R60</f>
+        <v>102288.29401911529</v>
       </c>
       <c r="S62" s="4">
-        <f t="shared" si="28"/>
-        <v>135715.68804092408</v>
+        <f t="shared" si="35"/>
+        <v>140273.88189221034</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="28"/>
-        <v>180740.95221589421</v>
+        <f t="shared" si="35"/>
+        <v>186848.90539112021</v>
       </c>
       <c r="U62" s="4">
-        <f t="shared" si="28"/>
-        <v>240880.54855917537</v>
+        <f t="shared" si="35"/>
+        <v>249065.17869677057</v>
       </c>
       <c r="V62" s="4">
-        <f t="shared" si="28"/>
-        <v>321235.08560376964</v>
+        <f t="shared" si="35"/>
+        <v>332202.46232859552</v>
       </c>
       <c r="W62" s="4">
-        <f t="shared" ref="W62:BB62" si="29">V62*(1+$Y$55)</f>
-        <v>324447.43645980733</v>
+        <f t="shared" ref="W62:BB62" si="36">V62*(1+$Y$55)</f>
+        <v>335524.4869518815</v>
       </c>
       <c r="X62" s="4">
-        <f t="shared" si="29"/>
-        <v>327691.91082440538</v>
+        <f t="shared" si="36"/>
+        <v>338879.73182140029</v>
       </c>
       <c r="Y62" s="4">
-        <f t="shared" si="29"/>
-        <v>330968.82993264945</v>
+        <f t="shared" si="36"/>
+        <v>342268.52913961431</v>
       </c>
       <c r="Z62" s="4">
-        <f t="shared" si="29"/>
-        <v>334278.51823197596</v>
+        <f t="shared" si="36"/>
+        <v>345691.21443101048</v>
       </c>
       <c r="AA62" s="4">
-        <f t="shared" si="29"/>
-        <v>337621.30341429572</v>
+        <f t="shared" si="36"/>
+        <v>349148.12657532061</v>
       </c>
       <c r="AB62" s="4">
-        <f t="shared" si="29"/>
-        <v>340997.51644843869</v>
+        <f t="shared" si="36"/>
+        <v>352639.60784107383</v>
       </c>
       <c r="AC62" s="4">
-        <f t="shared" si="29"/>
-        <v>344407.4916129231</v>
+        <f t="shared" si="36"/>
+        <v>356166.00391948456</v>
       </c>
       <c r="AD62" s="4">
-        <f t="shared" si="29"/>
-        <v>347851.56652905233</v>
+        <f t="shared" si="36"/>
+        <v>359727.66395867942</v>
       </c>
       <c r="AE62" s="4">
-        <f t="shared" si="29"/>
-        <v>351330.08219434286</v>
+        <f t="shared" si="36"/>
+        <v>363324.9405982662</v>
       </c>
       <c r="AF62" s="4">
-        <f t="shared" si="29"/>
-        <v>354843.3830162863</v>
+        <f t="shared" si="36"/>
+        <v>366958.19000424887</v>
       </c>
       <c r="AG62" s="4">
-        <f t="shared" si="29"/>
-        <v>358391.81684644916</v>
+        <f t="shared" si="36"/>
+        <v>370627.77190429135</v>
       </c>
       <c r="AH62" s="4">
-        <f t="shared" si="29"/>
-        <v>361975.73501491366</v>
+        <f t="shared" si="36"/>
+        <v>374334.04962333426</v>
       </c>
       <c r="AI62" s="4">
-        <f t="shared" si="29"/>
-        <v>365595.49236506282</v>
+        <f t="shared" si="36"/>
+        <v>378077.39011956763</v>
       </c>
       <c r="AJ62" s="4">
-        <f t="shared" si="29"/>
-        <v>369251.44728871348</v>
+        <f t="shared" si="36"/>
+        <v>381858.1640207633</v>
       </c>
       <c r="AK62" s="4">
-        <f t="shared" si="29"/>
-        <v>372943.96176160063</v>
+        <f t="shared" si="36"/>
+        <v>385676.74566097092</v>
       </c>
       <c r="AL62" s="4">
-        <f t="shared" si="29"/>
-        <v>376673.40137921664</v>
+        <f t="shared" si="36"/>
+        <v>389533.51311758062</v>
       </c>
       <c r="AM62" s="4">
-        <f t="shared" si="29"/>
-        <v>380440.13539300882</v>
+        <f t="shared" si="36"/>
+        <v>393428.84824875643</v>
       </c>
       <c r="AN62" s="4">
-        <f t="shared" si="29"/>
-        <v>384244.53674693889</v>
+        <f t="shared" si="36"/>
+        <v>397363.13673124398</v>
       </c>
       <c r="AO62" s="4">
-        <f t="shared" si="29"/>
-        <v>388086.98211440828</v>
+        <f t="shared" si="36"/>
+        <v>401336.76809855644</v>
       </c>
       <c r="AP62" s="4">
-        <f t="shared" si="29"/>
-        <v>391967.85193555237</v>
+        <f t="shared" si="36"/>
+        <v>405350.13577954203</v>
       </c>
       <c r="AQ62" s="4">
-        <f t="shared" si="29"/>
-        <v>395887.53045490792</v>
+        <f t="shared" si="36"/>
+        <v>409403.63713733747</v>
       </c>
       <c r="AR62" s="4">
-        <f t="shared" si="29"/>
-        <v>399846.40575945697</v>
+        <f t="shared" si="36"/>
+        <v>413497.67350871087</v>
       </c>
       <c r="AS62" s="4">
-        <f t="shared" si="29"/>
-        <v>403844.86981705157</v>
+        <f t="shared" si="36"/>
+        <v>417632.65024379798</v>
       </c>
       <c r="AT62" s="4">
-        <f t="shared" si="29"/>
-        <v>407883.31851522211</v>
+        <f t="shared" si="36"/>
+        <v>421808.97674623597</v>
       </c>
       <c r="AU62" s="4">
-        <f t="shared" si="29"/>
-        <v>411962.15170037432</v>
+        <f t="shared" si="36"/>
+        <v>426027.06651369832</v>
       </c>
       <c r="AV62" s="4">
-        <f t="shared" si="29"/>
-        <v>416081.77321737807</v>
+        <f t="shared" si="36"/>
+        <v>430287.3371788353</v>
       </c>
       <c r="AW62" s="4">
-        <f t="shared" si="29"/>
-        <v>420242.59094955184</v>
+        <f t="shared" si="36"/>
+        <v>434590.21055062365</v>
       </c>
       <c r="AX62" s="4">
-        <f t="shared" si="29"/>
-        <v>424445.01685904735</v>
+        <f t="shared" si="36"/>
+        <v>438936.11265612987</v>
       </c>
       <c r="AY62" s="4">
-        <f t="shared" si="29"/>
-        <v>428689.46702763782</v>
+        <f t="shared" si="36"/>
+        <v>443325.47378269117</v>
       </c>
       <c r="AZ62" s="4">
-        <f t="shared" si="29"/>
-        <v>432976.3616979142</v>
+        <f t="shared" si="36"/>
+        <v>447758.72852051811</v>
       </c>
       <c r="BA62" s="4">
-        <f t="shared" si="29"/>
-        <v>437306.12531489332</v>
+        <f t="shared" si="36"/>
+        <v>452236.31580572331</v>
       </c>
       <c r="BB62" s="4">
-        <f t="shared" si="29"/>
-        <v>441679.18656804226</v>
+        <f t="shared" si="36"/>
+        <v>456758.67896378052</v>
       </c>
       <c r="BC62" s="4">
-        <f t="shared" ref="BC62:CH62" si="30">BB62*(1+$Y$55)</f>
-        <v>446095.97843372269</v>
+        <f t="shared" ref="BC62:CH62" si="37">BB62*(1+$Y$55)</f>
+        <v>461326.26575341832</v>
       </c>
       <c r="BD62" s="4">
-        <f t="shared" si="30"/>
-        <v>450556.93821805989</v>
+        <f t="shared" si="37"/>
+        <v>465939.52841095254</v>
       </c>
       <c r="BE62" s="4">
-        <f t="shared" si="30"/>
-        <v>455062.50760024047</v>
+        <f t="shared" si="37"/>
+        <v>470598.92369506205</v>
       </c>
       <c r="BF62" s="4">
-        <f t="shared" si="30"/>
-        <v>459613.13267624285</v>
+        <f t="shared" si="37"/>
+        <v>475304.9129320127</v>
       </c>
       <c r="BG62" s="4">
-        <f t="shared" si="30"/>
-        <v>464209.26400300529</v>
+        <f t="shared" si="37"/>
+        <v>480057.96206133283</v>
       </c>
       <c r="BH62" s="4">
-        <f t="shared" si="30"/>
-        <v>468851.35664303537</v>
+        <f t="shared" si="37"/>
+        <v>484858.54168194614</v>
       </c>
       <c r="BI62" s="4">
-        <f t="shared" si="30"/>
-        <v>473539.87020946573</v>
+        <f t="shared" si="37"/>
+        <v>489707.12709876563</v>
       </c>
       <c r="BJ62" s="4">
-        <f t="shared" si="30"/>
-        <v>478275.26891156042</v>
+        <f t="shared" si="37"/>
+        <v>494604.19836975331</v>
       </c>
       <c r="BK62" s="4">
-        <f t="shared" si="30"/>
-        <v>483058.021600676</v>
+        <f t="shared" si="37"/>
+        <v>499550.24035345088</v>
       </c>
       <c r="BL62" s="4">
-        <f t="shared" si="30"/>
-        <v>487888.60181668279</v>
+        <f t="shared" si="37"/>
+        <v>504545.74275698542</v>
       </c>
       <c r="BM62" s="4">
-        <f t="shared" si="30"/>
-        <v>492767.48783484963</v>
+        <f t="shared" si="37"/>
+        <v>509591.20018455526</v>
       </c>
       <c r="BN62" s="4">
-        <f t="shared" si="30"/>
-        <v>497695.16271319811</v>
+        <f t="shared" si="37"/>
+        <v>514687.1121864008</v>
       </c>
       <c r="BO62" s="4">
-        <f t="shared" si="30"/>
-        <v>502672.11434033007</v>
+        <f t="shared" si="37"/>
+        <v>519833.98330826481</v>
       </c>
       <c r="BP62" s="4">
-        <f t="shared" si="30"/>
-        <v>507698.83548373339</v>
+        <f t="shared" si="37"/>
+        <v>525032.3231413475</v>
       </c>
       <c r="BQ62" s="4">
-        <f t="shared" si="30"/>
-        <v>512775.82383857074</v>
+        <f t="shared" si="37"/>
+        <v>530282.646372761</v>
       </c>
       <c r="BR62" s="4">
-        <f t="shared" si="30"/>
-        <v>517903.58207695646</v>
+        <f t="shared" si="37"/>
+        <v>535585.47283648863</v>
       </c>
       <c r="BS62" s="4">
-        <f t="shared" si="30"/>
-        <v>523082.61789772601</v>
+        <f t="shared" si="37"/>
+        <v>540941.32756485348</v>
       </c>
       <c r="BT62" s="4">
-        <f t="shared" si="30"/>
-        <v>528313.44407670328</v>
+        <f t="shared" si="37"/>
+        <v>546350.74084050197</v>
       </c>
       <c r="BU62" s="4">
-        <f t="shared" si="30"/>
-        <v>533596.57851747028</v>
+        <f t="shared" si="37"/>
+        <v>551814.24824890704</v>
       </c>
       <c r="BV62" s="4">
-        <f t="shared" si="30"/>
-        <v>538932.54430264502</v>
+        <f t="shared" si="37"/>
+        <v>557332.39073139615</v>
       </c>
       <c r="BW62" s="4">
-        <f t="shared" si="30"/>
-        <v>544321.86974567152</v>
+        <f t="shared" si="37"/>
+        <v>562905.71463871014</v>
       </c>
       <c r="BX62" s="4">
-        <f t="shared" si="30"/>
-        <v>549765.08844312828</v>
+        <f t="shared" si="37"/>
+        <v>568534.7717850972</v>
       </c>
       <c r="BY62" s="4">
-        <f t="shared" si="30"/>
-        <v>555262.7393275596</v>
+        <f t="shared" si="37"/>
+        <v>574220.11950294813</v>
       </c>
       <c r="BZ62" s="4">
-        <f t="shared" si="30"/>
-        <v>560815.36672083521</v>
+        <f t="shared" si="37"/>
+        <v>579962.32069797767</v>
       </c>
       <c r="CA62" s="4">
-        <f t="shared" si="30"/>
-        <v>566423.5203880436</v>
+        <f t="shared" si="37"/>
+        <v>585761.9439049575</v>
       </c>
       <c r="CB62" s="4">
-        <f t="shared" si="30"/>
-        <v>572087.75559192407</v>
+        <f t="shared" si="37"/>
+        <v>591619.56334400713</v>
       </c>
       <c r="CC62" s="4">
-        <f t="shared" si="30"/>
-        <v>577808.6331478433</v>
+        <f t="shared" si="37"/>
+        <v>597535.75897744717</v>
       </c>
       <c r="CD62" s="4">
-        <f t="shared" si="30"/>
-        <v>583586.71947932173</v>
+        <f t="shared" si="37"/>
+        <v>603511.1165672217</v>
       </c>
       <c r="CE62" s="4">
-        <f t="shared" si="30"/>
-        <v>589422.58667411492</v>
+        <f t="shared" si="37"/>
+        <v>609546.22773289389</v>
       </c>
       <c r="CF62" s="4">
-        <f t="shared" si="30"/>
-        <v>595316.81254085607</v>
+        <f t="shared" si="37"/>
+        <v>615641.69001022284</v>
       </c>
       <c r="CG62" s="4">
-        <f t="shared" si="30"/>
-        <v>601269.98066626466</v>
+        <f t="shared" si="37"/>
+        <v>621798.10691032512</v>
       </c>
       <c r="CH62" s="4">
-        <f t="shared" si="30"/>
-        <v>607282.68047292728</v>
+        <f t="shared" si="37"/>
+        <v>628016.08797942835</v>
       </c>
       <c r="CI62" s="4">
-        <f t="shared" ref="CI62:DN62" si="31">CH62*(1+$Y$55)</f>
-        <v>613355.50727765658</v>
+        <f t="shared" ref="CI62:DN62" si="38">CH62*(1+$Y$55)</f>
+        <v>634296.24885922263</v>
       </c>
       <c r="CJ62" s="4">
-        <f t="shared" si="31"/>
-        <v>619489.0623504332</v>
+        <f t="shared" si="38"/>
+        <v>640639.21134781488</v>
       </c>
       <c r="CK62" s="4">
-        <f t="shared" si="31"/>
-        <v>625683.9529739375</v>
+        <f t="shared" si="38"/>
+        <v>647045.60346129304</v>
       </c>
       <c r="CL62" s="4">
-        <f t="shared" si="31"/>
-        <v>631940.79250367684</v>
+        <f t="shared" si="38"/>
+        <v>653516.059495906</v>
       </c>
       <c r="CM62" s="4">
-        <f t="shared" si="31"/>
-        <v>638260.20042871358</v>
+        <f t="shared" si="38"/>
+        <v>660051.22009086504</v>
       </c>
       <c r="CN62" s="4">
-        <f t="shared" si="31"/>
-        <v>644642.80243300076</v>
+        <f t="shared" si="38"/>
+        <v>666651.73229177366</v>
       </c>
       <c r="CO62" s="4">
-        <f t="shared" si="31"/>
-        <v>651089.23045733082</v>
+        <f t="shared" si="38"/>
+        <v>673318.24961469136</v>
       </c>
       <c r="CP62" s="4">
-        <f t="shared" si="31"/>
-        <v>657600.12276190415</v>
+        <f t="shared" si="38"/>
+        <v>680051.43211083824</v>
       </c>
       <c r="CQ62" s="4">
-        <f t="shared" si="31"/>
-        <v>664176.12398952316</v>
+        <f t="shared" si="38"/>
+        <v>686851.94643194659</v>
       </c>
       <c r="CR62" s="4">
-        <f t="shared" si="31"/>
-        <v>670817.8852294184</v>
+        <f t="shared" si="38"/>
+        <v>693720.46589626605</v>
       </c>
       <c r="CS62" s="4">
-        <f t="shared" si="31"/>
-        <v>677526.06408171263</v>
+        <f t="shared" si="38"/>
+        <v>700657.67055522872</v>
       </c>
       <c r="CT62" s="4">
-        <f t="shared" si="31"/>
-        <v>684301.32472252974</v>
+        <f t="shared" si="38"/>
+        <v>707664.24726078101</v>
       </c>
       <c r="CU62" s="4">
-        <f t="shared" si="31"/>
-        <v>691144.33796975506</v>
+        <f t="shared" si="38"/>
+        <v>714740.88973338879</v>
       </c>
       <c r="CV62" s="4">
-        <f t="shared" si="31"/>
-        <v>698055.78134945256</v>
+        <f t="shared" si="38"/>
+        <v>721888.29863072268</v>
       </c>
       <c r="CW62" s="4">
-        <f t="shared" si="31"/>
-        <v>705036.33916294714</v>
+        <f t="shared" si="38"/>
+        <v>729107.18161702994</v>
       </c>
       <c r="CX62" s="4">
-        <f t="shared" si="31"/>
-        <v>712086.70255457656</v>
+        <f t="shared" si="38"/>
+        <v>736398.2534332003</v>
       </c>
       <c r="CY62" s="4">
-        <f t="shared" si="31"/>
-        <v>719207.56958012236</v>
+        <f t="shared" si="38"/>
+        <v>743762.23596753227</v>
       </c>
       <c r="CZ62" s="4">
-        <f t="shared" si="31"/>
-        <v>726399.64527592354</v>
+        <f t="shared" si="38"/>
+        <v>751199.85832720762</v>
       </c>
       <c r="DA62" s="4">
-        <f t="shared" si="31"/>
-        <v>733663.64172868279</v>
+        <f t="shared" si="38"/>
+        <v>758711.85691047972</v>
       </c>
       <c r="DB62" s="4">
-        <f t="shared" si="31"/>
-        <v>741000.27814596961</v>
+        <f t="shared" si="38"/>
+        <v>766298.97547958454</v>
       </c>
       <c r="DC62" s="4">
-        <f t="shared" si="31"/>
-        <v>748410.28092742932</v>
+        <f t="shared" si="38"/>
+        <v>773961.96523438033</v>
       </c>
       <c r="DD62" s="4">
-        <f t="shared" si="31"/>
-        <v>755894.38373670366</v>
+        <f t="shared" si="38"/>
+        <v>781701.58488672413</v>
       </c>
       <c r="DE62" s="4">
-        <f t="shared" si="31"/>
-        <v>763453.32757407066</v>
+        <f t="shared" si="38"/>
+        <v>789518.60073559138</v>
       </c>
       <c r="DF62" s="4">
-        <f t="shared" si="31"/>
-        <v>771087.86084981135</v>
+        <f t="shared" si="38"/>
+        <v>797413.7867429473</v>
       </c>
       <c r="DG62" s="4">
-        <f t="shared" si="31"/>
-        <v>778798.73945830949</v>
+        <f t="shared" si="38"/>
+        <v>805387.92461037682</v>
       </c>
       <c r="DH62" s="4">
-        <f t="shared" si="31"/>
-        <v>786586.72685289255</v>
+        <f t="shared" si="38"/>
+        <v>813441.80385648063</v>
       </c>
       <c r="DI62" s="4">
-        <f t="shared" si="31"/>
-        <v>794452.59412142145</v>
+        <f t="shared" si="38"/>
+        <v>821576.22189504548</v>
       </c>
       <c r="DJ62" s="4">
-        <f t="shared" si="31"/>
-        <v>802397.12006263563</v>
+        <f t="shared" si="38"/>
+        <v>829791.98411399592</v>
       </c>
       <c r="DK62" s="4">
-        <f t="shared" si="31"/>
-        <v>810421.09126326197</v>
+        <f t="shared" si="38"/>
+        <v>838089.90395513584</v>
       </c>
       <c r="DL62" s="4">
-        <f t="shared" si="31"/>
-        <v>818525.30217589461</v>
+        <f t="shared" si="38"/>
+        <v>846470.80299468723</v>
       </c>
       <c r="DM62" s="4">
-        <f t="shared" si="31"/>
-        <v>826710.55519765359</v>
+        <f t="shared" si="38"/>
+        <v>854935.51102463412</v>
       </c>
       <c r="DN62" s="4">
-        <f t="shared" si="31"/>
-        <v>834977.66074963019</v>
+        <f t="shared" si="38"/>
+        <v>863484.86613488046</v>
       </c>
       <c r="DO62" s="4">
-        <f t="shared" ref="DO62:DU62" si="32">DN62*(1+$Y$55)</f>
-        <v>843327.4373571265</v>
+        <f t="shared" ref="DO62:DU62" si="39">DN62*(1+$Y$55)</f>
+        <v>872119.71479622927</v>
       </c>
       <c r="DP62" s="4">
-        <f t="shared" si="32"/>
-        <v>851760.71173069777</v>
+        <f t="shared" si="39"/>
+        <v>880840.91194419155</v>
       </c>
       <c r="DQ62" s="4">
-        <f t="shared" si="32"/>
-        <v>860278.3188480048</v>
+        <f t="shared" si="39"/>
+        <v>889649.32106363343</v>
       </c>
       <c r="DR62" s="4">
-        <f t="shared" si="32"/>
-        <v>868881.10203648487</v>
+        <f t="shared" si="39"/>
+        <v>898545.81427426974</v>
       </c>
       <c r="DS62" s="4">
-        <f t="shared" si="32"/>
-        <v>877569.91305684973</v>
+        <f t="shared" si="39"/>
+        <v>907531.27241701249</v>
       </c>
       <c r="DT62" s="4">
-        <f t="shared" si="32"/>
-        <v>886345.61218741827</v>
+        <f t="shared" si="39"/>
+        <v>916606.58514118264</v>
       </c>
       <c r="DU62" s="4">
-        <f t="shared" si="32"/>
-        <v>895209.06830929243</v>
+        <f t="shared" si="39"/>
+        <v>925772.65099259443</v>
       </c>
     </row>
   </sheetData>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50263960-F9FC-4771-9D93-20E368F75595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE8D1D1-4F5D-4324-B366-ABBFEA33D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="750" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="3045" yWindow="855" windowWidth="23595" windowHeight="13935" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1008,10 +1008,10 @@
   <dimension ref="A1:EM62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1067,7 @@
         <v>2022</v>
       </c>
       <c r="O1" s="3">
-        <f t="shared" ref="O1:W1" si="0">N1+1</f>
+        <f t="shared" ref="O1:V1" si="0">N1+1</f>
         <v>2023</v>
       </c>
       <c r="P1" s="3">
@@ -1219,20 +1219,20 @@
         <v>200173.6</v>
       </c>
       <c r="S6" s="4">
-        <f>R6*1.34</f>
-        <v>268232.62400000001</v>
+        <f>R6*1.44</f>
+        <v>288249.984</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" ref="T6:V6" si="1">S6*1.34</f>
-        <v>359431.71616000001</v>
+        <f t="shared" ref="T6:V6" si="1">S6*1.44</f>
+        <v>415079.97696</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="1"/>
-        <v>481638.49965440005</v>
+        <v>597715.16682239994</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="1"/>
-        <v>645395.58953689609</v>
+        <v>860709.84022425592</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -1272,19 +1272,19 @@
       </c>
       <c r="S7" s="2">
         <f>S6*(1-S24)</f>
-        <v>69740.482240000012</v>
+        <v>74944.995840000003</v>
       </c>
       <c r="T7" s="2">
         <f>T6*(1-T24)</f>
-        <v>93452.246201600006</v>
+        <v>107920.79400960001</v>
       </c>
       <c r="U7" s="2">
         <f>U6*(1-U24)</f>
-        <v>125226.00991014401</v>
+        <v>155405.943373824</v>
       </c>
       <c r="V7" s="2">
         <f>V6*(1-V24)</f>
-        <v>167802.85327959299</v>
+        <v>223784.55845830654</v>
       </c>
       <c r="Z7" s="4"/>
     </row>
@@ -1354,19 +1354,19 @@
       </c>
       <c r="S8" s="2">
         <f t="shared" si="3"/>
-        <v>198492.14176</v>
+        <v>213304.98816000001</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="3"/>
-        <v>265979.4699584</v>
+        <v>307159.18295039999</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="3"/>
-        <v>356412.48974425602</v>
+        <v>442309.22344857594</v>
       </c>
       <c r="V8" s="2">
         <f t="shared" si="3"/>
-        <v>477592.7362573031</v>
+        <v>636925.28176594945</v>
       </c>
       <c r="Z8" s="4"/>
     </row>
@@ -1478,19 +1478,19 @@
       </c>
       <c r="S11" s="2">
         <f>S6*S26</f>
-        <v>42917.219840000005</v>
+        <v>46119.997439999999</v>
       </c>
       <c r="T11" s="2">
         <f>T6*T26</f>
-        <v>57509.074585599999</v>
+        <v>66412.796313600003</v>
       </c>
       <c r="U11" s="2">
         <f>U6*U26</f>
-        <v>77062.159944704006</v>
+        <v>95634.426691583998</v>
       </c>
       <c r="V11" s="2">
         <f>V6*V26</f>
-        <v>103263.29432590338</v>
+        <v>137713.57443588096</v>
       </c>
       <c r="Z11" s="4"/>
     </row>
@@ -1560,19 +1560,19 @@
       </c>
       <c r="S12" s="2">
         <f t="shared" ref="S12:V12" si="8">S8-S11</f>
-        <v>155574.92191999999</v>
+        <v>167184.99072</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" si="8"/>
-        <v>208470.39537280001</v>
+        <v>240746.38663679999</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" si="8"/>
-        <v>279350.32979955198</v>
+        <v>346674.79675699194</v>
       </c>
       <c r="V12" s="2">
         <f t="shared" si="8"/>
-        <v>374329.44193139975</v>
+        <v>499211.70733006846</v>
       </c>
       <c r="Z12" s="4"/>
     </row>
@@ -1752,19 +1752,19 @@
       </c>
       <c r="S15" s="2">
         <f t="shared" ref="S15:V15" si="12">S12+SUM(S13:S14)</f>
-        <v>156212.09826547519</v>
+        <v>167822.16706547519</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" si="12"/>
-        <v>209120.3152451847</v>
+        <v>241396.30650918468</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" si="12"/>
-        <v>280013.24806938437</v>
+        <v>347337.71502682433</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" si="12"/>
-        <v>375005.61856662878</v>
+        <v>499887.88396529749</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1804,19 +1804,19 @@
       </c>
       <c r="S16" s="2">
         <f>S15*0.2</f>
-        <v>31242.419653095039</v>
+        <v>33564.433413095037</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" ref="T16:V16" si="14">T15*0.2</f>
-        <v>41824.063049036944</v>
+        <v>48279.261301836937</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="14"/>
-        <v>56002.649613876878</v>
+        <v>69467.543005364874</v>
       </c>
       <c r="V16" s="2">
         <f t="shared" si="14"/>
-        <v>75001.123713325753</v>
+        <v>99977.576793059503</v>
       </c>
     </row>
     <row r="17" spans="1:143" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1885,503 +1885,503 @@
       </c>
       <c r="S17" s="4">
         <f t="shared" ref="S17:V17" si="17">S15-S16</f>
-        <v>124969.67861238014</v>
+        <v>134257.73365238015</v>
       </c>
       <c r="T17" s="4">
         <f t="shared" si="17"/>
-        <v>167296.25219614775</v>
+        <v>193117.04520734775</v>
       </c>
       <c r="U17" s="4">
         <f t="shared" si="17"/>
-        <v>224010.59845550748</v>
+        <v>277870.17202145944</v>
       </c>
       <c r="V17" s="4">
         <f t="shared" si="17"/>
-        <v>300004.49485330301</v>
+        <v>399910.30717223801</v>
       </c>
       <c r="W17" s="4">
         <f t="shared" ref="W17:BB17" si="18">V17*(1+$Y$55)</f>
-        <v>303004.53980183607</v>
+        <v>403909.41024396039</v>
       </c>
       <c r="X17" s="4">
         <f t="shared" si="18"/>
-        <v>306034.58519985445</v>
+        <v>407948.50434639998</v>
       </c>
       <c r="Y17" s="4">
         <f t="shared" si="18"/>
-        <v>309094.931051853</v>
+        <v>412027.98938986397</v>
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="18"/>
-        <v>312185.88036237151</v>
+        <v>416148.26928376261</v>
       </c>
       <c r="AA17" s="4">
         <f t="shared" si="18"/>
-        <v>315307.73916599521</v>
+        <v>420309.75197660027</v>
       </c>
       <c r="AB17" s="4">
         <f t="shared" si="18"/>
-        <v>318460.81655765517</v>
+        <v>424512.84949636628</v>
       </c>
       <c r="AC17" s="4">
         <f t="shared" si="18"/>
-        <v>321645.4247232317</v>
+        <v>428757.97799132997</v>
       </c>
       <c r="AD17" s="4">
         <f t="shared" si="18"/>
-        <v>324861.87897046399</v>
+        <v>433045.55777124327</v>
       </c>
       <c r="AE17" s="4">
         <f t="shared" si="18"/>
-        <v>328110.49776016863</v>
+        <v>437376.01334895572</v>
       </c>
       <c r="AF17" s="4">
         <f t="shared" si="18"/>
-        <v>331391.6027377703</v>
+        <v>441749.77348244528</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" si="18"/>
-        <v>334705.51876514801</v>
+        <v>446167.27121726971</v>
       </c>
       <c r="AH17" s="4">
         <f t="shared" si="18"/>
-        <v>338052.57395279949</v>
+        <v>450628.94392944238</v>
       </c>
       <c r="AI17" s="4">
         <f t="shared" si="18"/>
-        <v>341433.09969232749</v>
+        <v>455135.23336873681</v>
       </c>
       <c r="AJ17" s="4">
         <f t="shared" si="18"/>
-        <v>344847.43068925076</v>
+        <v>459686.58570242417</v>
       </c>
       <c r="AK17" s="4">
         <f t="shared" si="18"/>
-        <v>348295.90499614325</v>
+        <v>464283.45155944844</v>
       </c>
       <c r="AL17" s="4">
         <f t="shared" si="18"/>
-        <v>351778.86404610466</v>
+        <v>468926.28607504291</v>
       </c>
       <c r="AM17" s="4">
         <f t="shared" si="18"/>
-        <v>355296.65268656571</v>
+        <v>473615.54893579334</v>
       </c>
       <c r="AN17" s="4">
         <f t="shared" si="18"/>
-        <v>358849.61921343138</v>
+        <v>478351.70442515129</v>
       </c>
       <c r="AO17" s="4">
         <f t="shared" si="18"/>
-        <v>362438.11540556571</v>
+        <v>483135.22146940278</v>
       </c>
       <c r="AP17" s="4">
         <f t="shared" si="18"/>
-        <v>366062.49655962136</v>
+        <v>487966.5736840968</v>
       </c>
       <c r="AQ17" s="4">
         <f t="shared" si="18"/>
-        <v>369723.1215252176</v>
+        <v>492846.23942093778</v>
       </c>
       <c r="AR17" s="4">
         <f t="shared" si="18"/>
-        <v>373420.3527404698</v>
+        <v>497774.70181514719</v>
       </c>
       <c r="AS17" s="4">
         <f t="shared" si="18"/>
-        <v>377154.55626787449</v>
+        <v>502752.44883329864</v>
       </c>
       <c r="AT17" s="4">
         <f t="shared" si="18"/>
-        <v>380926.10183055326</v>
+        <v>507779.97332163161</v>
       </c>
       <c r="AU17" s="4">
         <f t="shared" si="18"/>
-        <v>384735.36284885881</v>
+        <v>512857.7730548479</v>
       </c>
       <c r="AV17" s="4">
         <f t="shared" si="18"/>
-        <v>388582.71647734742</v>
+        <v>517986.35078539641</v>
       </c>
       <c r="AW17" s="4">
         <f t="shared" si="18"/>
-        <v>392468.5436421209</v>
+        <v>523166.21429325041</v>
       </c>
       <c r="AX17" s="4">
         <f t="shared" si="18"/>
-        <v>396393.22907854209</v>
+        <v>528397.87643618288</v>
       </c>
       <c r="AY17" s="4">
         <f t="shared" si="18"/>
-        <v>400357.16136932751</v>
+        <v>533681.8552005447</v>
       </c>
       <c r="AZ17" s="4">
         <f t="shared" si="18"/>
-        <v>404360.73298302077</v>
+        <v>539018.67375255015</v>
       </c>
       <c r="BA17" s="4">
         <f t="shared" si="18"/>
-        <v>408404.34031285101</v>
+        <v>544408.86049007566</v>
       </c>
       <c r="BB17" s="4">
         <f t="shared" si="18"/>
-        <v>412488.38371597952</v>
+        <v>549852.94909497641</v>
       </c>
       <c r="BC17" s="4">
         <f t="shared" ref="BC17:CH17" si="19">BB17*(1+$Y$55)</f>
-        <v>416613.2675531393</v>
+        <v>555351.47858592623</v>
       </c>
       <c r="BD17" s="4">
         <f t="shared" si="19"/>
-        <v>420779.40022867068</v>
+        <v>560904.9933717855</v>
       </c>
       <c r="BE17" s="4">
         <f t="shared" si="19"/>
-        <v>424987.19423095736</v>
+        <v>566514.04330550332</v>
       </c>
       <c r="BF17" s="4">
         <f t="shared" si="19"/>
-        <v>429237.06617326697</v>
+        <v>572179.18373855832</v>
       </c>
       <c r="BG17" s="4">
         <f t="shared" si="19"/>
-        <v>433529.43683499965</v>
+        <v>577900.97557594394</v>
       </c>
       <c r="BH17" s="4">
         <f t="shared" si="19"/>
-        <v>437864.73120334966</v>
+        <v>583679.98533170344</v>
       </c>
       <c r="BI17" s="4">
         <f t="shared" si="19"/>
-        <v>442243.37851538317</v>
+        <v>589516.78518502053</v>
       </c>
       <c r="BJ17" s="4">
         <f t="shared" si="19"/>
-        <v>446665.81230053701</v>
+        <v>595411.95303687069</v>
       </c>
       <c r="BK17" s="4">
         <f t="shared" si="19"/>
-        <v>451132.47042354237</v>
+        <v>601366.0725672394</v>
       </c>
       <c r="BL17" s="4">
         <f t="shared" si="19"/>
-        <v>455643.79512777779</v>
+        <v>607379.73329291178</v>
       </c>
       <c r="BM17" s="4">
         <f t="shared" si="19"/>
-        <v>460200.23307905556</v>
+        <v>613453.53062584088</v>
       </c>
       <c r="BN17" s="4">
         <f t="shared" si="19"/>
-        <v>464802.23540984612</v>
+        <v>619588.06593209924</v>
       </c>
       <c r="BO17" s="4">
         <f t="shared" si="19"/>
-        <v>469450.25776394457</v>
+        <v>625783.94659142022</v>
       </c>
       <c r="BP17" s="4">
         <f t="shared" si="19"/>
-        <v>474144.76034158404</v>
+        <v>632041.78605733439</v>
       </c>
       <c r="BQ17" s="4">
         <f t="shared" si="19"/>
-        <v>478886.20794499991</v>
+        <v>638362.20391790778</v>
       </c>
       <c r="BR17" s="4">
         <f t="shared" si="19"/>
-        <v>483675.0700244499</v>
+        <v>644745.82595708687</v>
       </c>
       <c r="BS17" s="4">
         <f t="shared" si="19"/>
-        <v>488511.82072469441</v>
+        <v>651193.28421665775</v>
       </c>
       <c r="BT17" s="4">
         <f t="shared" si="19"/>
-        <v>493396.93893194135</v>
+        <v>657705.21705882438</v>
       </c>
       <c r="BU17" s="4">
         <f t="shared" si="19"/>
-        <v>498330.90832126077</v>
+        <v>664282.26922941266</v>
       </c>
       <c r="BV17" s="4">
         <f t="shared" si="19"/>
-        <v>503314.2174044734</v>
+        <v>670925.0919217068</v>
       </c>
       <c r="BW17" s="4">
         <f t="shared" si="19"/>
-        <v>508347.35957851814</v>
+        <v>677634.34284092393</v>
       </c>
       <c r="BX17" s="4">
         <f t="shared" si="19"/>
-        <v>513430.83317430335</v>
+        <v>684410.68626933312</v>
       </c>
       <c r="BY17" s="4">
         <f t="shared" si="19"/>
-        <v>518565.14150604641</v>
+        <v>691254.79313202645</v>
       </c>
       <c r="BZ17" s="4">
         <f t="shared" si="19"/>
-        <v>523750.79292110685</v>
+        <v>698167.34106334671</v>
       </c>
       <c r="CA17" s="4">
         <f t="shared" si="19"/>
-        <v>528988.30085031793</v>
+        <v>705149.01447398018</v>
       </c>
       <c r="CB17" s="4">
         <f t="shared" si="19"/>
-        <v>534278.18385882117</v>
+        <v>712200.50461872004</v>
       </c>
       <c r="CC17" s="4">
         <f t="shared" si="19"/>
-        <v>539620.96569740935</v>
+        <v>719322.50966490724</v>
       </c>
       <c r="CD17" s="4">
         <f t="shared" si="19"/>
-        <v>545017.17535438342</v>
+        <v>726515.73476155626</v>
       </c>
       <c r="CE17" s="4">
         <f t="shared" si="19"/>
-        <v>550467.34710792731</v>
+        <v>733780.89210917184</v>
       </c>
       <c r="CF17" s="4">
         <f t="shared" si="19"/>
-        <v>555972.02057900664</v>
+        <v>741118.70103026356</v>
       </c>
       <c r="CG17" s="4">
         <f t="shared" si="19"/>
-        <v>561531.74078479665</v>
+        <v>748529.88804056623</v>
       </c>
       <c r="CH17" s="4">
         <f t="shared" si="19"/>
-        <v>567147.05819264462</v>
+        <v>756015.18692097196</v>
       </c>
       <c r="CI17" s="4">
         <f t="shared" ref="CI17:DN17" si="20">CH17*(1+$Y$55)</f>
-        <v>572818.52877457102</v>
+        <v>763575.33879018167</v>
       </c>
       <c r="CJ17" s="4">
         <f t="shared" si="20"/>
-        <v>578546.71406231669</v>
+        <v>771211.09217808349</v>
       </c>
       <c r="CK17" s="4">
         <f t="shared" si="20"/>
-        <v>584332.18120293983</v>
+        <v>778923.2030998643</v>
       </c>
       <c r="CL17" s="4">
         <f t="shared" si="20"/>
-        <v>590175.50301496917</v>
+        <v>786712.43513086298</v>
       </c>
       <c r="CM17" s="4">
         <f t="shared" si="20"/>
-        <v>596077.25804511888</v>
+        <v>794579.55948217167</v>
       </c>
       <c r="CN17" s="4">
         <f t="shared" si="20"/>
-        <v>602038.0306255701</v>
+        <v>802525.35507699335</v>
       </c>
       <c r="CO17" s="4">
         <f t="shared" si="20"/>
-        <v>608058.41093182575</v>
+        <v>810550.60862776334</v>
       </c>
       <c r="CP17" s="4">
         <f t="shared" si="20"/>
-        <v>614138.99504114396</v>
+        <v>818656.114714041</v>
       </c>
       <c r="CQ17" s="4">
         <f t="shared" si="20"/>
-        <v>620280.38499155536</v>
+        <v>826842.67586118146</v>
       </c>
       <c r="CR17" s="4">
         <f t="shared" si="20"/>
-        <v>626483.18884147087</v>
+        <v>835111.10261979327</v>
       </c>
       <c r="CS17" s="4">
         <f t="shared" si="20"/>
-        <v>632748.02072988555</v>
+        <v>843462.21364599117</v>
       </c>
       <c r="CT17" s="4">
         <f t="shared" si="20"/>
-        <v>639075.50093718444</v>
+        <v>851896.83578245109</v>
       </c>
       <c r="CU17" s="4">
         <f t="shared" si="20"/>
-        <v>645466.25594655634</v>
+        <v>860415.80414027558</v>
       </c>
       <c r="CV17" s="4">
         <f t="shared" si="20"/>
-        <v>651920.91850602196</v>
+        <v>869019.96218167839</v>
       </c>
       <c r="CW17" s="4">
         <f t="shared" si="20"/>
-        <v>658440.12769108219</v>
+        <v>877710.16180349514</v>
       </c>
       <c r="CX17" s="4">
         <f t="shared" si="20"/>
-        <v>665024.52896799298</v>
+        <v>886487.26342153014</v>
       </c>
       <c r="CY17" s="4">
         <f t="shared" si="20"/>
-        <v>671674.77425767295</v>
+        <v>895352.13605574542</v>
       </c>
       <c r="CZ17" s="4">
         <f t="shared" si="20"/>
-        <v>678391.52200024971</v>
+        <v>904305.65741630283</v>
       </c>
       <c r="DA17" s="4">
         <f t="shared" si="20"/>
-        <v>685175.43722025224</v>
+        <v>913348.71399046585</v>
       </c>
       <c r="DB17" s="4">
         <f t="shared" si="20"/>
-        <v>692027.19159245479</v>
+        <v>922482.20113037049</v>
       </c>
       <c r="DC17" s="4">
         <f t="shared" si="20"/>
-        <v>698947.4635083793</v>
+        <v>931707.02314167423</v>
       </c>
       <c r="DD17" s="4">
         <f t="shared" si="20"/>
-        <v>705936.93814346311</v>
+        <v>941024.09337309096</v>
       </c>
       <c r="DE17" s="4">
         <f t="shared" si="20"/>
-        <v>712996.30752489774</v>
+        <v>950434.33430682193</v>
       </c>
       <c r="DF17" s="4">
         <f t="shared" si="20"/>
-        <v>720126.27060014673</v>
+        <v>959938.67764989019</v>
       </c>
       <c r="DG17" s="4">
         <f t="shared" si="20"/>
-        <v>727327.53330614825</v>
+        <v>969538.06442638906</v>
       </c>
       <c r="DH17" s="4">
         <f t="shared" si="20"/>
-        <v>734600.80863920972</v>
+        <v>979233.44507065299</v>
       </c>
       <c r="DI17" s="4">
         <f t="shared" si="20"/>
-        <v>741946.81672560179</v>
+        <v>989025.77952135948</v>
       </c>
       <c r="DJ17" s="4">
         <f t="shared" si="20"/>
-        <v>749366.28489285777</v>
+        <v>998916.03731657309</v>
       </c>
       <c r="DK17" s="4">
         <f t="shared" si="20"/>
-        <v>756859.94774178637</v>
+        <v>1008905.1976897388</v>
       </c>
       <c r="DL17" s="4">
         <f t="shared" si="20"/>
-        <v>764428.54721920425</v>
+        <v>1018994.2496666362</v>
       </c>
       <c r="DM17" s="4">
         <f t="shared" si="20"/>
-        <v>772072.83269139635</v>
+        <v>1029184.1921633026</v>
       </c>
       <c r="DN17" s="4">
         <f t="shared" si="20"/>
-        <v>779793.56101831037</v>
+        <v>1039476.0340849356</v>
       </c>
       <c r="DO17" s="4">
         <f t="shared" ref="DO17:EM17" si="21">DN17*(1+$Y$55)</f>
-        <v>787591.49662849354</v>
+        <v>1049870.7944257848</v>
       </c>
       <c r="DP17" s="4">
         <f t="shared" si="21"/>
-        <v>795467.41159477853</v>
+        <v>1060369.5023700427</v>
       </c>
       <c r="DQ17" s="4">
         <f t="shared" si="21"/>
-        <v>803422.08571072633</v>
+        <v>1070973.1973937431</v>
       </c>
       <c r="DR17" s="4">
         <f t="shared" si="21"/>
-        <v>811456.30656783364</v>
+        <v>1081682.9293676806</v>
       </c>
       <c r="DS17" s="4">
         <f t="shared" si="21"/>
-        <v>819570.86963351199</v>
+        <v>1092499.7586613575</v>
       </c>
       <c r="DT17" s="4">
         <f t="shared" si="21"/>
-        <v>827766.57832984708</v>
+        <v>1103424.756247971</v>
       </c>
       <c r="DU17" s="4">
         <f t="shared" si="21"/>
-        <v>836044.24411314551</v>
+        <v>1114459.0038104507</v>
       </c>
       <c r="DV17" s="4">
         <f t="shared" si="21"/>
-        <v>844404.68655427697</v>
+        <v>1125603.5938485551</v>
       </c>
       <c r="DW17" s="4">
         <f t="shared" si="21"/>
-        <v>852848.73341981973</v>
+        <v>1136859.6297870406</v>
       </c>
       <c r="DX17" s="4">
         <f t="shared" si="21"/>
-        <v>861377.22075401794</v>
+        <v>1148228.226084911</v>
       </c>
       <c r="DY17" s="4">
         <f t="shared" si="21"/>
-        <v>869990.99296155816</v>
+        <v>1159710.5083457602</v>
       </c>
       <c r="DZ17" s="4">
         <f t="shared" si="21"/>
-        <v>878690.90289117373</v>
+        <v>1171307.6134292178</v>
       </c>
       <c r="EA17" s="4">
         <f t="shared" si="21"/>
-        <v>887477.81192008546</v>
+        <v>1183020.68956351</v>
       </c>
       <c r="EB17" s="4">
         <f t="shared" si="21"/>
-        <v>896352.5900392863</v>
+        <v>1194850.896459145</v>
       </c>
       <c r="EC17" s="4">
         <f t="shared" si="21"/>
-        <v>905316.11593967921</v>
+        <v>1206799.4054237364</v>
       </c>
       <c r="ED17" s="4">
         <f t="shared" si="21"/>
-        <v>914369.27709907596</v>
+        <v>1218867.3994779738</v>
       </c>
       <c r="EE17" s="4">
         <f t="shared" si="21"/>
-        <v>923512.96987006674</v>
+        <v>1231056.0734727536</v>
       </c>
       <c r="EF17" s="4">
         <f t="shared" si="21"/>
-        <v>932748.09956876736</v>
+        <v>1243366.6342074813</v>
       </c>
       <c r="EG17" s="4">
         <f t="shared" si="21"/>
-        <v>942075.58056445501</v>
+        <v>1255800.300549556</v>
       </c>
       <c r="EH17" s="4">
         <f t="shared" si="21"/>
-        <v>951496.33637009957</v>
+        <v>1268358.3035550516</v>
       </c>
       <c r="EI17" s="4">
         <f t="shared" si="21"/>
-        <v>961011.29973380058</v>
+        <v>1281041.8865906021</v>
       </c>
       <c r="EJ17" s="4">
         <f t="shared" si="21"/>
-        <v>970621.41273113864</v>
+        <v>1293852.3054565082</v>
       </c>
       <c r="EK17" s="4">
         <f t="shared" si="21"/>
-        <v>980327.62685845001</v>
+        <v>1306790.8285110733</v>
       </c>
       <c r="EL17" s="4">
         <f t="shared" si="21"/>
-        <v>990130.90312703454</v>
+        <v>1319858.736796184</v>
       </c>
       <c r="EM17" s="4">
         <f t="shared" si="21"/>
-        <v>1000032.2121583049</v>
+        <v>1333057.3241641459</v>
       </c>
     </row>
     <row r="18" spans="1:143" x14ac:dyDescent="0.2">
@@ -2490,19 +2490,19 @@
       </c>
       <c r="S19" s="5">
         <f t="shared" si="25"/>
-        <v>5.2068007134570635</v>
+        <v>5.5937829970468496</v>
       </c>
       <c r="T19" s="5">
         <f t="shared" si="25"/>
-        <v>7.0407239997567741</v>
+        <v>8.1274015233725372</v>
       </c>
       <c r="U19" s="5">
         <f t="shared" si="25"/>
-        <v>9.5227959778375801</v>
+        <v>11.812391800794879</v>
       </c>
       <c r="V19" s="5">
         <f t="shared" si="25"/>
-        <v>12.882153820785804</v>
+        <v>17.172096351521549</v>
       </c>
     </row>
     <row r="20" spans="1:143" x14ac:dyDescent="0.2">
@@ -2562,19 +2562,19 @@
       </c>
       <c r="S21" s="7">
         <f t="shared" si="27"/>
-        <v>0.34000000000000008</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="T21" s="7">
         <f t="shared" si="27"/>
-        <v>0.34000000000000008</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="U21" s="7">
         <f t="shared" si="27"/>
-        <v>0.34000000000000008</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="V21" s="7">
         <f t="shared" si="27"/>
-        <v>0.34000000000000008</v>
+        <v>0.43999999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:143" x14ac:dyDescent="0.2">
@@ -3007,19 +3007,19 @@
       </c>
       <c r="S44" s="2">
         <f t="shared" si="32"/>
-        <v>124969.67861238014</v>
+        <v>134257.73365238015</v>
       </c>
       <c r="T44" s="2">
         <f t="shared" si="32"/>
-        <v>167296.25219614775</v>
+        <v>193117.04520734775</v>
       </c>
       <c r="U44" s="2">
         <f t="shared" si="32"/>
-        <v>224010.59845550748</v>
+        <v>277870.17202145944</v>
       </c>
       <c r="V44" s="2">
         <f t="shared" si="32"/>
-        <v>300004.49485330301</v>
+        <v>399910.30717223801</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
@@ -3084,19 +3084,19 @@
       </c>
       <c r="S47" s="2">
         <f>R47*(1+S21)</f>
-        <v>3831.3954430829831</v>
+        <v>4117.3204761488769</v>
       </c>
       <c r="T47" s="2">
         <f>S47*(1+T21)</f>
-        <v>5134.0698937311972</v>
+        <v>5928.9414856543826</v>
       </c>
       <c r="U47" s="2">
         <f>T47*(1+U21)</f>
-        <v>6879.6536575998043</v>
+        <v>8537.6757393423104</v>
       </c>
       <c r="V47" s="2">
         <f>U47*(1+V21)</f>
-        <v>9218.735901183738</v>
+        <v>12294.253064652927</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
@@ -3303,19 +3303,19 @@
       </c>
       <c r="S55" s="2">
         <f>R55*(1+S21)</f>
-        <v>8793.2991982344429</v>
+        <v>9449.5155563116386</v>
       </c>
       <c r="T55" s="2">
         <f>S55*(1+T21)</f>
-        <v>11783.020925634155</v>
+        <v>13607.302401088758</v>
       </c>
       <c r="U55" s="2">
         <f>T55*(1+U21)</f>
-        <v>15789.248040349768</v>
+        <v>19594.51545756781</v>
       </c>
       <c r="V55" s="2">
         <f>U55*(1+V21)</f>
-        <v>21157.592374068692</v>
+        <v>28216.102258897645</v>
       </c>
       <c r="X55" s="2" t="s">
         <v>31</v>
@@ -3340,19 +3340,19 @@
       </c>
       <c r="S56" s="2">
         <f>R56*(1+S21)</f>
-        <v>2509.7284527920183</v>
+        <v>2697.0216209108253</v>
       </c>
       <c r="T56" s="2">
         <f>S56*(1+T21)</f>
-        <v>3363.0361267413045</v>
+        <v>3883.7111341115883</v>
       </c>
       <c r="U56" s="2">
         <f>T56*(1+U21)</f>
-        <v>4506.4684098333482</v>
+        <v>5592.5440331206873</v>
       </c>
       <c r="V56" s="2">
         <f>U56*(1+V21)</f>
-        <v>6038.667669176687</v>
+        <v>8053.2634076937893</v>
       </c>
       <c r="X56" s="2" t="s">
         <v>33</v>
@@ -3379,26 +3379,26 @@
       </c>
       <c r="S57" s="2">
         <f t="shared" ref="S57:V57" si="34">SUM(S46:S56,S44)</f>
-        <v>146925.3817064896</v>
+        <v>157342.8713057515</v>
       </c>
       <c r="T57" s="2">
         <f t="shared" si="34"/>
-        <v>195761.91514225441</v>
+        <v>224722.53622820249</v>
       </c>
       <c r="U57" s="2">
         <f t="shared" si="34"/>
-        <v>261008.61176329039</v>
+        <v>321417.55045149021</v>
       </c>
       <c r="V57" s="2">
         <f t="shared" si="34"/>
-        <v>348206.66263773211</v>
+        <v>460261.09774348239</v>
       </c>
       <c r="X57" s="2" t="s">
         <v>30</v>
       </c>
       <c r="Y57" s="2">
         <f>NPV(Y56,R62:DU62)+main!O5-main!O6</f>
-        <v>3282662.5098046414</v>
+        <v>4225039.3827010188</v>
       </c>
     </row>
     <row r="58" spans="1:125" x14ac:dyDescent="0.2">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="Y58" s="5">
         <f>Y57/main!O3</f>
-        <v>134.53534876248531</v>
+        <v>173.15735175004176</v>
       </c>
     </row>
     <row r="59" spans="1:125" x14ac:dyDescent="0.2">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="Y59" s="6">
         <f>Y58/main!O2-1</f>
-        <v>-0.13203000798396569</v>
+        <v>0.11714420483897903</v>
       </c>
     </row>
     <row r="60" spans="1:125" x14ac:dyDescent="0.2">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="S60" s="2">
         <f>R60*(1+S21)</f>
-        <v>-6651.4998142792556</v>
+        <v>-7147.8803974344228</v>
       </c>
       <c r="T60" s="2">
         <f>S60*(1+T21)</f>
-        <v>-8913.0097511342028</v>
+        <v>-10292.947772305568</v>
       </c>
       <c r="U60" s="2">
         <f>T60*(1+U21)</f>
-        <v>-11943.433066519832</v>
+        <v>-14821.844792120017</v>
       </c>
       <c r="V60" s="2">
         <f>U60*(1+V21)</f>
-        <v>-16004.200309136577</v>
+        <v>-21343.456500652825</v>
       </c>
     </row>
     <row r="62" spans="1:125" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3480,431 +3480,431 @@
       </c>
       <c r="S62" s="4">
         <f t="shared" si="35"/>
-        <v>140273.88189221034</v>
+        <v>150194.99090831706</v>
       </c>
       <c r="T62" s="4">
         <f t="shared" si="35"/>
-        <v>186848.90539112021</v>
+        <v>214429.58845589691</v>
       </c>
       <c r="U62" s="4">
         <f t="shared" si="35"/>
-        <v>249065.17869677057</v>
+        <v>306595.70565937017</v>
       </c>
       <c r="V62" s="4">
         <f t="shared" si="35"/>
-        <v>332202.46232859552</v>
+        <v>438917.64124282956</v>
       </c>
       <c r="W62" s="4">
         <f t="shared" ref="W62:BB62" si="36">V62*(1+$Y$55)</f>
-        <v>335524.4869518815</v>
+        <v>443306.81765525788</v>
       </c>
       <c r="X62" s="4">
         <f t="shared" si="36"/>
-        <v>338879.73182140029</v>
+        <v>447739.88583181048</v>
       </c>
       <c r="Y62" s="4">
         <f t="shared" si="36"/>
-        <v>342268.52913961431</v>
+        <v>452217.28469012858</v>
       </c>
       <c r="Z62" s="4">
         <f t="shared" si="36"/>
-        <v>345691.21443101048</v>
+        <v>456739.45753702987</v>
       </c>
       <c r="AA62" s="4">
         <f t="shared" si="36"/>
-        <v>349148.12657532061</v>
+        <v>461306.85211240017</v>
       </c>
       <c r="AB62" s="4">
         <f t="shared" si="36"/>
-        <v>352639.60784107383</v>
+        <v>465919.92063352419</v>
       </c>
       <c r="AC62" s="4">
         <f t="shared" si="36"/>
-        <v>356166.00391948456</v>
+        <v>470579.11983985943</v>
       </c>
       <c r="AD62" s="4">
         <f t="shared" si="36"/>
-        <v>359727.66395867942</v>
+        <v>475284.91103825805</v>
       </c>
       <c r="AE62" s="4">
         <f t="shared" si="36"/>
-        <v>363324.9405982662</v>
+        <v>480037.76014864066</v>
       </c>
       <c r="AF62" s="4">
         <f t="shared" si="36"/>
-        <v>366958.19000424887</v>
+        <v>484838.13775012706</v>
       </c>
       <c r="AG62" s="4">
         <f t="shared" si="36"/>
-        <v>370627.77190429135</v>
+        <v>489686.51912762836</v>
       </c>
       <c r="AH62" s="4">
         <f t="shared" si="36"/>
-        <v>374334.04962333426</v>
+        <v>494583.38431890466</v>
       </c>
       <c r="AI62" s="4">
         <f t="shared" si="36"/>
-        <v>378077.39011956763</v>
+        <v>499529.21816209372</v>
       </c>
       <c r="AJ62" s="4">
         <f t="shared" si="36"/>
-        <v>381858.1640207633</v>
+        <v>504524.51034371468</v>
       </c>
       <c r="AK62" s="4">
         <f t="shared" si="36"/>
-        <v>385676.74566097092</v>
+        <v>509569.75544715184</v>
       </c>
       <c r="AL62" s="4">
         <f t="shared" si="36"/>
-        <v>389533.51311758062</v>
+        <v>514665.45300162333</v>
       </c>
       <c r="AM62" s="4">
         <f t="shared" si="36"/>
-        <v>393428.84824875643</v>
+        <v>519812.10753163957</v>
       </c>
       <c r="AN62" s="4">
         <f t="shared" si="36"/>
-        <v>397363.13673124398</v>
+        <v>525010.22860695596</v>
       </c>
       <c r="AO62" s="4">
         <f t="shared" si="36"/>
-        <v>401336.76809855644</v>
+        <v>530260.3308930255</v>
       </c>
       <c r="AP62" s="4">
         <f t="shared" si="36"/>
-        <v>405350.13577954203</v>
+        <v>535562.9342019558</v>
       </c>
       <c r="AQ62" s="4">
         <f t="shared" si="36"/>
-        <v>409403.63713733747</v>
+        <v>540918.56354397535</v>
       </c>
       <c r="AR62" s="4">
         <f t="shared" si="36"/>
-        <v>413497.67350871087</v>
+        <v>546327.74917941506</v>
       </c>
       <c r="AS62" s="4">
         <f t="shared" si="36"/>
-        <v>417632.65024379798</v>
+        <v>551791.02667120926</v>
       </c>
       <c r="AT62" s="4">
         <f t="shared" si="36"/>
-        <v>421808.97674623597</v>
+        <v>557308.93693792133</v>
       </c>
       <c r="AU62" s="4">
         <f t="shared" si="36"/>
-        <v>426027.06651369832</v>
+        <v>562882.02630730055</v>
       </c>
       <c r="AV62" s="4">
         <f t="shared" si="36"/>
-        <v>430287.3371788353</v>
+        <v>568510.84657037351</v>
       </c>
       <c r="AW62" s="4">
         <f t="shared" si="36"/>
-        <v>434590.21055062365</v>
+        <v>574195.9550360773</v>
       </c>
       <c r="AX62" s="4">
         <f t="shared" si="36"/>
-        <v>438936.11265612987</v>
+        <v>579937.9145864381</v>
       </c>
       <c r="AY62" s="4">
         <f t="shared" si="36"/>
-        <v>443325.47378269117</v>
+        <v>585737.2937323025</v>
       </c>
       <c r="AZ62" s="4">
         <f t="shared" si="36"/>
-        <v>447758.72852051811</v>
+        <v>591594.66666962556</v>
       </c>
       <c r="BA62" s="4">
         <f t="shared" si="36"/>
-        <v>452236.31580572331</v>
+        <v>597510.61333632178</v>
       </c>
       <c r="BB62" s="4">
         <f t="shared" si="36"/>
-        <v>456758.67896378052</v>
+        <v>603485.71946968499</v>
       </c>
       <c r="BC62" s="4">
         <f t="shared" ref="BC62:CH62" si="37">BB62*(1+$Y$55)</f>
-        <v>461326.26575341832</v>
+        <v>609520.57666438189</v>
       </c>
       <c r="BD62" s="4">
         <f t="shared" si="37"/>
-        <v>465939.52841095254</v>
+        <v>615615.78243102576</v>
       </c>
       <c r="BE62" s="4">
         <f t="shared" si="37"/>
-        <v>470598.92369506205</v>
+        <v>621771.940255336</v>
       </c>
       <c r="BF62" s="4">
         <f t="shared" si="37"/>
-        <v>475304.9129320127</v>
+        <v>627989.6596578894</v>
       </c>
       <c r="BG62" s="4">
         <f t="shared" si="37"/>
-        <v>480057.96206133283</v>
+        <v>634269.55625446828</v>
       </c>
       <c r="BH62" s="4">
         <f t="shared" si="37"/>
-        <v>484858.54168194614</v>
+        <v>640612.25181701302</v>
       </c>
       <c r="BI62" s="4">
         <f t="shared" si="37"/>
-        <v>489707.12709876563</v>
+        <v>647018.37433518318</v>
       </c>
       <c r="BJ62" s="4">
         <f t="shared" si="37"/>
-        <v>494604.19836975331</v>
+        <v>653488.55807853502</v>
       </c>
       <c r="BK62" s="4">
         <f t="shared" si="37"/>
-        <v>499550.24035345088</v>
+        <v>660023.44365932036</v>
       </c>
       <c r="BL62" s="4">
         <f t="shared" si="37"/>
-        <v>504545.74275698542</v>
+        <v>666623.67809591361</v>
       </c>
       <c r="BM62" s="4">
         <f t="shared" si="37"/>
-        <v>509591.20018455526</v>
+        <v>673289.91487687279</v>
       </c>
       <c r="BN62" s="4">
         <f t="shared" si="37"/>
-        <v>514687.1121864008</v>
+        <v>680022.81402564154</v>
       </c>
       <c r="BO62" s="4">
         <f t="shared" si="37"/>
-        <v>519833.98330826481</v>
+        <v>686823.0421658979</v>
       </c>
       <c r="BP62" s="4">
         <f t="shared" si="37"/>
-        <v>525032.3231413475</v>
+        <v>693691.27258755686</v>
       </c>
       <c r="BQ62" s="4">
         <f t="shared" si="37"/>
-        <v>530282.646372761</v>
+        <v>700628.18531343248</v>
       </c>
       <c r="BR62" s="4">
         <f t="shared" si="37"/>
-        <v>535585.47283648863</v>
+        <v>707634.46716656676</v>
       </c>
       <c r="BS62" s="4">
         <f t="shared" si="37"/>
-        <v>540941.32756485348</v>
+        <v>714710.81183823245</v>
       </c>
       <c r="BT62" s="4">
         <f t="shared" si="37"/>
-        <v>546350.74084050197</v>
+        <v>721857.91995661473</v>
       </c>
       <c r="BU62" s="4">
         <f t="shared" si="37"/>
-        <v>551814.24824890704</v>
+        <v>729076.49915618089</v>
       </c>
       <c r="BV62" s="4">
         <f t="shared" si="37"/>
-        <v>557332.39073139615</v>
+        <v>736367.26414774265</v>
       </c>
       <c r="BW62" s="4">
         <f t="shared" si="37"/>
-        <v>562905.71463871014</v>
+        <v>743730.93678922008</v>
       </c>
       <c r="BX62" s="4">
         <f t="shared" si="37"/>
-        <v>568534.7717850972</v>
+        <v>751168.2461571123</v>
       </c>
       <c r="BY62" s="4">
         <f t="shared" si="37"/>
-        <v>574220.11950294813</v>
+        <v>758679.92861868348</v>
       </c>
       <c r="BZ62" s="4">
         <f t="shared" si="37"/>
-        <v>579962.32069797767</v>
+        <v>766266.72790487029</v>
       </c>
       <c r="CA62" s="4">
         <f t="shared" si="37"/>
-        <v>585761.9439049575</v>
+        <v>773929.395183919</v>
       </c>
       <c r="CB62" s="4">
         <f t="shared" si="37"/>
-        <v>591619.56334400713</v>
+        <v>781668.68913575821</v>
       </c>
       <c r="CC62" s="4">
         <f t="shared" si="37"/>
-        <v>597535.75897744717</v>
+        <v>789485.37602711574</v>
       </c>
       <c r="CD62" s="4">
         <f t="shared" si="37"/>
-        <v>603511.1165672217</v>
+        <v>797380.22978738695</v>
       </c>
       <c r="CE62" s="4">
         <f t="shared" si="37"/>
-        <v>609546.22773289389</v>
+        <v>805354.03208526084</v>
       </c>
       <c r="CF62" s="4">
         <f t="shared" si="37"/>
-        <v>615641.69001022284</v>
+        <v>813407.5724061135</v>
       </c>
       <c r="CG62" s="4">
         <f t="shared" si="37"/>
-        <v>621798.10691032512</v>
+        <v>821541.64813017461</v>
       </c>
       <c r="CH62" s="4">
         <f t="shared" si="37"/>
-        <v>628016.08797942835</v>
+        <v>829757.06461147638</v>
       </c>
       <c r="CI62" s="4">
         <f t="shared" ref="CI62:DN62" si="38">CH62*(1+$Y$55)</f>
-        <v>634296.24885922263</v>
+        <v>838054.63525759114</v>
       </c>
       <c r="CJ62" s="4">
         <f t="shared" si="38"/>
-        <v>640639.21134781488</v>
+        <v>846435.18161016703</v>
       </c>
       <c r="CK62" s="4">
         <f t="shared" si="38"/>
-        <v>647045.60346129304</v>
+        <v>854899.53342626872</v>
       </c>
       <c r="CL62" s="4">
         <f t="shared" si="38"/>
-        <v>653516.059495906</v>
+        <v>863448.52876053145</v>
       </c>
       <c r="CM62" s="4">
         <f t="shared" si="38"/>
-        <v>660051.22009086504</v>
+        <v>872083.01404813677</v>
       </c>
       <c r="CN62" s="4">
         <f t="shared" si="38"/>
-        <v>666651.73229177366</v>
+        <v>880803.84418861812</v>
       </c>
       <c r="CO62" s="4">
         <f t="shared" si="38"/>
-        <v>673318.24961469136</v>
+        <v>889611.88263050432</v>
       </c>
       <c r="CP62" s="4">
         <f t="shared" si="38"/>
-        <v>680051.43211083824</v>
+        <v>898508.00145680935</v>
       </c>
       <c r="CQ62" s="4">
         <f t="shared" si="38"/>
-        <v>686851.94643194659</v>
+        <v>907493.0814713774</v>
       </c>
       <c r="CR62" s="4">
         <f t="shared" si="38"/>
-        <v>693720.46589626605</v>
+        <v>916568.01228609122</v>
       </c>
       <c r="CS62" s="4">
         <f t="shared" si="38"/>
-        <v>700657.67055522872</v>
+        <v>925733.69240895216</v>
       </c>
       <c r="CT62" s="4">
         <f t="shared" si="38"/>
-        <v>707664.24726078101</v>
+        <v>934991.02933304175</v>
       </c>
       <c r="CU62" s="4">
         <f t="shared" si="38"/>
-        <v>714740.88973338879</v>
+        <v>944340.93962637219</v>
       </c>
       <c r="CV62" s="4">
         <f t="shared" si="38"/>
-        <v>721888.29863072268</v>
+        <v>953784.34902263596</v>
       </c>
       <c r="CW62" s="4">
         <f t="shared" si="38"/>
-        <v>729107.18161702994</v>
+        <v>963322.19251286227</v>
       </c>
       <c r="CX62" s="4">
         <f t="shared" si="38"/>
-        <v>736398.2534332003</v>
+        <v>972955.41443799087</v>
       </c>
       <c r="CY62" s="4">
         <f t="shared" si="38"/>
-        <v>743762.23596753227</v>
+        <v>982684.96858237078</v>
       </c>
       <c r="CZ62" s="4">
         <f t="shared" si="38"/>
-        <v>751199.85832720762</v>
+        <v>992511.81826819445</v>
       </c>
       <c r="DA62" s="4">
         <f t="shared" si="38"/>
-        <v>758711.85691047972</v>
+        <v>1002436.9364508764</v>
       </c>
       <c r="DB62" s="4">
         <f t="shared" si="38"/>
-        <v>766298.97547958454</v>
+        <v>1012461.3058153852</v>
       </c>
       <c r="DC62" s="4">
         <f t="shared" si="38"/>
-        <v>773961.96523438033</v>
+        <v>1022585.9188735391</v>
       </c>
       <c r="DD62" s="4">
         <f t="shared" si="38"/>
-        <v>781701.58488672413</v>
+        <v>1032811.7780622744</v>
       </c>
       <c r="DE62" s="4">
         <f t="shared" si="38"/>
-        <v>789518.60073559138</v>
+        <v>1043139.8958428972</v>
       </c>
       <c r="DF62" s="4">
         <f t="shared" si="38"/>
-        <v>797413.7867429473</v>
+        <v>1053571.2948013262</v>
       </c>
       <c r="DG62" s="4">
         <f t="shared" si="38"/>
-        <v>805387.92461037682</v>
+        <v>1064107.0077493396</v>
       </c>
       <c r="DH62" s="4">
         <f t="shared" si="38"/>
-        <v>813441.80385648063</v>
+        <v>1074748.0778268329</v>
       </c>
       <c r="DI62" s="4">
         <f t="shared" si="38"/>
-        <v>821576.22189504548</v>
+        <v>1085495.5586051012</v>
       </c>
       <c r="DJ62" s="4">
         <f t="shared" si="38"/>
-        <v>829791.98411399592</v>
+        <v>1096350.5141911523</v>
       </c>
       <c r="DK62" s="4">
         <f t="shared" si="38"/>
-        <v>838089.90395513584</v>
+        <v>1107314.0193330639</v>
       </c>
       <c r="DL62" s="4">
         <f t="shared" si="38"/>
-        <v>846470.80299468723</v>
+        <v>1118387.1595263944</v>
       </c>
       <c r="DM62" s="4">
         <f t="shared" si="38"/>
-        <v>854935.51102463412</v>
+        <v>1129571.0311216584</v>
       </c>
       <c r="DN62" s="4">
         <f t="shared" si="38"/>
-        <v>863484.86613488046</v>
+        <v>1140866.7414328749</v>
       </c>
       <c r="DO62" s="4">
         <f t="shared" ref="DO62:DU62" si="39">DN62*(1+$Y$55)</f>
-        <v>872119.71479622927</v>
+        <v>1152275.4088472037</v>
       </c>
       <c r="DP62" s="4">
         <f t="shared" si="39"/>
-        <v>880840.91194419155</v>
+        <v>1163798.1629356758</v>
       </c>
       <c r="DQ62" s="4">
         <f t="shared" si="39"/>
-        <v>889649.32106363343</v>
+        <v>1175436.1445650326</v>
       </c>
       <c r="DR62" s="4">
         <f t="shared" si="39"/>
-        <v>898545.81427426974</v>
+        <v>1187190.5060106828</v>
       </c>
       <c r="DS62" s="4">
         <f t="shared" si="39"/>
-        <v>907531.27241701249</v>
+        <v>1199062.4110707897</v>
       </c>
       <c r="DT62" s="4">
         <f t="shared" si="39"/>
-        <v>916606.58514118264</v>
+        <v>1211053.0351814977</v>
       </c>
       <c r="DU62" s="4">
         <f t="shared" si="39"/>
-        <v>925772.65099259443</v>
+        <v>1223163.5655333127</v>
       </c>
     </row>
   </sheetData>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE8D1D1-4F5D-4324-B366-ABBFEA33D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643BA776-7EBB-4FCC-9E9B-54C1E3AFD6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="855" windowWidth="23595" windowHeight="13935" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="4425" yWindow="645" windowWidth="22935" windowHeight="13935" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>Price</t>
   </si>
@@ -304,19 +304,40 @@
   </si>
   <si>
     <t>CAPEX</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Is the NVDA ecosystem driving the value? (CUDA, etc.)</t>
+  </si>
+  <si>
+    <t>How copyable is their ecosystem?</t>
+  </si>
+  <si>
+    <t>Will AI be executed in the near-term to justify big-tech CAPEX?</t>
+  </si>
+  <si>
+    <t>Can the entire economy find AI producitvity uses or are they more long term?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -347,6 +368,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,20 +396,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -837,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165FA77-31DD-4330-BECC-4D64D4EAFB80}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -883,10 +914,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D5" s="10" t="s">
+      <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="10">
+      <c r="B5" s="10">
         <v>2022</v>
       </c>
       <c r="N5" s="10" t="s">
@@ -900,10 +931,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="10" t="s">
         <v>46</v>
       </c>
       <c r="N6" s="10" t="s">
@@ -917,7 +948,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="10" t="s">
         <v>52</v>
       </c>
       <c r="N7" s="10" t="s">
@@ -929,72 +960,93 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="K9" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K10" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="10" t="s">
         <v>74</v>
       </c>
+      <c r="K13" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D14" s="10" t="s">
+      <c r="A14" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D15" s="10" t="s">
+      <c r="A15" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D16" s="10" t="s">
+      <c r="A16" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="10" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" s="10" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" s="10" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="10" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D21" s="10" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" s="10" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" s="10" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="10" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1007,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140BE28-398D-4CC8-A7C9-E94B6BC720A8}">
   <dimension ref="A1:EM62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40143DE-C0E2-48A5-867F-5789AA4104E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDAAA22-83F6-4293-AF73-05FCFFE76235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="330" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="4410" yWindow="300" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
   <si>
     <t>Price</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Diff</t>
-  </si>
-  <si>
     <t>Model NI</t>
   </si>
   <si>
@@ -498,6 +495,12 @@
   </si>
   <si>
     <t>AI Data Center</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>A/R</t>
   </si>
 </sst>
 </file>
@@ -507,13 +510,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -627,36 +636,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1189,7 +1199,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1231,7 @@
         <v>24400</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1235,7 +1245,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="9">
         <v>2022</v>
@@ -1248,15 +1258,15 @@
         <v>53691</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>4</v>
@@ -1266,12 +1276,12 @@
         <v>8464</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>5</v>
@@ -1283,128 +1293,128 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E30" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1417,10 +1427,10 @@
   <dimension ref="A1:EU89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH37" sqref="AH37"/>
+      <selection pane="bottomRight" activeCell="AI35" sqref="AI35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1439,9 @@
     <col min="2" max="2" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="2" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="2"/>
-    <col min="10" max="14" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="2" customWidth="1"/>
     <col min="16" max="19" width="9.140625" style="2"/>
     <col min="20" max="30" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1442,7 +1454,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="19">
         <v>45896</v>
@@ -1453,52 +1465,52 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>117</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="J2" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="R2" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="S2" s="18"/>
       <c r="T2" s="15">
@@ -1551,7 +1563,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -1602,7 +1614,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -1692,7 +1704,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -1740,7 +1752,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1777,7 +1789,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1842,7 +1854,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="18">
@@ -1896,7 +1908,7 @@
     <row r="11" spans="1:35" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2">
         <v>253</v>
@@ -1962,7 +1974,7 @@
     <row r="12" spans="1:35" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="2">
         <v>379</v>
@@ -2028,7 +2040,7 @@
     <row r="13" spans="1:35" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2">
         <v>2486</v>
@@ -2094,7 +2106,7 @@
     <row r="14" spans="1:35" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2">
         <v>10323</v>
@@ -2120,6 +2132,9 @@
       <c r="K14" s="2">
         <v>39112</v>
       </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
       <c r="T14" s="3"/>
       <c r="U14" s="2">
         <f>U15-SUM(U11:U13)</f>
@@ -2202,28 +2217,28 @@
         <v>45000</v>
       </c>
       <c r="M15" s="4">
-        <f>L15*1.15</f>
-        <v>51749.999999999993</v>
+        <f>L15*1.18</f>
+        <v>53100</v>
       </c>
       <c r="N15" s="4">
-        <f>M15*1.15</f>
-        <v>59512.499999999985</v>
+        <f>M15*1.1</f>
+        <v>58410.000000000007</v>
       </c>
       <c r="O15" s="4">
         <f>N15*1.1</f>
-        <v>65463.749999999993</v>
+        <v>64251.000000000015</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" ref="P15:R15" si="8">O15*1.1</f>
-        <v>72010.125</v>
+        <v>70676.10000000002</v>
       </c>
       <c r="Q15" s="4">
         <f t="shared" si="8"/>
-        <v>79211.137500000012</v>
+        <v>77743.710000000036</v>
       </c>
       <c r="R15" s="4">
         <f t="shared" si="8"/>
-        <v>87132.251250000016</v>
+        <v>85518.081000000049</v>
       </c>
       <c r="T15" s="4">
         <v>11720</v>
@@ -2245,23 +2260,23 @@
       </c>
       <c r="Z15" s="4">
         <f>SUM(K15:N15)</f>
-        <v>200324.5</v>
+        <v>200572</v>
       </c>
       <c r="AA15" s="4">
         <f>Z15*1.4</f>
-        <v>280454.3</v>
+        <v>280800.8</v>
       </c>
       <c r="AB15" s="4">
         <f t="shared" ref="AB15:AD15" si="9">AA15*1.4</f>
-        <v>392636.01999999996</v>
+        <v>393121.11999999994</v>
       </c>
       <c r="AC15" s="4">
         <f t="shared" si="9"/>
-        <v>549690.42799999996</v>
+        <v>550369.56799999985</v>
       </c>
       <c r="AD15" s="4">
         <f t="shared" si="9"/>
-        <v>769566.59919999994</v>
+        <v>770517.3951999998</v>
       </c>
       <c r="AE15" s="24"/>
     </row>
@@ -2281,11 +2296,11 @@
       </c>
       <c r="M16" s="2">
         <f>M15*(1-M35)</f>
-        <v>13972.499999999998</v>
+        <v>14337.000000000002</v>
       </c>
       <c r="N16" s="2">
         <f>N15*(1-N35)</f>
-        <v>14878.124999999996</v>
+        <v>14602.500000000002</v>
       </c>
       <c r="W16" s="2">
         <v>11618</v>
@@ -2298,23 +2313,23 @@
       </c>
       <c r="Z16" s="2">
         <f>SUM(K16:N16)</f>
-        <v>58844.625</v>
+        <v>58933.5</v>
       </c>
       <c r="AA16" s="2">
         <f>AA15*(1-AA35)</f>
-        <v>70113.574999999997</v>
+        <v>70200.2</v>
       </c>
       <c r="AB16" s="2">
         <f>AB15*(1-AB35)</f>
-        <v>98159.00499999999</v>
+        <v>98280.279999999984</v>
       </c>
       <c r="AC16" s="2">
         <f>AC15*(1-AC35)</f>
-        <v>137422.60699999999</v>
+        <v>137592.39199999996</v>
       </c>
       <c r="AD16" s="2">
         <f>AD15*(1-AD35)</f>
-        <v>192391.64979999998</v>
+        <v>192629.34879999995</v>
       </c>
       <c r="AE16" s="27"/>
     </row>
@@ -2348,11 +2363,11 @@
       </c>
       <c r="M17" s="2">
         <f t="shared" si="10"/>
-        <v>37777.499999999993</v>
+        <v>38763</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="10"/>
-        <v>44634.374999999985</v>
+        <v>43807.500000000007</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" ref="T17:AD17" si="11">T15-T16</f>
@@ -2380,23 +2395,23 @@
       </c>
       <c r="Z17" s="2">
         <f t="shared" si="11"/>
-        <v>141479.875</v>
+        <v>141638.5</v>
       </c>
       <c r="AA17" s="2">
         <f t="shared" si="11"/>
-        <v>210340.72499999998</v>
+        <v>210600.59999999998</v>
       </c>
       <c r="AB17" s="2">
         <f t="shared" si="11"/>
-        <v>294477.01499999996</v>
+        <v>294840.83999999997</v>
       </c>
       <c r="AC17" s="2">
         <f t="shared" si="11"/>
-        <v>412267.821</v>
+        <v>412777.17599999986</v>
       </c>
       <c r="AD17" s="2">
         <f t="shared" si="11"/>
-        <v>577174.94939999992</v>
+        <v>577888.04639999988</v>
       </c>
     </row>
     <row r="18" spans="2:151" x14ac:dyDescent="0.2">
@@ -2506,7 +2521,7 @@
     </row>
     <row r="20" spans="2:151" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -2619,11 +2634,11 @@
       </c>
       <c r="M21" s="2">
         <f t="shared" si="18"/>
-        <v>31971.08879999999</v>
+        <v>32956.588799999998</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="18"/>
-        <v>38711.835575999983</v>
+        <v>37884.960576000005</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" ref="T21:AD21" si="19">T17-T20</f>
@@ -2651,28 +2666,28 @@
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="19"/>
-        <v>119028.364376</v>
+        <v>119186.989376</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="19"/>
-        <v>182861.73085367997</v>
+        <v>183121.60585367997</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="19"/>
-        <v>260841.48890546634</v>
+        <v>261205.31390546635</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="19"/>
-        <v>371092.48795025167</v>
+        <v>371601.84295025154</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="19"/>
-        <v>526764.92660464311</v>
+        <v>527478.02360464307</v>
       </c>
     </row>
     <row r="22" spans="2:151" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -2696,7 +2711,7 @@
       </c>
       <c r="N22" s="2">
         <f>M38*$AG$28/4</f>
-        <v>469.43684510128122</v>
+        <v>473.42812010128125</v>
       </c>
       <c r="T22" s="2">
         <f>P38*$AG$28</f>
@@ -2724,28 +2739,28 @@
       </c>
       <c r="Z22" s="2">
         <f>SUM(K22:N22)</f>
-        <v>1486.1545207262811</v>
+        <v>1490.1457957262812</v>
       </c>
       <c r="AA22" s="2">
         <f>Z38*$AG$28</f>
-        <v>2512.4839936269655</v>
+        <v>2515.1183772819659</v>
       </c>
       <c r="AB22" s="2">
         <f>AA38*$AG$28</f>
-        <v>2562.7336734995047</v>
+        <v>2565.4207448276052</v>
       </c>
       <c r="AC22" s="2">
         <f>AB38*$AG$28</f>
-        <v>2613.9883469694951</v>
+        <v>2616.7291597241569</v>
       </c>
       <c r="AD22" s="2">
         <f>AC38*$AG$28</f>
-        <v>2666.268113908885</v>
+        <v>2669.0637429186404</v>
       </c>
     </row>
     <row r="23" spans="2:151" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -2816,11 +2831,11 @@
       </c>
       <c r="M24" s="2">
         <f t="shared" si="21"/>
-        <v>32309.671475624989</v>
+        <v>33295.171475625</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="21"/>
-        <v>39181.272421101261</v>
+        <v>38358.388696101283</v>
       </c>
       <c r="T24" s="2">
         <f>T21+SUM(T22:T23)</f>
@@ -2848,23 +2863,23 @@
       </c>
       <c r="Z24" s="2">
         <f>Z21+SUM(Z22:Z23)</f>
-        <v>120334.51889672628</v>
+        <v>120497.13517172627</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" ref="AA24:AD24" si="23">AA21+SUM(AA22:AA23)</f>
-        <v>185374.21484730692</v>
+        <v>185636.72423096193</v>
       </c>
       <c r="AB24" s="2">
         <f t="shared" si="23"/>
-        <v>263404.22257896583</v>
+        <v>263770.73465029395</v>
       </c>
       <c r="AC24" s="2">
         <f t="shared" si="23"/>
-        <v>373706.47629722115</v>
+        <v>374218.57210997568</v>
       </c>
       <c r="AD24" s="2">
         <f t="shared" si="23"/>
-        <v>529431.19471855205</v>
+        <v>530147.08734756173</v>
       </c>
     </row>
     <row r="25" spans="2:151" x14ac:dyDescent="0.2">
@@ -2883,11 +2898,11 @@
       </c>
       <c r="M25" s="2">
         <f>M24*0.19</f>
-        <v>6138.8375803687477</v>
+        <v>6326.0825803687503</v>
       </c>
       <c r="N25" s="2">
         <f>N24*0.19</f>
-        <v>7444.4417600092393</v>
+        <v>7288.0938522592442</v>
       </c>
       <c r="W25" s="2">
         <v>-187</v>
@@ -2900,23 +2915,23 @@
       </c>
       <c r="Z25" s="2">
         <f>SUM(K25:N25)</f>
-        <v>21162.319215377986</v>
+        <v>21193.216307627994</v>
       </c>
       <c r="AA25" s="2">
         <f>AA24*0.19</f>
-        <v>35221.100820988315</v>
+        <v>35270.977603882769</v>
       </c>
       <c r="AB25" s="2">
         <f t="shared" ref="AB25:AD25" si="24">AB24*0.19</f>
-        <v>50046.802290003507</v>
+        <v>50116.439583555853</v>
       </c>
       <c r="AC25" s="2">
         <f t="shared" si="24"/>
-        <v>71004.230496472024</v>
+        <v>71101.528700895375</v>
       </c>
       <c r="AD25" s="2">
         <f t="shared" si="24"/>
-        <v>100591.9269965249</v>
+        <v>100727.94659603672</v>
       </c>
     </row>
     <row r="26" spans="2:151" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2949,11 +2964,11 @@
       </c>
       <c r="M26" s="4">
         <f t="shared" si="25"/>
-        <v>26170.833895256241</v>
+        <v>26969.088895256249</v>
       </c>
       <c r="N26" s="4">
         <f t="shared" si="25"/>
-        <v>31736.830661092023</v>
+        <v>31070.294843842039</v>
       </c>
       <c r="T26" s="4">
         <f>T24-T25</f>
@@ -2981,507 +2996,507 @@
       </c>
       <c r="Z26" s="4">
         <f>Z24-Z25</f>
-        <v>99172.199681348298</v>
+        <v>99303.918864098276</v>
       </c>
       <c r="AA26" s="4">
         <f t="shared" ref="AA26:AD26" si="27">AA24-AA25</f>
-        <v>150153.1140263186</v>
+        <v>150365.74662707915</v>
       </c>
       <c r="AB26" s="4">
         <f t="shared" si="27"/>
-        <v>213357.42028896231</v>
+        <v>213654.29506673809</v>
       </c>
       <c r="AC26" s="4">
         <f t="shared" si="27"/>
-        <v>302702.24580074911</v>
+        <v>303117.0434090803</v>
       </c>
       <c r="AD26" s="4">
         <f t="shared" si="27"/>
-        <v>428839.26772202714</v>
+        <v>429419.140751525</v>
       </c>
       <c r="AE26" s="4">
         <f t="shared" ref="AE26:BJ26" si="28">AD26*(1+$AG$29)</f>
-        <v>433127.66039924743</v>
+        <v>433713.33215904026</v>
       </c>
       <c r="AF26" s="4">
         <f t="shared" si="28"/>
-        <v>437458.93700323993</v>
+        <v>438050.46548063069</v>
       </c>
       <c r="AG26" s="4">
         <f t="shared" si="28"/>
-        <v>441833.52637327235</v>
+        <v>442430.97013543698</v>
       </c>
       <c r="AH26" s="4">
         <f t="shared" si="28"/>
-        <v>446251.86163700506</v>
+        <v>446855.27983679133</v>
       </c>
       <c r="AI26" s="4">
         <f t="shared" si="28"/>
-        <v>450714.3802533751</v>
+        <v>451323.83263515926</v>
       </c>
       <c r="AJ26" s="4">
         <f t="shared" si="28"/>
-        <v>455221.52405590884</v>
+        <v>455837.07096151088</v>
       </c>
       <c r="AK26" s="4">
         <f t="shared" si="28"/>
-        <v>459773.73929646792</v>
+        <v>460395.441671126</v>
       </c>
       <c r="AL26" s="4">
         <f t="shared" si="28"/>
-        <v>464371.47668943257</v>
+        <v>464999.39608783729</v>
       </c>
       <c r="AM26" s="4">
         <f t="shared" si="28"/>
-        <v>469015.19145632692</v>
+        <v>469649.39004871569</v>
       </c>
       <c r="AN26" s="4">
         <f t="shared" si="28"/>
-        <v>473705.34337089019</v>
+        <v>474345.88394920283</v>
       </c>
       <c r="AO26" s="4">
         <f t="shared" si="28"/>
-        <v>478442.39680459909</v>
+        <v>479089.34278869489</v>
       </c>
       <c r="AP26" s="4">
         <f t="shared" si="28"/>
-        <v>483226.82077264506</v>
+        <v>483880.23621658183</v>
       </c>
       <c r="AQ26" s="4">
         <f t="shared" si="28"/>
-        <v>488059.08898037154</v>
+        <v>488719.03857874766</v>
       </c>
       <c r="AR26" s="4">
         <f t="shared" si="28"/>
-        <v>492939.67987017526</v>
+        <v>493606.22896453511</v>
       </c>
       <c r="AS26" s="4">
         <f t="shared" si="28"/>
-        <v>497869.07666887704</v>
+        <v>498542.29125418048</v>
       </c>
       <c r="AT26" s="4">
         <f t="shared" si="28"/>
-        <v>502847.76743556582</v>
+        <v>503527.71416672232</v>
       </c>
       <c r="AU26" s="4">
         <f t="shared" si="28"/>
-        <v>507876.2451099215</v>
+        <v>508562.99130838952</v>
       </c>
       <c r="AV26" s="4">
         <f t="shared" si="28"/>
-        <v>512955.00756102073</v>
+        <v>513648.62122147344</v>
       </c>
       <c r="AW26" s="4">
         <f t="shared" si="28"/>
-        <v>518084.55763663095</v>
+        <v>518785.10743368819</v>
       </c>
       <c r="AX26" s="4">
         <f t="shared" si="28"/>
-        <v>523265.40321299725</v>
+        <v>523972.9585080251</v>
       </c>
       <c r="AY26" s="4">
         <f t="shared" si="28"/>
-        <v>528498.05724512727</v>
+        <v>529212.68809310533</v>
       </c>
       <c r="AZ26" s="4">
         <f t="shared" si="28"/>
-        <v>533783.03781757853</v>
+        <v>534504.81497403642</v>
       </c>
       <c r="BA26" s="4">
         <f t="shared" si="28"/>
-        <v>539120.86819575436</v>
+        <v>539849.86312377674</v>
       </c>
       <c r="BB26" s="4">
         <f t="shared" si="28"/>
-        <v>544512.07687771192</v>
+        <v>545248.36175501451</v>
       </c>
       <c r="BC26" s="4">
         <f t="shared" si="28"/>
-        <v>549957.19764648902</v>
+        <v>550700.84537256462</v>
       </c>
       <c r="BD26" s="4">
         <f t="shared" si="28"/>
-        <v>555456.76962295396</v>
+        <v>556207.85382629023</v>
       </c>
       <c r="BE26" s="4">
         <f t="shared" si="28"/>
-        <v>561011.33731918351</v>
+        <v>561769.9323645531</v>
       </c>
       <c r="BF26" s="4">
         <f t="shared" si="28"/>
-        <v>566621.45069237531</v>
+        <v>567387.63168819866</v>
       </c>
       <c r="BG26" s="4">
         <f t="shared" si="28"/>
-        <v>572287.66519929911</v>
+        <v>573061.50800508063</v>
       </c>
       <c r="BH26" s="4">
         <f t="shared" si="28"/>
-        <v>578010.54185129213</v>
+        <v>578792.1230851314</v>
       </c>
       <c r="BI26" s="4">
         <f t="shared" si="28"/>
-        <v>583790.64726980508</v>
+        <v>584580.04431598273</v>
       </c>
       <c r="BJ26" s="4">
         <f t="shared" si="28"/>
-        <v>589628.55374250317</v>
+        <v>590425.84475914261</v>
       </c>
       <c r="BK26" s="4">
         <f t="shared" ref="BK26:CP26" si="29">BJ26*(1+$AG$29)</f>
-        <v>595524.83927992824</v>
+        <v>596330.10320673406</v>
       </c>
       <c r="BL26" s="4">
         <f t="shared" si="29"/>
-        <v>601480.08767272753</v>
+        <v>602293.40423880145</v>
       </c>
       <c r="BM26" s="4">
         <f t="shared" si="29"/>
-        <v>607494.88854945486</v>
+        <v>608316.33828118944</v>
       </c>
       <c r="BN26" s="4">
         <f t="shared" si="29"/>
-        <v>613569.83743494947</v>
+        <v>614399.50166400138</v>
       </c>
       <c r="BO26" s="4">
         <f t="shared" si="29"/>
-        <v>619705.53580929898</v>
+        <v>620543.49668064143</v>
       </c>
       <c r="BP26" s="4">
         <f t="shared" si="29"/>
-        <v>625902.59116739198</v>
+        <v>626748.93164744787</v>
       </c>
       <c r="BQ26" s="4">
         <f t="shared" si="29"/>
-        <v>632161.61707906588</v>
+        <v>633016.4209639224</v>
       </c>
       <c r="BR26" s="4">
         <f t="shared" si="29"/>
-        <v>638483.23324985651</v>
+        <v>639346.58517356159</v>
       </c>
       <c r="BS26" s="4">
         <f t="shared" si="29"/>
-        <v>644868.06558235514</v>
+        <v>645740.05102529726</v>
       </c>
       <c r="BT26" s="4">
         <f t="shared" si="29"/>
-        <v>651316.74623817869</v>
+        <v>652197.4515355503</v>
       </c>
       <c r="BU26" s="4">
         <f t="shared" si="29"/>
-        <v>657829.91370056046</v>
+        <v>658719.42605090584</v>
       </c>
       <c r="BV26" s="4">
         <f t="shared" si="29"/>
-        <v>664408.21283756604</v>
+        <v>665306.62031141494</v>
       </c>
       <c r="BW26" s="4">
         <f t="shared" si="29"/>
-        <v>671052.29496594169</v>
+        <v>671959.68651452905</v>
       </c>
       <c r="BX26" s="4">
         <f t="shared" si="29"/>
-        <v>677762.81791560107</v>
+        <v>678679.28337967431</v>
       </c>
       <c r="BY26" s="4">
         <f t="shared" si="29"/>
-        <v>684540.44609475706</v>
+        <v>685466.07621347101</v>
       </c>
       <c r="BZ26" s="4">
         <f t="shared" si="29"/>
-        <v>691385.85055570467</v>
+        <v>692320.73697560572</v>
       </c>
       <c r="CA26" s="4">
         <f t="shared" si="29"/>
-        <v>698299.70906126173</v>
+        <v>699243.94434536179</v>
       </c>
       <c r="CB26" s="4">
         <f t="shared" si="29"/>
-        <v>705282.70615187439</v>
+        <v>706236.38378881547</v>
       </c>
       <c r="CC26" s="4">
         <f t="shared" si="29"/>
-        <v>712335.53321339318</v>
+        <v>713298.74762670358</v>
       </c>
       <c r="CD26" s="4">
         <f t="shared" si="29"/>
-        <v>719458.88854552712</v>
+        <v>720431.73510297062</v>
       </c>
       <c r="CE26" s="4">
         <f t="shared" si="29"/>
-        <v>726653.4774309824</v>
+        <v>727636.05245400034</v>
       </c>
       <c r="CF26" s="4">
         <f t="shared" si="29"/>
-        <v>733920.01220529224</v>
+        <v>734912.41297854029</v>
       </c>
       <c r="CG26" s="4">
         <f t="shared" si="29"/>
-        <v>741259.21232734516</v>
+        <v>742261.53710832575</v>
       </c>
       <c r="CH26" s="4">
         <f t="shared" si="29"/>
-        <v>748671.80445061857</v>
+        <v>749684.15247940901</v>
       </c>
       <c r="CI26" s="4">
         <f t="shared" si="29"/>
-        <v>756158.52249512472</v>
+        <v>757180.99400420312</v>
       </c>
       <c r="CJ26" s="4">
         <f t="shared" si="29"/>
-        <v>763720.10772007599</v>
+        <v>764752.80394424521</v>
       </c>
       <c r="CK26" s="4">
         <f t="shared" si="29"/>
-        <v>771357.30879727681</v>
+        <v>772400.33198368771</v>
       </c>
       <c r="CL26" s="4">
         <f t="shared" si="29"/>
-        <v>779070.88188524963</v>
+        <v>780124.33530352463</v>
       </c>
       <c r="CM26" s="4">
         <f t="shared" si="29"/>
-        <v>786861.59070410219</v>
+        <v>787925.57865655993</v>
       </c>
       <c r="CN26" s="4">
         <f t="shared" si="29"/>
-        <v>794730.20661114319</v>
+        <v>795804.83444312552</v>
       </c>
       <c r="CO26" s="4">
         <f t="shared" si="29"/>
-        <v>802677.50867725466</v>
+        <v>803762.88278755674</v>
       </c>
       <c r="CP26" s="4">
         <f t="shared" si="29"/>
-        <v>810704.28376402718</v>
+        <v>811800.51161543233</v>
       </c>
       <c r="CQ26" s="4">
         <f t="shared" ref="CQ26:DV26" si="30">CP26*(1+$AG$29)</f>
-        <v>818811.32660166745</v>
+        <v>819918.51673158666</v>
       </c>
       <c r="CR26" s="4">
         <f t="shared" si="30"/>
-        <v>826999.43986768415</v>
+        <v>828117.70189890254</v>
       </c>
       <c r="CS26" s="4">
         <f t="shared" si="30"/>
-        <v>835269.43426636106</v>
+        <v>836398.87891789153</v>
       </c>
       <c r="CT26" s="4">
         <f t="shared" si="30"/>
-        <v>843622.12860902469</v>
+        <v>844762.86770707043</v>
       </c>
       <c r="CU26" s="4">
         <f t="shared" si="30"/>
-        <v>852058.34989511489</v>
+        <v>853210.49638414115</v>
       </c>
       <c r="CV26" s="4">
         <f t="shared" si="30"/>
-        <v>860578.93339406606</v>
+        <v>861742.60134798253</v>
       </c>
       <c r="CW26" s="4">
         <f t="shared" si="30"/>
-        <v>869184.72272800677</v>
+        <v>870360.02736146236</v>
       </c>
       <c r="CX26" s="4">
         <f t="shared" si="30"/>
-        <v>877876.5699552868</v>
+        <v>879063.62763507699</v>
       </c>
       <c r="CY26" s="4">
         <f t="shared" si="30"/>
-        <v>886655.33565483964</v>
+        <v>887854.26391142781</v>
       </c>
       <c r="CZ26" s="4">
         <f t="shared" si="30"/>
-        <v>895521.88901138806</v>
+        <v>896732.80655054213</v>
       </c>
       <c r="DA26" s="4">
         <f t="shared" si="30"/>
-        <v>904477.10790150193</v>
+        <v>905700.13461604761</v>
       </c>
       <c r="DB26" s="4">
         <f t="shared" si="30"/>
-        <v>913521.87898051692</v>
+        <v>914757.13596220815</v>
       </c>
       <c r="DC26" s="4">
         <f t="shared" si="30"/>
-        <v>922657.09777032211</v>
+        <v>923904.70732183021</v>
       </c>
       <c r="DD26" s="4">
         <f t="shared" si="30"/>
-        <v>931883.66874802532</v>
+        <v>933143.75439504848</v>
       </c>
       <c r="DE26" s="4">
         <f t="shared" si="30"/>
-        <v>941202.50543550553</v>
+        <v>942475.19193899899</v>
       </c>
       <c r="DF26" s="4">
         <f t="shared" si="30"/>
-        <v>950614.53048986057</v>
+        <v>951899.94385838904</v>
       </c>
       <c r="DG26" s="4">
         <f t="shared" si="30"/>
-        <v>960120.67579475918</v>
+        <v>961418.9432969729</v>
       </c>
       <c r="DH26" s="4">
         <f t="shared" si="30"/>
-        <v>969721.88255270675</v>
+        <v>971033.13272994268</v>
       </c>
       <c r="DI26" s="4">
         <f t="shared" si="30"/>
-        <v>979419.10137823387</v>
+        <v>980743.46405724215</v>
       </c>
       <c r="DJ26" s="4">
         <f t="shared" si="30"/>
-        <v>989213.29239201627</v>
+        <v>990550.89869781455</v>
       </c>
       <c r="DK26" s="4">
         <f t="shared" si="30"/>
-        <v>999105.42531593645</v>
+        <v>1000456.4076847928</v>
       </c>
       <c r="DL26" s="4">
         <f t="shared" si="30"/>
-        <v>1009096.4795690958</v>
+        <v>1010460.9717616407</v>
       </c>
       <c r="DM26" s="4">
         <f t="shared" si="30"/>
-        <v>1019187.4443647867</v>
+        <v>1020565.5814792572</v>
       </c>
       <c r="DN26" s="4">
         <f t="shared" si="30"/>
-        <v>1029379.3188084346</v>
+        <v>1030771.2372940498</v>
       </c>
       <c r="DO26" s="4">
         <f t="shared" si="30"/>
-        <v>1039673.111996519</v>
+        <v>1041078.9496669903</v>
       </c>
       <c r="DP26" s="4">
         <f t="shared" si="30"/>
-        <v>1050069.8431164841</v>
+        <v>1051489.7391636602</v>
       </c>
       <c r="DQ26" s="4">
         <f t="shared" si="30"/>
-        <v>1060570.5415476491</v>
+        <v>1062004.6365552968</v>
       </c>
       <c r="DR26" s="4">
         <f t="shared" si="30"/>
-        <v>1071176.2469631257</v>
+        <v>1072624.6829208499</v>
       </c>
       <c r="DS26" s="4">
         <f t="shared" si="30"/>
-        <v>1081888.0094327568</v>
+        <v>1083350.9297500583</v>
       </c>
       <c r="DT26" s="4">
         <f t="shared" si="30"/>
-        <v>1092706.8895270843</v>
+        <v>1094184.4390475589</v>
       </c>
       <c r="DU26" s="4">
         <f t="shared" si="30"/>
-        <v>1103633.9584223551</v>
+        <v>1105126.2834380346</v>
       </c>
       <c r="DV26" s="4">
         <f t="shared" si="30"/>
-        <v>1114670.2980065786</v>
+        <v>1116177.546272415</v>
       </c>
       <c r="DW26" s="4">
         <f t="shared" ref="DW26:EU26" si="31">DV26*(1+$AG$29)</f>
-        <v>1125817.0009866443</v>
+        <v>1127339.3217351392</v>
       </c>
       <c r="DX26" s="4">
         <f t="shared" si="31"/>
-        <v>1137075.1709965107</v>
+        <v>1138612.7149524905</v>
       </c>
       <c r="DY26" s="4">
         <f t="shared" si="31"/>
-        <v>1148445.9227064757</v>
+        <v>1149998.8421020154</v>
       </c>
       <c r="DZ26" s="4">
         <f t="shared" si="31"/>
-        <v>1159930.3819335406</v>
+        <v>1161498.8305230355</v>
       </c>
       <c r="EA26" s="4">
         <f t="shared" si="31"/>
-        <v>1171529.6857528761</v>
+        <v>1173113.8188282659</v>
       </c>
       <c r="EB26" s="4">
         <f t="shared" si="31"/>
-        <v>1183244.982610405</v>
+        <v>1184844.9570165486</v>
       </c>
       <c r="EC26" s="4">
         <f t="shared" si="31"/>
-        <v>1195077.4324365091</v>
+        <v>1196693.4065867141</v>
       </c>
       <c r="ED26" s="4">
         <f t="shared" si="31"/>
-        <v>1207028.2067608743</v>
+        <v>1208660.3406525813</v>
       </c>
       <c r="EE26" s="4">
         <f t="shared" si="31"/>
-        <v>1219098.488828483</v>
+        <v>1220746.9440591072</v>
       </c>
       <c r="EF26" s="4">
         <f t="shared" si="31"/>
-        <v>1231289.473716768</v>
+        <v>1232954.4134996983</v>
       </c>
       <c r="EG26" s="4">
         <f t="shared" si="31"/>
-        <v>1243602.3684539357</v>
+        <v>1245283.9576346953</v>
       </c>
       <c r="EH26" s="4">
         <f t="shared" si="31"/>
-        <v>1256038.3921384751</v>
+        <v>1257736.7972110424</v>
       </c>
       <c r="EI26" s="4">
         <f t="shared" si="31"/>
-        <v>1268598.7760598599</v>
+        <v>1270314.1651831528</v>
       </c>
       <c r="EJ26" s="4">
         <f t="shared" si="31"/>
-        <v>1281284.7638204584</v>
+        <v>1283017.3068349843</v>
       </c>
       <c r="EK26" s="4">
         <f t="shared" si="31"/>
-        <v>1294097.6114586631</v>
+        <v>1295847.4799033343</v>
       </c>
       <c r="EL26" s="4">
         <f t="shared" si="31"/>
-        <v>1307038.5875732498</v>
+        <v>1308805.9547023675</v>
       </c>
       <c r="EM26" s="4">
         <f t="shared" si="31"/>
-        <v>1320108.9734489822</v>
+        <v>1321894.0142493912</v>
       </c>
       <c r="EN26" s="4">
         <f t="shared" si="31"/>
-        <v>1333310.063183472</v>
+        <v>1335112.9543918851</v>
       </c>
       <c r="EO26" s="4">
         <f t="shared" si="31"/>
-        <v>1346643.1638153067</v>
+        <v>1348464.083935804</v>
       </c>
       <c r="EP26" s="4">
         <f t="shared" si="31"/>
-        <v>1360109.5954534598</v>
+        <v>1361948.7247751621</v>
       </c>
       <c r="EQ26" s="4">
         <f t="shared" si="31"/>
-        <v>1373710.6914079944</v>
+        <v>1375568.2120229136</v>
       </c>
       <c r="ER26" s="4">
         <f t="shared" si="31"/>
-        <v>1387447.7983220743</v>
+        <v>1389323.8941431427</v>
       </c>
       <c r="ES26" s="4">
         <f t="shared" si="31"/>
-        <v>1401322.2763052951</v>
+        <v>1403217.1330845742</v>
       </c>
       <c r="ET26" s="4">
         <f t="shared" si="31"/>
-        <v>1415335.499068348</v>
+        <v>1417249.3044154199</v>
       </c>
       <c r="EU26" s="4">
         <f t="shared" si="31"/>
-        <v>1429488.8540590315</v>
+        <v>1431421.7974595742</v>
       </c>
     </row>
     <row r="27" spans="2:151" x14ac:dyDescent="0.2">
@@ -3566,11 +3581,11 @@
       </c>
       <c r="M28" s="5">
         <f t="shared" si="34"/>
-        <v>1.074093625388864</v>
+        <v>1.1068553100324019</v>
       </c>
       <c r="N28" s="5">
         <f t="shared" si="34"/>
-        <v>1.309076576176319</v>
+        <v>1.2815833953082558</v>
       </c>
       <c r="O28" s="5"/>
       <c r="W28" s="5">
@@ -3587,23 +3602,23 @@
       </c>
       <c r="Z28" s="5">
         <f t="shared" ref="Z28:AD28" si="35">Z26/Z27</f>
-        <v>4.0906417215091437</v>
+        <v>4.0960748568657399</v>
       </c>
       <c r="AA28" s="5">
         <f t="shared" si="35"/>
-        <v>6.2560562683769652</v>
+        <v>6.26491550198977</v>
       </c>
       <c r="AB28" s="5">
         <f t="shared" si="35"/>
-        <v>8.9792251161337138</v>
+        <v>8.991719199804864</v>
       </c>
       <c r="AC28" s="5">
         <f t="shared" si="35"/>
-        <v>12.868014945133529</v>
+        <v>12.885648186700969</v>
       </c>
       <c r="AD28" s="5">
         <f t="shared" si="35"/>
-        <v>18.41430213867169</v>
+        <v>18.439201810812168</v>
       </c>
       <c r="AE28" s="5"/>
       <c r="AF28" s="2" t="s">
@@ -3664,11 +3679,11 @@
       </c>
       <c r="M30" s="7">
         <f t="shared" si="36"/>
-        <v>0.47511544381734194</v>
+        <v>0.51359671626475123</v>
       </c>
       <c r="N30" s="7">
         <f t="shared" si="36"/>
-        <v>0.51311942233861285</v>
+        <v>0.48508809844651823</v>
       </c>
       <c r="O30" s="7"/>
       <c r="U30" s="7">
@@ -3693,7 +3708,7 @@
       </c>
       <c r="Z30" s="7">
         <f t="shared" si="37"/>
-        <v>0.53508892924741569</v>
+        <v>0.5369855245714461</v>
       </c>
       <c r="AA30" s="7">
         <f t="shared" si="37"/>
@@ -3705,7 +3720,7 @@
       </c>
       <c r="AC30" s="7">
         <f t="shared" si="37"/>
-        <v>0.40000000000000013</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="AD30" s="7">
         <f t="shared" si="37"/>
@@ -3760,11 +3775,11 @@
       </c>
       <c r="M31" s="6">
         <f t="shared" si="38"/>
-        <v>0.14999999999999991</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="N31" s="6">
         <f t="shared" si="38"/>
-        <v>0.14999999999999991</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="O31" s="6"/>
       <c r="AF31" s="2" t="s">
@@ -3772,12 +3787,12 @@
       </c>
       <c r="AG31" s="2">
         <f>NPV(AG30,Z89:EC89)+Main!K5-Main!K6</f>
-        <v>4496979.8220367506</v>
+        <v>4502825.178628806</v>
       </c>
     </row>
     <row r="32" spans="2:151" x14ac:dyDescent="0.2">
       <c r="B32" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3828,17 +3843,17 @@
         <f t="shared" si="40"/>
         <v>0.22999999999999998</v>
       </c>
-      <c r="AF32" s="2" t="s">
-        <v>0</v>
+      <c r="AF32" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="AG32" s="5">
         <f>AG31/Main!K3</f>
-        <v>184.30245172281764</v>
+        <v>184.54201551757401</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3889,12 +3904,9 @@
         <f t="shared" si="40"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AF33" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="AG33" s="6">
         <f>AG32/Main!K2-1</f>
-        <v>7.1172225290581093E-3</v>
+        <v>8.4263143036831245E-3</v>
       </c>
     </row>
     <row r="35" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3969,7 +3981,7 @@
       </c>
       <c r="Z35" s="7">
         <f t="shared" si="42"/>
-        <v>0.70625347873075939</v>
+        <v>0.70617284566140837</v>
       </c>
       <c r="AA35" s="7">
         <v>0.75</v>
@@ -3992,7 +4004,7 @@
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="6" t="e">
         <f t="shared" ref="C36:N36" si="43">C21/C15</f>
@@ -4036,11 +4048,11 @@
       </c>
       <c r="M36" s="6">
         <f t="shared" si="43"/>
-        <v>0.61779881739130427</v>
+        <v>0.62065138983050838</v>
       </c>
       <c r="N36" s="6">
         <f t="shared" si="43"/>
-        <v>0.65048242933837419</v>
+        <v>0.64860401602465334</v>
       </c>
       <c r="O36" s="6"/>
       <c r="U36" s="6"/>
@@ -4059,23 +4071,23 @@
       </c>
       <c r="Z36" s="6">
         <f t="shared" si="44"/>
-        <v>0.5941777684506887</v>
+        <v>0.59423543354007535</v>
       </c>
       <c r="AA36" s="6">
         <f t="shared" si="44"/>
-        <v>0.65201970821513511</v>
+        <v>0.6521406130384243</v>
       </c>
       <c r="AB36" s="6">
         <f t="shared" si="44"/>
-        <v>0.66433407944962963</v>
+        <v>0.6644397886978608</v>
       </c>
       <c r="AC36" s="6">
         <f t="shared" si="44"/>
-        <v>0.67509359640923505</v>
+        <v>0.67518602872724898</v>
       </c>
       <c r="AD36" s="6">
         <f t="shared" si="44"/>
-        <v>0.68449556822273683</v>
+        <v>0.68457639878166276</v>
       </c>
       <c r="AE36" s="6"/>
       <c r="AF36" s="6"/>
@@ -4129,11 +4141,11 @@
       </c>
       <c r="M38" s="2">
         <f>L38+M26</f>
-        <v>93887.369020256243</v>
+        <v>94685.624020256248</v>
       </c>
       <c r="N38" s="2">
         <f>M38+N26</f>
-        <v>125624.19968134827</v>
+        <v>125755.91886409829</v>
       </c>
       <c r="Y38" s="2">
         <f>Y39-Y53</f>
@@ -4141,23 +4153,23 @@
       </c>
       <c r="Z38" s="2">
         <f>N38</f>
-        <v>125624.19968134827</v>
+        <v>125755.91886409829</v>
       </c>
       <c r="AA38" s="2">
         <f>Z38+AA22</f>
-        <v>128136.68367497524</v>
+        <v>128271.03724138025</v>
       </c>
       <c r="AB38" s="2">
         <f>AA38+AB22</f>
-        <v>130699.41734847474</v>
+        <v>130836.45798620785</v>
       </c>
       <c r="AC38" s="2">
         <f>AB38+AC22</f>
-        <v>133313.40569544423</v>
+        <v>133453.18714593202</v>
       </c>
       <c r="AD38" s="2">
         <f>AC38+AD22</f>
-        <v>135979.67380935312</v>
+        <v>136122.25088885066</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
@@ -4176,8 +4188,8 @@
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>22</v>
+      <c r="B40" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="G40" s="2">
         <v>23065</v>
@@ -4188,7 +4200,7 @@
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41" s="2">
         <v>10080</v>
@@ -4199,7 +4211,7 @@
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B42" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
@@ -4214,7 +4226,7 @@
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B43" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -4229,7 +4241,7 @@
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B44" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
@@ -4244,7 +4256,7 @@
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B45" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -4259,7 +4271,7 @@
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B46" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
@@ -4274,7 +4286,7 @@
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B47" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
@@ -4289,7 +4301,7 @@
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B48" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
@@ -4304,7 +4316,7 @@
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B49" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
@@ -4332,7 +4344,7 @@
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B52" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -4362,7 +4374,7 @@
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G54" s="2">
         <v>1519</v>
@@ -4373,7 +4385,7 @@
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55" s="2">
         <v>4245</v>
@@ -4384,7 +4396,7 @@
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B56" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
@@ -4401,7 +4413,7 @@
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="2">
         <f>G49-G56</f>
@@ -4414,7 +4426,7 @@
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G58" s="2">
         <f>G57+G56</f>
@@ -4427,7 +4439,7 @@
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" ref="G60" si="46">G26</f>
@@ -4459,28 +4471,28 @@
       </c>
       <c r="Z60" s="2">
         <f t="shared" si="48"/>
-        <v>99172.199681348298</v>
+        <v>99303.918864098276</v>
       </c>
       <c r="AA60" s="2">
         <f t="shared" si="48"/>
-        <v>150153.1140263186</v>
+        <v>150365.74662707915</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="48"/>
-        <v>213357.42028896231</v>
+        <v>213654.29506673809</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="48"/>
-        <v>302702.24580074911</v>
+        <v>303117.0434090803</v>
       </c>
       <c r="AD60" s="2">
         <f t="shared" si="48"/>
-        <v>428839.26772202714</v>
+        <v>429419.140751525</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" s="2">
         <v>14881</v>
@@ -4500,7 +4512,7 @@
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K62" s="2">
         <v>1474</v>
@@ -4535,7 +4547,7 @@
     <row r="63" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -4552,23 +4564,23 @@
       </c>
       <c r="Z63" s="2">
         <f>Y63*(1+Z30)</f>
-        <v>2861.405764117183</v>
+        <v>2864.9410178011753</v>
       </c>
       <c r="AA63" s="2">
         <f>Z63*(1+AA30)</f>
-        <v>4005.9680697640561</v>
+        <v>4010.9174249216453</v>
       </c>
       <c r="AB63" s="2">
         <f>AA63*(1+AB30)</f>
-        <v>5608.3552976696783</v>
+        <v>5615.2843948903028</v>
       </c>
       <c r="AC63" s="2">
         <f>AB63*(1+AC30)</f>
-        <v>7851.6974167375502</v>
+        <v>7861.3981528464237</v>
       </c>
       <c r="AD63" s="2">
         <f>AC63*(1+AD30)</f>
-        <v>10992.376383432569</v>
+        <v>11005.957413984992</v>
       </c>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
@@ -4578,7 +4590,7 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K64" s="2">
         <v>-2177</v>
@@ -4607,7 +4619,7 @@
     </row>
     <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K65" s="2">
         <v>175</v>
@@ -4694,7 +4706,7 @@
     </row>
     <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K68" s="2">
         <v>-1258</v>
@@ -4723,7 +4735,7 @@
     </row>
     <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K69" s="2">
         <v>560</v>
@@ -4781,7 +4793,7 @@
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K71" s="2">
         <v>7128</v>
@@ -4794,28 +4806,28 @@
       </c>
       <c r="Z71" s="2">
         <f>Y71*(1+Z30)</f>
-        <v>6567.1104393204441</v>
+        <v>6575.2240741166461</v>
       </c>
       <c r="AA71" s="2">
         <f>Z71*(1+AA30)</f>
-        <v>9193.9546150486203</v>
+        <v>9205.3137037633041</v>
       </c>
       <c r="AB71" s="2">
         <f>AA71*(1+AB30)</f>
-        <v>12871.536461068068</v>
+        <v>12887.439185268626</v>
       </c>
       <c r="AC71" s="2">
         <f>AB71*(1+AC30)</f>
-        <v>18020.151045495299</v>
+        <v>18042.414859376076</v>
       </c>
       <c r="AD71" s="2">
         <f>AC71*(1+AD30)</f>
-        <v>25228.211463693417</v>
+        <v>25259.380803126507</v>
       </c>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K72" s="2">
         <v>350</v>
@@ -4828,28 +4840,28 @@
       </c>
       <c r="Z72" s="2">
         <f>Y72*(1+Z30)</f>
-        <v>1874.3435826110945</v>
+        <v>1876.6593255017358</v>
       </c>
       <c r="AA72" s="2">
         <f>Z72*(1+AA30)</f>
-        <v>2624.0810156555322</v>
+        <v>2627.3230557024299</v>
       </c>
       <c r="AB72" s="2">
         <f>AA72*(1+AB30)</f>
-        <v>3673.7134219177447</v>
+        <v>3678.2522779834017</v>
       </c>
       <c r="AC72" s="2">
         <f>AB72*(1+AC30)</f>
-        <v>5143.1987906848426</v>
+        <v>5149.5531891767623</v>
       </c>
       <c r="AD72" s="2">
         <f>AC72*(1+AD30)</f>
-        <v>7200.4783069587793</v>
+        <v>7209.3744648474667</v>
       </c>
     </row>
     <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B73" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
@@ -4862,7 +4874,7 @@
     </row>
     <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G74" s="2">
         <f>SUM(G61:G72)</f>
@@ -4891,28 +4903,28 @@
       </c>
       <c r="Z74" s="2">
         <f>SUM(Z62:Z72,Z60)</f>
-        <v>116339.45946739701</v>
+        <v>116485.14328151783</v>
       </c>
       <c r="AA74" s="2">
         <f t="shared" ref="AA74:AD74" si="50">SUM(AA62:AA72,AA60)</f>
-        <v>172798.39772678679</v>
+        <v>173030.58081146653</v>
       </c>
       <c r="AB74" s="2">
         <f t="shared" si="50"/>
-        <v>243696.56146961779</v>
+        <v>244020.80692488042</v>
       </c>
       <c r="AC74" s="2">
         <f t="shared" si="50"/>
-        <v>343539.93625366682</v>
+        <v>343993.05281047954</v>
       </c>
       <c r="AD74" s="2">
         <f t="shared" si="50"/>
-        <v>484047.50571611192</v>
+        <v>484681.02527348395</v>
       </c>
     </row>
     <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B76" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
@@ -4941,28 +4953,28 @@
       </c>
       <c r="Z76" s="2">
         <f>Y76*(1+Z30)</f>
-        <v>-4967.5477750446371</v>
+        <v>-4973.6851575131996</v>
       </c>
       <c r="AA76" s="2">
         <f>Z76*(1+AA30)</f>
-        <v>-6954.5668850624916</v>
+        <v>-6963.1592205184788</v>
       </c>
       <c r="AB76" s="2">
         <f>AA76*(1+AB30)</f>
-        <v>-9736.3936390874878</v>
+        <v>-9748.42290872587</v>
       </c>
       <c r="AC76" s="2">
         <f>AB76*(1+AC30)</f>
-        <v>-13630.951094722484</v>
+        <v>-13647.792072216218</v>
       </c>
       <c r="AD76" s="2">
         <f>AC76*(1+AD30)</f>
-        <v>-19083.331532611475</v>
+        <v>-19106.908901102703</v>
       </c>
     </row>
     <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B77" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
@@ -4976,7 +4988,7 @@
     </row>
     <row r="78" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B78" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
@@ -4989,7 +5001,7 @@
     </row>
     <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
@@ -5006,7 +5018,7 @@
     </row>
     <row r="81" spans="1:133" x14ac:dyDescent="0.2">
       <c r="B81" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
@@ -5019,7 +5031,7 @@
     </row>
     <row r="82" spans="1:133" x14ac:dyDescent="0.2">
       <c r="B82" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
@@ -5031,7 +5043,7 @@
     </row>
     <row r="83" spans="1:133" x14ac:dyDescent="0.2">
       <c r="B83" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
@@ -5055,7 +5067,7 @@
     </row>
     <row r="85" spans="1:133" x14ac:dyDescent="0.2">
       <c r="B85" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
@@ -5068,7 +5080,7 @@
     </row>
     <row r="86" spans="1:133" x14ac:dyDescent="0.2">
       <c r="B86" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
@@ -5077,7 +5089,7 @@
     </row>
     <row r="87" spans="1:133" x14ac:dyDescent="0.2">
       <c r="B87" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
@@ -5095,7 +5107,7 @@
     <row r="89" spans="1:133" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G89" s="4">
         <f>G74+G76</f>
@@ -5124,435 +5136,435 @@
       </c>
       <c r="Z89" s="4">
         <f t="shared" si="51"/>
-        <v>111371.91169235238</v>
+        <v>111511.45812400462</v>
       </c>
       <c r="AA89" s="4">
         <f t="shared" si="51"/>
-        <v>165843.8308417243</v>
+        <v>166067.42159094804</v>
       </c>
       <c r="AB89" s="4">
         <f t="shared" si="51"/>
-        <v>233960.16783053032</v>
+        <v>234272.38401615457</v>
       </c>
       <c r="AC89" s="4">
         <f t="shared" si="51"/>
-        <v>329908.98515894433</v>
+        <v>330345.26073826331</v>
       </c>
       <c r="AD89" s="4">
         <f t="shared" si="51"/>
-        <v>464964.17418350047</v>
+        <v>465574.11637238122</v>
       </c>
       <c r="AE89" s="4">
         <f t="shared" ref="AE89:BJ89" si="52">AD89*(1+$AG$29)</f>
-        <v>469613.81592533545</v>
+        <v>470229.85753610503</v>
       </c>
       <c r="AF89" s="4">
         <f t="shared" si="52"/>
-        <v>474309.9540845888</v>
+        <v>474932.15611146606</v>
       </c>
       <c r="AG89" s="4">
         <f t="shared" si="52"/>
-        <v>479053.0536254347</v>
+        <v>479681.47767258075</v>
       </c>
       <c r="AH89" s="4">
         <f t="shared" si="52"/>
-        <v>483843.58416168904</v>
+        <v>484478.29244930658</v>
       </c>
       <c r="AI89" s="4">
         <f t="shared" si="52"/>
-        <v>488682.02000330592</v>
+        <v>489323.07537379966</v>
       </c>
       <c r="AJ89" s="4">
         <f t="shared" si="52"/>
-        <v>493568.840203339</v>
+        <v>494216.30612753768</v>
       </c>
       <c r="AK89" s="4">
         <f t="shared" si="52"/>
-        <v>498504.52860537241</v>
+        <v>499158.46918881306</v>
       </c>
       <c r="AL89" s="4">
         <f t="shared" si="52"/>
-        <v>503489.57389142615</v>
+        <v>504150.05388070119</v>
       </c>
       <c r="AM89" s="4">
         <f t="shared" si="52"/>
-        <v>508524.46963034041</v>
+        <v>509191.5544195082</v>
       </c>
       <c r="AN89" s="4">
         <f t="shared" si="52"/>
-        <v>513609.71432664379</v>
+        <v>514283.4699637033</v>
       </c>
       <c r="AO89" s="4">
         <f t="shared" si="52"/>
-        <v>518745.81146991026</v>
+        <v>519426.30466334033</v>
       </c>
       <c r="AP89" s="4">
         <f t="shared" si="52"/>
-        <v>523933.26958460937</v>
+        <v>524620.56770997378</v>
       </c>
       <c r="AQ89" s="4">
         <f t="shared" si="52"/>
-        <v>529172.60228045553</v>
+        <v>529866.77338707354</v>
       </c>
       <c r="AR89" s="4">
         <f t="shared" si="52"/>
-        <v>534464.32830326003</v>
+        <v>535165.44112094434</v>
       </c>
       <c r="AS89" s="4">
         <f t="shared" si="52"/>
-        <v>539808.97158629261</v>
+        <v>540517.09553215373</v>
       </c>
       <c r="AT89" s="4">
         <f t="shared" si="52"/>
-        <v>545207.06130215549</v>
+        <v>545922.26648747525</v>
       </c>
       <c r="AU89" s="4">
         <f t="shared" si="52"/>
-        <v>550659.1319151771</v>
+        <v>551381.48915235</v>
       </c>
       <c r="AV89" s="4">
         <f t="shared" si="52"/>
-        <v>556165.72323432891</v>
+        <v>556895.30404387345</v>
       </c>
       <c r="AW89" s="4">
         <f t="shared" si="52"/>
-        <v>561727.38046667224</v>
+        <v>562464.25708431215</v>
       </c>
       <c r="AX89" s="4">
         <f t="shared" si="52"/>
-        <v>567344.65427133895</v>
+        <v>568088.89965515526</v>
       </c>
       <c r="AY89" s="4">
         <f t="shared" si="52"/>
-        <v>573018.10081405239</v>
+        <v>573769.78865170677</v>
       </c>
       <c r="AZ89" s="4">
         <f t="shared" si="52"/>
-        <v>578748.28182219295</v>
+        <v>579507.48653822381</v>
       </c>
       <c r="BA89" s="4">
         <f t="shared" si="52"/>
-        <v>584535.76464041485</v>
+        <v>585302.56140360609</v>
       </c>
       <c r="BB89" s="4">
         <f t="shared" si="52"/>
-        <v>590381.12228681904</v>
+        <v>591155.5870176421</v>
       </c>
       <c r="BC89" s="4">
         <f t="shared" si="52"/>
-        <v>596284.93350968719</v>
+        <v>597067.14288781851</v>
       </c>
       <c r="BD89" s="4">
         <f t="shared" si="52"/>
-        <v>602247.78284478409</v>
+        <v>603037.81431669672</v>
       </c>
       <c r="BE89" s="4">
         <f t="shared" si="52"/>
-        <v>608270.26067323191</v>
+        <v>609068.19245986373</v>
       </c>
       <c r="BF89" s="4">
         <f t="shared" si="52"/>
-        <v>614352.96327996429</v>
+        <v>615158.87438446237</v>
       </c>
       <c r="BG89" s="4">
         <f t="shared" si="52"/>
-        <v>620496.49291276396</v>
+        <v>621310.46312830702</v>
       </c>
       <c r="BH89" s="4">
         <f t="shared" si="52"/>
-        <v>626701.45784189156</v>
+        <v>627523.56775959011</v>
       </c>
       <c r="BI89" s="4">
         <f t="shared" si="52"/>
-        <v>632968.47242031049</v>
+        <v>633798.80343718606</v>
       </c>
       <c r="BJ89" s="4">
         <f t="shared" si="52"/>
-        <v>639298.15714451356</v>
+        <v>640136.79147155792</v>
       </c>
       <c r="BK89" s="4">
         <f t="shared" ref="BK89:CP89" si="53">BJ89*(1+$AG$29)</f>
-        <v>645691.13871595869</v>
+        <v>646538.15938627347</v>
       </c>
       <c r="BL89" s="4">
         <f t="shared" si="53"/>
-        <v>652148.05010311829</v>
+        <v>653003.54098013625</v>
       </c>
       <c r="BM89" s="4">
         <f t="shared" si="53"/>
-        <v>658669.53060414945</v>
+        <v>659533.57638993766</v>
       </c>
       <c r="BN89" s="4">
         <f t="shared" si="53"/>
-        <v>665256.22591019096</v>
+        <v>666128.91215383704</v>
       </c>
       <c r="BO89" s="4">
         <f t="shared" si="53"/>
-        <v>671908.78816929285</v>
+        <v>672790.20127537544</v>
       </c>
       <c r="BP89" s="4">
         <f t="shared" si="53"/>
-        <v>678627.87605098577</v>
+        <v>679518.1032881292</v>
       </c>
       <c r="BQ89" s="4">
         <f t="shared" si="53"/>
-        <v>685414.15481149568</v>
+        <v>686313.28432101046</v>
       </c>
       <c r="BR89" s="4">
         <f t="shared" si="53"/>
-        <v>692268.29635961063</v>
+        <v>693176.41716422059</v>
       </c>
       <c r="BS89" s="4">
         <f t="shared" si="53"/>
-        <v>699190.9793232067</v>
+        <v>700108.18133586284</v>
       </c>
       <c r="BT89" s="4">
         <f t="shared" si="53"/>
-        <v>706182.8891164388</v>
+        <v>707109.26314922143</v>
       </c>
       <c r="BU89" s="4">
         <f t="shared" si="53"/>
-        <v>713244.71800760319</v>
+        <v>714180.35578071361</v>
       </c>
       <c r="BV89" s="4">
         <f t="shared" si="53"/>
-        <v>720377.16518767923</v>
+        <v>721322.15933852072</v>
       </c>
       <c r="BW89" s="4">
         <f t="shared" si="53"/>
-        <v>727580.93683955597</v>
+        <v>728535.38093190594</v>
       </c>
       <c r="BX89" s="4">
         <f t="shared" si="53"/>
-        <v>734856.74620795157</v>
+        <v>735820.73474122502</v>
       </c>
       <c r="BY89" s="4">
         <f t="shared" si="53"/>
-        <v>742205.31367003114</v>
+        <v>743178.94208863727</v>
       </c>
       <c r="BZ89" s="4">
         <f t="shared" si="53"/>
-        <v>749627.36680673144</v>
+        <v>750610.7315095237</v>
       </c>
       <c r="CA89" s="4">
         <f t="shared" si="53"/>
-        <v>757123.64047479874</v>
+        <v>758116.83882461896</v>
       </c>
       <c r="CB89" s="4">
         <f t="shared" si="53"/>
-        <v>764694.87687954679</v>
+        <v>765698.00721286517</v>
       </c>
       <c r="CC89" s="4">
         <f t="shared" si="53"/>
-        <v>772341.82564834226</v>
+        <v>773354.98728499387</v>
       </c>
       <c r="CD89" s="4">
         <f t="shared" si="53"/>
-        <v>780065.24390482565</v>
+        <v>781088.53715784382</v>
       </c>
       <c r="CE89" s="4">
         <f t="shared" si="53"/>
-        <v>787865.89634387393</v>
+        <v>788899.42252942221</v>
       </c>
       <c r="CF89" s="4">
         <f t="shared" si="53"/>
-        <v>795744.55530731264</v>
+        <v>796788.41675471643</v>
       </c>
       <c r="CG89" s="4">
         <f t="shared" si="53"/>
-        <v>803702.00086038571</v>
+        <v>804756.30092226365</v>
       </c>
       <c r="CH89" s="4">
         <f t="shared" si="53"/>
-        <v>811739.02086898952</v>
+        <v>812803.86393148627</v>
       </c>
       <c r="CI89" s="4">
         <f t="shared" si="53"/>
-        <v>819856.41107767937</v>
+        <v>820931.90257080109</v>
       </c>
       <c r="CJ89" s="4">
         <f t="shared" si="53"/>
-        <v>828054.97518845613</v>
+        <v>829141.2215965091</v>
       </c>
       <c r="CK89" s="4">
         <f t="shared" si="53"/>
-        <v>836335.52494034066</v>
+        <v>837432.6338124742</v>
       </c>
       <c r="CL89" s="4">
         <f t="shared" si="53"/>
-        <v>844698.88018974406</v>
+        <v>845806.9601505989</v>
       </c>
       <c r="CM89" s="4">
         <f t="shared" si="53"/>
-        <v>853145.86899164156</v>
+        <v>854265.02975210489</v>
       </c>
       <c r="CN89" s="4">
         <f t="shared" si="53"/>
-        <v>861677.32768155797</v>
+        <v>862807.68004962592</v>
       </c>
       <c r="CO89" s="4">
         <f t="shared" si="53"/>
-        <v>870294.10095837351</v>
+        <v>871435.75685012224</v>
       </c>
       <c r="CP89" s="4">
         <f t="shared" si="53"/>
-        <v>878997.04196795728</v>
+        <v>880150.1144186235</v>
       </c>
       <c r="CQ89" s="4">
         <f t="shared" ref="CQ89:DV89" si="54">CP89*(1+$AG$29)</f>
-        <v>887787.01238763682</v>
+        <v>888951.61556280975</v>
       </c>
       <c r="CR89" s="4">
         <f t="shared" si="54"/>
-        <v>896664.88251151319</v>
+        <v>897841.13171843789</v>
       </c>
       <c r="CS89" s="4">
         <f t="shared" si="54"/>
-        <v>905631.53133662837</v>
+        <v>906819.54303562222</v>
       </c>
       <c r="CT89" s="4">
         <f t="shared" si="54"/>
-        <v>914687.84664999461</v>
+        <v>915887.73846597841</v>
       </c>
       <c r="CU89" s="4">
         <f t="shared" si="54"/>
-        <v>923834.72511649458</v>
+        <v>925046.61585063825</v>
       </c>
       <c r="CV89" s="4">
         <f t="shared" si="54"/>
-        <v>933073.07236765954</v>
+        <v>934297.08200914459</v>
       </c>
       <c r="CW89" s="4">
         <f t="shared" si="54"/>
-        <v>942403.80309133616</v>
+        <v>943640.05282923602</v>
       </c>
       <c r="CX89" s="4">
         <f t="shared" si="54"/>
-        <v>951827.84112224949</v>
+        <v>953076.45335752843</v>
       </c>
       <c r="CY89" s="4">
         <f t="shared" si="54"/>
-        <v>961346.119533472</v>
+        <v>962607.2178911037</v>
       </c>
       <c r="CZ89" s="4">
         <f t="shared" si="54"/>
-        <v>970959.58072880667</v>
+        <v>972233.29007001477</v>
       </c>
       <c r="DA89" s="4">
         <f t="shared" si="54"/>
-        <v>980669.17653609475</v>
+        <v>981955.62297071493</v>
       </c>
       <c r="DB89" s="4">
         <f t="shared" si="54"/>
-        <v>990475.86830145575</v>
+        <v>991775.17920042214</v>
       </c>
       <c r="DC89" s="4">
         <f t="shared" si="54"/>
-        <v>1000380.6269844703</v>
+        <v>1001692.9309924264</v>
       </c>
       <c r="DD89" s="4">
         <f t="shared" si="54"/>
-        <v>1010384.4332543151</v>
+        <v>1011709.8603023506</v>
       </c>
       <c r="DE89" s="4">
         <f t="shared" si="54"/>
-        <v>1020488.2775868583</v>
+        <v>1021826.9589053742</v>
       </c>
       <c r="DF89" s="4">
         <f t="shared" si="54"/>
-        <v>1030693.1603627269</v>
+        <v>1032045.2284944279</v>
       </c>
       <c r="DG89" s="4">
         <f t="shared" si="54"/>
-        <v>1041000.0919663542</v>
+        <v>1042365.6807793721</v>
       </c>
       <c r="DH89" s="4">
         <f t="shared" si="54"/>
-        <v>1051410.0928860176</v>
+        <v>1052789.3375871659</v>
       </c>
       <c r="DI89" s="4">
         <f t="shared" si="54"/>
-        <v>1061924.1938148779</v>
+        <v>1063317.2309630376</v>
       </c>
       <c r="DJ89" s="4">
         <f t="shared" si="54"/>
-        <v>1072543.4357530267</v>
+        <v>1073950.4032726679</v>
       </c>
       <c r="DK89" s="4">
         <f t="shared" si="54"/>
-        <v>1083268.8701105569</v>
+        <v>1084689.9073053945</v>
       </c>
       <c r="DL89" s="4">
         <f t="shared" si="54"/>
-        <v>1094101.5588116625</v>
+        <v>1095536.8063784484</v>
       </c>
       <c r="DM89" s="4">
         <f t="shared" si="54"/>
-        <v>1105042.5743997791</v>
+        <v>1106492.1744422328</v>
       </c>
       <c r="DN89" s="4">
         <f t="shared" si="54"/>
-        <v>1116093.0001437769</v>
+        <v>1117557.0961866551</v>
       </c>
       <c r="DO89" s="4">
         <f t="shared" si="54"/>
-        <v>1127253.9301452145</v>
+        <v>1128732.6671485216</v>
       </c>
       <c r="DP89" s="4">
         <f t="shared" si="54"/>
-        <v>1138526.4694466668</v>
+        <v>1140019.993820007</v>
       </c>
       <c r="DQ89" s="4">
         <f t="shared" si="54"/>
-        <v>1149911.7341411335</v>
+        <v>1151420.1937582071</v>
       </c>
       <c r="DR89" s="4">
         <f t="shared" si="54"/>
-        <v>1161410.8514825448</v>
+        <v>1162934.3956957893</v>
       </c>
       <c r="DS89" s="4">
         <f t="shared" si="54"/>
-        <v>1173024.9599973701</v>
+        <v>1174563.7396527471</v>
       </c>
       <c r="DT89" s="4">
         <f t="shared" si="54"/>
-        <v>1184755.2095973438</v>
+        <v>1186309.3770492745</v>
       </c>
       <c r="DU89" s="4">
         <f t="shared" si="54"/>
-        <v>1196602.7616933172</v>
+        <v>1198172.4708197673</v>
       </c>
       <c r="DV89" s="4">
         <f t="shared" si="54"/>
-        <v>1208568.7893102504</v>
+        <v>1210154.195527965</v>
       </c>
       <c r="DW89" s="4">
         <f t="shared" ref="DW89:EC89" si="55">DV89*(1+$AG$29)</f>
-        <v>1220654.4772033528</v>
+        <v>1222255.7374832446</v>
       </c>
       <c r="DX89" s="4">
         <f t="shared" si="55"/>
-        <v>1232861.0219753864</v>
+        <v>1234478.2948580771</v>
       </c>
       <c r="DY89" s="4">
         <f t="shared" si="55"/>
-        <v>1245189.6321951402</v>
+        <v>1246823.0778066579</v>
       </c>
       <c r="DZ89" s="4">
         <f t="shared" si="55"/>
-        <v>1257641.5285170916</v>
+        <v>1259291.3085847246</v>
       </c>
       <c r="EA89" s="4">
         <f t="shared" si="55"/>
-        <v>1270217.9438022627</v>
+        <v>1271884.2216705717</v>
       </c>
       <c r="EB89" s="4">
         <f t="shared" si="55"/>
-        <v>1282920.1232402853</v>
+        <v>1284603.0638872774</v>
       </c>
       <c r="EC89" s="4">
         <f t="shared" si="55"/>
-        <v>1295749.3244726881</v>
+        <v>1297449.0945261503</v>
       </c>
     </row>
   </sheetData>
@@ -5583,21 +5595,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192142AE-D109-41CB-81C5-77189E7E6D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E74F79-376B-4987-BF69-70F35C4456FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="960" windowWidth="20805" windowHeight="14520" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="2760" yWindow="195" windowWidth="22200" windowHeight="14805" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="170">
   <si>
     <t>Price</t>
   </si>
@@ -597,6 +597,36 @@
   </si>
   <si>
     <t>Tesla AI CapEx</t>
+  </si>
+  <si>
+    <t>Not enough electricity to expand AI enough currently without very large energy growth</t>
+  </si>
+  <si>
+    <t>AI Growth Problems</t>
+  </si>
+  <si>
+    <t>Large projects like Stargate struggle to get funding</t>
+  </si>
+  <si>
+    <t>1. big AI infrastructure delaying building/funding</t>
+  </si>
+  <si>
+    <t>2. very limited current AI applications; betting on future-theoreticals</t>
+  </si>
+  <si>
+    <t>3. priced in to supply all AI infrastructure already and for all these projects to get funded</t>
+  </si>
+  <si>
+    <t>problems:</t>
+  </si>
+  <si>
+    <t>4. wavering macro</t>
+  </si>
+  <si>
+    <t>5. long-term margins?</t>
+  </si>
+  <si>
+    <t>6. lots of electricity and grid infrastructure needed to support growth</t>
   </si>
 </sst>
 </file>
@@ -606,13 +636,37 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -730,12 +784,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -756,42 +804,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1323,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165FA77-31DD-4330-BECC-4D64D4EAFB80}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1485,22 +1537,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
@@ -1508,7 +1560,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -1516,7 +1568,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -1524,7 +1576,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
@@ -1532,7 +1584,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
@@ -1540,7 +1592,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>123</v>
       </c>
@@ -1548,53 +1600,84 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I29" s="2"/>
-      <c r="K29" s="29" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I29" s="29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E30" s="26" t="s">
         <v>125</v>
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="G32" s="11" t="s">
         <v>134</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="M32" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="34" t="s">
+        <v>164</v>
+      </c>
       <c r="G33" s="29" t="s">
         <v>136</v>
       </c>
       <c r="J33" s="29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="M33" s="33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
+        <v>165</v>
+      </c>
       <c r="G34" s="29" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="M34" s="33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="35" t="s">
+        <v>167</v>
+      </c>
       <c r="G35" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
+        <v>168</v>
+      </c>
       <c r="G36" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="36" t="s">
+        <v>169</v>
+      </c>
       <c r="G37" s="29" t="s">
         <v>140</v>
       </c>
@@ -1608,11 +1691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140BE28-398D-4CC8-A7C9-E94B6BC720A8}">
   <dimension ref="A1:EU109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
+      <selection pane="bottomRight" activeCell="AF55" sqref="AF55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6111,6 +6194,34 @@
         <f>SUM(K59:K62)-SUM(K71:K72)</f>
         <v>63393</v>
       </c>
+      <c r="X93" s="2">
+        <f>SUM(X59:X62)-SUM(X71:X72)</f>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="2">
+        <f t="shared" ref="Y93:AD93" si="55">SUM(Y59:Y62)-SUM(Y71:Y72)</f>
+        <v>43210</v>
+      </c>
+      <c r="Z93" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AA93" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AB93" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AC93" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AD93" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
@@ -6146,19 +6257,19 @@
         <v>116485.14328151783</v>
       </c>
       <c r="AA94" s="2">
-        <f t="shared" ref="AA94:AD94" si="55">SUM(AA82:AA92,AA80)</f>
+        <f t="shared" ref="AA94:AD94" si="56">SUM(AA82:AA92,AA80)</f>
         <v>173030.58081146653</v>
       </c>
       <c r="AB94" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>244020.80692488042</v>
       </c>
       <c r="AC94" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>343993.05281047954</v>
       </c>
       <c r="AD94" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>484681.02527348395</v>
       </c>
     </row>
@@ -6367,443 +6478,443 @@
         <v>3750</v>
       </c>
       <c r="X109" s="4">
-        <f t="shared" ref="X109:AD109" si="56">X94+X96</f>
+        <f t="shared" ref="X109:AD109" si="57">X94+X96</f>
         <v>27021</v>
       </c>
       <c r="Y109" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>60853</v>
       </c>
       <c r="Z109" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>111511.45812400462</v>
       </c>
       <c r="AA109" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>166067.42159094804</v>
       </c>
       <c r="AB109" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>234272.38401615457</v>
       </c>
       <c r="AC109" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>330345.26073826331</v>
       </c>
       <c r="AD109" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>465574.11637238122</v>
       </c>
       <c r="AE109" s="4">
-        <f t="shared" ref="AE109:BJ109" si="57">AD109*(1+$AG$49)</f>
+        <f t="shared" ref="AE109:BJ109" si="58">AD109*(1+$AG$49)</f>
         <v>470229.85753610503</v>
       </c>
       <c r="AF109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>474932.15611146606</v>
       </c>
       <c r="AG109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>479681.47767258075</v>
       </c>
       <c r="AH109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>484478.29244930658</v>
       </c>
       <c r="AI109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>489323.07537379966</v>
       </c>
       <c r="AJ109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>494216.30612753768</v>
       </c>
       <c r="AK109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>499158.46918881306</v>
       </c>
       <c r="AL109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>504150.05388070119</v>
       </c>
       <c r="AM109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>509191.5544195082</v>
       </c>
       <c r="AN109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>514283.4699637033</v>
       </c>
       <c r="AO109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>519426.30466334033</v>
       </c>
       <c r="AP109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>524620.56770997378</v>
       </c>
       <c r="AQ109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>529866.77338707354</v>
       </c>
       <c r="AR109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>535165.44112094434</v>
       </c>
       <c r="AS109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>540517.09553215373</v>
       </c>
       <c r="AT109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>545922.26648747525</v>
       </c>
       <c r="AU109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>551381.48915235</v>
       </c>
       <c r="AV109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>556895.30404387345</v>
       </c>
       <c r="AW109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>562464.25708431215</v>
       </c>
       <c r="AX109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>568088.89965515526</v>
       </c>
       <c r="AY109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>573769.78865170677</v>
       </c>
       <c r="AZ109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>579507.48653822381</v>
       </c>
       <c r="BA109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>585302.56140360609</v>
       </c>
       <c r="BB109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>591155.5870176421</v>
       </c>
       <c r="BC109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>597067.14288781851</v>
       </c>
       <c r="BD109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>603037.81431669672</v>
       </c>
       <c r="BE109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>609068.19245986373</v>
       </c>
       <c r="BF109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>615158.87438446237</v>
       </c>
       <c r="BG109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>621310.46312830702</v>
       </c>
       <c r="BH109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>627523.56775959011</v>
       </c>
       <c r="BI109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>633798.80343718606</v>
       </c>
       <c r="BJ109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>640136.79147155792</v>
       </c>
       <c r="BK109" s="4">
-        <f t="shared" ref="BK109:CP109" si="58">BJ109*(1+$AG$49)</f>
+        <f t="shared" ref="BK109:CP109" si="59">BJ109*(1+$AG$49)</f>
         <v>646538.15938627347</v>
       </c>
       <c r="BL109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>653003.54098013625</v>
       </c>
       <c r="BM109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>659533.57638993766</v>
       </c>
       <c r="BN109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>666128.91215383704</v>
       </c>
       <c r="BO109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>672790.20127537544</v>
       </c>
       <c r="BP109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>679518.1032881292</v>
       </c>
       <c r="BQ109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>686313.28432101046</v>
       </c>
       <c r="BR109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>693176.41716422059</v>
       </c>
       <c r="BS109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>700108.18133586284</v>
       </c>
       <c r="BT109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>707109.26314922143</v>
       </c>
       <c r="BU109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>714180.35578071361</v>
       </c>
       <c r="BV109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>721322.15933852072</v>
       </c>
       <c r="BW109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>728535.38093190594</v>
       </c>
       <c r="BX109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>735820.73474122502</v>
       </c>
       <c r="BY109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>743178.94208863727</v>
       </c>
       <c r="BZ109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>750610.7315095237</v>
       </c>
       <c r="CA109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>758116.83882461896</v>
       </c>
       <c r="CB109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>765698.00721286517</v>
       </c>
       <c r="CC109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>773354.98728499387</v>
       </c>
       <c r="CD109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>781088.53715784382</v>
       </c>
       <c r="CE109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>788899.42252942221</v>
       </c>
       <c r="CF109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>796788.41675471643</v>
       </c>
       <c r="CG109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>804756.30092226365</v>
       </c>
       <c r="CH109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>812803.86393148627</v>
       </c>
       <c r="CI109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>820931.90257080109</v>
       </c>
       <c r="CJ109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>829141.2215965091</v>
       </c>
       <c r="CK109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>837432.6338124742</v>
       </c>
       <c r="CL109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>845806.9601505989</v>
       </c>
       <c r="CM109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>854265.02975210489</v>
       </c>
       <c r="CN109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>862807.68004962592</v>
       </c>
       <c r="CO109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>871435.75685012224</v>
       </c>
       <c r="CP109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>880150.1144186235</v>
       </c>
       <c r="CQ109" s="4">
-        <f t="shared" ref="CQ109:DV109" si="59">CP109*(1+$AG$49)</f>
+        <f t="shared" ref="CQ109:DV109" si="60">CP109*(1+$AG$49)</f>
         <v>888951.61556280975</v>
       </c>
       <c r="CR109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>897841.13171843789</v>
       </c>
       <c r="CS109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>906819.54303562222</v>
       </c>
       <c r="CT109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>915887.73846597841</v>
       </c>
       <c r="CU109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>925046.61585063825</v>
       </c>
       <c r="CV109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>934297.08200914459</v>
       </c>
       <c r="CW109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>943640.05282923602</v>
       </c>
       <c r="CX109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>953076.45335752843</v>
       </c>
       <c r="CY109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>962607.2178911037</v>
       </c>
       <c r="CZ109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>972233.29007001477</v>
       </c>
       <c r="DA109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>981955.62297071493</v>
       </c>
       <c r="DB109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>991775.17920042214</v>
       </c>
       <c r="DC109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1001692.9309924264</v>
       </c>
       <c r="DD109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1011709.8603023506</v>
       </c>
       <c r="DE109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1021826.9589053742</v>
       </c>
       <c r="DF109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1032045.2284944279</v>
       </c>
       <c r="DG109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1042365.6807793721</v>
       </c>
       <c r="DH109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1052789.3375871659</v>
       </c>
       <c r="DI109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1063317.2309630376</v>
       </c>
       <c r="DJ109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1073950.4032726679</v>
       </c>
       <c r="DK109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1084689.9073053945</v>
       </c>
       <c r="DL109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1095536.8063784484</v>
       </c>
       <c r="DM109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1106492.1744422328</v>
       </c>
       <c r="DN109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1117557.0961866551</v>
       </c>
       <c r="DO109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1128732.6671485216</v>
       </c>
       <c r="DP109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1140019.993820007</v>
       </c>
       <c r="DQ109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1151420.1937582071</v>
       </c>
       <c r="DR109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1162934.3956957893</v>
       </c>
       <c r="DS109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1174563.7396527471</v>
       </c>
       <c r="DT109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1186309.3770492745</v>
       </c>
       <c r="DU109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1198172.4708197673</v>
       </c>
       <c r="DV109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1210154.195527965</v>
       </c>
       <c r="DW109" s="4">
-        <f t="shared" ref="DW109:EC109" si="60">DV109*(1+$AG$49)</f>
+        <f t="shared" ref="DW109:EC109" si="61">DV109*(1+$AG$49)</f>
         <v>1222255.7374832446</v>
       </c>
       <c r="DX109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1234478.2948580771</v>
       </c>
       <c r="DY109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1246823.0778066579</v>
       </c>
       <c r="DZ109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1259291.3085847246</v>
       </c>
       <c r="EA109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1271884.2216705717</v>
       </c>
       <c r="EB109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1284603.0638872774</v>
       </c>
       <c r="EC109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1297449.0945261503</v>
       </c>
     </row>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E74F79-376B-4987-BF69-70F35C4456FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F6E890-BDDE-4539-B913-CBD721CB811C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="195" windowWidth="22200" windowHeight="14805" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="1560" yWindow="1515" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="177">
   <si>
     <t>Price</t>
   </si>
@@ -627,6 +627,27 @@
   </si>
   <si>
     <t>6. lots of electricity and grid infrastructure needed to support growth</t>
+  </si>
+  <si>
+    <t>https://economics.mit.edu/sites/default/files/2024-04/The%20Simple%20Macroeconomics%20of%20AI.pdf</t>
+  </si>
+  <si>
+    <t>Economics of AI</t>
+  </si>
+  <si>
+    <t>7. not enough near term AI productivity use-cases to justify investments</t>
+  </si>
+  <si>
+    <t>Bull Case: AI investing continues and use-cases develop</t>
+  </si>
+  <si>
+    <t>Bear Case: Recession/Macro causes large pullback in investments</t>
+  </si>
+  <si>
+    <t>Base Case: Lack of returns from AI investing causes concerns and pull back</t>
+  </si>
+  <si>
+    <t>8. many tasks currently able to be replaced by AI for productivity gain are not worth automating due to the high GPU pricing which would require margins to come down a lot</t>
   </si>
 </sst>
 </file>
@@ -636,13 +657,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -804,45 +837,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -978,7 +1016,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>580605</xdr:colOff>
+      <xdr:colOff>209130</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>56986</xdr:rowOff>
     </xdr:to>
@@ -1375,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165FA77-31DD-4330-BECC-4D64D4EAFB80}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1682,6 +1720,16 @@
         <v>140</v>
       </c>
     </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1691,11 +1739,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140BE28-398D-4CC8-A7C9-E94B6BC720A8}">
   <dimension ref="A1:EU109"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="X21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF55" sqref="AF55"/>
+      <selection pane="bottomRight" activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2400,19 +2448,19 @@
         <v>80000</v>
       </c>
       <c r="AA13" s="2">
-        <f>Z13*1.2</f>
+        <f t="shared" ref="AA13:AD21" si="3">Z13*1.2</f>
         <v>96000</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" ref="AB13:AD13" si="3">AA13*1.2</f>
+        <f t="shared" ref="AB13" si="4">AA13*1.2</f>
         <v>115200</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AC13" si="5">AB13*1.2</f>
         <v>138240</v>
       </c>
       <c r="AD13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AD13" si="6">AC13*1.2</f>
         <v>165888</v>
       </c>
       <c r="AE13" s="3"/>
@@ -2454,19 +2502,19 @@
         <v>68000</v>
       </c>
       <c r="AA14" s="2">
-        <f t="shared" ref="AA14:AD21" si="4">Z14*1.2</f>
+        <f t="shared" si="3"/>
         <v>81600</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>97920</v>
       </c>
       <c r="AC14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>117504</v>
       </c>
       <c r="AD14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>141004.79999999999</v>
       </c>
       <c r="AE14" s="3"/>
@@ -2508,19 +2556,19 @@
         <v>80000</v>
       </c>
       <c r="AA15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>96000</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>115200</v>
       </c>
       <c r="AC15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>138240</v>
       </c>
       <c r="AD15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>165888</v>
       </c>
       <c r="AE15" s="3"/>
@@ -2554,27 +2602,27 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="Y16" s="2">
-        <f t="shared" ref="Y16:Z21" si="5">Y6*0.9</f>
+        <f t="shared" ref="Y16:Z21" si="7">Y6*0.9</f>
         <v>35280</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>63000</v>
       </c>
       <c r="AA16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>75600</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90720</v>
       </c>
       <c r="AC16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108864</v>
       </c>
       <c r="AD16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>130636.79999999999</v>
       </c>
       <c r="AE16" s="3"/>
@@ -2608,27 +2656,27 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="Y17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6183</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22500</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27000</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32400</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38880</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>46656</v>
       </c>
       <c r="AE17" s="3"/>
@@ -2662,27 +2710,27 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="Y18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10800</v>
       </c>
       <c r="AA18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12960</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15552</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18662.399999999998</v>
       </c>
       <c r="AD18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22394.879999999997</v>
       </c>
       <c r="AE18" s="3"/>
@@ -2716,27 +2764,27 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="Y19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8505</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11160</v>
       </c>
       <c r="AA19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13392</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16070.4</v>
       </c>
       <c r="AC19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19284.48</v>
       </c>
       <c r="AD19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23141.376</v>
       </c>
       <c r="AE19" s="3"/>
@@ -2770,27 +2818,27 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="Y20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21546</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16200</v>
       </c>
       <c r="AA20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19440</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23328</v>
       </c>
       <c r="AC20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27993.599999999999</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33592.32</v>
       </c>
       <c r="AE20" s="3"/>
@@ -2824,27 +2872,27 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="Y21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10206</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8100</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9720</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11664</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13996.8</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16796.16</v>
       </c>
       <c r="AE21" s="3"/>
@@ -2921,11 +2969,11 @@
         <v>665500</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" ref="AB23:AC23" si="6">AA23*1.21</f>
+        <f t="shared" ref="AB23:AC23" si="8">AA23*1.21</f>
         <v>805255</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>974358.54999999993</v>
       </c>
       <c r="AD23" s="27">
@@ -2971,19 +3019,19 @@
         <v>140800</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" ref="AA24:AD24" si="7">Z24*1.28</f>
+        <f t="shared" ref="AA24:AD24" si="9">Z24*1.28</f>
         <v>180224</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>230686.72</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>295279.00160000002</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>377957.12204800005</v>
       </c>
       <c r="AE24" s="3"/>
@@ -3278,19 +3326,19 @@
         <v>2635</v>
       </c>
       <c r="AA31" s="2">
-        <f t="shared" ref="AA31:AD31" si="8">Z31*1.55</f>
+        <f t="shared" ref="AA31:AD31" si="10">Z31*1.55</f>
         <v>4084.25</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6330.5875000000005</v>
       </c>
       <c r="AC31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9812.4106250000004</v>
       </c>
       <c r="AD31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>15209.236468750001</v>
       </c>
     </row>
@@ -3344,19 +3392,19 @@
         <v>2318</v>
       </c>
       <c r="AA32" s="2">
-        <f t="shared" ref="AA32:AD32" si="9">Z32*1.22</f>
+        <f t="shared" ref="AA32:AD32" si="11">Z32*1.22</f>
         <v>2827.96</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3450.1111999999998</v>
       </c>
       <c r="AC32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4209.1356639999995</v>
       </c>
       <c r="AD32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5135.1455100799994</v>
       </c>
     </row>
@@ -3410,19 +3458,19 @@
         <v>13223.999999999998</v>
       </c>
       <c r="AA33" s="2">
-        <f t="shared" ref="AA33:AD33" si="10">Z33*1.16</f>
+        <f t="shared" ref="AA33:AD33" si="12">Z33*1.16</f>
         <v>15339.839999999997</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17794.214399999993</v>
       </c>
       <c r="AC33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20641.288703999991</v>
       </c>
       <c r="AD33" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>23943.894896639988</v>
       </c>
     </row>
@@ -3487,53 +3535,54 @@
         <v>245514.23999999999</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" ref="AB34:AD34" si="11">AA34*1.44</f>
+        <f t="shared" ref="AB34:AD34" si="13">AA34*1.44</f>
         <v>353540.50559999997</v>
       </c>
       <c r="AC34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>509098.32806399994</v>
       </c>
       <c r="AD34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>733101.59241215989</v>
       </c>
       <c r="AE34" s="25"/>
+      <c r="AF34" s="5"/>
     </row>
     <row r="35" spans="1:151" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ref="D35:K35" si="12">SUM(D30:D34)</f>
+        <f t="shared" ref="D35:K35" si="14">SUM(D30:D34)</f>
         <v>13507</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18120</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22103</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>26044</v>
       </c>
       <c r="H35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>30040</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>35082</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>39331</v>
       </c>
       <c r="K35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>44062</v>
       </c>
       <c r="L35" s="4">
@@ -3552,15 +3601,15 @@
         <v>64251.000000000015</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" ref="P35:R35" si="13">O35*1.1</f>
+        <f t="shared" ref="P35:R35" si="15">O35*1.1</f>
         <v>70676.10000000002</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>77743.710000000036</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>85518.081000000049</v>
       </c>
       <c r="T35" s="4">
@@ -3590,15 +3639,15 @@
         <v>280800.8</v>
       </c>
       <c r="AB35" s="4">
-        <f t="shared" ref="AB35:AD35" si="14">AA35*1.4</f>
+        <f t="shared" ref="AB35:AD35" si="16">AA35*1.4</f>
         <v>393121.11999999994</v>
       </c>
       <c r="AC35" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>550369.56799999985</v>
       </c>
       <c r="AD35" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>770517.3951999998</v>
       </c>
       <c r="AE35" s="24"/>
@@ -3665,75 +3714,75 @@
         <v>20406</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" ref="H37:N37" si="15">H35-H36</f>
+        <f t="shared" ref="H37:N37" si="17">H35-H36</f>
         <v>30040</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>35082</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>39331</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>26668</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32400</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38763</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>43807.500000000007</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" ref="T37:AD37" si="16">T35-T36</f>
+        <f t="shared" ref="T37:AD37" si="18">T35-T36</f>
         <v>11720</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10920</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>16680</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>15356</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>44301</v>
       </c>
       <c r="Y37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>97858</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>141638.5</v>
       </c>
       <c r="AA37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>210600.59999999998</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>294840.83999999997</v>
       </c>
       <c r="AC37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>412777.17599999986</v>
       </c>
       <c r="AD37" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>577888.04639999988</v>
       </c>
     </row>
@@ -3752,11 +3801,11 @@
         <v>4547.46</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" ref="M38:N38" si="17">L38*1.02</f>
+        <f t="shared" ref="M38:N38" si="19">L38*1.02</f>
         <v>4638.4092000000001</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4731.1773840000005</v>
       </c>
       <c r="V38" s="6"/>
@@ -3778,15 +3827,15 @@
         <v>22024.437298320001</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" ref="AB38:AD38" si="18">AA38*1.23</f>
+        <f t="shared" ref="AB38:AD38" si="20">AA38*1.23</f>
         <v>27090.057876933603</v>
       </c>
       <c r="AC38" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>33320.771188628329</v>
       </c>
       <c r="AD38" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>40984.548562012846</v>
       </c>
     </row>
@@ -3805,11 +3854,11 @@
         <v>1145.1000000000001</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" ref="M39:N39" si="19">L39*1.02</f>
+        <f t="shared" ref="M39:N39" si="21">L39*1.02</f>
         <v>1168.0020000000002</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1191.3620400000002</v>
       </c>
       <c r="W39" s="2">
@@ -3830,15 +3879,15 @@
         <v>5454.5568480000011</v>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" ref="AB39:AD39" si="20">AA39*1.2</f>
+        <f t="shared" ref="AB39:AD39" si="22">AA39*1.2</f>
         <v>6545.4682176000015</v>
       </c>
       <c r="AC39" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7854.5618611200016</v>
       </c>
       <c r="AD39" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9425.4742333440008</v>
       </c>
     </row>
@@ -3851,79 +3900,79 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="2">
-        <f t="shared" ref="G40:N40" si="21">SUM(G38:G39)</f>
+        <f t="shared" ref="G40:N40" si="23">SUM(G38:G39)</f>
         <v>3497</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5030</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5692.56</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5806.4112000000005</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5922.5394240000005</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" ref="T40:AD40" si="22">SUM(T38:T39)</f>
+        <f t="shared" ref="T40:AD40" si="24">SUM(T38:T39)</f>
         <v>0</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9779</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>11329</v>
       </c>
       <c r="Y40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>16405</v>
       </c>
       <c r="Z40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>22451.510624000002</v>
       </c>
       <c r="AA40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>27478.994146320001</v>
       </c>
       <c r="AB40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>33635.526094533605</v>
       </c>
       <c r="AC40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>41175.333049748333</v>
       </c>
       <c r="AD40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>50410.022795356846</v>
       </c>
     </row>
@@ -3932,79 +3981,79 @@
         <v>11</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" ref="G41:N41" si="23">G37-G40</f>
+        <f t="shared" ref="G41:N41" si="25">G37-G40</f>
         <v>16909</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>30040</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>35082</v>
       </c>
       <c r="J41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>39331</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>21638</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>26707.439999999999</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>32956.588799999998</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>37884.960576000005</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" ref="T41:AD41" si="24">T37-T40</f>
+        <f t="shared" ref="T41:AD41" si="26">T37-T40</f>
         <v>11720</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10920</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>16680</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5577</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>32972</v>
       </c>
       <c r="Y41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>81453</v>
       </c>
       <c r="Z41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>119186.989376</v>
       </c>
       <c r="AA41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>183121.60585367997</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>261205.31390546635</v>
       </c>
       <c r="AC41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>371601.84295025154</v>
       </c>
       <c r="AD41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>527478.02360464307</v>
       </c>
     </row>
@@ -4112,15 +4161,15 @@
         <v>0</v>
       </c>
       <c r="AB43" s="2">
-        <f t="shared" ref="AB43:AD43" si="25">AA43*1.02</f>
+        <f t="shared" ref="AB43:AD43" si="27">AA43*1.02</f>
         <v>0</v>
       </c>
       <c r="AC43" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AD43" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -4133,31 +4182,31 @@
         <v>17279</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" ref="H44:N44" si="26">H41+SUM(H42:H43)</f>
+        <f t="shared" ref="H44:N44" si="28">H41+SUM(H42:H43)</f>
         <v>30040</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>35082</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>39331</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>21910</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>26933.574999999997</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>33295.171475625</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>38358.388696101283</v>
       </c>
       <c r="T44" s="2">
@@ -4169,19 +4218,19 @@
         <v>10920</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" ref="V44:Y44" si="27">V41+SUM(V42:V43)</f>
+        <f t="shared" ref="V44:Y44" si="29">V41+SUM(V42:V43)</f>
         <v>16680</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5534</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>33818</v>
       </c>
       <c r="Y44" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>84026</v>
       </c>
       <c r="Z44" s="2">
@@ -4189,19 +4238,19 @@
         <v>120497.13517172627</v>
       </c>
       <c r="AA44" s="2">
-        <f t="shared" ref="AA44:AD44" si="28">AA41+SUM(AA42:AA43)</f>
+        <f t="shared" ref="AA44:AD44" si="30">AA41+SUM(AA42:AA43)</f>
         <v>185636.72423096193</v>
       </c>
       <c r="AB44" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>263770.73465029395</v>
       </c>
       <c r="AC44" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>374218.57210997568</v>
       </c>
       <c r="AD44" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>530147.08734756173</v>
       </c>
     </row>
@@ -4245,15 +4294,15 @@
         <v>35270.977603882769</v>
       </c>
       <c r="AB45" s="2">
-        <f t="shared" ref="AB45:AD45" si="29">AB44*0.19</f>
+        <f t="shared" ref="AB45:AD45" si="31">AB44*0.19</f>
         <v>50116.439583555853</v>
       </c>
       <c r="AC45" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>71101.528700895375</v>
       </c>
       <c r="AD45" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>100727.94659603672</v>
       </c>
     </row>
@@ -4266,31 +4315,31 @@
         <v>14881</v>
       </c>
       <c r="H46" s="4">
-        <f t="shared" ref="H46:N46" si="30">H44-H45</f>
+        <f t="shared" ref="H46:N46" si="32">H44-H45</f>
         <v>30040</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>35082</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>39331</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>18775</v>
       </c>
       <c r="L46" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>22489.535124999999</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>26969.088895256249</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>31070.294843842039</v>
       </c>
       <c r="T46" s="4">
@@ -4302,19 +4351,19 @@
         <v>10920</v>
       </c>
       <c r="V46" s="4">
-        <f t="shared" ref="V46:Y46" si="31">V44-V45</f>
+        <f t="shared" ref="V46:Y46" si="33">V44-V45</f>
         <v>16680</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5721</v>
       </c>
       <c r="X46" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>29760</v>
       </c>
       <c r="Y46" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>72880</v>
       </c>
       <c r="Z46" s="4">
@@ -4322,503 +4371,503 @@
         <v>99303.918864098276</v>
       </c>
       <c r="AA46" s="4">
-        <f t="shared" ref="AA46:AD46" si="32">AA44-AA45</f>
+        <f t="shared" ref="AA46:AD46" si="34">AA44-AA45</f>
         <v>150365.74662707915</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>213654.29506673809</v>
       </c>
       <c r="AC46" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>303117.0434090803</v>
       </c>
       <c r="AD46" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>429419.140751525</v>
       </c>
       <c r="AE46" s="4">
-        <f t="shared" ref="AE46:BJ46" si="33">AD46*(1+$AG$49)</f>
+        <f t="shared" ref="AE46:BJ46" si="35">AD46*(1+$AG$49)</f>
         <v>433713.33215904026</v>
       </c>
       <c r="AF46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>438050.46548063069</v>
       </c>
       <c r="AG46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>442430.97013543698</v>
       </c>
       <c r="AH46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>446855.27983679133</v>
       </c>
       <c r="AI46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>451323.83263515926</v>
       </c>
       <c r="AJ46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>455837.07096151088</v>
       </c>
       <c r="AK46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>460395.441671126</v>
       </c>
       <c r="AL46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>464999.39608783729</v>
       </c>
       <c r="AM46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>469649.39004871569</v>
       </c>
       <c r="AN46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>474345.88394920283</v>
       </c>
       <c r="AO46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>479089.34278869489</v>
       </c>
       <c r="AP46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>483880.23621658183</v>
       </c>
       <c r="AQ46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>488719.03857874766</v>
       </c>
       <c r="AR46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>493606.22896453511</v>
       </c>
       <c r="AS46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>498542.29125418048</v>
       </c>
       <c r="AT46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>503527.71416672232</v>
       </c>
       <c r="AU46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>508562.99130838952</v>
       </c>
       <c r="AV46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>513648.62122147344</v>
       </c>
       <c r="AW46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>518785.10743368819</v>
       </c>
       <c r="AX46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>523972.9585080251</v>
       </c>
       <c r="AY46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>529212.68809310533</v>
       </c>
       <c r="AZ46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>534504.81497403642</v>
       </c>
       <c r="BA46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>539849.86312377674</v>
       </c>
       <c r="BB46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>545248.36175501451</v>
       </c>
       <c r="BC46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>550700.84537256462</v>
       </c>
       <c r="BD46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>556207.85382629023</v>
       </c>
       <c r="BE46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>561769.9323645531</v>
       </c>
       <c r="BF46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>567387.63168819866</v>
       </c>
       <c r="BG46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>573061.50800508063</v>
       </c>
       <c r="BH46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>578792.1230851314</v>
       </c>
       <c r="BI46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>584580.04431598273</v>
       </c>
       <c r="BJ46" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>590425.84475914261</v>
       </c>
       <c r="BK46" s="4">
-        <f t="shared" ref="BK46:CP46" si="34">BJ46*(1+$AG$49)</f>
+        <f t="shared" ref="BK46:CP46" si="36">BJ46*(1+$AG$49)</f>
         <v>596330.10320673406</v>
       </c>
       <c r="BL46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>602293.40423880145</v>
       </c>
       <c r="BM46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>608316.33828118944</v>
       </c>
       <c r="BN46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>614399.50166400138</v>
       </c>
       <c r="BO46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>620543.49668064143</v>
       </c>
       <c r="BP46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>626748.93164744787</v>
       </c>
       <c r="BQ46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>633016.4209639224</v>
       </c>
       <c r="BR46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>639346.58517356159</v>
       </c>
       <c r="BS46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>645740.05102529726</v>
       </c>
       <c r="BT46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>652197.4515355503</v>
       </c>
       <c r="BU46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>658719.42605090584</v>
       </c>
       <c r="BV46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>665306.62031141494</v>
       </c>
       <c r="BW46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>671959.68651452905</v>
       </c>
       <c r="BX46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>678679.28337967431</v>
       </c>
       <c r="BY46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>685466.07621347101</v>
       </c>
       <c r="BZ46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>692320.73697560572</v>
       </c>
       <c r="CA46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>699243.94434536179</v>
       </c>
       <c r="CB46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>706236.38378881547</v>
       </c>
       <c r="CC46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>713298.74762670358</v>
       </c>
       <c r="CD46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>720431.73510297062</v>
       </c>
       <c r="CE46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>727636.05245400034</v>
       </c>
       <c r="CF46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>734912.41297854029</v>
       </c>
       <c r="CG46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>742261.53710832575</v>
       </c>
       <c r="CH46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>749684.15247940901</v>
       </c>
       <c r="CI46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>757180.99400420312</v>
       </c>
       <c r="CJ46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>764752.80394424521</v>
       </c>
       <c r="CK46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>772400.33198368771</v>
       </c>
       <c r="CL46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>780124.33530352463</v>
       </c>
       <c r="CM46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>787925.57865655993</v>
       </c>
       <c r="CN46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>795804.83444312552</v>
       </c>
       <c r="CO46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>803762.88278755674</v>
       </c>
       <c r="CP46" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>811800.51161543233</v>
       </c>
       <c r="CQ46" s="4">
-        <f t="shared" ref="CQ46:DV46" si="35">CP46*(1+$AG$49)</f>
+        <f t="shared" ref="CQ46:DV46" si="37">CP46*(1+$AG$49)</f>
         <v>819918.51673158666</v>
       </c>
       <c r="CR46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>828117.70189890254</v>
       </c>
       <c r="CS46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>836398.87891789153</v>
       </c>
       <c r="CT46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>844762.86770707043</v>
       </c>
       <c r="CU46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>853210.49638414115</v>
       </c>
       <c r="CV46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>861742.60134798253</v>
       </c>
       <c r="CW46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>870360.02736146236</v>
       </c>
       <c r="CX46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>879063.62763507699</v>
       </c>
       <c r="CY46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>887854.26391142781</v>
       </c>
       <c r="CZ46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>896732.80655054213</v>
       </c>
       <c r="DA46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>905700.13461604761</v>
       </c>
       <c r="DB46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>914757.13596220815</v>
       </c>
       <c r="DC46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>923904.70732183021</v>
       </c>
       <c r="DD46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>933143.75439504848</v>
       </c>
       <c r="DE46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>942475.19193899899</v>
       </c>
       <c r="DF46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>951899.94385838904</v>
       </c>
       <c r="DG46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>961418.9432969729</v>
       </c>
       <c r="DH46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>971033.13272994268</v>
       </c>
       <c r="DI46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>980743.46405724215</v>
       </c>
       <c r="DJ46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>990550.89869781455</v>
       </c>
       <c r="DK46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1000456.4076847928</v>
       </c>
       <c r="DL46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1010460.9717616407</v>
       </c>
       <c r="DM46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1020565.5814792572</v>
       </c>
       <c r="DN46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1030771.2372940498</v>
       </c>
       <c r="DO46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1041078.9496669903</v>
       </c>
       <c r="DP46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1051489.7391636602</v>
       </c>
       <c r="DQ46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1062004.6365552968</v>
       </c>
       <c r="DR46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1072624.6829208499</v>
       </c>
       <c r="DS46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1083350.9297500583</v>
       </c>
       <c r="DT46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1094184.4390475589</v>
       </c>
       <c r="DU46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1105126.2834380346</v>
       </c>
       <c r="DV46" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1116177.546272415</v>
       </c>
       <c r="DW46" s="4">
-        <f t="shared" ref="DW46:EU46" si="36">DV46*(1+$AG$49)</f>
+        <f t="shared" ref="DW46:EU46" si="38">DV46*(1+$AG$49)</f>
         <v>1127339.3217351392</v>
       </c>
       <c r="DX46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1138612.7149524905</v>
       </c>
       <c r="DY46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1149998.8421020154</v>
       </c>
       <c r="DZ46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1161498.8305230355</v>
       </c>
       <c r="EA46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1173113.8188282659</v>
       </c>
       <c r="EB46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1184844.9570165486</v>
       </c>
       <c r="EC46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1196693.4065867141</v>
       </c>
       <c r="ED46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1208660.3406525813</v>
       </c>
       <c r="EE46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1220746.9440591072</v>
       </c>
       <c r="EF46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1232954.4134996983</v>
       </c>
       <c r="EG46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1245283.9576346953</v>
       </c>
       <c r="EH46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1257736.7972110424</v>
       </c>
       <c r="EI46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1270314.1651831528</v>
       </c>
       <c r="EJ46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1283017.3068349843</v>
       </c>
       <c r="EK46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1295847.4799033343</v>
       </c>
       <c r="EL46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1308805.9547023675</v>
       </c>
       <c r="EM46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1321894.0142493912</v>
       </c>
       <c r="EN46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1335112.9543918851</v>
       </c>
       <c r="EO46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1348464.083935804</v>
       </c>
       <c r="EP46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1361948.7247751621</v>
       </c>
       <c r="EQ46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1375568.2120229136</v>
       </c>
       <c r="ER46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1389323.8941431427</v>
       </c>
       <c r="ES46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1403217.1330845742</v>
       </c>
       <c r="ET46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1417249.3044154199</v>
       </c>
       <c r="EU46" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1431421.7974595742</v>
       </c>
     </row>
@@ -4837,11 +4886,11 @@
         <v>24487.945</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" ref="M47:N47" si="37">L47*0.995</f>
+        <f t="shared" ref="M47:N47" si="39">L47*0.995</f>
         <v>24365.505275</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>24243.677748624999</v>
       </c>
       <c r="W47" s="2">
@@ -4858,19 +4907,19 @@
         <v>24243.677748624999</v>
       </c>
       <c r="AA47" s="2">
-        <f t="shared" ref="AA47:AD47" si="38">Z47*0.99</f>
+        <f t="shared" ref="AA47:AD47" si="40">Z47*0.99</f>
         <v>24001.240971138748</v>
       </c>
       <c r="AB47" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>23761.228561427361</v>
       </c>
       <c r="AC47" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>23523.616275813085</v>
       </c>
       <c r="AD47" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>23288.380113054955</v>
       </c>
     </row>
@@ -4883,31 +4932,31 @@
         <v>0.5978706307754118</v>
       </c>
       <c r="H48" s="5" t="e">
-        <f t="shared" ref="H48:N48" si="39">H46/H47</f>
+        <f t="shared" ref="H48:N48" si="41">H46/H47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I48" s="5" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J48" s="5" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.7628702612652879</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.9183920955800905</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.1068553100324019</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.2815833953082558</v>
       </c>
       <c r="O48" s="5"/>
@@ -4924,23 +4973,23 @@
         <v>2.9868852459016395</v>
       </c>
       <c r="Z48" s="5">
-        <f t="shared" ref="Z48:AD48" si="40">Z46/Z47</f>
+        <f t="shared" ref="Z48:AD48" si="42">Z46/Z47</f>
         <v>4.0960748568657399</v>
       </c>
       <c r="AA48" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>6.26491550198977</v>
       </c>
       <c r="AB48" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>8.991719199804864</v>
       </c>
       <c r="AC48" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>12.885648186700969</v>
       </c>
       <c r="AD48" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>18.439201810812168</v>
       </c>
       <c r="AE48" s="5"/>
@@ -4953,7 +5002,7 @@
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
@@ -4976,77 +5025,77 @@
       <c r="AH49" s="6"/>
       <c r="AI49" s="6"/>
     </row>
-    <row r="50" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H50" s="7">
-        <f t="shared" ref="H50:N50" si="41">H35/D35-1</f>
+        <f t="shared" ref="H50:N50" si="43">H35/D35-1</f>
         <v>1.2240319834160065</v>
       </c>
       <c r="I50" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.93609271523178816</v>
       </c>
       <c r="J50" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.77944170474596208</v>
       </c>
       <c r="K50" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.69182921210259551</v>
       </c>
       <c r="L50" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.49800266311584562</v>
       </c>
       <c r="M50" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.51359671626475123</v>
       </c>
       <c r="N50" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.48508809844651823</v>
       </c>
       <c r="O50" s="7"/>
       <c r="U50" s="7">
-        <f t="shared" ref="U50:AD50" si="42">U35/T35-1</f>
+        <f t="shared" ref="U50:AD50" si="44">U35/T35-1</f>
         <v>-6.8259385665529027E-2</v>
       </c>
       <c r="V50" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.52747252747252737</v>
       </c>
       <c r="W50" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.61714628297362117</v>
       </c>
       <c r="X50" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.2585452658115224</v>
       </c>
       <c r="Y50" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>1.1420340763599355</v>
       </c>
       <c r="Z50" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.5369855245714461</v>
       </c>
       <c r="AA50" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AB50" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AC50" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AD50" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AE50" s="7"/>
@@ -5059,49 +5108,49 @@
       <c r="AH50" s="7"/>
       <c r="AI50" s="7"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6">
-        <f t="shared" ref="E51:N51" si="43">E35/D35-1</f>
+        <f t="shared" ref="E51:N51" si="45">E35/D35-1</f>
         <v>0.34152661582882948</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.21981236203090515</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.17830158801972584</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.1534326524343419</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.16784287616511318</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.12111624194743742</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.12028679667437903</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>2.1288184830466239E-2</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O51" s="6"/>
@@ -5112,8 +5161,9 @@
         <f>NPV(AG50,Z109:EC109)+Main!K5-Main!K6</f>
         <v>4502825.178628806</v>
       </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI51" s="39"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B52" s="17" t="s">
         <v>81</v>
       </c>
@@ -5122,48 +5172,48 @@
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="K52" s="6">
-        <f t="shared" ref="K52:N53" si="44">K38/G38-1</f>
+        <f t="shared" ref="K52:N53" si="46">K38/G38-1</f>
         <v>0.46654411764705883</v>
       </c>
       <c r="L52" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M52" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N52" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="6"/>
       <c r="X52" s="6">
-        <f t="shared" ref="X52:AD53" si="45">X38/W38-1</f>
+        <f t="shared" ref="X52:AD53" si="47">X38/W38-1</f>
         <v>0.18204115002043886</v>
       </c>
       <c r="Y52" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.48864553314121029</v>
       </c>
       <c r="Z52" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.38656083196530888</v>
       </c>
       <c r="AA52" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AB52" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AC52" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AD52" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="AF52" s="28" t="s">
@@ -5173,8 +5223,14 @@
         <f>AG51/Main!K3</f>
         <v>184.54201551757401</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI52" s="5">
+        <v>185</v>
+      </c>
+      <c r="AJ52" s="39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
         <v>82</v>
       </c>
@@ -5183,93 +5239,107 @@
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="K53" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.33976833976833976</v>
       </c>
       <c r="L53" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M53" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N53" s="6" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="6"/>
       <c r="X53" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>8.7704918032786905E-2</v>
       </c>
       <c r="Y53" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.31537302185380556</v>
       </c>
       <c r="Z53" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.30205214551704396</v>
       </c>
       <c r="AA53" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AB53" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AC53" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AD53" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AG53" s="6">
         <f>AG52/Main!K2-1</f>
         <v>8.4263143036831245E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AI53" s="40">
+        <v>100</v>
+      </c>
+      <c r="AJ53" s="39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AI54" s="5">
+        <v>70</v>
+      </c>
+      <c r="AJ54" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="7" t="e">
-        <f t="shared" ref="C55:K55" si="46">C37/C35</f>
+        <f t="shared" ref="C55:K55" si="48">C37/C35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D55" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.78352019659038552</v>
       </c>
       <c r="H55" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="J55" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="K55" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.60523807362353044</v>
       </c>
       <c r="L55" s="7">
@@ -5283,27 +5353,27 @@
       </c>
       <c r="O55" s="7"/>
       <c r="U55" s="7">
-        <f t="shared" ref="U55:Z55" si="47">U37/U35</f>
+        <f t="shared" ref="U55:Z55" si="49">U37/U35</f>
         <v>1</v>
       </c>
       <c r="V55" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="W55" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.56928894490991322</v>
       </c>
       <c r="X55" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.72717573290436954</v>
       </c>
       <c r="Y55" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.74988697058169917</v>
       </c>
       <c r="Z55" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.70617284566140837</v>
       </c>
       <c r="AA55" s="7">
@@ -5324,92 +5394,92 @@
       <c r="AH55" s="7"/>
       <c r="AI55" s="7"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="6" t="e">
-        <f t="shared" ref="C56:N56" si="48">C41/C35</f>
+        <f t="shared" ref="C56:N56" si="50">C41/C35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.64924742743050223</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="I56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="K56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.49108074985248057</v>
       </c>
       <c r="L56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.59349866666666662</v>
       </c>
       <c r="M56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.62065138983050838</v>
       </c>
       <c r="N56" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.64860401602465334</v>
       </c>
       <c r="O56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6">
-        <f t="shared" ref="W56:AD56" si="49">W41/W35</f>
+        <f t="shared" ref="W56:AD56" si="51">W41/W35</f>
         <v>0.20675465262845702</v>
       </c>
       <c r="X56" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.54121663766783756</v>
       </c>
       <c r="Y56" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.62417526839697468</v>
       </c>
       <c r="Z56" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.59423543354007535</v>
       </c>
       <c r="AA56" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.6521406130384243</v>
       </c>
       <c r="AB56" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.6644397886978608</v>
       </c>
       <c r="AC56" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.67518602872724898</v>
       </c>
       <c r="AD56" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.68457639878166276</v>
       </c>
       <c r="AE56" s="6"/>
@@ -5418,44 +5488,44 @@
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" ref="C58:K58" si="50">C59-C73</f>
+        <f t="shared" ref="C58:K58" si="52">C59-C73</f>
         <v>0</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>44747</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>45227</v>
       </c>
       <c r="L58" s="2">
@@ -5495,7 +5565,7 @@
         <v>136122.25088885066</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
@@ -5510,7 +5580,7 @@
         <v>43210</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B60" s="28" t="s">
         <v>130</v>
       </c>
@@ -5521,7 +5591,7 @@
         <v>22132</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
@@ -5532,7 +5602,7 @@
         <v>11333</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B62" s="23" t="s">
         <v>69</v>
       </c>
@@ -5547,7 +5617,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B63" s="23" t="s">
         <v>71</v>
       </c>
@@ -5562,7 +5632,7 @@
         <v>7136</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B64" s="23" t="s">
         <v>93</v>
       </c>
@@ -5765,51 +5835,51 @@
         <v>28</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" ref="G80" si="51">G46</f>
+        <f t="shared" ref="G80" si="53">G46</f>
         <v>14881</v>
       </c>
       <c r="K80" s="2">
-        <f t="shared" ref="K80" si="52">K46</f>
+        <f t="shared" ref="K80" si="54">K46</f>
         <v>18775</v>
       </c>
       <c r="U80" s="2">
-        <f t="shared" ref="U80:AD80" si="53">U46</f>
+        <f t="shared" ref="U80:AD80" si="55">U46</f>
         <v>10920</v>
       </c>
       <c r="V80" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>16680</v>
       </c>
       <c r="W80" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>5721</v>
       </c>
       <c r="X80" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>29760</v>
       </c>
       <c r="Y80" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>72880</v>
       </c>
       <c r="Z80" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>99303.918864098276</v>
       </c>
       <c r="AA80" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>150365.74662707915</v>
       </c>
       <c r="AB80" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>213654.29506673809</v>
       </c>
       <c r="AC80" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>303117.0434090803</v>
       </c>
       <c r="AD80" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>429419.140751525</v>
       </c>
     </row>
@@ -5851,19 +5921,19 @@
         <v>5684.4</v>
       </c>
       <c r="AA82" s="2">
-        <f t="shared" ref="AA82:AD82" si="54">Z82*1.2</f>
+        <f t="shared" ref="AA82:AD82" si="56">Z82*1.2</f>
         <v>6821.28</v>
       </c>
       <c r="AB82" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>8185.5359999999991</v>
       </c>
       <c r="AC82" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>9822.6431999999986</v>
       </c>
       <c r="AD82" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>11787.171839999997</v>
       </c>
     </row>
@@ -6199,27 +6269,27 @@
         <v>0</v>
       </c>
       <c r="Y93" s="2">
-        <f t="shared" ref="Y93:AD93" si="55">SUM(Y59:Y62)-SUM(Y71:Y72)</f>
+        <f t="shared" ref="Y93:AD93" si="57">SUM(Y59:Y62)-SUM(Y71:Y72)</f>
         <v>43210</v>
       </c>
       <c r="Z93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AA93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AB93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AC93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AD93" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -6257,19 +6327,19 @@
         <v>116485.14328151783</v>
       </c>
       <c r="AA94" s="2">
-        <f t="shared" ref="AA94:AD94" si="56">SUM(AA82:AA92,AA80)</f>
+        <f t="shared" ref="AA94:AD94" si="58">SUM(AA82:AA92,AA80)</f>
         <v>173030.58081146653</v>
       </c>
       <c r="AB94" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>244020.80692488042</v>
       </c>
       <c r="AC94" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>343993.05281047954</v>
       </c>
       <c r="AD94" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>484681.02527348395</v>
       </c>
     </row>
@@ -6478,443 +6548,443 @@
         <v>3750</v>
       </c>
       <c r="X109" s="4">
-        <f t="shared" ref="X109:AD109" si="57">X94+X96</f>
+        <f t="shared" ref="X109:AD109" si="59">X94+X96</f>
         <v>27021</v>
       </c>
       <c r="Y109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>60853</v>
       </c>
       <c r="Z109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>111511.45812400462</v>
       </c>
       <c r="AA109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>166067.42159094804</v>
       </c>
       <c r="AB109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>234272.38401615457</v>
       </c>
       <c r="AC109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>330345.26073826331</v>
       </c>
       <c r="AD109" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>465574.11637238122</v>
       </c>
       <c r="AE109" s="4">
-        <f t="shared" ref="AE109:BJ109" si="58">AD109*(1+$AG$49)</f>
+        <f t="shared" ref="AE109:BJ109" si="60">AD109*(1+$AG$49)</f>
         <v>470229.85753610503</v>
       </c>
       <c r="AF109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>474932.15611146606</v>
       </c>
       <c r="AG109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>479681.47767258075</v>
       </c>
       <c r="AH109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>484478.29244930658</v>
       </c>
       <c r="AI109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>489323.07537379966</v>
       </c>
       <c r="AJ109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>494216.30612753768</v>
       </c>
       <c r="AK109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>499158.46918881306</v>
       </c>
       <c r="AL109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>504150.05388070119</v>
       </c>
       <c r="AM109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>509191.5544195082</v>
       </c>
       <c r="AN109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>514283.4699637033</v>
       </c>
       <c r="AO109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>519426.30466334033</v>
       </c>
       <c r="AP109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>524620.56770997378</v>
       </c>
       <c r="AQ109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>529866.77338707354</v>
       </c>
       <c r="AR109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>535165.44112094434</v>
       </c>
       <c r="AS109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>540517.09553215373</v>
       </c>
       <c r="AT109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>545922.26648747525</v>
       </c>
       <c r="AU109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>551381.48915235</v>
       </c>
       <c r="AV109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>556895.30404387345</v>
       </c>
       <c r="AW109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>562464.25708431215</v>
       </c>
       <c r="AX109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>568088.89965515526</v>
       </c>
       <c r="AY109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>573769.78865170677</v>
       </c>
       <c r="AZ109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>579507.48653822381</v>
       </c>
       <c r="BA109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>585302.56140360609</v>
       </c>
       <c r="BB109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>591155.5870176421</v>
       </c>
       <c r="BC109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>597067.14288781851</v>
       </c>
       <c r="BD109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>603037.81431669672</v>
       </c>
       <c r="BE109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>609068.19245986373</v>
       </c>
       <c r="BF109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>615158.87438446237</v>
       </c>
       <c r="BG109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>621310.46312830702</v>
       </c>
       <c r="BH109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>627523.56775959011</v>
       </c>
       <c r="BI109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>633798.80343718606</v>
       </c>
       <c r="BJ109" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>640136.79147155792</v>
       </c>
       <c r="BK109" s="4">
-        <f t="shared" ref="BK109:CP109" si="59">BJ109*(1+$AG$49)</f>
+        <f t="shared" ref="BK109:CP109" si="61">BJ109*(1+$AG$49)</f>
         <v>646538.15938627347</v>
       </c>
       <c r="BL109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>653003.54098013625</v>
       </c>
       <c r="BM109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>659533.57638993766</v>
       </c>
       <c r="BN109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>666128.91215383704</v>
       </c>
       <c r="BO109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>672790.20127537544</v>
       </c>
       <c r="BP109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>679518.1032881292</v>
       </c>
       <c r="BQ109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>686313.28432101046</v>
       </c>
       <c r="BR109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>693176.41716422059</v>
       </c>
       <c r="BS109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>700108.18133586284</v>
       </c>
       <c r="BT109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>707109.26314922143</v>
       </c>
       <c r="BU109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>714180.35578071361</v>
       </c>
       <c r="BV109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>721322.15933852072</v>
       </c>
       <c r="BW109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>728535.38093190594</v>
       </c>
       <c r="BX109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>735820.73474122502</v>
       </c>
       <c r="BY109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>743178.94208863727</v>
       </c>
       <c r="BZ109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>750610.7315095237</v>
       </c>
       <c r="CA109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>758116.83882461896</v>
       </c>
       <c r="CB109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>765698.00721286517</v>
       </c>
       <c r="CC109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>773354.98728499387</v>
       </c>
       <c r="CD109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>781088.53715784382</v>
       </c>
       <c r="CE109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>788899.42252942221</v>
       </c>
       <c r="CF109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>796788.41675471643</v>
       </c>
       <c r="CG109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>804756.30092226365</v>
       </c>
       <c r="CH109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>812803.86393148627</v>
       </c>
       <c r="CI109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>820931.90257080109</v>
       </c>
       <c r="CJ109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>829141.2215965091</v>
       </c>
       <c r="CK109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>837432.6338124742</v>
       </c>
       <c r="CL109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>845806.9601505989</v>
       </c>
       <c r="CM109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>854265.02975210489</v>
       </c>
       <c r="CN109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>862807.68004962592</v>
       </c>
       <c r="CO109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>871435.75685012224</v>
       </c>
       <c r="CP109" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>880150.1144186235</v>
       </c>
       <c r="CQ109" s="4">
-        <f t="shared" ref="CQ109:DV109" si="60">CP109*(1+$AG$49)</f>
+        <f t="shared" ref="CQ109:DV109" si="62">CP109*(1+$AG$49)</f>
         <v>888951.61556280975</v>
       </c>
       <c r="CR109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>897841.13171843789</v>
       </c>
       <c r="CS109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>906819.54303562222</v>
       </c>
       <c r="CT109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>915887.73846597841</v>
       </c>
       <c r="CU109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>925046.61585063825</v>
       </c>
       <c r="CV109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>934297.08200914459</v>
       </c>
       <c r="CW109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>943640.05282923602</v>
       </c>
       <c r="CX109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>953076.45335752843</v>
       </c>
       <c r="CY109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>962607.2178911037</v>
       </c>
       <c r="CZ109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>972233.29007001477</v>
       </c>
       <c r="DA109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>981955.62297071493</v>
       </c>
       <c r="DB109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>991775.17920042214</v>
       </c>
       <c r="DC109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1001692.9309924264</v>
       </c>
       <c r="DD109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1011709.8603023506</v>
       </c>
       <c r="DE109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1021826.9589053742</v>
       </c>
       <c r="DF109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1032045.2284944279</v>
       </c>
       <c r="DG109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1042365.6807793721</v>
       </c>
       <c r="DH109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1052789.3375871659</v>
       </c>
       <c r="DI109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1063317.2309630376</v>
       </c>
       <c r="DJ109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1073950.4032726679</v>
       </c>
       <c r="DK109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1084689.9073053945</v>
       </c>
       <c r="DL109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1095536.8063784484</v>
       </c>
       <c r="DM109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1106492.1744422328</v>
       </c>
       <c r="DN109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1117557.0961866551</v>
       </c>
       <c r="DO109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1128732.6671485216</v>
       </c>
       <c r="DP109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1140019.993820007</v>
       </c>
       <c r="DQ109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1151420.1937582071</v>
       </c>
       <c r="DR109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1162934.3956957893</v>
       </c>
       <c r="DS109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1174563.7396527471</v>
       </c>
       <c r="DT109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1186309.3770492745</v>
       </c>
       <c r="DU109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1198172.4708197673</v>
       </c>
       <c r="DV109" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>1210154.195527965</v>
       </c>
       <c r="DW109" s="4">
-        <f t="shared" ref="DW109:EC109" si="61">DV109*(1+$AG$49)</f>
+        <f t="shared" ref="DW109:EC109" si="63">DV109*(1+$AG$49)</f>
         <v>1222255.7374832446</v>
       </c>
       <c r="DX109" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1234478.2948580771</v>
       </c>
       <c r="DY109" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1246823.0778066579</v>
       </c>
       <c r="DZ109" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1259291.3085847246</v>
       </c>
       <c r="EA109" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1271884.2216705717</v>
       </c>
       <c r="EB109" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1284603.0638872774</v>
       </c>
       <c r="EC109" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>1297449.0945261503</v>
       </c>
     </row>
@@ -6931,17 +7001,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FE010-09A7-49CF-8E22-77AB92224E7C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="13"/>
+    <col min="2" max="3" width="9.140625" style="13"/>
+    <col min="4" max="4" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -6963,11 +7035,23 @@
         <v>79</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C4" s="13">
+        <v>5</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4A696BB3-0AB0-4B53-8219-D606EFC1494A}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{92129CF1-2945-45C4-8B8A-A1422027972F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F6E890-BDDE-4539-B913-CBD721CB811C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438CE671-2B8C-4E74-BE79-221B4C4BD0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1515" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="1035" yWindow="630" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1739,11 +1739,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140BE28-398D-4CC8-A7C9-E94B6BC720A8}">
   <dimension ref="A1:EU109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="X12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z35" sqref="Z35"/>
+      <selection pane="bottomRight" activeCell="AF24" activeCellId="1" sqref="AF20:AG20 AF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1757,7 +1757,9 @@
     <col min="14" max="14" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="2" customWidth="1"/>
     <col min="16" max="19" width="9.140625" style="2"/>
-    <col min="20" max="30" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="127" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -3110,12 +3112,6 @@
       <c r="V26" s="3"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
@@ -3180,12 +3176,12 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>

--- a/NVDA.xlsx
+++ b/NVDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438CE671-2B8C-4E74-BE79-221B4C4BD0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3F9CAF-AF6F-4936-BCBE-1AA1919B4F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="630" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
+    <workbookView xWindow="1050" yWindow="720" windowWidth="22200" windowHeight="14535" xr2:uid="{A01DB42C-5223-4941-B241-BC5C0C7D8EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -638,16 +638,16 @@
     <t>7. not enough near term AI productivity use-cases to justify investments</t>
   </si>
   <si>
-    <t>Bull Case: AI investing continues and use-cases develop</t>
-  </si>
-  <si>
-    <t>Bear Case: Recession/Macro causes large pullback in investments</t>
-  </si>
-  <si>
-    <t>Base Case: Lack of returns from AI investing causes concerns and pull back</t>
-  </si>
-  <si>
     <t>8. many tasks currently able to be replaced by AI for productivity gain are not worth automating due to the high GPU pricing which would require margins to come down a lot</t>
+  </si>
+  <si>
+    <t>CEO: Jensen Huang</t>
+  </si>
+  <si>
+    <t>Main Problem</t>
+  </si>
+  <si>
+    <t>AI currently hasn't developed better than entry-level automation and for current valuations and future growth it needs to develop but what is the time-frame and will NVDA be dominant by then and does it even matter for NVDA when these companies believe that by increasing spending and compute they can further AI to automate higher-level jobs. So the main question is can NVDA be dominant and sustain margins for a long-enough period for this to develop?</t>
   </si>
 </sst>
 </file>
@@ -657,13 +657,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -837,50 +843,51 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1415,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165FA77-31DD-4330-BECC-4D64D4EAFB80}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1526,59 +1533,66 @@
       <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="E9" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>174</v>
+      </c>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="E10" s="42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="10" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H11" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>75</v>
+      <c r="I13" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>92</v>
+      <c r="I14" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="26" t="s">
-        <v>122</v>
+      <c r="I15" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="I16" s="22" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>47</v>
       </c>
+      <c r="I17" s="26" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -1727,7 +1741,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1739,11 +1753,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2140BE28-398D-4CC8-A7C9-E94B6BC720A8}">
   <dimension ref="A1:EU109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF24" activeCellId="1" sqref="AF20:AG20 AF24"/>
+      <selection pane="bottomRight" activeCell="AF55" sqref="AF55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5219,12 +5233,8 @@
         <f>AG51/Main!K3</f>
         <v>184.54201551757401</v>
       </c>
-      <c r="AI52" s="5">
-        <v>185</v>
-      </c>
-      <c r="AJ52" s="39" t="s">
-        <v>173</v>
-      </c>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="39"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B53" s="17" t="s">
@@ -5283,20 +5293,12 @@
         <f>AG52/Main!K2-1</f>
         <v>8.4263143036831245E-3</v>
       </c>
-      <c r="AI53" s="40">
-        <v>100</v>
-      </c>
-      <c r="AJ53" s="39" t="s">
-        <v>175</v>
-      </c>
+      <c r="AI53" s="40"/>
+      <c r="AJ53" s="39"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="AI54" s="5">
-        <v>70</v>
-      </c>
-      <c r="AJ54" s="39" t="s">
-        <v>174</v>
-      </c>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="39"/>
     </row>
     <row r="55" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
@@ -7001,7 +7003,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
